--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29AA8E3-A69E-1E40-96FE-138F01DE4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EAE548-F636-F842-A7D3-8E3CFEAD2B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49020" yWindow="0" windowWidth="32420" windowHeight="23600" activeTab="4" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="12800" windowHeight="17300" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="489">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1018,9 +1018,6 @@
     <t>location_sampler_type</t>
   </si>
   <si>
-    <t>county_lab_code</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -1400,6 +1397,114 @@
   </si>
   <si>
     <t>Huntington, WV 25755</t>
+  </si>
+  <si>
+    <t>county_id</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +2072,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
@@ -1996,7 +2101,7 @@
         <v>200</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>232</v>
@@ -2008,7 +2113,7 @@
         <v>233</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>234</v>
@@ -2017,7 +2122,7 @@
         <v>235</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>251</v>
@@ -2029,16 +2134,16 @@
         <v>325</v>
       </c>
       <c r="M1" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="18" t="s">
         <v>355</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>356</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>236</v>
@@ -2055,7 +2160,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>60</v>
@@ -2067,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>157</v>
@@ -2087,7 +2192,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>103</v>
@@ -2096,10 +2201,10 @@
         <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" s="2">
         <v>-79.50179</v>
@@ -2118,7 +2223,7 @@
         <v>700</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M3" s="23">
         <v>24</v>
@@ -2130,7 +2235,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>20</v>
@@ -2145,7 +2250,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>60</v>
@@ -2154,10 +2259,10 @@
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="2">
         <v>-81.015979999999999</v>
@@ -2175,7 +2280,7 @@
         <v>2391</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M4" s="23">
         <v>24</v>
@@ -2187,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>20</v>
@@ -2202,7 +2307,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>190</v>
@@ -2211,10 +2316,10 @@
         <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="2">
         <v>-79.936940000000007</v>
@@ -2232,7 +2337,7 @@
         <v>1974</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M5" s="23">
         <v>24</v>
@@ -2240,7 +2345,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>20</v>
@@ -2254,7 +2359,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>190</v>
@@ -2263,10 +2368,10 @@
         <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G6" s="2">
         <v>-80.212010000000006</v>
@@ -2284,7 +2389,7 @@
         <v>400</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M6" s="23">
         <v>24</v>
@@ -2292,7 +2397,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>20</v>
@@ -2307,7 +2412,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>190</v>
@@ -2316,10 +2421,10 @@
         <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G7" s="2">
         <v>-80.258989999999997</v>
@@ -2337,7 +2442,7 @@
         <v>6984</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M7" s="23">
         <v>24</v>
@@ -2345,7 +2450,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>20</v>
@@ -2360,7 +2465,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>60</v>
@@ -2372,7 +2477,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G8" s="2">
         <v>-79.905010000000004</v>
@@ -2390,7 +2495,7 @@
         <v>579</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M8" s="24">
         <v>8</v>
@@ -2398,7 +2503,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>20</v>
@@ -2413,7 +2518,7 @@
         <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>60</v>
@@ -2422,10 +2527,10 @@
         <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="2">
         <v>-82.285698770801503</v>
@@ -2434,7 +2539,7 @@
         <v>38.414946823509098</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>157</v>
@@ -2443,7 +2548,7 @@
         <v>4000</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M9" s="24">
         <v>8.3333329999999997E-2</v>
@@ -2472,7 +2577,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>190</v>
@@ -2481,10 +2586,10 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G10" s="2">
         <v>-80.567440000000005</v>
@@ -2502,7 +2607,7 @@
         <v>1340</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M10" s="23">
         <v>24</v>
@@ -2514,7 +2619,7 @@
         <v>30</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>20</v>
@@ -2529,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>103</v>
@@ -2538,10 +2643,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="2">
         <v>-81.677679999999995</v>
@@ -2559,7 +2664,7 @@
         <v>50000</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M11" s="23">
         <v>24</v>
@@ -2567,7 +2672,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>20</v>
@@ -2582,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>103</v>
@@ -2591,10 +2696,10 @@
         <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G12" s="2">
         <v>-77.855890000000002</v>
@@ -2612,7 +2717,7 @@
         <v>17000</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M12" s="23">
         <v>24</v>
@@ -2620,7 +2725,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>20</v>
@@ -2635,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>60</v>
@@ -2647,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="2">
         <v>-79.867609999999999</v>
@@ -2665,7 +2770,7 @@
         <v>830</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M13" s="24">
         <v>8</v>
@@ -2673,7 +2778,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>20</v>
@@ -2688,7 +2793,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>103</v>
@@ -2697,10 +2802,10 @@
         <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G14" s="2">
         <v>-79.856999999999999</v>
@@ -2718,7 +2823,7 @@
         <v>2000</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M14" s="23">
         <v>24</v>
@@ -2730,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>20</v>
@@ -2745,7 +2850,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>103</v>
@@ -2754,10 +2859,10 @@
         <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G15" s="2">
         <v>-80.338570000000004</v>
@@ -2775,7 +2880,7 @@
         <v>26498</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M15" s="23">
         <v>24</v>
@@ -2783,7 +2888,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>20</v>
@@ -2798,7 +2903,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>60</v>
@@ -2810,7 +2915,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G16" s="2">
         <v>-79.945801900000006</v>
@@ -2828,7 +2933,7 @@
         <v>567</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M16" s="24">
         <v>48</v>
@@ -2840,7 +2945,7 @@
         <v>30</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>20</v>
@@ -2857,7 +2962,7 @@
         <v>188</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>60</v>
@@ -2869,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2894,7 +2999,7 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>60</v>
@@ -2903,10 +3008,10 @@
         <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G18" s="2">
         <v>-81.679554234298493</v>
@@ -2915,7 +3020,7 @@
         <v>38.373735533484897</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>1</v>
@@ -2924,7 +3029,7 @@
         <v>49500</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M18" s="23">
         <v>24</v>
@@ -2932,7 +3037,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>20</v>
@@ -2947,7 +3052,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>60</v>
@@ -2959,7 +3064,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G19" s="2">
         <v>-79.953093199999998</v>
@@ -2977,7 +3082,7 @@
         <v>639</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M19" s="24">
         <v>48</v>
@@ -2989,7 +3094,7 @@
         <v>30</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>20</v>
@@ -3006,7 +3111,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>60</v>
@@ -3018,7 +3123,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="2">
         <v>-80.000420899999995</v>
@@ -3036,7 +3141,7 @@
         <v>912</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M20" s="24">
         <v>48</v>
@@ -3048,7 +3153,7 @@
         <v>30</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>20</v>
@@ -3065,7 +3170,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>60</v>
@@ -3074,10 +3179,10 @@
         <v>164</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" s="2">
         <v>-81.758709180509001</v>
@@ -3086,7 +3191,7 @@
         <v>38.368519014596998</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>1</v>
@@ -3095,7 +3200,7 @@
         <v>9000</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M21" s="23">
         <v>24</v>
@@ -3107,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>20</v>
@@ -3121,7 +3226,7 @@
         <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>103</v>
@@ -3130,10 +3235,10 @@
         <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G22" s="2">
         <v>-79.865430000000003</v>
@@ -3151,7 +3256,7 @@
         <v>13156</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M22" s="23">
         <v>24</v>
@@ -3163,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>20</v>
@@ -3178,7 +3283,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>103</v>
@@ -3187,10 +3292,10 @@
         <v>138</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G23" s="2">
         <v>-79.972157499999994</v>
@@ -3208,7 +3313,7 @@
         <v>324</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M23" s="24">
         <v>48</v>
@@ -3220,7 +3325,7 @@
         <v>30</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>20</v>
@@ -3237,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>60</v>
@@ -3249,7 +3354,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G24" s="2">
         <v>-79.956234100000003</v>
@@ -3267,7 +3372,7 @@
         <v>324</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M24" s="24">
         <v>48</v>
@@ -3279,7 +3384,7 @@
         <v>30</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>20</v>
@@ -3296,7 +3401,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>60</v>
@@ -3308,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G25" s="2">
         <v>-79.956204600000007</v>
@@ -3326,7 +3431,7 @@
         <v>324</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M25" s="24">
         <v>48</v>
@@ -3338,7 +3443,7 @@
         <v>30</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>20</v>
@@ -3355,7 +3460,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>190</v>
@@ -3364,10 +3469,10 @@
         <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G26" s="2">
         <v>-80.124449999999996</v>
@@ -3385,7 +3490,7 @@
         <v>25525</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M26" s="23">
         <v>24</v>
@@ -3397,7 +3502,7 @@
         <v>30</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>20</v>
@@ -3412,7 +3517,7 @@
         <v>109</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>103</v>
@@ -3421,10 +3526,10 @@
         <v>116</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G27" s="2">
         <v>-80.24933</v>
@@ -3442,7 +3547,7 @@
         <v>610</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M27" s="23">
         <v>24</v>
@@ -3454,7 +3559,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>20</v>
@@ -3469,7 +3574,7 @@
         <v>111</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>60</v>
@@ -3478,10 +3583,10 @@
         <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G28" s="2">
         <v>-80.598290000000006</v>
@@ -3499,7 +3604,7 @@
         <v>6468</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M28" s="23">
         <v>24</v>
@@ -3511,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>20</v>
@@ -3526,7 +3631,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>103</v>
@@ -3535,10 +3640,10 @@
         <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G29" s="2">
         <v>-80.018370000000004</v>
@@ -3556,7 +3661,7 @@
         <v>6071</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M29" s="23">
         <v>24</v>
@@ -3564,7 +3669,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>20</v>
@@ -3579,7 +3684,7 @@
         <v>244</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>60</v>
@@ -3591,7 +3696,7 @@
         <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G30" s="2">
         <v>-79.515240000000006</v>
@@ -3626,7 +3731,7 @@
         <v>201</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>103</v>
@@ -3638,7 +3743,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G31" s="2">
         <v>-79.956762600000005</v>
@@ -3656,7 +3761,7 @@
         <v>874</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M31" s="24">
         <v>48</v>
@@ -3668,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>20</v>
@@ -3685,7 +3790,7 @@
         <v>175</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>60</v>
@@ -3694,10 +3799,10 @@
         <v>160</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G32" s="2">
         <v>-82.006959612418996</v>
@@ -3706,7 +3811,7 @@
         <v>38.446524084559897</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>161</v>
@@ -3715,7 +3820,7 @@
         <v>28759</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M32" s="23">
         <v>72</v>
@@ -3727,7 +3832,7 @@
         <v>20</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>20</v>
@@ -3742,7 +3847,7 @@
         <v>172</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>60</v>
@@ -3751,10 +3856,10 @@
         <v>155</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G33" s="2">
         <v>-82.528864034905197</v>
@@ -3763,7 +3868,7 @@
         <v>38.400744931017101</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>191</v>
@@ -3772,7 +3877,7 @@
         <v>56000</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M33" s="23">
         <v>24</v>
@@ -3784,7 +3889,7 @@
         <v>20</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>20</v>
@@ -3799,7 +3904,7 @@
         <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>103</v>
@@ -3808,10 +3913,10 @@
         <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G34" s="2">
         <v>-79.978949999999998</v>
@@ -3829,7 +3934,7 @@
         <v>2101</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M34" s="23">
         <v>24</v>
@@ -3841,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>20</v>
@@ -3856,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>103</v>
@@ -3865,10 +3970,10 @@
         <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G35" s="2">
         <v>-78.975080000000005</v>
@@ -3886,7 +3991,7 @@
         <v>8168</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M35" s="23">
         <v>24</v>
@@ -3898,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>20</v>
@@ -3913,7 +4018,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>60</v>
@@ -3925,7 +4030,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G36" s="2">
         <v>-79.955122099999997</v>
@@ -3943,7 +4048,7 @@
         <v>324</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M36" s="24">
         <v>48</v>
@@ -3955,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>20</v>
@@ -3972,7 +4077,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>60</v>
@@ -3984,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G37" s="2">
         <v>-79.955245399999995</v>
@@ -4002,7 +4107,7 @@
         <v>324</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M37" s="24">
         <v>48</v>
@@ -4014,7 +4119,7 @@
         <v>30</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>20</v>
@@ -4031,7 +4136,7 @@
         <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>103</v>
@@ -4040,10 +4145,10 @@
         <v>154</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G38" s="2">
         <v>-81.847288800000001</v>
@@ -4061,7 +4166,7 @@
         <v>4555</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M38" s="23">
         <v>24</v>
@@ -4073,7 +4178,7 @@
         <v>20</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>20</v>
@@ -4088,7 +4193,7 @@
         <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>103</v>
@@ -4097,10 +4202,10 @@
         <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G39" s="2">
         <v>-80.323710000000005</v>
@@ -4118,7 +4223,7 @@
         <v>1091</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M39" s="23">
         <v>24</v>
@@ -4130,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>20</v>
@@ -4145,7 +4250,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>60</v>
@@ -4157,7 +4262,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G40" s="2">
         <v>-79.957359999999994</v>
@@ -4175,7 +4280,7 @@
         <v>1851</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M40" s="24">
         <v>8</v>
@@ -4183,7 +4288,7 @@
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
       <c r="P40" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>20</v>
@@ -4198,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>103</v>
@@ -4207,10 +4312,10 @@
         <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G41" s="2">
         <v>-80.754930000000002</v>
@@ -4228,7 +4333,7 @@
         <v>12000</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M41" s="23">
         <v>24</v>
@@ -4236,7 +4341,7 @@
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
       <c r="P41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>20</v>
@@ -4251,7 +4356,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>60</v>
@@ -4263,7 +4368,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G42" s="2">
         <v>-79.943309999999997</v>
@@ -4281,7 +4386,7 @@
         <v>726</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M42" s="24">
         <v>8</v>
@@ -4289,7 +4394,7 @@
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
       <c r="P42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>20</v>
@@ -4303,7 +4408,7 @@
         <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>103</v>
@@ -4315,7 +4420,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G43" s="2">
         <v>-79.965769100000003</v>
@@ -4333,7 +4438,7 @@
         <v>324</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M43" s="24">
         <v>48</v>
@@ -4345,7 +4450,7 @@
         <v>30</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>20</v>
@@ -4362,7 +4467,7 @@
         <v>165</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>60</v>
@@ -4371,10 +4476,10 @@
         <v>166</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G44" s="2">
         <v>-82.451303840583293</v>
@@ -4383,7 +4488,7 @@
         <v>38.343336164586603</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>167</v>
@@ -4392,7 +4497,7 @@
         <v>1600</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M44" s="23">
         <v>24</v>
@@ -4404,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>20</v>
@@ -4421,7 +4526,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>60</v>
@@ -4433,7 +4538,7 @@
         <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G45" s="2">
         <v>-79.956739999999996</v>
@@ -4451,7 +4556,7 @@
         <v>688</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M45" s="24">
         <v>8</v>
@@ -4459,7 +4564,7 @@
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
       <c r="P45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>20</v>
@@ -4470,10 +4575,10 @@
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>103</v>
@@ -4485,7 +4590,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G46" s="2">
         <v>-79.953202899999994</v>
@@ -4503,7 +4608,7 @@
         <v>324</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M46" s="24">
         <v>48</v>
@@ -4515,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>20</v>
@@ -4532,7 +4637,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>103</v>
@@ -4544,7 +4649,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G47" s="2">
         <v>-79.962211800000006</v>
@@ -4562,7 +4667,7 @@
         <v>862</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M47" s="24">
         <v>48</v>
@@ -4574,7 +4679,7 @@
         <v>30</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>20</v>
@@ -4591,7 +4696,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>103</v>
@@ -4600,10 +4705,10 @@
         <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G48" s="2">
         <v>-81.557389999999998</v>
@@ -4621,7 +4726,7 @@
         <v>48050</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M48" s="23">
         <v>24</v>
@@ -4629,7 +4734,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
       <c r="P48" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>20</v>
@@ -4643,7 +4748,7 @@
         <v>169</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>60</v>
@@ -4652,10 +4757,10 @@
         <v>170</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G49" s="2">
         <v>-82.287563960345196</v>
@@ -4664,7 +4769,7 @@
         <v>38.572623654172197</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>157</v>
@@ -4673,7 +4778,7 @@
         <v>1000</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M49" s="23">
         <v>24</v>
@@ -4685,7 +4790,7 @@
         <v>20</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>20</v>
@@ -4702,7 +4807,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>60</v>
@@ -4711,10 +4816,10 @@
         <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G50" s="2">
         <v>-79.127250000000004</v>
@@ -4732,7 +4837,7 @@
         <v>2700</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M50" s="23">
         <v>24</v>
@@ -4740,7 +4845,7 @@
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>20</v>
@@ -4754,7 +4859,7 @@
         <v>197</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>103</v>
@@ -4763,10 +4868,10 @@
         <v>198</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G51" s="2">
         <v>-82.135114799999997</v>
@@ -4784,7 +4889,7 @@
         <v>5515</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M51" s="23">
         <v>24</v>
@@ -4796,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>20</v>
@@ -4810,7 +4915,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>190</v>
@@ -4822,7 +4927,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G52" s="2">
         <v>-78.98272</v>
@@ -4840,7 +4945,7 @@
         <v>1193</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M52" s="24">
         <v>48</v>
@@ -4852,7 +4957,7 @@
         <v>30</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>20</v>
@@ -4866,7 +4971,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>103</v>
@@ -4875,10 +4980,10 @@
         <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G53" s="2">
         <v>-81.079930000000004</v>
@@ -4896,7 +5001,7 @@
         <v>36000</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M53" s="23">
         <v>24</v>
@@ -4908,7 +5013,7 @@
         <v>20</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>20</v>
@@ -4922,7 +5027,7 @@
         <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>60</v>
@@ -4931,10 +5036,10 @@
         <v>163</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G54" s="2">
         <v>-82.298209254857795</v>
@@ -4943,7 +5048,7 @@
         <v>38.419661908139098</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>157</v>
@@ -4952,7 +5057,7 @@
         <v>7000</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M54" s="23">
         <v>24</v>
@@ -4964,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>20</v>
@@ -4978,7 +5083,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>103</v>
@@ -4987,10 +5092,10 @@
         <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G55" s="2">
         <v>-80.545150000000007</v>
@@ -5008,7 +5113,7 @@
         <v>1853</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M55" s="23">
         <v>24</v>
@@ -5020,7 +5125,7 @@
         <v>20</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>20</v>
@@ -5034,7 +5139,7 @@
         <v>193</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>103</v>
@@ -5046,7 +5151,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G56" s="2">
         <v>-79.956140000000005</v>
@@ -5064,7 +5169,7 @@
         <v>474</v>
       </c>
       <c r="L56" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M56" s="24">
         <v>48</v>
@@ -5076,7 +5181,7 @@
         <v>30</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>20</v>
@@ -5093,7 +5198,7 @@
         <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>190</v>
@@ -5102,10 +5207,10 @@
         <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -5119,7 +5224,7 @@
         <v>1800</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M57" s="23">
         <v>24</v>
@@ -5127,7 +5232,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
       <c r="P57" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>20</v>
@@ -5140,7 +5245,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>60</v>
@@ -5149,10 +5254,10 @@
         <v>179</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G58" s="2">
         <v>-82.105144999999993</v>
@@ -5161,7 +5266,7 @@
         <v>38.425437000000002</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>157</v>
@@ -5170,7 +5275,7 @@
         <v>7200</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M58" s="23">
         <v>24</v>
@@ -5182,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>20</v>
@@ -5199,7 +5304,7 @@
         <v>176</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>60</v>
@@ -5208,10 +5313,10 @@
         <v>177</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G59" s="2">
         <v>-82.244877751268803</v>
@@ -5220,7 +5325,7 @@
         <v>38.372162360135</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>157</v>
@@ -5229,7 +5334,7 @@
         <v>4050</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M59" s="23">
         <v>24</v>
@@ -5241,7 +5346,7 @@
         <v>20</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>20</v>
@@ -5258,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>103</v>
@@ -5267,10 +5372,10 @@
         <v>137</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G60" s="2">
         <v>-79.992055399999998</v>
@@ -5288,7 +5393,7 @@
         <v>48328</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M60" s="23">
         <v>24</v>
@@ -5296,7 +5401,7 @@
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
       <c r="P60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>20</v>
@@ -5311,7 +5416,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>60</v>
@@ -5320,10 +5425,10 @@
         <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G61" s="2">
         <v>-81.205110000000005</v>
@@ -5341,7 +5446,7 @@
         <v>2892</v>
       </c>
       <c r="L61" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M61" s="23">
         <v>24</v>
@@ -5353,7 +5458,7 @@
         <v>20</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>20</v>
@@ -5368,7 +5473,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>60</v>
@@ -5380,7 +5485,7 @@
         <v>34</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G62" s="2">
         <v>-79.978250000000003</v>
@@ -5398,7 +5503,7 @@
         <v>515</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M62" s="24">
         <v>8</v>
@@ -5406,7 +5511,7 @@
       <c r="N62" s="24"/>
       <c r="O62" s="24"/>
       <c r="P62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>20</v>
@@ -5421,7 +5526,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>103</v>
@@ -5433,7 +5538,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G63" s="2">
         <v>-79.966336100000007</v>
@@ -5451,7 +5556,7 @@
         <v>904</v>
       </c>
       <c r="L63" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M63" s="24">
         <v>48</v>
@@ -5463,7 +5568,7 @@
         <v>30</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>20</v>
@@ -5480,7 +5585,7 @@
         <v>184</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>60</v>
@@ -5492,7 +5597,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -5517,7 +5622,7 @@
         <v>186</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>60</v>
@@ -5529,7 +5634,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -5554,7 +5659,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>60</v>
@@ -5566,7 +5671,7 @@
         <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G66" s="2">
         <v>-79.926150000000007</v>
@@ -5584,7 +5689,7 @@
         <v>1310</v>
       </c>
       <c r="L66" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M66" s="24">
         <v>8</v>
@@ -5592,7 +5697,7 @@
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
       <c r="P66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>20</v>
@@ -5607,7 +5712,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>103</v>
@@ -5619,7 +5724,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G67" s="2">
         <v>-79.956755900000005</v>
@@ -5637,7 +5742,7 @@
         <v>324</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M67" s="24">
         <v>48</v>
@@ -5649,7 +5754,7 @@
         <v>30</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>20</v>
@@ -5666,7 +5771,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>190</v>
@@ -5675,10 +5780,10 @@
         <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G68" s="2">
         <v>-78.226619999999997</v>
@@ -5696,7 +5801,7 @@
         <v>3255</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M68" s="23">
         <v>24</v>
@@ -5704,7 +5809,7 @@
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
       <c r="P68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>20</v>
@@ -5719,7 +5824,7 @@
         <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>190</v>
@@ -5728,10 +5833,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -5745,7 +5850,7 @@
         <v>20411</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M69" s="23">
         <v>24</v>
@@ -5753,7 +5858,7 @@
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
       <c r="P69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>20</v>
@@ -5766,7 +5871,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>103</v>
@@ -5775,10 +5880,10 @@
         <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G70" s="2">
         <v>-80.459909999999994</v>
@@ -5796,7 +5901,7 @@
         <v>10364</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M70" s="23">
         <v>24</v>
@@ -5808,7 +5913,7 @@
         <v>20</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>20</v>
@@ -5823,7 +5928,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>60</v>
@@ -5835,7 +5940,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G71" s="2">
         <v>-79.925397000000004</v>
@@ -5853,7 +5958,7 @@
         <v>324</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M71" s="24">
         <v>48</v>
@@ -5865,7 +5970,7 @@
         <v>30</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>20</v>
@@ -5882,7 +5987,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>103</v>
@@ -5891,10 +5996,10 @@
         <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G72" s="2">
         <v>-80.778989999999993</v>
@@ -5912,7 +6017,7 @@
         <v>564</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M72" s="23">
         <v>24</v>
@@ -5924,7 +6029,7 @@
         <v>20</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>20</v>
@@ -5939,7 +6044,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>103</v>
@@ -5948,10 +6053,10 @@
         <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G73" s="2">
         <v>-80.72757</v>
@@ -5969,7 +6074,7 @@
         <v>50000</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M73" s="23">
         <v>24</v>
@@ -5977,7 +6082,7 @@
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
       <c r="P73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>20</v>
@@ -5992,7 +6097,7 @@
         <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>190</v>
@@ -6001,10 +6106,10 @@
         <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G74" s="2">
         <v>-80.260360000000006</v>
@@ -6022,7 +6127,7 @@
         <v>2742</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M74" s="23">
         <v>24</v>
@@ -6034,7 +6139,7 @@
         <v>30</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>20</v>
@@ -6056,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
@@ -6211,10 +6316,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
@@ -6329,10 +6434,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
@@ -6348,10 +6453,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
@@ -6485,13 +6590,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>371</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>191</v>
@@ -6677,10 +6782,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
@@ -6696,10 +6801,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
@@ -6753,10 +6858,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
@@ -6772,10 +6877,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
@@ -6947,10 +7052,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>157</v>
@@ -6975,767 +7080,837 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:D56"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="B2" s="26">
         <v>54061</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27">
+      <c r="D2" s="27">
         <v>105612</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="B3" s="26">
         <v>54039</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="D3" s="29">
         <v>183279</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="B4" s="26">
         <v>54069</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27">
+      <c r="D4" s="27">
         <v>41411</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="B5" s="26">
         <v>54037</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27">
+      <c r="D5" s="27">
         <v>57146</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="B6" s="26">
         <v>54055</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27">
+      <c r="D6" s="27">
         <v>58758</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="B7" s="26">
         <v>54041</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27">
+      <c r="D7" s="27">
         <v>16166</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="B8" s="26">
         <v>54057</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27">
+      <c r="D8" s="27">
         <v>26868</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="B9" s="26">
         <v>54051</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27">
+      <c r="D9" s="27">
         <v>30531</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="B10" s="26">
         <v>54065</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27">
+      <c r="D10" s="27">
         <v>17884</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="B11" s="26">
         <v>54077</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="27">
+      <c r="D11" s="27">
         <v>33432</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="B12" s="26">
         <v>54107</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="27">
+      <c r="D12" s="27">
         <v>83518</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="B13" s="26">
         <v>54017</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="C13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="27">
+      <c r="D13" s="27">
         <v>8448</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="B14" s="26">
         <v>54049</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="27">
+      <c r="D14" s="27">
         <v>56072</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="B15" s="26">
         <v>54033</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="27">
+      <c r="D15" s="27">
         <v>67256</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="B16" s="26">
         <v>54091</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="27">
+      <c r="D16" s="27">
         <v>16695</v>
       </c>
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="B17" s="26">
         <v>54073</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="27">
+      <c r="D17" s="27">
         <v>7482</v>
       </c>
-      <c r="D17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="B18" s="26">
         <v>54005</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="27">
+      <c r="D18" s="27">
         <v>21809</v>
       </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="B19" s="26">
         <v>54083</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="27">
+      <c r="D19" s="27">
         <v>28695</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="B20" s="26">
         <v>54009</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="C20" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="27">
+      <c r="D20" s="27">
         <v>21939</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="B21" s="26">
         <v>54053</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="27">
+      <c r="D21" s="27">
         <v>26700</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+      <c r="A22" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" s="26">
         <v>54001</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="27">
+      <c r="D22" s="27">
         <v>16633</v>
       </c>
-      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+      <c r="A23" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" s="26">
         <v>54003</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="C23" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="27">
+      <c r="D23" s="27">
         <v>126069</v>
       </c>
-      <c r="D23" s="4"/>
       <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="A24" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="26">
         <v>54007</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="C24" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="27">
+      <c r="D24" s="27">
         <v>12247</v>
       </c>
-      <c r="D24" s="4"/>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="A25" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" s="26">
         <v>54011</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="C25" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="29">
+      <c r="D25" s="29">
         <v>96319</v>
       </c>
-      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+      <c r="A26" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" s="26">
         <v>54013</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="C26" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="27">
+      <c r="D26" s="27">
         <v>6176</v>
       </c>
-      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+      <c r="A27" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B27" s="26">
         <v>54015</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="C27" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="27">
+      <c r="D27" s="27">
         <v>7892</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+      <c r="A28" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B28" s="26">
         <v>54019</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="C28" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="27">
+      <c r="D28" s="27">
         <v>39927</v>
       </c>
-      <c r="D28" s="4"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+      <c r="A29" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" s="26">
         <v>54021</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="27">
+      <c r="D29" s="27">
         <v>7377</v>
       </c>
-      <c r="D29" s="4"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+      <c r="A30" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B30" s="26">
         <v>54023</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="27">
+      <c r="D30" s="27">
         <v>11616</v>
       </c>
-      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+      <c r="A31" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" s="26">
         <v>54025</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="C31" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C31" s="27">
+      <c r="D31" s="27">
         <v>32608</v>
       </c>
-      <c r="D31" s="4"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="26">
+      <c r="A32" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B32" s="26">
         <v>54027</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="C32" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="27">
+      <c r="D32" s="27">
         <v>23302</v>
       </c>
-      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="26">
+      <c r="A33" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B33" s="26">
         <v>54029</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="C33" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="27">
+      <c r="D33" s="27">
         <v>28656</v>
       </c>
-      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="26">
+      <c r="A34" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B34" s="26">
         <v>54031</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="27">
+      <c r="D34" s="27">
         <v>14160</v>
       </c>
-      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="26">
+      <c r="A35" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35" s="26">
         <v>54035</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="C35" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="27">
+      <c r="D35" s="27">
         <v>27738</v>
       </c>
-      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="26">
+      <c r="A36" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B36" s="26">
         <v>54043</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="C36" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="27">
+      <c r="D36" s="27">
         <v>20126</v>
       </c>
-      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="26">
+      <c r="A37" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B37" s="26">
         <v>54045</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="C37" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="27">
+      <c r="D37" s="27">
         <v>31909</v>
       </c>
-      <c r="D37" s="4"/>
       <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="26">
+      <c r="A38" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B38" s="26">
         <v>54047</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="C38" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="27">
+      <c r="D38" s="27">
         <v>18363</v>
       </c>
-      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="26">
+      <c r="A39" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" s="26">
         <v>54059</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="C39" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="27">
+      <c r="D39" s="27">
         <v>23005</v>
       </c>
-      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="26">
+      <c r="A40" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B40" s="26">
         <v>54063</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="C40" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="27">
+      <c r="D40" s="27">
         <v>12332</v>
       </c>
-      <c r="D40" s="4"/>
       <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="26">
+      <c r="A41" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="26">
         <v>54067</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="C41" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="27">
+      <c r="D41" s="27">
         <v>24300</v>
       </c>
-      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="26">
+      <c r="A42" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" s="26">
         <v>54071</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="C42" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="27">
+      <c r="D42" s="27">
         <v>6142</v>
       </c>
-      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="26">
+      <c r="A43" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B43" s="26">
         <v>54075</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="C43" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C43" s="27">
+      <c r="D43" s="27">
         <v>7841</v>
       </c>
-      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="26">
+      <c r="A44" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B44" s="26">
         <v>54079</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="C44" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="29">
+      <c r="D44" s="29">
         <v>55486</v>
       </c>
-      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="26">
+      <c r="A45" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B45" s="26">
         <v>54081</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="C45" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="27">
+      <c r="D45" s="27">
         <v>73771</v>
       </c>
-      <c r="D45" s="4"/>
       <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="26">
+      <c r="A46" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B46" s="26">
         <v>54085</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="C46" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="27">
+      <c r="D46" s="27">
         <v>8383</v>
       </c>
-      <c r="D46" s="4"/>
       <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="26">
+      <c r="A47" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B47" s="26">
         <v>54087</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="C47" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="27">
+      <c r="D47" s="27">
         <v>13898</v>
       </c>
-      <c r="D47" s="4"/>
       <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="26">
+      <c r="A48" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B48" s="26">
         <v>54089</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="C48" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="27">
+      <c r="D48" s="27">
         <v>11908</v>
       </c>
-      <c r="D48" s="4"/>
       <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="26">
+      <c r="A49" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="26">
         <v>54093</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="C49" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="27">
+      <c r="D49" s="27">
         <v>6672</v>
       </c>
-      <c r="D49" s="4"/>
       <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="26">
+      <c r="A50" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B50" s="26">
         <v>54095</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="C50" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="27">
+      <c r="D50" s="27">
         <v>8811</v>
       </c>
-      <c r="D50" s="4"/>
       <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="26">
+      <c r="A51" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B51" s="26">
         <v>54097</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="C51" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="27">
+      <c r="D51" s="27">
         <v>23791</v>
       </c>
-      <c r="D51" s="4"/>
       <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="26">
+      <c r="A52" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B52" s="26">
         <v>54099</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="C52" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="29">
+      <c r="D52" s="29">
         <v>42481</v>
       </c>
-      <c r="D52" s="4"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="26">
+      <c r="A53" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B53" s="26">
         <v>54101</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="C53" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="27">
+      <c r="D53" s="27">
         <v>8249</v>
       </c>
-      <c r="D53" s="4"/>
       <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="26">
+      <c r="A54" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B54" s="26">
         <v>54103</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="C54" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="27">
+      <c r="D54" s="27">
         <v>14170</v>
       </c>
-      <c r="D54" s="4"/>
       <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="26">
+      <c r="A55" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B55" s="26">
         <v>54105</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="C55" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="27">
+      <c r="D55" s="27">
         <v>5063</v>
       </c>
-      <c r="D55" s="4"/>
       <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="26">
+      <c r="A56" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B56" s="26">
         <v>54109</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="27">
+      <c r="D56" s="27">
         <v>21051</v>
       </c>
-      <c r="D56" s="4"/>
       <c r="E56" s="28"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="4"/>
+      <c r="A57" s="4"/>
       <c r="E57" s="28"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -7751,13 +7926,12 @@
       <c r="E61" s="28"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D62" s="10"/>
+      <c r="A62" s="10"/>
       <c r="E62" s="31"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D56">
-    <sortCondition ref="D2:D56"/>
-    <sortCondition ref="B2:B56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D56">
+    <sortCondition ref="C2:C56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7767,9 +7941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7784,279 +7958,279 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>388</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>392</v>
-      </c>
       <c r="F2" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>394</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>397</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>423</v>
-      </c>
       <c r="C5" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>438</v>
-      </c>
       <c r="D6" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>392</v>
-      </c>
       <c r="F6" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D7" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>392</v>
-      </c>
       <c r="F7" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>403</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>406</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D10" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>406</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="E12" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>411</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>429</v>
-      </c>
       <c r="C13" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>392</v>
-      </c>
       <c r="F13" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="C14" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>436</v>
-      </c>
       <c r="E14" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>324</v>
@@ -8064,59 +8238,59 @@
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="E15" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="F15" s="36" t="s">
         <v>415</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>418</v>
-      </c>
       <c r="F16" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="E17" s="36" t="s">
         <v>420</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>421</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>324</v>
@@ -8131,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D3376-E2B9-1B45-B67A-A3F205C129CA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8146,53 +8320,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>444</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
         <v>446</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>447</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>448</v>
-      </c>
-      <c r="E2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
         <v>450</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>451</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>452</v>
-      </c>
-      <c r="E3" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EAE548-F636-F842-A7D3-8E3CFEAD2B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF8BDE-1FF6-504D-92D2-25298841E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="12800" windowHeight="17300" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="502">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1505,6 +1505,45 @@
   </si>
   <si>
     <t>CCC</t>
+  </si>
+  <si>
+    <t>StadiumSW-01</t>
+  </si>
+  <si>
+    <t>WVU Stadium SW</t>
+  </si>
+  <si>
+    <t>StadiumNW-01</t>
+  </si>
+  <si>
+    <t>WVU Stadium NW</t>
+  </si>
+  <si>
+    <t>StadiumNE-01</t>
+  </si>
+  <si>
+    <t>WVU Stadium NE</t>
+  </si>
+  <si>
+    <t>StadiumSE-01</t>
+  </si>
+  <si>
+    <t>WVU Stadium SE</t>
+  </si>
+  <si>
+    <t>Coliseum-01</t>
+  </si>
+  <si>
+    <t>WVU Coliseum</t>
+  </si>
+  <si>
+    <t>WhiteOakWWTP-01</t>
+  </si>
+  <si>
+    <t>White Oak</t>
+  </si>
+  <si>
+    <t>White Oak WWTP</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1632,8 +1671,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1652,6 +1703,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1666,7 +1723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1749,6 +1806,23 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2069,18 +2143,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.1640625" customWidth="1"/>
@@ -3717,7 +3792,9 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="Q30" s="2" t="s">
         <v>20</v>
       </c>
@@ -6148,6 +6225,308 @@
         <v>26591</v>
       </c>
       <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="I75" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M75" s="41">
+        <v>12</v>
+      </c>
+      <c r="N75" s="23">
+        <v>25</v>
+      </c>
+      <c r="O75" s="23">
+        <v>30</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="39">
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G76" s="40"/>
+      <c r="I76" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M76" s="41">
+        <v>12</v>
+      </c>
+      <c r="N76" s="23">
+        <v>25</v>
+      </c>
+      <c r="O76" s="23">
+        <v>30</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="39">
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="I77" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M77" s="41">
+        <v>12</v>
+      </c>
+      <c r="N77" s="23">
+        <v>25</v>
+      </c>
+      <c r="O77" s="23">
+        <v>30</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="39">
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G78" s="40"/>
+      <c r="I78" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M78" s="41">
+        <v>12</v>
+      </c>
+      <c r="N78" s="23">
+        <v>25</v>
+      </c>
+      <c r="O78" s="23">
+        <v>30</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="39">
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G79">
+        <v>-79.985057699999999</v>
+      </c>
+      <c r="H79">
+        <v>39.648165400000003</v>
+      </c>
+      <c r="I79" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M79" s="8">
+        <v>8</v>
+      </c>
+      <c r="N79" s="23">
+        <v>25</v>
+      </c>
+      <c r="O79" s="23">
+        <v>30</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="39">
+        <v>26505</v>
+      </c>
+      <c r="S79" s="38"/>
+    </row>
+    <row r="80" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" s="14">
+        <v>-81.1824412</v>
+      </c>
+      <c r="H80" s="14">
+        <v>37.946477700000003</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K80" s="44">
+        <v>2626</v>
+      </c>
+      <c r="L80" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M80" s="15">
+        <v>24</v>
+      </c>
+      <c r="N80" s="15">
+        <v>25</v>
+      </c>
+      <c r="O80" s="15">
+        <v>30</v>
+      </c>
+      <c r="P80" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q80" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="26">
+        <v>25917</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S74">
@@ -6159,11 +6538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6818,7 +7197,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>275</v>
       </c>
@@ -6837,7 +7216,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>276</v>
       </c>
@@ -6856,7 +7235,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>379</v>
       </c>
@@ -6875,7 +7254,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>380</v>
       </c>
@@ -6894,7 +7273,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>240</v>
       </c>
@@ -6917,7 +7296,7 @@
         <v>48328</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>277</v>
       </c>
@@ -6936,7 +7315,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>278</v>
       </c>
@@ -6955,7 +7334,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>279</v>
       </c>
@@ -6974,7 +7353,7 @@
         <v>20411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>280</v>
       </c>
@@ -6993,7 +7372,7 @@
         <v>10364</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>281</v>
       </c>
@@ -7012,7 +7391,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>282</v>
       </c>
@@ -7031,7 +7410,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>283</v>
       </c>
@@ -7050,7 +7429,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>363</v>
       </c>
@@ -7066,6 +7445,34 @@
       <c r="G45" s="8">
         <v>1000</v>
       </c>
+    </row>
+    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="43">
+        <v>54001022001</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="44">
+        <v>2626</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+      <c r="J46"/>
+      <c r="K46" s="1"/>
+      <c r="L46"/>
+      <c r="M46" s="2"/>
+      <c r="U46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G47">
@@ -7080,7 +7487,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7941,7 +8348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
@@ -8305,8 +8712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D3376-E2B9-1B45-B67A-A3F205C129CA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF8BDE-1FF6-504D-92D2-25298841E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29954D95-FB38-004F-B34D-63A3010F0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="6700" yWindow="1160" windowWidth="20580" windowHeight="17180" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="563">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1544,6 +1544,189 @@
   </si>
   <si>
     <t>White Oak WWTP</t>
+  </si>
+  <si>
+    <t>wwtp_epaid_id</t>
+  </si>
+  <si>
+    <t>WV0086665</t>
+  </si>
+  <si>
+    <t>WV0020338</t>
+  </si>
+  <si>
+    <t>WVR030006</t>
+  </si>
+  <si>
+    <t>WV0022349</t>
+  </si>
+  <si>
+    <t>WV0083071</t>
+  </si>
+  <si>
+    <t>WV0023302</t>
+  </si>
+  <si>
+    <t>WV0020028</t>
+  </si>
+  <si>
+    <t>WV0020273</t>
+  </si>
+  <si>
+    <t>WVG611883</t>
+  </si>
+  <si>
+    <t>WV0082414</t>
+  </si>
+  <si>
+    <t>WV0035939</t>
+  </si>
+  <si>
+    <t>WV0024953</t>
+  </si>
+  <si>
+    <t>WVR030013</t>
+  </si>
+  <si>
+    <t>WV0023213</t>
+  </si>
+  <si>
+    <t>WV0022039</t>
+  </si>
+  <si>
+    <t>WV0023094</t>
+  </si>
+  <si>
+    <t>WV0020257</t>
+  </si>
+  <si>
+    <t>WV0023124</t>
+  </si>
+  <si>
+    <t>WV0028088</t>
+  </si>
+  <si>
+    <t>WVG640072</t>
+  </si>
+  <si>
+    <t>WVG640166</t>
+  </si>
+  <si>
+    <t>WV0044041</t>
+  </si>
+  <si>
+    <t>county_labcode</t>
+  </si>
+  <si>
+    <t>wwtp_site_id</t>
+  </si>
+  <si>
+    <t>54077-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54055-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54039-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54039-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54037-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54061-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54033-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54039-003-01-00-00</t>
+  </si>
+  <si>
+    <t>54083-003-01-00-00</t>
+  </si>
+  <si>
+    <t>54049-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54009-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54091-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54011-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54083-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54057-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54005-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54049-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54051-003-01-00-00</t>
+  </si>
+  <si>
+    <t>54107-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54011-003-01-00-00</t>
+  </si>
+  <si>
+    <t>54053-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54055-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54033-003-01-00-00</t>
+  </si>
+  <si>
+    <t>54011-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54011-002-02-00-00</t>
+  </si>
+  <si>
+    <t>54061-002-01-00-00</t>
+  </si>
+  <si>
+    <t>54073-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54065-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54041-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54017-001-01-00-00</t>
+  </si>
+  <si>
+    <t>54051-004-01-00-00</t>
+  </si>
+  <si>
+    <t>WV0023205</t>
+  </si>
+  <si>
+    <t>WV0028118</t>
+  </si>
+  <si>
+    <t>WV0023159</t>
+  </si>
+  <si>
+    <t>WV0027413</t>
+  </si>
+  <si>
+    <t>WV0084450</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1683,6 +1866,11 @@
       <color rgb="FF7030A0"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1723,7 +1911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1744,15 +1932,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1814,13 +1995,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2145,11 +2327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,61 +2354,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2237,7 +2419,7 @@
       <c r="B2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2252,11 +2434,11 @@
       <c r="J2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
       <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2466,7 @@
       <c r="G3" s="2">
         <v>-79.50179</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>39.457090000000001</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2293,20 +2475,20 @@
       <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="21">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>24</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="20">
         <v>25</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="20">
         <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -2327,7 +2509,7 @@
       <c r="B4" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2351,19 +2533,19 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <v>2391</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>24</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="20">
         <v>25</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="20">
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -2384,7 +2566,7 @@
       <c r="B5" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2399,7 +2581,7 @@
       <c r="G5" s="2">
         <v>-79.936940000000007</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>39.022010000000002</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2408,17 +2590,17 @@
       <c r="J5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>1974</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>24</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="2" t="s">
         <v>357</v>
       </c>
@@ -2436,7 +2618,7 @@
       <c r="B6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2451,7 +2633,7 @@
       <c r="G6" s="2">
         <v>-80.212010000000006</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>39.72007</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2460,17 +2642,17 @@
       <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>400</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <v>24</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="2" t="s">
         <v>357</v>
       </c>
@@ -2489,7 +2671,7 @@
       <c r="B7" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2504,7 +2686,7 @@
       <c r="G7" s="2">
         <v>-80.258989999999997</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>39.280479999999997</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2513,17 +2695,17 @@
       <c r="J7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>6984</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <v>24</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="2" t="s">
         <v>357</v>
       </c>
@@ -2542,7 +2724,7 @@
       <c r="B8" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2566,17 +2748,17 @@
       <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <v>579</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <v>8</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="2" t="s">
         <v>356</v>
       </c>
@@ -2595,7 +2777,7 @@
       <c r="B9" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2619,19 +2801,19 @@
       <c r="J9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="21">
         <v>4000</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="21">
         <v>250</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="21">
         <v>5</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -2640,7 +2822,7 @@
       <c r="Q9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="22">
         <v>25504</v>
       </c>
       <c r="S9" s="2" t="s">
@@ -2654,7 +2836,7 @@
       <c r="B10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2669,7 +2851,7 @@
       <c r="G10" s="2">
         <v>-80.567440000000005</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="19">
         <v>39.826610000000002</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2678,19 +2860,19 @@
       <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>1340</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <v>24</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="20">
         <v>25</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="20">
         <v>30</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -2735,17 +2917,17 @@
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <v>50000</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>24</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="2" t="s">
         <v>357</v>
       </c>
@@ -2788,17 +2970,17 @@
       <c r="J12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>17000</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>24</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="2" t="s">
         <v>357</v>
       </c>
@@ -2817,7 +2999,7 @@
       <c r="B13" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2841,17 +3023,17 @@
       <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="21">
         <v>830</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="21">
         <v>8</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="2" t="s">
         <v>356</v>
       </c>
@@ -2885,7 +3067,7 @@
       <c r="G14" s="2">
         <v>-79.856999999999999</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>39.677120000000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2894,19 +3076,19 @@
       <c r="J14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="20">
         <v>2000</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <v>24</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="20">
         <v>25</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="20">
         <v>20</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2942,7 +3124,7 @@
       <c r="G15" s="2">
         <v>-80.338570000000004</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>39.279310000000002</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2951,17 +3133,17 @@
       <c r="J15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="20">
         <v>26498</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <v>24</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="2" t="s">
         <v>357</v>
       </c>
@@ -2974,49 +3156,46 @@
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
+      <c r="A16" s="35" t="s">
+        <v>497</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
+      <c r="C16" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G16" s="2">
-        <v>-79.945801900000006</v>
-      </c>
-      <c r="H16" s="2">
-        <v>39.6362083</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="G16">
+        <v>-79.985057699999999</v>
+      </c>
+      <c r="H16">
+        <v>39.648165400000003</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="24">
-        <v>567</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M16" s="24">
-        <v>48</v>
-      </c>
-      <c r="N16" s="24">
+      <c r="M16" s="8">
+        <v>8</v>
+      </c>
+      <c r="N16" s="20">
         <v>25</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="20">
         <v>30</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -3025,25 +3204,23 @@
       <c r="Q16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="36">
         <v>26505</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -3051,148 +3228,148 @@
       <c r="F17" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="2">
+        <v>-79.945801900000006</v>
+      </c>
+      <c r="H17" s="2">
+        <v>39.6362083</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="J17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="K17" s="21">
+        <v>567</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M17" s="21">
+        <v>48</v>
+      </c>
+      <c r="N17" s="21">
+        <v>25</v>
+      </c>
+      <c r="O17" s="21">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="Q17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="2"/>
+      <c r="R17" s="4">
+        <v>26505</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G18" s="2">
-        <v>-81.679554234298493</v>
-      </c>
-      <c r="H18" s="2">
-        <v>38.373735533484897</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24">
-        <v>49500</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M18" s="23">
-        <v>24</v>
-      </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="2" t="s">
-        <v>357</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="25">
-        <v>25387</v>
-      </c>
+      <c r="R18" s="4"/>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G19" s="2">
-        <v>-79.953093199999998</v>
+        <v>-81.679554234298493</v>
       </c>
       <c r="H19" s="2">
-        <v>39.636423100000002</v>
+        <v>38.373735533484897</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="24">
-        <v>639</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M19" s="24">
-        <v>48</v>
-      </c>
-      <c r="N19" s="24">
-        <v>25</v>
-      </c>
-      <c r="O19" s="24">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" s="21">
+        <v>49500</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M19" s="20">
+        <v>24</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="R19" s="22">
+        <v>25387</v>
+      </c>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -3201,10 +3378,10 @@
         <v>377</v>
       </c>
       <c r="G20" s="2">
-        <v>-80.000420899999995</v>
+        <v>-79.953093199999998</v>
       </c>
       <c r="H20" s="2">
-        <v>39.6535571</v>
+        <v>39.636423100000002</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>240</v>
@@ -3212,19 +3389,19 @@
       <c r="J20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="24">
-        <v>912</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="21">
+        <v>639</v>
+      </c>
+      <c r="L20" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="21">
         <v>48</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="21">
         <v>25</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="21">
         <v>30</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -3237,54 +3414,54 @@
         <v>26505</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G21" s="2">
-        <v>-81.758709180509001</v>
+        <v>-80.000420899999995</v>
       </c>
       <c r="H21" s="2">
-        <v>38.368519014596998</v>
+        <v>39.6535571</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="24">
-        <v>9000</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M21" s="23">
-        <v>24</v>
-      </c>
-      <c r="N21" s="23">
+        <v>11</v>
+      </c>
+      <c r="K21" s="21">
+        <v>912</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M21" s="21">
+        <v>48</v>
+      </c>
+      <c r="N21" s="21">
         <v>25</v>
       </c>
-      <c r="O21" s="23">
-        <v>20</v>
+      <c r="O21" s="21">
+        <v>30</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>356</v>
@@ -3293,53 +3470,56 @@
         <v>20</v>
       </c>
       <c r="R21" s="4">
-        <v>25064</v>
+        <v>26505</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>103</v>
+        <v>361</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>349</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G22" s="2">
-        <v>-79.865430000000003</v>
-      </c>
-      <c r="H22" s="22">
-        <v>38.920259999999999</v>
+        <v>-81.758709180509001</v>
+      </c>
+      <c r="H22" s="2">
+        <v>38.368519014596998</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="23">
-        <v>13156</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" s="23">
+        <v>1</v>
+      </c>
+      <c r="K22" s="21">
+        <v>9000</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M22" s="20">
         <v>24</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="20">
         <v>25</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="20">
         <v>20</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -3349,13 +3529,13 @@
         <v>20</v>
       </c>
       <c r="R22" s="4">
-        <v>26241</v>
+        <v>25064</v>
       </c>
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>360</v>
@@ -3364,40 +3544,40 @@
         <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>378</v>
       </c>
       <c r="G23" s="2">
-        <v>-79.972157499999994</v>
-      </c>
-      <c r="H23" s="2">
-        <v>39.650096900000001</v>
+        <v>-79.865430000000003</v>
+      </c>
+      <c r="H23" s="19">
+        <v>38.920259999999999</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L23" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="20">
+        <v>13156</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M23" s="24">
-        <v>48</v>
-      </c>
-      <c r="N23" s="24">
+      <c r="M23" s="20">
+        <v>24</v>
+      </c>
+      <c r="N23" s="20">
         <v>25</v>
       </c>
-      <c r="O23" s="24">
-        <v>30</v>
+      <c r="O23" s="20">
+        <v>20</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>356</v>
@@ -3406,36 +3586,33 @@
         <v>20</v>
       </c>
       <c r="R23" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>130</v>
+        <v>26241</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>60</v>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G24" s="2">
-        <v>-79.956234100000003</v>
+        <v>-79.972157499999994</v>
       </c>
       <c r="H24" s="2">
-        <v>39.667909799999997</v>
+        <v>39.650096900000001</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>240</v>
@@ -3443,19 +3620,17 @@
       <c r="J24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L24" s="24" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="21">
         <v>48</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="21">
         <v>25</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="21">
         <v>30</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -3468,21 +3643,21 @@
         <v>26505</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -3491,10 +3666,10 @@
         <v>377</v>
       </c>
       <c r="G25" s="2">
-        <v>-79.956204600000007</v>
+        <v>-79.956234100000003</v>
       </c>
       <c r="H25" s="2">
-        <v>39.668112200000003</v>
+        <v>39.667909799999997</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>240</v>
@@ -3502,19 +3677,17 @@
       <c r="J25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L25" s="24" t="s">
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="21">
         <v>48</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="21">
         <v>25</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="21">
         <v>30</v>
       </c>
       <c r="P25" s="2" t="s">
@@ -3527,53 +3700,51 @@
         <v>26505</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>190</v>
+      <c r="C26" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G26" s="2">
-        <v>-80.124449999999996</v>
-      </c>
-      <c r="H26" s="22">
-        <v>39.493949999999998</v>
+        <v>-79.956204600000007</v>
+      </c>
+      <c r="H26" s="2">
+        <v>39.668112200000003</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="23">
-        <v>25525</v>
-      </c>
-      <c r="L26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M26" s="23">
-        <v>24</v>
-      </c>
-      <c r="N26" s="23">
+      <c r="M26" s="21">
+        <v>48</v>
+      </c>
+      <c r="N26" s="21">
         <v>25</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="21">
         <v>30</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -3583,22 +3754,24 @@
         <v>20</v>
       </c>
       <c r="R26" s="4">
-        <v>26554</v>
-      </c>
-      <c r="S26" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>103</v>
+      <c r="C27" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>349</v>
@@ -3607,31 +3780,31 @@
         <v>377</v>
       </c>
       <c r="G27" s="2">
-        <v>-80.24933</v>
-      </c>
-      <c r="H27" s="22">
-        <v>39.511809999999997</v>
+        <v>-80.124449999999996</v>
+      </c>
+      <c r="H27" s="19">
+        <v>39.493949999999998</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="24">
-        <v>610</v>
-      </c>
-      <c r="L27" s="24" t="s">
+      <c r="K27" s="20">
+        <v>25525</v>
+      </c>
+      <c r="L27" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <v>24</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="20">
         <v>25</v>
       </c>
-      <c r="O27" s="23">
-        <v>20</v>
+      <c r="O27" s="20">
+        <v>30</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>356</v>
@@ -3640,22 +3813,22 @@
         <v>20</v>
       </c>
       <c r="R27" s="4">
-        <v>26571</v>
+        <v>26554</v>
       </c>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>60</v>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>349</v>
@@ -3664,30 +3837,30 @@
         <v>377</v>
       </c>
       <c r="G28" s="2">
-        <v>-80.598290000000006</v>
-      </c>
-      <c r="H28" s="22">
-        <v>40.325800000000001</v>
+        <v>-80.24933</v>
+      </c>
+      <c r="H28" s="19">
+        <v>39.511809999999997</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="23">
-        <v>6468</v>
-      </c>
-      <c r="L28" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="21">
+        <v>610</v>
+      </c>
+      <c r="L28" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="20">
         <v>24</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="20">
         <v>25</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="20">
         <v>20</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -3697,22 +3870,22 @@
         <v>20</v>
       </c>
       <c r="R28" s="4">
-        <v>26037</v>
+        <v>26571</v>
       </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>103</v>
+      <c r="C29" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>349</v>
@@ -3721,134 +3894,134 @@
         <v>377</v>
       </c>
       <c r="G29" s="2">
-        <v>-80.018370000000004</v>
-      </c>
-      <c r="H29" s="22">
-        <v>39.338769999999997</v>
+        <v>-80.598290000000006</v>
+      </c>
+      <c r="H29" s="19">
+        <v>40.325800000000001</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="23">
-        <v>6071</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M29" s="23">
+        <v>122</v>
+      </c>
+      <c r="K29" s="20">
+        <v>6468</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M29" s="20">
         <v>24</v>
       </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="N29" s="20">
+        <v>25</v>
+      </c>
+      <c r="O29" s="20">
+        <v>20</v>
+      </c>
       <c r="P29" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R29" s="4">
-        <v>26354</v>
+        <v>26037</v>
       </c>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>60</v>
+      <c r="C30" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G30" s="2">
-        <v>-79.515240000000006</v>
-      </c>
-      <c r="H30" s="22">
-        <v>39.66807</v>
+        <v>-80.018370000000004</v>
+      </c>
+      <c r="H30" s="19">
+        <v>39.338769999999997</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="23">
-        <v>1948</v>
-      </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="K30" s="20">
+        <v>6071</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M30" s="20">
+        <v>24</v>
+      </c>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
       <c r="P30" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R30" s="4">
-        <v>26525</v>
+        <v>26354</v>
       </c>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>103</v>
+      <c r="C31" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G31" s="2">
-        <v>-79.956762600000005</v>
-      </c>
-      <c r="H31" s="2">
-        <v>39.637875299999997</v>
+        <v>-79.515240000000006</v>
+      </c>
+      <c r="H31" s="19">
+        <v>39.66807</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="24">
-        <v>874</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M31" s="24">
-        <v>48</v>
-      </c>
-      <c r="N31" s="24">
-        <v>25</v>
-      </c>
-      <c r="O31" s="24">
-        <v>30</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K31" s="20">
+        <v>1948</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="2" t="s">
         <v>356</v>
       </c>
@@ -3856,57 +4029,55 @@
         <v>20</v>
       </c>
       <c r="R31" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>26525</v>
+      </c>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G32" s="2">
-        <v>-82.006959612418996</v>
+        <v>-79.956762600000005</v>
       </c>
       <c r="H32" s="2">
-        <v>38.446524084559897</v>
+        <v>39.637875299999997</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K32" s="24">
-        <v>28759</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M32" s="23">
-        <v>72</v>
-      </c>
-      <c r="N32" s="23">
+        <v>11</v>
+      </c>
+      <c r="K32" s="21">
+        <v>874</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M32" s="21">
+        <v>48</v>
+      </c>
+      <c r="N32" s="21">
         <v>25</v>
       </c>
-      <c r="O32" s="23">
-        <v>20</v>
+      <c r="O32" s="21">
+        <v>30</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>356</v>
@@ -3915,22 +4086,24 @@
         <v>20</v>
       </c>
       <c r="R32" s="4">
-        <v>25526</v>
-      </c>
-      <c r="S32" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>349</v>
@@ -3939,30 +4112,30 @@
         <v>377</v>
       </c>
       <c r="G33" s="2">
-        <v>-82.528864034905197</v>
+        <v>-82.006959612418996</v>
       </c>
       <c r="H33" s="2">
-        <v>38.400744931017101</v>
+        <v>38.446524084559897</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K33" s="24">
-        <v>56000</v>
-      </c>
-      <c r="L33" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="21">
+        <v>28759</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M33" s="23">
-        <v>24</v>
-      </c>
-      <c r="N33" s="23">
+      <c r="M33" s="20">
+        <v>72</v>
+      </c>
+      <c r="N33" s="20">
         <v>25</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O33" s="20">
         <v>20</v>
       </c>
       <c r="P33" s="2" t="s">
@@ -3971,23 +4144,23 @@
       <c r="Q33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="25">
-        <v>25704</v>
+      <c r="R33" s="4">
+        <v>25526</v>
       </c>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>361</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>349</v>
@@ -3996,30 +4169,30 @@
         <v>377</v>
       </c>
       <c r="G34" s="2">
-        <v>-79.978949999999998</v>
-      </c>
-      <c r="H34" s="22">
-        <v>38.712879999999998</v>
+        <v>-82.528864034905197</v>
+      </c>
+      <c r="H34" s="2">
+        <v>38.400744931017101</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="23">
-        <v>2101</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M34" s="23">
+        <v>191</v>
+      </c>
+      <c r="K34" s="21">
+        <v>56000</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M34" s="20">
         <v>24</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="20">
         <v>25</v>
       </c>
-      <c r="O34" s="23">
+      <c r="O34" s="20">
         <v>20</v>
       </c>
       <c r="P34" s="2" t="s">
@@ -4028,14 +4201,14 @@
       <c r="Q34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="4">
-        <v>26273</v>
+      <c r="R34" s="22">
+        <v>25704</v>
       </c>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>360</v>
@@ -4044,7 +4217,7 @@
         <v>103</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>349</v>
@@ -4053,30 +4226,30 @@
         <v>377</v>
       </c>
       <c r="G35" s="2">
-        <v>-78.975080000000005</v>
-      </c>
-      <c r="H35" s="2">
-        <v>39.441229999999997</v>
+        <v>-79.978949999999998</v>
+      </c>
+      <c r="H35" s="19">
+        <v>38.712879999999998</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="23">
-        <v>8168</v>
-      </c>
-      <c r="L35" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="20">
+        <v>2101</v>
+      </c>
+      <c r="L35" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <v>24</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="20">
         <v>25</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="20">
         <v>20</v>
       </c>
       <c r="P35" s="2" t="s">
@@ -4086,55 +4259,55 @@
         <v>20</v>
       </c>
       <c r="R35" s="4">
-        <v>26726</v>
+        <v>26273</v>
       </c>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>60</v>
+      <c r="C36" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G36" s="2">
-        <v>-79.955122099999997</v>
+        <v>-78.975080000000005</v>
       </c>
       <c r="H36" s="2">
-        <v>39.669188599999998</v>
+        <v>39.441229999999997</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L36" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="20">
+        <v>8168</v>
+      </c>
+      <c r="L36" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M36" s="24">
-        <v>48</v>
-      </c>
-      <c r="N36" s="24">
+      <c r="M36" s="20">
+        <v>24</v>
+      </c>
+      <c r="N36" s="20">
         <v>25</v>
       </c>
-      <c r="O36" s="24">
-        <v>30</v>
+      <c r="O36" s="20">
+        <v>20</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>356</v>
@@ -4143,24 +4316,22 @@
         <v>20</v>
       </c>
       <c r="R36" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>26726</v>
+      </c>
+      <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -4169,10 +4340,10 @@
         <v>377</v>
       </c>
       <c r="G37" s="2">
-        <v>-79.955245399999995</v>
+        <v>-79.955122099999997</v>
       </c>
       <c r="H37" s="2">
-        <v>39.669279500000002</v>
+        <v>39.669188599999998</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>240</v>
@@ -4180,19 +4351,17 @@
       <c r="J37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L37" s="24" t="s">
+      <c r="K37" s="21"/>
+      <c r="L37" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="21">
         <v>48</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="21">
         <v>25</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="21">
         <v>30</v>
       </c>
       <c r="P37" s="2" t="s">
@@ -4205,54 +4374,52 @@
         <v>26505</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>103</v>
+      <c r="C38" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G38" s="2">
-        <v>-81.847288800000001</v>
+        <v>-79.955245399999995</v>
       </c>
       <c r="H38" s="2">
-        <v>38.102483999999997</v>
+        <v>39.669279500000002</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K38" s="23">
-        <v>4555</v>
-      </c>
-      <c r="L38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M38" s="23">
-        <v>24</v>
-      </c>
-      <c r="N38" s="23">
+      <c r="M38" s="21">
+        <v>48</v>
+      </c>
+      <c r="N38" s="21">
         <v>25</v>
       </c>
-      <c r="O38" s="23">
-        <v>20</v>
+      <c r="O38" s="21">
+        <v>30</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>356</v>
@@ -4261,13 +4428,15 @@
         <v>20</v>
       </c>
       <c r="R38" s="4">
-        <v>25053</v>
-      </c>
-      <c r="S38" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>360</v>
@@ -4276,7 +4445,7 @@
         <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>349</v>
@@ -4285,30 +4454,30 @@
         <v>377</v>
       </c>
       <c r="G39" s="2">
-        <v>-80.323710000000005</v>
-      </c>
-      <c r="H39" s="22">
-        <v>39.518140000000002</v>
+        <v>-81.847288800000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>38.102483999999997</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="23">
-        <v>1091</v>
-      </c>
-      <c r="L39" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" s="20">
+        <v>4555</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="20">
         <v>24</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N39" s="20">
         <v>25</v>
       </c>
-      <c r="O39" s="23">
+      <c r="O39" s="20">
         <v>20</v>
       </c>
       <c r="P39" s="2" t="s">
@@ -4318,52 +4487,56 @@
         <v>20</v>
       </c>
       <c r="R39" s="4">
-        <v>26582</v>
+        <v>25053</v>
       </c>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>60</v>
+      <c r="C40" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G40" s="2">
-        <v>-79.957359999999994</v>
-      </c>
-      <c r="H40" s="2">
-        <v>39.625419999999998</v>
+        <v>-80.323710000000005</v>
+      </c>
+      <c r="H40" s="19">
+        <v>39.518140000000002</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="24">
-        <v>1851</v>
-      </c>
-      <c r="L40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="20">
+        <v>1091</v>
+      </c>
+      <c r="L40" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M40" s="24">
-        <v>8</v>
-      </c>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
+      <c r="M40" s="20">
+        <v>24</v>
+      </c>
+      <c r="N40" s="20">
+        <v>25</v>
+      </c>
+      <c r="O40" s="20">
+        <v>20</v>
+      </c>
       <c r="P40" s="2" t="s">
         <v>356</v>
       </c>
@@ -4371,139 +4544,139 @@
         <v>20</v>
       </c>
       <c r="R40" s="4">
-        <v>26501</v>
+        <v>26582</v>
       </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>103</v>
+      <c r="C41" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>349</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G41" s="2">
-        <v>-80.754930000000002</v>
+        <v>-79.957359999999994</v>
       </c>
       <c r="H41" s="2">
-        <v>39.929859999999998</v>
+        <v>39.625419999999998</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="23">
-        <v>12000</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M41" s="23">
-        <v>24</v>
-      </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="K41" s="21">
+        <v>1851</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" s="21">
+        <v>8</v>
+      </c>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
       <c r="P41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R41" s="4">
-        <v>26041</v>
+        <v>26501</v>
       </c>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>60</v>
+      <c r="C42" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G42" s="2">
-        <v>-79.943309999999997</v>
+        <v>-80.754930000000002</v>
       </c>
       <c r="H42" s="2">
-        <v>39.61036</v>
+        <v>39.929859999999998</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="24">
-        <v>726</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M42" s="24">
-        <v>8</v>
-      </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="K42" s="20">
+        <v>12000</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" s="20">
+        <v>24</v>
+      </c>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
       <c r="P42" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="4">
-        <v>26501</v>
+        <v>26041</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>103</v>
+      <c r="C43" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G43" s="2">
-        <v>-79.965769100000003</v>
+        <v>-79.943309999999997</v>
       </c>
       <c r="H43" s="2">
-        <v>39.672765599999998</v>
+        <v>39.61036</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>240</v>
@@ -4511,21 +4684,17 @@
       <c r="J43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L43" s="24" t="s">
+      <c r="K43" s="21">
+        <v>726</v>
+      </c>
+      <c r="L43" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M43" s="24">
-        <v>48</v>
-      </c>
-      <c r="N43" s="24">
-        <v>25</v>
-      </c>
-      <c r="O43" s="24">
-        <v>30</v>
-      </c>
+      <c r="M43" s="21">
+        <v>8</v>
+      </c>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
       <c r="P43" s="2" t="s">
         <v>356</v>
       </c>
@@ -4533,57 +4702,52 @@
         <v>20</v>
       </c>
       <c r="R43" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>46</v>
+        <v>26501</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G44" s="2">
-        <v>-82.451303840583293</v>
+        <v>-79.965769100000003</v>
       </c>
       <c r="H44" s="2">
-        <v>38.343336164586603</v>
+        <v>39.672765599999998</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>362</v>
+        <v>240</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K44" s="24">
-        <v>1600</v>
-      </c>
-      <c r="L44" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M44" s="23">
-        <v>24</v>
-      </c>
-      <c r="N44" s="23">
+        <v>11</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M44" s="21">
+        <v>48</v>
+      </c>
+      <c r="N44" s="21">
         <v>25</v>
       </c>
-      <c r="O44" s="23">
-        <v>20</v>
+      <c r="O44" s="21">
+        <v>30</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>356</v>
@@ -4592,54 +4756,58 @@
         <v>20</v>
       </c>
       <c r="R44" s="4">
-        <v>25701</v>
+        <v>26505</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G45" s="2">
-        <v>-79.956739999999996</v>
+        <v>-82.451303840583293</v>
       </c>
       <c r="H45" s="2">
-        <v>39.660640000000001</v>
+        <v>38.343336164586603</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="24">
-        <v>688</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M45" s="24">
-        <v>8</v>
-      </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
+        <v>167</v>
+      </c>
+      <c r="K45" s="21">
+        <v>1600</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M45" s="20">
+        <v>24</v>
+      </c>
+      <c r="N45" s="20">
+        <v>25</v>
+      </c>
+      <c r="O45" s="20">
+        <v>20</v>
+      </c>
       <c r="P45" s="2" t="s">
         <v>356</v>
       </c>
@@ -4647,33 +4815,36 @@
         <v>20</v>
       </c>
       <c r="R45" s="4">
-        <v>26505</v>
+        <v>25701</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>103</v>
+      <c r="C46" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G46" s="2">
-        <v>-79.953202899999994</v>
+        <v>-79.956739999999996</v>
       </c>
       <c r="H46" s="2">
-        <v>39.633116399999999</v>
+        <v>39.660640000000001</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>240</v>
@@ -4681,21 +4852,17 @@
       <c r="J46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L46" s="24" t="s">
+      <c r="K46" s="21">
+        <v>688</v>
+      </c>
+      <c r="L46" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M46" s="24">
-        <v>48</v>
-      </c>
-      <c r="N46" s="24">
-        <v>25</v>
-      </c>
-      <c r="O46" s="24">
-        <v>30</v>
-      </c>
+      <c r="M46" s="21">
+        <v>8</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
       <c r="P46" s="2" t="s">
         <v>356</v>
       </c>
@@ -4705,13 +4872,10 @@
       <c r="R46" s="4">
         <v>26505</v>
       </c>
-      <c r="S46" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>360</v>
@@ -4720,7 +4884,7 @@
         <v>103</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -4729,10 +4893,10 @@
         <v>378</v>
       </c>
       <c r="G47" s="2">
-        <v>-79.962211800000006</v>
+        <v>-79.953202899999994</v>
       </c>
       <c r="H47" s="2">
-        <v>39.6511596</v>
+        <v>39.633116399999999</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>240</v>
@@ -4740,19 +4904,17 @@
       <c r="J47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="24">
-        <v>862</v>
-      </c>
-      <c r="L47" s="24" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="21">
         <v>48</v>
       </c>
-      <c r="N47" s="24">
+      <c r="N47" s="21">
         <v>25</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O47" s="21">
         <v>30</v>
       </c>
       <c r="P47" s="2" t="s">
@@ -4765,12 +4927,12 @@
         <v>26505</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>360</v>
@@ -4779,59 +4941,66 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G48" s="2">
-        <v>-81.557389999999998</v>
-      </c>
-      <c r="H48" s="22">
-        <v>39.281709999999997</v>
+        <v>-79.962211800000006</v>
+      </c>
+      <c r="H48" s="2">
+        <v>39.6511596</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K48" s="23">
-        <v>48050</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M48" s="23">
-        <v>24</v>
-      </c>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="K48" s="21">
+        <v>862</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M48" s="21">
+        <v>48</v>
+      </c>
+      <c r="N48" s="21">
+        <v>25</v>
+      </c>
+      <c r="O48" s="21">
+        <v>30</v>
+      </c>
       <c r="P48" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R48" s="4">
-        <v>26101</v>
+        <v>26505</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>349</v>
@@ -4840,57 +5009,50 @@
         <v>377</v>
       </c>
       <c r="G49" s="2">
-        <v>-82.287563960345196</v>
-      </c>
-      <c r="H49" s="2">
-        <v>38.572623654172197</v>
+        <v>-81.557389999999998</v>
+      </c>
+      <c r="H49" s="19">
+        <v>39.281709999999997</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K49" s="24">
-        <v>1000</v>
-      </c>
-      <c r="L49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" s="20">
+        <v>48050</v>
+      </c>
+      <c r="L49" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <v>24</v>
       </c>
-      <c r="N49" s="23">
-        <v>25</v>
-      </c>
-      <c r="O49" s="23">
-        <v>20</v>
-      </c>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
       <c r="P49" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R49" s="4">
-        <v>25537</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>171</v>
+        <v>26101</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C50" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>349</v>
@@ -4899,50 +5061,57 @@
         <v>377</v>
       </c>
       <c r="G50" s="2">
-        <v>-79.127250000000004</v>
-      </c>
-      <c r="H50" s="22">
-        <v>38.99091</v>
+        <v>-82.287563960345196</v>
+      </c>
+      <c r="H50" s="2">
+        <v>38.572623654172197</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>272</v>
+        <v>363</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="23">
-        <v>2700</v>
-      </c>
-      <c r="L50" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="21">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="20">
         <v>24</v>
       </c>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
+      <c r="N50" s="20">
+        <v>25</v>
+      </c>
+      <c r="O50" s="20">
+        <v>20</v>
+      </c>
       <c r="P50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R50" s="4">
-        <v>26847</v>
+        <v>25537</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>103</v>
+      <c r="C51" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>349</v>
@@ -4951,87 +5120,83 @@
         <v>377</v>
       </c>
       <c r="G51" s="2">
-        <v>-82.135114799999997</v>
-      </c>
-      <c r="H51" s="2">
-        <v>38.856708400000002</v>
+        <v>-79.127250000000004</v>
+      </c>
+      <c r="H51" s="19">
+        <v>38.99091</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K51" s="23">
-        <v>5515</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M51" s="23">
+        <v>55</v>
+      </c>
+      <c r="K51" s="20">
+        <v>2700</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M51" s="20">
         <v>24</v>
       </c>
-      <c r="N51" s="23">
-        <v>25</v>
-      </c>
-      <c r="O51" s="23">
-        <v>20</v>
-      </c>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
       <c r="P51" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R51" s="4">
-        <v>25550</v>
+        <v>26847</v>
       </c>
     </row>
     <row r="52" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>190</v>
+      <c r="C52" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G52" s="2">
-        <v>-78.98272</v>
-      </c>
-      <c r="H52" s="22">
-        <v>39.438070000000003</v>
+        <v>-82.135114799999997</v>
+      </c>
+      <c r="H52" s="2">
+        <v>38.856708400000002</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="24">
-        <v>1193</v>
-      </c>
-      <c r="L52" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K52" s="20">
+        <v>5515</v>
+      </c>
+      <c r="L52" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M52" s="24">
-        <v>48</v>
-      </c>
-      <c r="N52" s="23">
+      <c r="M52" s="20">
+        <v>24</v>
+      </c>
+      <c r="N52" s="20">
         <v>25</v>
       </c>
-      <c r="O52" s="23">
-        <v>30</v>
+      <c r="O52" s="20">
+        <v>20</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>356</v>
@@ -5040,54 +5205,54 @@
         <v>20</v>
       </c>
       <c r="R52" s="4">
-        <v>26726</v>
+        <v>25550</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>103</v>
+      <c r="C53" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G53" s="2">
-        <v>-81.079930000000004</v>
-      </c>
-      <c r="H53" s="2">
-        <v>37.380360000000003</v>
+        <v>-78.98272</v>
+      </c>
+      <c r="H53" s="19">
+        <v>39.438070000000003</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="23">
-        <v>36000</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="M53" s="23">
-        <v>24</v>
-      </c>
-      <c r="N53" s="23">
+        <v>13</v>
+      </c>
+      <c r="K53" s="21">
+        <v>1193</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M53" s="21">
+        <v>48</v>
+      </c>
+      <c r="N53" s="20">
         <v>25</v>
       </c>
-      <c r="O53" s="23">
-        <v>20</v>
+      <c r="O53" s="20">
+        <v>30</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>356</v>
@@ -5096,53 +5261,53 @@
         <v>20</v>
       </c>
       <c r="R53" s="4">
-        <v>24740</v>
+        <v>26726</v>
       </c>
     </row>
     <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>349</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G54" s="2">
-        <v>-82.298209254857795</v>
+        <v>-81.079930000000004</v>
       </c>
       <c r="H54" s="2">
-        <v>38.419661908139098</v>
+        <v>37.380360000000003</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K54" s="24">
-        <v>7000</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M54" s="23">
+        <v>17</v>
+      </c>
+      <c r="K54" s="20">
+        <v>36000</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="M54" s="20">
         <v>24</v>
       </c>
-      <c r="N54" s="23">
+      <c r="N54" s="20">
         <v>25</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O54" s="20">
         <v>20</v>
       </c>
       <c r="P54" s="2" t="s">
@@ -5152,21 +5317,21 @@
         <v>20</v>
       </c>
       <c r="R54" s="4">
-        <v>25705</v>
+        <v>24740</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>103</v>
+        <v>361</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>349</v>
@@ -5175,30 +5340,30 @@
         <v>377</v>
       </c>
       <c r="G55" s="2">
-        <v>-80.545150000000007</v>
-      </c>
-      <c r="H55" s="22">
-        <v>39.285969999999999</v>
+        <v>-82.298209254857795</v>
+      </c>
+      <c r="H55" s="2">
+        <v>38.419661908139098</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K55" s="23">
-        <v>1853</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M55" s="23">
+        <v>157</v>
+      </c>
+      <c r="K55" s="21">
+        <v>7000</v>
+      </c>
+      <c r="L55" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M55" s="20">
         <v>24</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="20">
         <v>25</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="20">
         <v>20</v>
       </c>
       <c r="P55" s="2" t="s">
@@ -5208,12 +5373,12 @@
         <v>20</v>
       </c>
       <c r="R55" s="4">
-        <v>26426</v>
+        <v>25705</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>360</v>
@@ -5222,40 +5387,40 @@
         <v>103</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G56" s="2">
-        <v>-79.956140000000005</v>
-      </c>
-      <c r="H56" s="2">
-        <v>39.639200000000002</v>
+        <v>-80.545150000000007</v>
+      </c>
+      <c r="H56" s="19">
+        <v>39.285969999999999</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="24">
-        <v>474</v>
-      </c>
-      <c r="L56" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56" s="20">
+        <v>1853</v>
+      </c>
+      <c r="L56" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M56" s="24">
-        <v>48</v>
-      </c>
-      <c r="N56" s="24">
+      <c r="M56" s="20">
+        <v>24</v>
+      </c>
+      <c r="N56" s="20">
         <v>25</v>
       </c>
-      <c r="O56" s="24">
-        <v>30</v>
+      <c r="O56" s="20">
+        <v>20</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>356</v>
@@ -5264,71 +5429,81 @@
         <v>20</v>
       </c>
       <c r="R56" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>26426</v>
+      </c>
+      <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C57" s="34" t="s">
-        <v>190</v>
+      <c r="C57" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-79.956140000000005</v>
+      </c>
+      <c r="H57" s="2">
+        <v>39.639200000000002</v>
+      </c>
       <c r="I57" s="2" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K57" s="23">
-        <v>1800</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M57" s="23">
-        <v>24</v>
-      </c>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="K57" s="21">
+        <v>474</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M57" s="21">
+        <v>48</v>
+      </c>
+      <c r="N57" s="21">
+        <v>25</v>
+      </c>
+      <c r="O57" s="21">
+        <v>30</v>
+      </c>
       <c r="P57" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="2"/>
+      <c r="R57" s="4">
+        <v>26505</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>349</v>
@@ -5336,58 +5511,46 @@
       <c r="F58" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G58" s="2">
-        <v>-82.105144999999993</v>
-      </c>
-      <c r="H58" s="2">
-        <v>38.425437000000002</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K58" s="24">
-        <v>7200</v>
-      </c>
-      <c r="L58" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" s="20">
+        <v>1800</v>
+      </c>
+      <c r="L58" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="20">
         <v>24</v>
       </c>
-      <c r="N58" s="23">
-        <v>25</v>
-      </c>
-      <c r="O58" s="23">
-        <v>20</v>
-      </c>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
       <c r="P58" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="4">
-        <v>25541</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="R58" s="4"/>
+      <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>349</v>
@@ -5396,30 +5559,30 @@
         <v>377</v>
       </c>
       <c r="G59" s="2">
-        <v>-82.244877751268803</v>
+        <v>-82.105144999999993</v>
       </c>
       <c r="H59" s="2">
-        <v>38.372162360135</v>
+        <v>38.425437000000002</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K59" s="24">
-        <v>4050</v>
-      </c>
-      <c r="L59" s="23" t="s">
+      <c r="K59" s="21">
+        <v>7200</v>
+      </c>
+      <c r="L59" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="20">
         <v>24</v>
       </c>
-      <c r="N59" s="23">
+      <c r="N59" s="20">
         <v>25</v>
       </c>
-      <c r="O59" s="23">
+      <c r="O59" s="20">
         <v>20</v>
       </c>
       <c r="P59" s="2" t="s">
@@ -5429,7 +5592,7 @@
         <v>20</v>
       </c>
       <c r="R59" s="4">
-        <v>25545</v>
+        <v>25541</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>162</v>
@@ -5437,102 +5600,102 @@
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>103</v>
+        <v>361</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>349</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G60" s="2">
-        <v>-79.992055399999998</v>
+        <v>-82.244877751268803</v>
       </c>
       <c r="H60" s="2">
-        <v>39.655174500000001</v>
+        <v>38.372162360135</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="23">
-        <v>48328</v>
-      </c>
-      <c r="L60" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="K60" s="21">
+        <v>4050</v>
+      </c>
+      <c r="L60" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="20">
         <v>24</v>
       </c>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
+      <c r="N60" s="20">
+        <v>25</v>
+      </c>
+      <c r="O60" s="20">
+        <v>20</v>
+      </c>
       <c r="P60" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R60" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S60" s="2"/>
+        <v>25545</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>51</v>
+      <c r="A61" s="35" t="s">
+        <v>493</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>349</v>
+      <c r="C61" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G61" s="2">
-        <v>-81.205110000000005</v>
-      </c>
-      <c r="H61" s="22">
-        <v>39.391249999999999</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="23">
-        <v>2892</v>
-      </c>
-      <c r="L61" s="24" t="s">
+      <c r="G61" s="37"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="35"/>
+      <c r="L61" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M61" s="23">
-        <v>24</v>
-      </c>
-      <c r="N61" s="23">
+      <c r="M61" s="38">
+        <v>12</v>
+      </c>
+      <c r="N61" s="20">
         <v>25</v>
       </c>
-      <c r="O61" s="23">
-        <v>20</v>
+      <c r="O61" s="20">
+        <v>30</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>356</v>
@@ -5540,108 +5703,100 @@
       <c r="Q61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="4">
-        <v>26170</v>
-      </c>
-      <c r="S61" s="2"/>
+      <c r="R61" s="36">
+        <v>26505</v>
+      </c>
+      <c r="S61" s="35"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>58</v>
+      <c r="A62" s="35" t="s">
+        <v>491</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C62" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>34</v>
+      <c r="C62" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G62" s="2">
-        <v>-79.978250000000003</v>
-      </c>
-      <c r="H62" s="2">
-        <v>39.671370000000003</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J62" s="2" t="s">
+      <c r="G62" s="37"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="24">
-        <v>515</v>
-      </c>
-      <c r="L62" s="24" t="s">
+      <c r="K62" s="35"/>
+      <c r="L62" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M62" s="24">
-        <v>8</v>
-      </c>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
+      <c r="M62" s="38">
+        <v>12</v>
+      </c>
+      <c r="N62" s="20">
+        <v>25</v>
+      </c>
+      <c r="O62" s="20">
+        <v>30</v>
+      </c>
       <c r="P62" s="2" t="s">
         <v>356</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R62" s="36">
         <v>26505</v>
       </c>
-      <c r="S62" s="2"/>
+      <c r="S62" s="35"/>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
+      <c r="A63" s="35" t="s">
+        <v>495</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>19</v>
+      <c r="D63" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G63" s="2">
-        <v>-79.966336100000007</v>
-      </c>
-      <c r="H63" s="2">
-        <v>39.649548899999999</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J63" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="24">
-        <v>904</v>
-      </c>
-      <c r="L63" s="24" t="s">
+      <c r="K63" s="35"/>
+      <c r="L63" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M63" s="24">
-        <v>48</v>
-      </c>
-      <c r="N63" s="24">
+      <c r="M63" s="38">
+        <v>12</v>
+      </c>
+      <c r="N63" s="20">
         <v>25</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O63" s="20">
         <v>30</v>
       </c>
       <c r="P63" s="2" t="s">
@@ -5650,129 +5805,161 @@
       <c r="Q63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="4">
+      <c r="R63" s="36">
         <v>26505</v>
       </c>
-      <c r="S63" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="S63" s="35"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>184</v>
+      <c r="A64" s="35" t="s">
+        <v>489</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>19</v>
+        <v>360</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="2"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="35"/>
+      <c r="L64" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M64" s="38">
+        <v>12</v>
+      </c>
+      <c r="N64" s="20">
+        <v>25</v>
+      </c>
+      <c r="O64" s="20">
+        <v>30</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="Q64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R64" s="4"/>
-      <c r="S64" s="2"/>
+      <c r="R64" s="36">
+        <v>26505</v>
+      </c>
+      <c r="S64" s="35"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-79.992055399999998</v>
+      </c>
+      <c r="H65" s="2">
+        <v>39.655174500000001</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="J65" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="K65" s="20">
+        <v>48328</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M65" s="20">
+        <v>24</v>
+      </c>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="Q65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="4"/>
+      <c r="R65" s="4">
+        <v>26505</v>
+      </c>
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G66" s="2">
-        <v>-79.926150000000007</v>
-      </c>
-      <c r="H66" s="2">
-        <v>39.687820000000002</v>
+        <v>-81.205110000000005</v>
+      </c>
+      <c r="H66" s="19">
+        <v>39.391249999999999</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="24">
-        <v>1310</v>
-      </c>
-      <c r="L66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" s="20">
+        <v>2892</v>
+      </c>
+      <c r="L66" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M66" s="24">
-        <v>8</v>
-      </c>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
+      <c r="M66" s="20">
+        <v>24</v>
+      </c>
+      <c r="N66" s="20">
+        <v>25</v>
+      </c>
+      <c r="O66" s="20">
+        <v>20</v>
+      </c>
       <c r="P66" s="2" t="s">
         <v>356</v>
       </c>
@@ -5780,34 +5967,34 @@
         <v>20</v>
       </c>
       <c r="R66" s="4">
-        <v>26508</v>
+        <v>26170</v>
       </c>
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>103</v>
+      <c r="C67" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G67" s="2">
-        <v>-79.956755900000005</v>
+        <v>-79.978250000000003</v>
       </c>
       <c r="H67" s="2">
-        <v>39.640189999999997</v>
+        <v>39.671370000000003</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>240</v>
@@ -5815,21 +6002,17 @@
       <c r="J67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L67" s="24" t="s">
+      <c r="K67" s="21">
+        <v>515</v>
+      </c>
+      <c r="L67" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M67" s="24">
-        <v>48</v>
-      </c>
-      <c r="N67" s="24">
-        <v>25</v>
-      </c>
-      <c r="O67" s="24">
-        <v>30</v>
-      </c>
+      <c r="M67" s="21">
+        <v>8</v>
+      </c>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
       <c r="P67" s="2" t="s">
         <v>356</v>
       </c>
@@ -5839,104 +6022,98 @@
       <c r="R67" s="4">
         <v>26505</v>
       </c>
-      <c r="S67" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C68" s="34" t="s">
-        <v>190</v>
+      <c r="C68" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G68" s="2">
-        <v>-78.226619999999997</v>
+        <v>-79.966336100000007</v>
       </c>
       <c r="H68" s="2">
-        <v>39.628019999999999</v>
+        <v>39.649548899999999</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" s="23">
-        <v>3255</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M68" s="23">
-        <v>24</v>
-      </c>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="K68" s="21">
+        <v>904</v>
+      </c>
+      <c r="L68" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M68" s="21">
+        <v>48</v>
+      </c>
+      <c r="N68" s="21">
+        <v>25</v>
+      </c>
+      <c r="O68" s="21">
+        <v>30</v>
+      </c>
       <c r="P68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R68" s="4">
-        <v>25411</v>
-      </c>
-      <c r="S68" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>190</v>
+        <v>361</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K69" s="23">
-        <v>20411</v>
-      </c>
-      <c r="L69" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M69" s="23">
-        <v>24</v>
-      </c>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="2" t="s">
-        <v>357</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
         <v>20</v>
       </c>
@@ -5945,85 +6122,65 @@
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>103</v>
+        <v>361</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G70" s="2">
-        <v>-80.459909999999994</v>
-      </c>
-      <c r="H70" s="2">
-        <v>39.062240000000003</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70" s="23">
-        <v>10364</v>
-      </c>
-      <c r="L70" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M70" s="23">
-        <v>24</v>
-      </c>
-      <c r="N70" s="23">
-        <v>25</v>
-      </c>
-      <c r="O70" s="23">
-        <v>20</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="4">
-        <v>26452</v>
-      </c>
+      <c r="R70" s="4"/>
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G71" s="2">
-        <v>-79.925397000000004</v>
+        <v>-79.926150000000007</v>
       </c>
       <c r="H71" s="2">
-        <v>39.6565887</v>
+        <v>39.687820000000002</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>240</v>
@@ -6031,21 +6188,17 @@
       <c r="J71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L71" s="24" t="s">
+      <c r="K71" s="21">
+        <v>1310</v>
+      </c>
+      <c r="L71" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M71" s="24">
-        <v>48</v>
-      </c>
-      <c r="N71" s="24">
-        <v>25</v>
-      </c>
-      <c r="O71" s="24">
-        <v>30</v>
-      </c>
+      <c r="M71" s="21">
+        <v>8</v>
+      </c>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
       <c r="P71" s="2" t="s">
         <v>356</v>
       </c>
@@ -6053,15 +6206,13 @@
         <v>20</v>
       </c>
       <c r="R71" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>26508</v>
+      </c>
+      <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>360</v>
@@ -6070,40 +6221,38 @@
         <v>103</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G72" s="2">
-        <v>-80.778989999999993</v>
-      </c>
-      <c r="H72" s="22">
-        <v>39.299059999999997</v>
+        <v>-79.956755900000005</v>
+      </c>
+      <c r="H72" s="2">
+        <v>39.640189999999997</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K72" s="23">
-        <v>564</v>
-      </c>
-      <c r="L72" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M72" s="23">
-        <v>24</v>
-      </c>
-      <c r="N72" s="23">
+      <c r="M72" s="21">
+        <v>48</v>
+      </c>
+      <c r="N72" s="21">
         <v>25</v>
       </c>
-      <c r="O72" s="23">
-        <v>20</v>
+      <c r="O72" s="21">
+        <v>30</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>356</v>
@@ -6112,52 +6261,54 @@
         <v>20</v>
       </c>
       <c r="R72" s="4">
-        <v>26456</v>
-      </c>
-      <c r="S72" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>103</v>
+      <c r="C73" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>349</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G73" s="2">
-        <v>-80.72757</v>
+        <v>-78.226619999999997</v>
       </c>
       <c r="H73" s="2">
-        <v>40.055880000000002</v>
+        <v>39.628019999999999</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K73" s="23">
-        <v>50000</v>
-      </c>
-      <c r="L73" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="20">
+        <v>3255</v>
+      </c>
+      <c r="L73" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="20">
         <v>24</v>
       </c>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
       <c r="P73" s="2" t="s">
         <v>357</v>
       </c>
@@ -6165,22 +6316,22 @@
         <v>20</v>
       </c>
       <c r="R73" s="4">
-        <v>26003</v>
+        <v>25411</v>
       </c>
       <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>349</v>
@@ -6188,81 +6339,79 @@
       <c r="F74" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G74" s="2">
-        <v>-80.260360000000006</v>
-      </c>
-      <c r="H74" s="22">
-        <v>39.452579999999998</v>
-      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K74" s="23">
-        <v>2742</v>
-      </c>
-      <c r="L74" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M74" s="23">
+        <v>122</v>
+      </c>
+      <c r="K74" s="20">
+        <v>20411</v>
+      </c>
+      <c r="L74" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M74" s="20">
         <v>24</v>
       </c>
-      <c r="N74" s="23">
-        <v>25</v>
-      </c>
-      <c r="O74" s="23">
-        <v>30</v>
-      </c>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
       <c r="P74" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="4">
-        <v>26591</v>
-      </c>
+      <c r="R74" s="4"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="38" t="s">
-        <v>489</v>
+    <row r="75" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>350</v>
+      <c r="D75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G75" s="40"/>
-      <c r="I75" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J75" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L75" s="24" t="s">
+      <c r="G75" s="2">
+        <v>-80.459909999999994</v>
+      </c>
+      <c r="H75" s="2">
+        <v>39.062240000000003</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="20">
+        <v>10364</v>
+      </c>
+      <c r="L75" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M75" s="41">
-        <v>12</v>
-      </c>
-      <c r="N75" s="23">
+      <c r="M75" s="20">
+        <v>24</v>
+      </c>
+      <c r="N75" s="20">
         <v>25</v>
       </c>
-      <c r="O75" s="23">
-        <v>30</v>
+      <c r="O75" s="20">
+        <v>20</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>356</v>
@@ -6270,46 +6419,53 @@
       <c r="Q75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="39">
-        <v>26505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="38" t="s">
-        <v>491</v>
+      <c r="R75" s="4">
+        <v>26452</v>
+      </c>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C76" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>350</v>
+      <c r="C76" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G76" s="40"/>
-      <c r="I76" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" s="38" t="s">
+      <c r="G76" s="2">
+        <v>-79.925397000000004</v>
+      </c>
+      <c r="H76" s="2">
+        <v>39.6565887</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L76" s="24" t="s">
+      <c r="K76" s="21"/>
+      <c r="L76" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M76" s="41">
-        <v>12</v>
-      </c>
-      <c r="N76" s="23">
+      <c r="M76" s="21">
+        <v>48</v>
+      </c>
+      <c r="N76" s="21">
         <v>25</v>
       </c>
-      <c r="O76" s="23">
+      <c r="O76" s="21">
         <v>30</v>
       </c>
       <c r="P76" s="2" t="s">
@@ -6318,47 +6474,58 @@
       <c r="Q76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="39">
+      <c r="R76" s="4">
         <v>26505</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="38" t="s">
-        <v>493</v>
+      <c r="S76" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>350</v>
+      <c r="D77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G77" s="40"/>
-      <c r="I77" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J77" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" s="24" t="s">
+      <c r="G77" s="2">
+        <v>-80.778989999999993</v>
+      </c>
+      <c r="H77" s="19">
+        <v>39.299059999999997</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="20">
+        <v>564</v>
+      </c>
+      <c r="L77" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M77" s="41">
-        <v>12</v>
-      </c>
-      <c r="N77" s="23">
+      <c r="M77" s="20">
+        <v>24</v>
+      </c>
+      <c r="N77" s="20">
         <v>25</v>
       </c>
-      <c r="O77" s="23">
-        <v>30</v>
+      <c r="O77" s="20">
+        <v>20</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>356</v>
@@ -6366,171 +6533,181 @@
       <c r="Q77" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R77" s="39">
-        <v>26505</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="38" t="s">
-        <v>495</v>
+      <c r="R77" s="4">
+        <v>26456</v>
+      </c>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>350</v>
+      <c r="D78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G78" s="2">
+        <v>-80.72757</v>
+      </c>
+      <c r="H78" s="2">
+        <v>40.055880000000002</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K78" s="20">
+        <v>50000</v>
+      </c>
+      <c r="L78" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M78" s="20">
+        <v>24</v>
+      </c>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="4">
+        <v>26003</v>
+      </c>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="G78" s="40"/>
-      <c r="I78" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J78" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L78" s="24" t="s">
+      <c r="G79" s="12">
+        <v>-81.1824412</v>
+      </c>
+      <c r="H79" s="12">
+        <v>37.946477700000003</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" s="39">
+        <v>2626</v>
+      </c>
+      <c r="L79" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M78" s="41">
-        <v>12</v>
-      </c>
-      <c r="N78" s="23">
+      <c r="M79" s="13">
+        <v>24</v>
+      </c>
+      <c r="N79" s="13">
         <v>25</v>
       </c>
-      <c r="O78" s="23">
+      <c r="O79" s="13">
         <v>30</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="P79" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="Q78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="39">
-        <v>26505</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="Q79" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="23">
+        <v>25917</v>
+      </c>
+      <c r="S79" s="12"/>
+    </row>
+    <row r="80" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="C80" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G79">
-        <v>-79.985057699999999</v>
-      </c>
-      <c r="H79">
-        <v>39.648165400000003</v>
-      </c>
-      <c r="I79" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J79" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L79" s="24" t="s">
+      <c r="G80" s="2">
+        <v>-80.260360000000006</v>
+      </c>
+      <c r="H80" s="19">
+        <v>39.452579999999998</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K80" s="20">
+        <v>2742</v>
+      </c>
+      <c r="L80" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M79" s="8">
-        <v>8</v>
-      </c>
-      <c r="N79" s="23">
+      <c r="M80" s="20">
+        <v>24</v>
+      </c>
+      <c r="N80" s="20">
         <v>25</v>
       </c>
-      <c r="O79" s="23">
+      <c r="O80" s="20">
         <v>30</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="P80" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="39">
-        <v>26505</v>
-      </c>
-      <c r="S79" s="38"/>
-    </row>
-    <row r="80" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G80" s="14">
-        <v>-81.1824412</v>
-      </c>
-      <c r="H80" s="14">
-        <v>37.946477700000003</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="J80" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="K80" s="44">
-        <v>2626</v>
-      </c>
-      <c r="L80" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M80" s="15">
-        <v>24</v>
-      </c>
-      <c r="N80" s="15">
-        <v>25</v>
-      </c>
-      <c r="O80" s="15">
-        <v>30</v>
-      </c>
-      <c r="P80" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q80" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="26">
-        <v>25917</v>
-      </c>
+      <c r="Q80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="4">
+        <v>26591</v>
+      </c>
+      <c r="S80" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S74">
-    <sortCondition ref="A2:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S80">
+    <sortCondition ref="A2:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6538,945 +6715,1223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="8" customWidth="1"/>
+    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="42">
         <v>54003906001</v>
       </c>
-      <c r="F2" s="15">
+      <c r="H2" s="23">
         <v>0.15</v>
       </c>
-      <c r="G2" s="15">
+      <c r="I2" s="23">
         <f>175*4</f>
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14">
+      <c r="F3" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G3" s="23">
         <v>54002701001</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="23">
         <v>0.5</v>
       </c>
-      <c r="G3" s="16">
+      <c r="I3" s="41">
         <v>2391</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="42">
+        <v>54000601001</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="I4" s="23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E5" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F5" s="4"/>
+      <c r="G5" s="42">
         <v>54000101001</v>
       </c>
-      <c r="F4" s="15">
+      <c r="H5" s="23">
         <v>0.36499999999999999</v>
       </c>
-      <c r="G4" s="16">
+      <c r="I5" s="41">
         <v>1974</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D6" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F6" s="4"/>
+      <c r="G6" s="42">
         <v>54003031001</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H6" s="23">
         <v>0.05</v>
       </c>
-      <c r="G5" s="15">
+      <c r="I6" s="23">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D7" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E7" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F7" s="4"/>
+      <c r="G7" s="42">
         <v>54001702001</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H7" s="23">
         <v>3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="I7" s="41">
         <v>6984</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="42">
+        <v>54002510001</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="I8" s="41">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G9" s="42">
+        <v>54002003001</v>
+      </c>
+      <c r="H9" s="23">
+        <v>14</v>
+      </c>
+      <c r="I9" s="23">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="42">
+        <v>54002003001</v>
+      </c>
+      <c r="H10" s="23">
+        <v>14</v>
+      </c>
+      <c r="I10" s="41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G11" s="42">
+        <v>54001901001</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2.25</v>
+      </c>
+      <c r="I11" s="41">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G12" s="42">
+        <v>54003045001</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="42">
+        <v>54001703001</v>
+      </c>
+      <c r="H13" s="23">
+        <v>8</v>
+      </c>
+      <c r="I13" s="41">
+        <v>26498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>559</v>
+      </c>
+      <c r="G14" s="42">
+        <v>54002007001</v>
+      </c>
+      <c r="H14" s="23">
+        <v>2.25</v>
+      </c>
+      <c r="I14" s="23">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G15" s="42">
+        <v>54004202001</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="I15" s="41">
+        <v>13156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="42">
+        <v>54002405001</v>
+      </c>
+      <c r="H16" s="23">
+        <v>9</v>
+      </c>
+      <c r="I16" s="41">
+        <v>25525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="42">
+        <v>54002408001</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="I17" s="23">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G18" s="23">
+        <v>54000504001</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="I18" s="41">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" t="s">
+        <v>538</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G19" s="42">
+        <v>54004602001</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I19" s="41">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="41">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" t="s">
+        <v>539</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G21" s="42">
+        <v>54000603001</v>
+      </c>
+      <c r="H21" s="23">
+        <v>17</v>
+      </c>
+      <c r="I21" s="23">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" s="42">
+        <v>54004215001</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="I22" s="41">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="42">
+        <v>54002803001</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="I23" s="41">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="42">
+        <v>54000316001</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="41">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25" s="42">
+        <v>54002415001</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="41">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26" s="42">
+        <v>54002509001</v>
+      </c>
+      <c r="H26" s="23">
+        <v>2.34</v>
+      </c>
+      <c r="I26" s="41">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>545</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G27" s="42">
+        <v>54005405001</v>
+      </c>
+      <c r="H27" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="I27" s="41">
+        <v>48050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15">
+      <c r="F28" t="s">
+        <v>561</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="23">
+        <v>2.16</v>
+      </c>
+      <c r="I28" s="23">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="I29" s="23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23">
+        <v>54001205001</v>
+      </c>
+      <c r="H31" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="I31" s="41">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G32" s="23">
+        <v>54002606001</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I32" s="41">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" t="s">
+        <v>548</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G33" s="23">
+        <v>54002716001</v>
+      </c>
+      <c r="H33" s="23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I33" s="41">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>549</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G34" s="42">
+        <v>54001710001</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="41">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" t="s">
+        <v>550</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" t="s">
+        <v>562</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="23">
         <v>1.8</v>
       </c>
-      <c r="G7" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15">
-        <v>0.21</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15">
-        <v>14</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="I35" s="23">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" t="s">
+        <v>562</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I36" s="23">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="42">
+        <v>54004804001</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="41">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>552</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G38" s="42">
+        <v>54003011001</v>
+      </c>
+      <c r="H38" s="23">
+        <v>20.8</v>
+      </c>
+      <c r="I38" s="41">
+        <v>48328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>553</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23">
+        <v>54003703001</v>
+      </c>
+      <c r="H39" s="23">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I39" s="41">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" t="s">
+        <v>554</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="42">
+        <v>54003203001</v>
+      </c>
+      <c r="H40" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="I40" s="41">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="42">
+        <v>54000509001</v>
+      </c>
+      <c r="H41" s="23">
+        <v>4</v>
+      </c>
+      <c r="I41" s="41">
+        <v>20411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" t="s">
+        <v>555</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="G42" s="23">
+        <v>54002102001</v>
+      </c>
+      <c r="H42" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="I42" s="41">
+        <v>10364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" t="s">
+        <v>556</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G43" s="42">
+        <v>54000901001</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="41">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>557</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G44" s="42">
+        <v>54003508001</v>
+      </c>
+      <c r="H44" s="23">
+        <v>10</v>
+      </c>
+      <c r="I44" s="41">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15">
-        <v>2.25</v>
-      </c>
-      <c r="G10" s="16">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14">
-        <v>54003045001</v>
-      </c>
-      <c r="F11" s="15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="G45" s="42">
+        <v>54001022001</v>
+      </c>
+      <c r="H45" s="4">
         <v>0.75</v>
       </c>
-      <c r="G11" s="16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15">
-        <v>8</v>
-      </c>
-      <c r="G12" s="16">
-        <v>26498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15">
-        <v>14</v>
-      </c>
-      <c r="G13" s="15">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15">
-        <v>2.25</v>
-      </c>
-      <c r="G14" s="15">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15">
-        <v>4.99</v>
-      </c>
-      <c r="G15" s="16">
-        <v>13156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="I45" s="25">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15">
-        <v>9</v>
-      </c>
-      <c r="G16" s="16">
-        <v>25525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="G17" s="15">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="G18" s="16">
-        <v>6468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G19" s="16">
-        <v>6071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="14">
-        <v>54003906001</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15">
-        <v>17</v>
-      </c>
-      <c r="G21" s="15">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15">
-        <v>0.41</v>
-      </c>
-      <c r="G22" s="16">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="G23" s="16">
-        <v>8168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="16">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15">
-        <v>2.34</v>
-      </c>
-      <c r="G26" s="16">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15">
-        <v>15.5</v>
-      </c>
-      <c r="G27" s="16">
-        <v>48050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15">
-        <v>1.35</v>
-      </c>
-      <c r="G28" s="16">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G29" s="16">
-        <v>5515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G30" s="16">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15">
-        <v>2.16</v>
-      </c>
-      <c r="G31" s="15">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G33" s="16">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="G35" s="15">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G36" s="15">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="14">
-        <v>54003011001</v>
-      </c>
-      <c r="F37" s="15">
-        <v>20.8</v>
-      </c>
-      <c r="G37" s="16">
-        <v>48328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G38" s="16">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="G39" s="16">
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15">
-        <v>4</v>
-      </c>
-      <c r="G40" s="16">
-        <v>20411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="G41" s="16">
-        <v>10364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G42" s="16">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15">
-        <v>10</v>
-      </c>
-      <c r="G43" s="16">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15">
+      <c r="F46" s="23"/>
+      <c r="G46" s="42">
+        <v>54002422001</v>
+      </c>
+      <c r="H46" s="23">
         <v>0.1</v>
       </c>
-      <c r="G44" s="16">
+      <c r="I46" s="41">
         <v>2742</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="G45" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
-        <v>499</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" s="43">
-        <v>54001022001</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="G46" s="44">
-        <v>2626</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
-      <c r="J46"/>
-      <c r="K46" s="1"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
       <c r="L46"/>
-      <c r="M46" s="2"/>
-      <c r="U46"/>
+      <c r="M46" s="1"/>
+      <c r="N46"/>
+      <c r="O46" s="2"/>
+      <c r="W46"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7484,861 +7939,1030 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DED6B-84CB-6D46-B3EB-C814548CEBA4}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="26">
+      <c r="C2" s="23">
         <v>54061</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="27">
+      <c r="E2" s="24">
         <v>105612</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="26">
+      <c r="C3" s="23">
         <v>54039</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
+      <c r="E3" s="26">
         <v>183279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="26">
+      <c r="C4" s="23">
         <v>54069</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27">
+      <c r="E4" s="24">
         <v>41411</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="26">
+      <c r="C5" s="23">
         <v>54037</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27">
+      <c r="E5" s="24">
         <v>57146</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="26">
+      <c r="C6" s="23">
         <v>54055</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="27">
+      <c r="E6" s="24">
         <v>58758</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="26">
+      <c r="C7" s="23">
         <v>54041</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="27">
+      <c r="E7" s="24">
         <v>16166</v>
       </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="26">
+      <c r="C8" s="23">
         <v>54057</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="27">
+      <c r="E8" s="24">
         <v>26868</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="26">
+      <c r="C9" s="23">
         <v>54051</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="27">
+      <c r="E9" s="24">
         <v>30531</v>
       </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="26">
+      <c r="C10" s="23">
         <v>54065</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27">
+      <c r="E10" s="24">
         <v>17884</v>
       </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="26">
+      <c r="C11" s="23">
         <v>54077</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="27">
+      <c r="E11" s="24">
         <v>33432</v>
       </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="26">
+      <c r="C12" s="23">
         <v>54107</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="27">
+      <c r="E12" s="24">
         <v>83518</v>
       </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B13" s="26">
+      <c r="C13" s="23">
         <v>54017</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="27">
+      <c r="E13" s="24">
         <v>8448</v>
       </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="26">
+      <c r="C14" s="23">
         <v>54049</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="27">
+      <c r="E14" s="24">
         <v>56072</v>
       </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="26">
+      <c r="C15" s="23">
         <v>54033</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="27">
+      <c r="E15" s="24">
         <v>67256</v>
       </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="26">
+      <c r="C16" s="23">
         <v>54091</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="27">
+      <c r="E16" s="24">
         <v>16695</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="26">
+      <c r="C17" s="23">
         <v>54073</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="27">
+      <c r="E17" s="24">
         <v>7482</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B18" s="26">
+      <c r="C18" s="23">
         <v>54005</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="27">
+      <c r="E18" s="24">
         <v>21809</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B19" s="26">
+      <c r="C19" s="23">
         <v>54083</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="27">
+      <c r="E19" s="24">
         <v>28695</v>
       </c>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B20" s="26">
+      <c r="C20" s="23">
         <v>54009</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="27">
+      <c r="E20" s="24">
         <v>21939</v>
       </c>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="26">
+      <c r="C21" s="23">
         <v>54053</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="27">
+      <c r="E21" s="24">
         <v>26700</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B22" s="26">
+      <c r="C22" s="23">
         <v>54001</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="27">
+      <c r="E22" s="24">
         <v>16633</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B23" s="26">
+      <c r="C23" s="23">
         <v>54003</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="27">
+      <c r="E23" s="24">
         <v>126069</v>
       </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B24" s="26">
+      <c r="C24" s="23">
         <v>54007</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="27">
+      <c r="E24" s="24">
         <v>12247</v>
       </c>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B25" s="26">
+      <c r="C25" s="23">
         <v>54011</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="29">
+      <c r="E25" s="26">
         <v>96319</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B26" s="26">
+      <c r="C26" s="23">
         <v>54013</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D26" s="27">
+      <c r="E26" s="24">
         <v>6176</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B27" s="26">
+      <c r="C27" s="23">
         <v>54015</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="27">
+      <c r="E27" s="24">
         <v>7892</v>
       </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B28" s="26">
+      <c r="C28" s="23">
         <v>54019</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="27">
+      <c r="E28" s="24">
         <v>39927</v>
       </c>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B29" s="26">
+      <c r="C29" s="23">
         <v>54021</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="27">
+      <c r="E29" s="24">
         <v>7377</v>
       </c>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B30" s="26">
+      <c r="C30" s="23">
         <v>54023</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="27">
+      <c r="E30" s="24">
         <v>11616</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B31" s="26">
+      <c r="C31" s="23">
         <v>54025</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="27">
+      <c r="E31" s="24">
         <v>32608</v>
       </c>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B32" s="26">
+      <c r="C32" s="23">
         <v>54027</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D32" s="27">
+      <c r="E32" s="24">
         <v>23302</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B33" s="26">
+      <c r="C33" s="23">
         <v>54029</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="27">
+      <c r="E33" s="24">
         <v>28656</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B34" s="26">
+      <c r="C34" s="23">
         <v>54031</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D34" s="27">
+      <c r="E34" s="24">
         <v>14160</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B35" s="26">
+      <c r="C35" s="23">
         <v>54035</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="27">
+      <c r="E35" s="24">
         <v>27738</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B36" s="26">
+      <c r="C36" s="23">
         <v>54043</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="27">
+      <c r="E36" s="24">
         <v>20126</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="26">
+      <c r="C37" s="23">
         <v>54045</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="27">
+      <c r="E37" s="24">
         <v>31909</v>
       </c>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B38" s="26">
+      <c r="C38" s="23">
         <v>54047</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="27">
+      <c r="E38" s="24">
         <v>18363</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B39" s="26">
+      <c r="C39" s="23">
         <v>54059</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="27">
+      <c r="E39" s="24">
         <v>23005</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B40" s="26">
+      <c r="C40" s="23">
         <v>54063</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="D40" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="27">
+      <c r="E40" s="24">
         <v>12332</v>
       </c>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B41" s="26">
+      <c r="C41" s="23">
         <v>54067</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="D41" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="27">
+      <c r="E41" s="24">
         <v>24300</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B42" s="26">
+      <c r="C42" s="23">
         <v>54071</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="D42" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="27">
+      <c r="E42" s="24">
         <v>6142</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B43" s="26">
+      <c r="C43" s="23">
         <v>54075</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="D43" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="27">
+      <c r="E43" s="24">
         <v>7841</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B44" s="26">
+      <c r="C44" s="23">
         <v>54079</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="D44" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="29">
+      <c r="E44" s="26">
         <v>55486</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="26">
+      <c r="C45" s="23">
         <v>54081</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="27">
+      <c r="E45" s="24">
         <v>73771</v>
       </c>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B46" s="26">
+      <c r="C46" s="23">
         <v>54085</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="D46" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="27">
+      <c r="E46" s="24">
         <v>8383</v>
       </c>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B47" s="26">
+      <c r="C47" s="23">
         <v>54087</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="D47" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="27">
+      <c r="E47" s="24">
         <v>13898</v>
       </c>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B48" s="26">
+      <c r="C48" s="23">
         <v>54089</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="D48" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D48" s="27">
+      <c r="E48" s="24">
         <v>11908</v>
       </c>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B49" s="26">
+      <c r="C49" s="23">
         <v>54093</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="D49" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="27">
+      <c r="E49" s="24">
         <v>6672</v>
       </c>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B50" s="26">
+      <c r="C50" s="23">
         <v>54095</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="D50" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="27">
+      <c r="E50" s="24">
         <v>8811</v>
       </c>
-      <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B51" s="26">
+      <c r="C51" s="23">
         <v>54097</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="D51" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D51" s="27">
+      <c r="E51" s="24">
         <v>23791</v>
       </c>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B52" s="26">
+      <c r="C52" s="23">
         <v>54099</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="D52" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="29">
+      <c r="E52" s="26">
         <v>42481</v>
       </c>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B53" s="26">
+      <c r="C53" s="23">
         <v>54101</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="D53" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D53" s="27">
+      <c r="E53" s="24">
         <v>8249</v>
       </c>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B54" s="26">
+      <c r="C54" s="23">
         <v>54103</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="D54" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="27">
+      <c r="E54" s="24">
         <v>14170</v>
       </c>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B55" s="26">
+      <c r="C55" s="23">
         <v>54105</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="D55" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="27">
+      <c r="E55" s="24">
         <v>5063</v>
       </c>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B56" s="26">
+      <c r="C56" s="23">
         <v>54109</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="27">
+      <c r="E56" s="24">
         <v>21051</v>
       </c>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E61" s="28"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="E62" s="31"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="10"/>
+      <c r="F62" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D56">
-    <sortCondition ref="C2:C56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E56">
+    <sortCondition ref="D2:D56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8364,342 +8988,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="33" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="33" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="33" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="33" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="33" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="33" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="33" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="33" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="33" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="33" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="33" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="33" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="33" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="33" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8726,19 +9350,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>444</v>
       </c>
     </row>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29954D95-FB38-004F-B34D-63A3010F0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC12637-C2CF-A84E-95E2-FABE53420C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="1160" windowWidth="20580" windowHeight="17180" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="2800" yWindow="900" windowWidth="25880" windowHeight="16820" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="593">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1727,6 +1727,96 @@
   </si>
   <si>
     <t>WV0084450</t>
+  </si>
+  <si>
+    <t>sample_code_prefix</t>
+  </si>
+  <si>
+    <t>J01</t>
+  </si>
+  <si>
+    <t>U01</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>O01</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>Q01</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>I01</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>54019-001-01-00-00</t>
+  </si>
+  <si>
+    <t>WV0027707</t>
   </si>
 </sst>
 </file>
@@ -2325,4388 +2415,4568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="24.83203125" style="8" customWidth="1"/>
-    <col min="13" max="15" width="27.1640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="35" customWidth="1"/>
-    <col min="17" max="17" width="30.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="1" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="13" width="24.83203125" style="8" customWidth="1"/>
+    <col min="14" max="16" width="27.1640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>183</v>
+        <v>564</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="H2" s="2">
+        <v>-79.50179</v>
+      </c>
+      <c r="I2" s="19">
+        <v>39.457090000000001</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-79.50179</v>
-      </c>
-      <c r="H3" s="19">
-        <v>39.457090000000001</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="21">
+      <c r="L2" s="21">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M3" s="20">
+      <c r="N2" s="20">
         <v>24</v>
       </c>
+      <c r="O2" s="20">
+        <v>25</v>
+      </c>
+      <c r="P2" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="4">
+        <v>26764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-81.677679999999995</v>
+      </c>
+      <c r="I3" s="2">
+        <v>38.372869999999999</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="20">
+        <v>50000</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>347</v>
+      </c>
       <c r="N3" s="20">
+        <v>24</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4">
+        <v>25312</v>
+      </c>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-77.855890000000002</v>
+      </c>
+      <c r="I4" s="2">
+        <v>39.279240000000001</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="20">
+        <v>17000</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="20">
+        <v>24</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="4">
+        <v>25414</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-79.856999999999999</v>
+      </c>
+      <c r="I5" s="19">
+        <v>39.677120000000002</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="20">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" s="20">
+        <v>24</v>
+      </c>
+      <c r="O5" s="20">
         <v>25</v>
       </c>
-      <c r="O3" s="20">
-        <v>20</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="P5" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="4">
-        <v>26764</v>
-      </c>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="4">
+        <v>26508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-80.338570000000004</v>
+      </c>
+      <c r="I6" s="19">
+        <v>39.279310000000002</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="20">
+        <v>26498</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="20">
+        <v>24</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4">
+        <v>26301</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7">
+        <v>-79.985057699999999</v>
+      </c>
+      <c r="I7">
+        <v>39.648165400000003</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8</v>
+      </c>
+      <c r="O7" s="20">
+        <v>25</v>
+      </c>
+      <c r="P7" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="36">
+        <v>26505</v>
+      </c>
+      <c r="T7" s="35"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-79.865430000000003</v>
+      </c>
+      <c r="I8" s="19">
+        <v>38.920259999999999</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="20">
+        <v>13156</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N8" s="20">
+        <v>24</v>
+      </c>
+      <c r="O8" s="20">
+        <v>25</v>
+      </c>
+      <c r="P8" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="4">
+        <v>26241</v>
+      </c>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-79.972157499999994</v>
+      </c>
+      <c r="I9" s="2">
+        <v>39.650096900000001</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N9" s="21">
+        <v>48</v>
+      </c>
+      <c r="O9" s="21">
+        <v>25</v>
+      </c>
+      <c r="P9" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-80.24933</v>
+      </c>
+      <c r="I10" s="19">
+        <v>39.511809999999997</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="21">
+        <v>610</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N10" s="20">
+        <v>24</v>
+      </c>
+      <c r="O10" s="20">
+        <v>25</v>
+      </c>
+      <c r="P10" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4">
+        <v>26571</v>
+      </c>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-80.018370000000004</v>
+      </c>
+      <c r="I11" s="19">
+        <v>39.338769999999997</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="20">
+        <v>6071</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="20">
+        <v>24</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="4">
+        <v>26354</v>
+      </c>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-79.956762600000005</v>
+      </c>
+      <c r="I12" s="2">
+        <v>39.637875299999997</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="21">
+        <v>874</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N12" s="21">
+        <v>48</v>
+      </c>
+      <c r="O12" s="21">
+        <v>25</v>
+      </c>
+      <c r="P12" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-79.978949999999998</v>
+      </c>
+      <c r="I13" s="19">
+        <v>38.712879999999998</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="20">
+        <v>2101</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N13" s="20">
+        <v>24</v>
+      </c>
+      <c r="O13" s="20">
+        <v>25</v>
+      </c>
+      <c r="P13" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="4">
+        <v>26273</v>
+      </c>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-78.975080000000005</v>
+      </c>
+      <c r="I14" s="2">
+        <v>39.441229999999997</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="20">
+        <v>8168</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N14" s="20">
+        <v>24</v>
+      </c>
+      <c r="O14" s="20">
+        <v>25</v>
+      </c>
+      <c r="P14" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="4">
+        <v>26726</v>
+      </c>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-81.847288800000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>38.102483999999997</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="20">
+        <v>4555</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N15" s="20">
+        <v>24</v>
+      </c>
+      <c r="O15" s="20">
+        <v>25</v>
+      </c>
+      <c r="P15" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="4">
+        <v>25053</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-80.323710000000005</v>
+      </c>
+      <c r="I16" s="19">
+        <v>39.518140000000002</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1091</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N16" s="20">
+        <v>24</v>
+      </c>
+      <c r="O16" s="20">
+        <v>25</v>
+      </c>
+      <c r="P16" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="4">
+        <v>26582</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-80.754930000000002</v>
+      </c>
+      <c r="I17" s="2">
+        <v>39.929859999999998</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="20">
+        <v>12000</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="20">
+        <v>24</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="4">
+        <v>26041</v>
+      </c>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-79.965769100000003</v>
+      </c>
+      <c r="I18" s="2">
+        <v>39.672765599999998</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N18" s="21">
+        <v>48</v>
+      </c>
+      <c r="O18" s="21">
+        <v>25</v>
+      </c>
+      <c r="P18" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-79.953202899999994</v>
+      </c>
+      <c r="I19" s="2">
+        <v>39.633116399999999</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N19" s="21">
+        <v>48</v>
+      </c>
+      <c r="O19" s="21">
+        <v>25</v>
+      </c>
+      <c r="P19" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-79.962211800000006</v>
+      </c>
+      <c r="I20" s="2">
+        <v>39.6511596</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="21">
+        <v>862</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N20" s="21">
+        <v>48</v>
+      </c>
+      <c r="O20" s="21">
+        <v>25</v>
+      </c>
+      <c r="P20" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-81.557389999999998</v>
+      </c>
+      <c r="I21" s="19">
+        <v>39.281709999999997</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="20">
+        <v>48050</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N21" s="20">
+        <v>24</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="4">
+        <v>26101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-82.135114799999997</v>
+      </c>
+      <c r="I22" s="2">
+        <v>38.856708400000002</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" s="20">
+        <v>5515</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N22" s="20">
+        <v>24</v>
+      </c>
+      <c r="O22" s="20">
+        <v>25</v>
+      </c>
+      <c r="P22" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="4">
+        <v>25550</v>
+      </c>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-81.079930000000004</v>
+      </c>
+      <c r="I23" s="2">
+        <v>37.380360000000003</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="20">
+        <v>36000</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="N23" s="20">
+        <v>24</v>
+      </c>
+      <c r="O23" s="20">
+        <v>25</v>
+      </c>
+      <c r="P23" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="4">
+        <v>24740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-80.545150000000007</v>
+      </c>
+      <c r="I24" s="19">
+        <v>39.285969999999999</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="20">
+        <v>1853</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N24" s="20">
+        <v>24</v>
+      </c>
+      <c r="O24" s="20">
+        <v>25</v>
+      </c>
+      <c r="P24" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="4">
+        <v>26426</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-79.956140000000005</v>
+      </c>
+      <c r="I25" s="2">
+        <v>39.639200000000002</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="21">
+        <v>474</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N25" s="21">
+        <v>48</v>
+      </c>
+      <c r="O25" s="21">
+        <v>25</v>
+      </c>
+      <c r="P25" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N26" s="38">
+        <v>12</v>
+      </c>
+      <c r="O26" s="20">
+        <v>25</v>
+      </c>
+      <c r="P26" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="36">
+        <v>26505</v>
+      </c>
+      <c r="T26" s="35"/>
+    </row>
+    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="35"/>
+      <c r="M27" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N27" s="38">
+        <v>12</v>
+      </c>
+      <c r="O27" s="20">
+        <v>25</v>
+      </c>
+      <c r="P27" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="36">
+        <v>26505</v>
+      </c>
+      <c r="T27" s="35"/>
+    </row>
+    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="35"/>
+      <c r="M28" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N28" s="38">
+        <v>12</v>
+      </c>
+      <c r="O28" s="20">
+        <v>25</v>
+      </c>
+      <c r="P28" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="36">
+        <v>26505</v>
+      </c>
+      <c r="T28" s="35"/>
+    </row>
+    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N29" s="38">
+        <v>12</v>
+      </c>
+      <c r="O29" s="20">
+        <v>25</v>
+      </c>
+      <c r="P29" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="36">
+        <v>26505</v>
+      </c>
+      <c r="T29" s="35"/>
+    </row>
+    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-79.992055399999998</v>
+      </c>
+      <c r="I30" s="2">
+        <v>39.655174500000001</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="20">
+        <v>48328</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N30" s="20">
+        <v>24</v>
+      </c>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-79.966336100000007</v>
+      </c>
+      <c r="I31" s="2">
+        <v>39.649548899999999</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="21">
+        <v>904</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N31" s="21">
+        <v>48</v>
+      </c>
+      <c r="O31" s="21">
+        <v>25</v>
+      </c>
+      <c r="P31" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-79.956755900000005</v>
+      </c>
+      <c r="I32" s="2">
+        <v>39.640189999999997</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N32" s="21">
+        <v>48</v>
+      </c>
+      <c r="O32" s="21">
+        <v>25</v>
+      </c>
+      <c r="P32" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-80.459909999999994</v>
+      </c>
+      <c r="I33" s="2">
+        <v>39.062240000000003</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="20">
+        <v>10364</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N33" s="20">
+        <v>24</v>
+      </c>
+      <c r="O33" s="20">
+        <v>25</v>
+      </c>
+      <c r="P33" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="4">
+        <v>26452</v>
+      </c>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-80.778989999999993</v>
+      </c>
+      <c r="I34" s="19">
+        <v>39.299059999999997</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="20">
+        <v>564</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N34" s="20">
+        <v>24</v>
+      </c>
+      <c r="O34" s="20">
+        <v>25</v>
+      </c>
+      <c r="P34" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="4">
+        <v>26456</v>
+      </c>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-80.72757</v>
+      </c>
+      <c r="I35" s="2">
+        <v>40.055880000000002</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="20">
+        <v>50000</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N35" s="20">
+        <v>24</v>
+      </c>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="4">
+        <v>26003</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="H36" s="12">
+        <v>-81.1824412</v>
+      </c>
+      <c r="I36" s="12">
+        <v>37.946477700000003</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="39">
+        <v>2626</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N36" s="13">
+        <v>24</v>
+      </c>
+      <c r="O36" s="13">
+        <v>25</v>
+      </c>
+      <c r="P36" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="23">
+        <v>25917</v>
+      </c>
+      <c r="T36" s="12"/>
+    </row>
+    <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-82.285698770801503</v>
+      </c>
+      <c r="I38" s="2">
+        <v>38.414946823509098</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L38" s="21">
+        <v>4000</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N38" s="21">
+        <v>8.3333329999999997E-2</v>
+      </c>
+      <c r="O38" s="21">
+        <v>250</v>
+      </c>
+      <c r="P38" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="22">
+        <v>25504</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-81.679554234298493</v>
+      </c>
+      <c r="I40" s="2">
+        <v>38.373735533484897</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="21">
+        <v>49500</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N40" s="20">
+        <v>24</v>
+      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="22">
+        <v>25387</v>
+      </c>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-81.758709180509001</v>
+      </c>
+      <c r="I41" s="2">
+        <v>38.368519014596998</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="21">
+        <v>9000</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N41" s="20">
+        <v>24</v>
+      </c>
+      <c r="O41" s="20">
+        <v>25</v>
+      </c>
+      <c r="P41" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="4">
+        <v>25064</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-82.006959612418996</v>
+      </c>
+      <c r="I42" s="2">
+        <v>38.446524084559897</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="21">
+        <v>28759</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N42" s="20">
+        <v>72</v>
+      </c>
+      <c r="O42" s="20">
+        <v>25</v>
+      </c>
+      <c r="P42" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="4">
+        <v>25526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-82.528864034905197</v>
+      </c>
+      <c r="I43" s="2">
+        <v>38.400744931017101</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L43" s="21">
+        <v>56000</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N43" s="20">
+        <v>24</v>
+      </c>
+      <c r="O43" s="20">
+        <v>25</v>
+      </c>
+      <c r="P43" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="22">
+        <v>25704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-82.451303840583293</v>
+      </c>
+      <c r="I44" s="2">
+        <v>38.343336164586603</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="21">
+        <v>1600</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N44" s="20">
+        <v>24</v>
+      </c>
+      <c r="O44" s="20">
+        <v>25</v>
+      </c>
+      <c r="P44" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="4">
+        <v>25701</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-82.287563960345196</v>
+      </c>
+      <c r="I45" s="2">
+        <v>38.572623654172197</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L45" s="21">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N45" s="20">
+        <v>24</v>
+      </c>
+      <c r="O45" s="20">
+        <v>25</v>
+      </c>
+      <c r="P45" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="4">
+        <v>25537</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-82.298209254857795</v>
+      </c>
+      <c r="I46" s="2">
+        <v>38.419661908139098</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L46" s="21">
+        <v>7000</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N46" s="20">
+        <v>24</v>
+      </c>
+      <c r="O46" s="20">
+        <v>25</v>
+      </c>
+      <c r="P46" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="4">
+        <v>25705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-82.105144999999993</v>
+      </c>
+      <c r="I47" s="2">
+        <v>38.425437000000002</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L47" s="21">
+        <v>7200</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N47" s="20">
+        <v>24</v>
+      </c>
+      <c r="O47" s="20">
+        <v>25</v>
+      </c>
+      <c r="P47" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="4">
+        <v>25541</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-82.244877751268803</v>
+      </c>
+      <c r="I48" s="2">
+        <v>38.372162360135</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48" s="21">
+        <v>4050</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N48" s="20">
+        <v>24</v>
+      </c>
+      <c r="O48" s="20">
+        <v>25</v>
+      </c>
+      <c r="P48" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="4">
+        <v>25545</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="R49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="R50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H51" s="2">
         <v>-81.015979999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I51" s="2">
         <v>37.42163</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="20">
+      <c r="L51" s="20">
         <v>2391</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="M51" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="M4" s="20">
+      <c r="N51" s="20">
         <v>24</v>
       </c>
-      <c r="N4" s="20">
+      <c r="O51" s="20">
         <v>25</v>
       </c>
-      <c r="O4" s="20">
-        <v>20</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="P51" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="R51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="4">
         <v>24740</v>
       </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-79.905010000000004</v>
+      </c>
+      <c r="I52" s="2">
+        <v>39.610210000000002</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="21">
+        <v>579</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N52" s="21">
+        <v>8</v>
+      </c>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="4">
+        <v>26508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-79.867609999999999</v>
+      </c>
+      <c r="I53" s="2">
+        <v>39.652670000000001</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="21">
+        <v>830</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N53" s="21">
+        <v>8</v>
+      </c>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="4">
+        <v>26508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H54" s="2">
+        <v>-79.945801900000006</v>
+      </c>
+      <c r="I54" s="2">
+        <v>39.6362083</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="21">
+        <v>567</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N54" s="21">
+        <v>48</v>
+      </c>
+      <c r="O54" s="21">
+        <v>25</v>
+      </c>
+      <c r="P54" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H55" s="2">
+        <v>-79.953093199999998</v>
+      </c>
+      <c r="I55" s="2">
+        <v>39.636423100000002</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="21">
+        <v>639</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N55" s="21">
+        <v>48</v>
+      </c>
+      <c r="O55" s="21">
+        <v>25</v>
+      </c>
+      <c r="P55" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H56" s="2">
+        <v>-80.000420899999995</v>
+      </c>
+      <c r="I56" s="2">
+        <v>39.6535571</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="21">
+        <v>912</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N56" s="21">
+        <v>48</v>
+      </c>
+      <c r="O56" s="21">
+        <v>25</v>
+      </c>
+      <c r="P56" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H57" s="2">
+        <v>-79.956234100000003</v>
+      </c>
+      <c r="I57" s="2">
+        <v>39.667909799999997</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N57" s="21">
+        <v>48</v>
+      </c>
+      <c r="O57" s="21">
+        <v>25</v>
+      </c>
+      <c r="P57" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H58" s="2">
+        <v>-79.956204600000007</v>
+      </c>
+      <c r="I58" s="2">
+        <v>39.668112200000003</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N58" s="21">
+        <v>48</v>
+      </c>
+      <c r="O58" s="21">
+        <v>25</v>
+      </c>
+      <c r="P58" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-80.598290000000006</v>
+      </c>
+      <c r="I59" s="19">
+        <v>40.325800000000001</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L59" s="20">
+        <v>6468</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N59" s="20">
+        <v>24</v>
+      </c>
+      <c r="O59" s="20">
+        <v>25</v>
+      </c>
+      <c r="P59" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="4">
+        <v>26037</v>
+      </c>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-79.515240000000006</v>
+      </c>
+      <c r="I60" s="19">
+        <v>39.66807</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" s="20">
+        <v>1948</v>
+      </c>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="4">
+        <v>26525</v>
+      </c>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" s="2">
+        <v>-79.955122099999997</v>
+      </c>
+      <c r="I61" s="2">
+        <v>39.669188599999998</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N61" s="21">
+        <v>48</v>
+      </c>
+      <c r="O61" s="21">
+        <v>25</v>
+      </c>
+      <c r="P61" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H62" s="2">
+        <v>-79.955245399999995</v>
+      </c>
+      <c r="I62" s="2">
+        <v>39.669279500000002</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N62" s="21">
+        <v>48</v>
+      </c>
+      <c r="O62" s="21">
+        <v>25</v>
+      </c>
+      <c r="P62" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H63" s="2">
+        <v>-79.957359999999994</v>
+      </c>
+      <c r="I63" s="2">
+        <v>39.625419999999998</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="21">
+        <v>1851</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N63" s="21">
+        <v>8</v>
+      </c>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="4">
+        <v>26501</v>
+      </c>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H64" s="2">
+        <v>-79.943309999999997</v>
+      </c>
+      <c r="I64" s="2">
+        <v>39.61036</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="21">
+        <v>726</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N64" s="21">
+        <v>8</v>
+      </c>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="4">
+        <v>26501</v>
+      </c>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H65" s="2">
+        <v>-79.956739999999996</v>
+      </c>
+      <c r="I65" s="2">
+        <v>39.660640000000001</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="21">
+        <v>688</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N65" s="21">
+        <v>8</v>
+      </c>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H66" s="2">
+        <v>-79.127250000000004</v>
+      </c>
+      <c r="I66" s="19">
+        <v>38.99091</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="20">
+        <v>2700</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N66" s="20">
+        <v>24</v>
+      </c>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="4">
+        <v>26847</v>
+      </c>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-81.205110000000005</v>
+      </c>
+      <c r="I67" s="19">
+        <v>39.391249999999999</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" s="20">
+        <v>2892</v>
+      </c>
+      <c r="M67" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N67" s="20">
+        <v>24</v>
+      </c>
+      <c r="O67" s="20">
+        <v>25</v>
+      </c>
+      <c r="P67" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="4">
+        <v>26170</v>
+      </c>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H68" s="2">
+        <v>-79.978250000000003</v>
+      </c>
+      <c r="I68" s="2">
+        <v>39.671370000000003</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="21">
+        <v>515</v>
+      </c>
+      <c r="M68" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N68" s="21">
+        <v>8</v>
+      </c>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H69" s="2">
+        <v>-79.926150000000007</v>
+      </c>
+      <c r="I69" s="2">
+        <v>39.687820000000002</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="21">
+        <v>1310</v>
+      </c>
+      <c r="M69" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N69" s="21">
+        <v>8</v>
+      </c>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="4">
+        <v>26508</v>
+      </c>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H70" s="2">
+        <v>-79.925397000000004</v>
+      </c>
+      <c r="I70" s="2">
+        <v>39.6565887</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N70" s="21">
+        <v>48</v>
+      </c>
+      <c r="O70" s="21">
+        <v>25</v>
+      </c>
+      <c r="P70" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D71" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H71" s="2">
         <v>-79.936940000000007</v>
       </c>
-      <c r="H5" s="19">
+      <c r="I71" s="19">
         <v>39.022010000000002</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="20">
+      <c r="L71" s="20">
         <v>1974</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M71" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="20">
+      <c r="N71" s="20">
         <v>24</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="2" t="s">
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="R71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="4">
         <v>26250</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="D72" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H72" s="2">
         <v>-80.212010000000006</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I72" s="19">
         <v>39.72007</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="21">
+      <c r="L72" s="21">
         <v>400</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M72" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M6" s="20">
+      <c r="N72" s="20">
         <v>24</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="2" t="s">
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="R72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="4">
         <v>26521</v>
       </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="D73" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H73" s="2">
         <v>-80.258989999999997</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I73" s="19">
         <v>39.280479999999997</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="20">
+      <c r="L73" s="20">
         <v>6984</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="M73" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M7" s="20">
+      <c r="N73" s="20">
         <v>24</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="2" t="s">
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="R73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="4">
         <v>26330</v>
       </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D74" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G8" s="2">
-        <v>-79.905010000000004</v>
-      </c>
-      <c r="H8" s="2">
-        <v>39.610210000000002</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="21">
-        <v>579</v>
-      </c>
-      <c r="L8" s="21" t="s">
+      <c r="H74" s="2">
+        <v>-80.567440000000005</v>
+      </c>
+      <c r="I74" s="19">
+        <v>39.826610000000002</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="20">
+        <v>1340</v>
+      </c>
+      <c r="M74" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M8" s="21">
-        <v>8</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="2" t="s">
+      <c r="N74" s="20">
+        <v>24</v>
+      </c>
+      <c r="O74" s="20">
+        <v>25</v>
+      </c>
+      <c r="P74" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="4">
-        <v>26508</v>
-      </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="R74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="4">
+        <v>26033</v>
+      </c>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G9" s="2">
-        <v>-82.285698770801503</v>
-      </c>
-      <c r="H9" s="2">
-        <v>38.414946823509098</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="21">
-        <v>4000</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="H75" s="2">
+        <v>-80.124449999999996</v>
+      </c>
+      <c r="I75" s="19">
+        <v>39.493949999999998</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L75" s="20">
+        <v>25525</v>
+      </c>
+      <c r="M75" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N75" s="20">
+        <v>24</v>
+      </c>
+      <c r="O75" s="20">
+        <v>25</v>
+      </c>
+      <c r="P75" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="4">
+        <v>26554</v>
+      </c>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H76" s="2">
+        <v>-78.98272</v>
+      </c>
+      <c r="I76" s="19">
+        <v>39.438070000000003</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" s="21">
+        <v>1193</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="N76" s="21">
+        <v>48</v>
+      </c>
+      <c r="O76" s="20">
+        <v>25</v>
+      </c>
+      <c r="P76" s="20">
+        <v>30</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="4">
+        <v>26726</v>
+      </c>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L77" s="20">
+        <v>1800</v>
+      </c>
+      <c r="M77" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M9" s="21">
-        <v>8.3333329999999997E-2</v>
-      </c>
-      <c r="N9" s="21">
-        <v>250</v>
-      </c>
-      <c r="O9" s="21">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="22">
-        <v>25504</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="N77" s="20">
+        <v>24</v>
+      </c>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D78" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G10" s="2">
-        <v>-80.567440000000005</v>
-      </c>
-      <c r="H10" s="19">
-        <v>39.826610000000002</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="20">
-        <v>1340</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="H78" s="2">
+        <v>-78.226619999999997</v>
+      </c>
+      <c r="I78" s="2">
+        <v>39.628019999999999</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="20">
+        <v>3255</v>
+      </c>
+      <c r="M78" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N78" s="20">
         <v>24</v>
       </c>
-      <c r="N10" s="20">
-        <v>25</v>
-      </c>
-      <c r="O10" s="20">
-        <v>30</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="4">
-        <v>26033</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="4">
+        <v>25411</v>
+      </c>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D79" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G11" s="2">
-        <v>-81.677679999999995</v>
-      </c>
-      <c r="H11" s="2">
-        <v>38.372869999999999</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20">
-        <v>50000</v>
-      </c>
-      <c r="L11" s="20" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L79" s="20">
+        <v>20411</v>
+      </c>
+      <c r="M79" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="M11" s="20">
+      <c r="N79" s="20">
         <v>24</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="2" t="s">
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="4">
-        <v>25312</v>
-      </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-77.855890000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <v>39.279240000000001</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="20">
-        <v>17000</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M12" s="20">
-        <v>24</v>
-      </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="4">
-        <v>25414</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-79.867609999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>39.652670000000001</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="21">
-        <v>830</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M13" s="21">
-        <v>8</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="4">
-        <v>26508</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-79.856999999999999</v>
-      </c>
-      <c r="H14" s="19">
-        <v>39.677120000000002</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="20">
-        <v>2000</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M14" s="20">
-        <v>24</v>
-      </c>
-      <c r="N14" s="20">
-        <v>25</v>
-      </c>
-      <c r="O14" s="20">
-        <v>20</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="4">
-        <v>26508</v>
-      </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-80.338570000000004</v>
-      </c>
-      <c r="H15" s="19">
-        <v>39.279310000000002</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="20">
-        <v>26498</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M15" s="20">
-        <v>24</v>
-      </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="4">
-        <v>26301</v>
-      </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16">
-        <v>-79.985057699999999</v>
-      </c>
-      <c r="H16">
-        <v>39.648165400000003</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M16" s="8">
-        <v>8</v>
-      </c>
-      <c r="N16" s="20">
-        <v>25</v>
-      </c>
-      <c r="O16" s="20">
-        <v>30</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="36">
-        <v>26505</v>
-      </c>
-      <c r="S16" s="35"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-79.945801900000006</v>
-      </c>
-      <c r="H17" s="2">
-        <v>39.6362083</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="21">
-        <v>567</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M17" s="21">
-        <v>48</v>
-      </c>
-      <c r="N17" s="21">
-        <v>25</v>
-      </c>
-      <c r="O17" s="21">
-        <v>30</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-81.679554234298493</v>
-      </c>
-      <c r="H19" s="2">
-        <v>38.373735533484897</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="21">
-        <v>49500</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M19" s="20">
-        <v>24</v>
-      </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="22">
-        <v>25387</v>
-      </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-79.953093199999998</v>
-      </c>
-      <c r="H20" s="2">
-        <v>39.636423100000002</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="21">
-        <v>639</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M20" s="21">
-        <v>48</v>
-      </c>
-      <c r="N20" s="21">
-        <v>25</v>
-      </c>
-      <c r="O20" s="21">
-        <v>30</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-80.000420899999995</v>
-      </c>
-      <c r="H21" s="2">
-        <v>39.6535571</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="21">
-        <v>912</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" s="21">
-        <v>48</v>
-      </c>
-      <c r="N21" s="21">
-        <v>25</v>
-      </c>
-      <c r="O21" s="21">
-        <v>30</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-81.758709180509001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>38.368519014596998</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="21">
-        <v>9000</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M22" s="20">
-        <v>24</v>
-      </c>
-      <c r="N22" s="20">
-        <v>25</v>
-      </c>
-      <c r="O22" s="20">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="4">
-        <v>25064</v>
-      </c>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-79.865430000000003</v>
-      </c>
-      <c r="H23" s="19">
-        <v>38.920259999999999</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" s="20">
-        <v>13156</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M23" s="20">
-        <v>24</v>
-      </c>
-      <c r="N23" s="20">
-        <v>25</v>
-      </c>
-      <c r="O23" s="20">
-        <v>20</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="4">
-        <v>26241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-79.972157499999994</v>
-      </c>
-      <c r="H24" s="2">
-        <v>39.650096900000001</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M24" s="21">
-        <v>48</v>
-      </c>
-      <c r="N24" s="21">
-        <v>25</v>
-      </c>
-      <c r="O24" s="21">
-        <v>30</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-79.956234100000003</v>
-      </c>
-      <c r="H25" s="2">
-        <v>39.667909799999997</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M25" s="21">
-        <v>48</v>
-      </c>
-      <c r="N25" s="21">
-        <v>25</v>
-      </c>
-      <c r="O25" s="21">
-        <v>30</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-79.956204600000007</v>
-      </c>
-      <c r="H26" s="2">
-        <v>39.668112200000003</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M26" s="21">
-        <v>48</v>
-      </c>
-      <c r="N26" s="21">
-        <v>25</v>
-      </c>
-      <c r="O26" s="21">
-        <v>30</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G27" s="2">
-        <v>-80.124449999999996</v>
-      </c>
-      <c r="H27" s="19">
-        <v>39.493949999999998</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="20">
-        <v>25525</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M27" s="20">
-        <v>24</v>
-      </c>
-      <c r="N27" s="20">
-        <v>25</v>
-      </c>
-      <c r="O27" s="20">
-        <v>30</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="4">
-        <v>26554</v>
-      </c>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-80.24933</v>
-      </c>
-      <c r="H28" s="19">
-        <v>39.511809999999997</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="21">
-        <v>610</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M28" s="20">
-        <v>24</v>
-      </c>
-      <c r="N28" s="20">
-        <v>25</v>
-      </c>
-      <c r="O28" s="20">
-        <v>20</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="4">
-        <v>26571</v>
-      </c>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G29" s="2">
-        <v>-80.598290000000006</v>
-      </c>
-      <c r="H29" s="19">
-        <v>40.325800000000001</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" s="20">
-        <v>6468</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M29" s="20">
-        <v>24</v>
-      </c>
-      <c r="N29" s="20">
-        <v>25</v>
-      </c>
-      <c r="O29" s="20">
-        <v>20</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="4">
-        <v>26037</v>
-      </c>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-80.018370000000004</v>
-      </c>
-      <c r="H30" s="19">
-        <v>39.338769999999997</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" s="20">
-        <v>6071</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M30" s="20">
-        <v>24</v>
-      </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="4">
-        <v>26354</v>
-      </c>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-79.515240000000006</v>
-      </c>
-      <c r="H31" s="19">
-        <v>39.66807</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="20">
-        <v>1948</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="4">
-        <v>26525</v>
-      </c>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-79.956762600000005</v>
-      </c>
-      <c r="H32" s="2">
-        <v>39.637875299999997</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="21">
-        <v>874</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M32" s="21">
-        <v>48</v>
-      </c>
-      <c r="N32" s="21">
-        <v>25</v>
-      </c>
-      <c r="O32" s="21">
-        <v>30</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-82.006959612418996</v>
-      </c>
-      <c r="H33" s="2">
-        <v>38.446524084559897</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K33" s="21">
-        <v>28759</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M33" s="20">
-        <v>72</v>
-      </c>
-      <c r="N33" s="20">
-        <v>25</v>
-      </c>
-      <c r="O33" s="20">
-        <v>20</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="4">
-        <v>25526</v>
-      </c>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G34" s="2">
-        <v>-82.528864034905197</v>
-      </c>
-      <c r="H34" s="2">
-        <v>38.400744931017101</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K34" s="21">
-        <v>56000</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M34" s="20">
-        <v>24</v>
-      </c>
-      <c r="N34" s="20">
-        <v>25</v>
-      </c>
-      <c r="O34" s="20">
-        <v>20</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="22">
-        <v>25704</v>
-      </c>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-79.978949999999998</v>
-      </c>
-      <c r="H35" s="19">
-        <v>38.712879999999998</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="20">
-        <v>2101</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M35" s="20">
-        <v>24</v>
-      </c>
-      <c r="N35" s="20">
-        <v>25</v>
-      </c>
-      <c r="O35" s="20">
-        <v>20</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="4">
-        <v>26273</v>
-      </c>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G36" s="2">
-        <v>-78.975080000000005</v>
-      </c>
-      <c r="H36" s="2">
-        <v>39.441229999999997</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="20">
-        <v>8168</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M36" s="20">
-        <v>24</v>
-      </c>
-      <c r="N36" s="20">
-        <v>25</v>
-      </c>
-      <c r="O36" s="20">
-        <v>20</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="4">
-        <v>26726</v>
-      </c>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G37" s="2">
-        <v>-79.955122099999997</v>
-      </c>
-      <c r="H37" s="2">
-        <v>39.669188599999998</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M37" s="21">
-        <v>48</v>
-      </c>
-      <c r="N37" s="21">
-        <v>25</v>
-      </c>
-      <c r="O37" s="21">
-        <v>30</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G38" s="2">
-        <v>-79.955245399999995</v>
-      </c>
-      <c r="H38" s="2">
-        <v>39.669279500000002</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M38" s="21">
-        <v>48</v>
-      </c>
-      <c r="N38" s="21">
-        <v>25</v>
-      </c>
-      <c r="O38" s="21">
-        <v>30</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G39" s="2">
-        <v>-81.847288800000001</v>
-      </c>
-      <c r="H39" s="2">
-        <v>38.102483999999997</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K39" s="20">
-        <v>4555</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M39" s="20">
-        <v>24</v>
-      </c>
-      <c r="N39" s="20">
-        <v>25</v>
-      </c>
-      <c r="O39" s="20">
-        <v>20</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="4">
-        <v>25053</v>
-      </c>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G40" s="2">
-        <v>-80.323710000000005</v>
-      </c>
-      <c r="H40" s="19">
-        <v>39.518140000000002</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="20">
-        <v>1091</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M40" s="20">
-        <v>24</v>
-      </c>
-      <c r="N40" s="20">
-        <v>25</v>
-      </c>
-      <c r="O40" s="20">
-        <v>20</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="4">
-        <v>26582</v>
-      </c>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G41" s="2">
-        <v>-79.957359999999994</v>
-      </c>
-      <c r="H41" s="2">
-        <v>39.625419999999998</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="21">
-        <v>1851</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M41" s="21">
-        <v>8</v>
-      </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="4">
-        <v>26501</v>
-      </c>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G42" s="2">
-        <v>-80.754930000000002</v>
-      </c>
-      <c r="H42" s="2">
-        <v>39.929859999999998</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="20">
-        <v>12000</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M42" s="20">
-        <v>24</v>
-      </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="4">
-        <v>26041</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-79.943309999999997</v>
-      </c>
-      <c r="H43" s="2">
-        <v>39.61036</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="21">
-        <v>726</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M43" s="21">
-        <v>8</v>
-      </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="4">
-        <v>26501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G44" s="2">
-        <v>-79.965769100000003</v>
-      </c>
-      <c r="H44" s="2">
-        <v>39.672765599999998</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M44" s="21">
-        <v>48</v>
-      </c>
-      <c r="N44" s="21">
-        <v>25</v>
-      </c>
-      <c r="O44" s="21">
-        <v>30</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G45" s="2">
-        <v>-82.451303840583293</v>
-      </c>
-      <c r="H45" s="2">
-        <v>38.343336164586603</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K45" s="21">
-        <v>1600</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M45" s="20">
-        <v>24</v>
-      </c>
-      <c r="N45" s="20">
-        <v>25</v>
-      </c>
-      <c r="O45" s="20">
-        <v>20</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="4">
-        <v>25701</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G46" s="2">
-        <v>-79.956739999999996</v>
-      </c>
-      <c r="H46" s="2">
-        <v>39.660640000000001</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="21">
-        <v>688</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M46" s="21">
-        <v>8</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="4">
-        <v>26505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G47" s="2">
-        <v>-79.953202899999994</v>
-      </c>
-      <c r="H47" s="2">
-        <v>39.633116399999999</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M47" s="21">
-        <v>48</v>
-      </c>
-      <c r="N47" s="21">
-        <v>25</v>
-      </c>
-      <c r="O47" s="21">
-        <v>30</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-79.962211800000006</v>
-      </c>
-      <c r="H48" s="2">
-        <v>39.6511596</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="21">
-        <v>862</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M48" s="21">
-        <v>48</v>
-      </c>
-      <c r="N48" s="21">
-        <v>25</v>
-      </c>
-      <c r="O48" s="21">
-        <v>30</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G49" s="2">
-        <v>-81.557389999999998</v>
-      </c>
-      <c r="H49" s="19">
-        <v>39.281709999999997</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="20">
-        <v>48050</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M49" s="20">
-        <v>24</v>
-      </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="4">
-        <v>26101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G50" s="2">
-        <v>-82.287563960345196</v>
-      </c>
-      <c r="H50" s="2">
-        <v>38.572623654172197</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K50" s="21">
-        <v>1000</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M50" s="20">
-        <v>24</v>
-      </c>
-      <c r="N50" s="20">
-        <v>25</v>
-      </c>
-      <c r="O50" s="20">
-        <v>20</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="4">
-        <v>25537</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G51" s="2">
-        <v>-79.127250000000004</v>
-      </c>
-      <c r="H51" s="19">
-        <v>38.99091</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="20">
-        <v>2700</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M51" s="20">
-        <v>24</v>
-      </c>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="4">
-        <v>26847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-82.135114799999997</v>
-      </c>
-      <c r="H52" s="2">
-        <v>38.856708400000002</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K52" s="20">
-        <v>5515</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M52" s="20">
-        <v>24</v>
-      </c>
-      <c r="N52" s="20">
-        <v>25</v>
-      </c>
-      <c r="O52" s="20">
-        <v>20</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="4">
-        <v>25550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G53" s="2">
-        <v>-78.98272</v>
-      </c>
-      <c r="H53" s="19">
-        <v>39.438070000000003</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="21">
-        <v>1193</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M53" s="21">
-        <v>48</v>
-      </c>
-      <c r="N53" s="20">
-        <v>25</v>
-      </c>
-      <c r="O53" s="20">
-        <v>30</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="4">
-        <v>26726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G54" s="2">
-        <v>-81.079930000000004</v>
-      </c>
-      <c r="H54" s="2">
-        <v>37.380360000000003</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="20">
-        <v>36000</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="M54" s="20">
-        <v>24</v>
-      </c>
-      <c r="N54" s="20">
-        <v>25</v>
-      </c>
-      <c r="O54" s="20">
-        <v>20</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="4">
-        <v>24740</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G55" s="2">
-        <v>-82.298209254857795</v>
-      </c>
-      <c r="H55" s="2">
-        <v>38.419661908139098</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K55" s="21">
-        <v>7000</v>
-      </c>
-      <c r="L55" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M55" s="20">
-        <v>24</v>
-      </c>
-      <c r="N55" s="20">
-        <v>25</v>
-      </c>
-      <c r="O55" s="20">
-        <v>20</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="4">
-        <v>25705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G56" s="2">
-        <v>-80.545150000000007</v>
-      </c>
-      <c r="H56" s="19">
-        <v>39.285969999999999</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K56" s="20">
-        <v>1853</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M56" s="20">
-        <v>24</v>
-      </c>
-      <c r="N56" s="20">
-        <v>25</v>
-      </c>
-      <c r="O56" s="20">
-        <v>20</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="4">
-        <v>26426</v>
-      </c>
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G57" s="2">
-        <v>-79.956140000000005</v>
-      </c>
-      <c r="H57" s="2">
-        <v>39.639200000000002</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="21">
-        <v>474</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M57" s="21">
-        <v>48</v>
-      </c>
-      <c r="N57" s="21">
-        <v>25</v>
-      </c>
-      <c r="O57" s="21">
-        <v>30</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K58" s="20">
-        <v>1800</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M58" s="20">
-        <v>24</v>
-      </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G59" s="2">
-        <v>-82.105144999999993</v>
-      </c>
-      <c r="H59" s="2">
-        <v>38.425437000000002</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K59" s="21">
-        <v>7200</v>
-      </c>
-      <c r="L59" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M59" s="20">
-        <v>24</v>
-      </c>
-      <c r="N59" s="20">
-        <v>25</v>
-      </c>
-      <c r="O59" s="20">
-        <v>20</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="4">
-        <v>25541</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G60" s="2">
-        <v>-82.244877751268803</v>
-      </c>
-      <c r="H60" s="2">
-        <v>38.372162360135</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60" s="21">
-        <v>4050</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M60" s="20">
-        <v>24</v>
-      </c>
-      <c r="N60" s="20">
-        <v>25</v>
-      </c>
-      <c r="O60" s="20">
-        <v>20</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="4">
-        <v>25545</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="35"/>
-      <c r="L61" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M61" s="38">
-        <v>12</v>
-      </c>
-      <c r="N61" s="20">
-        <v>25</v>
-      </c>
-      <c r="O61" s="20">
-        <v>30</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="36">
-        <v>26505</v>
-      </c>
-      <c r="S61" s="35"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="35"/>
-      <c r="L62" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M62" s="38">
-        <v>12</v>
-      </c>
-      <c r="N62" s="20">
-        <v>25</v>
-      </c>
-      <c r="O62" s="20">
-        <v>30</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="36">
-        <v>26505</v>
-      </c>
-      <c r="S62" s="35"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="35"/>
-      <c r="L63" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M63" s="38">
-        <v>12</v>
-      </c>
-      <c r="N63" s="20">
-        <v>25</v>
-      </c>
-      <c r="O63" s="20">
-        <v>30</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="36">
-        <v>26505</v>
-      </c>
-      <c r="S63" s="35"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="35"/>
-      <c r="L64" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M64" s="38">
-        <v>12</v>
-      </c>
-      <c r="N64" s="20">
-        <v>25</v>
-      </c>
-      <c r="O64" s="20">
-        <v>30</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="36">
-        <v>26505</v>
-      </c>
-      <c r="S64" s="35"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G65" s="2">
-        <v>-79.992055399999998</v>
-      </c>
-      <c r="H65" s="2">
-        <v>39.655174500000001</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="20">
-        <v>48328</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M65" s="20">
-        <v>24</v>
-      </c>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G66" s="2">
-        <v>-81.205110000000005</v>
-      </c>
-      <c r="H66" s="19">
-        <v>39.391249999999999</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K66" s="20">
-        <v>2892</v>
-      </c>
-      <c r="L66" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M66" s="20">
-        <v>24</v>
-      </c>
-      <c r="N66" s="20">
-        <v>25</v>
-      </c>
-      <c r="O66" s="20">
-        <v>20</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="4">
-        <v>26170</v>
-      </c>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G67" s="2">
-        <v>-79.978250000000003</v>
-      </c>
-      <c r="H67" s="2">
-        <v>39.671370000000003</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="21">
-        <v>515</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M67" s="21">
-        <v>8</v>
-      </c>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G68" s="2">
-        <v>-79.966336100000007</v>
-      </c>
-      <c r="H68" s="2">
-        <v>39.649548899999999</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="21">
-        <v>904</v>
-      </c>
-      <c r="L68" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M68" s="21">
-        <v>48</v>
-      </c>
-      <c r="N68" s="21">
-        <v>25</v>
-      </c>
-      <c r="O68" s="21">
-        <v>30</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="4"/>
-      <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="4"/>
-      <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G71" s="2">
-        <v>-79.926150000000007</v>
-      </c>
-      <c r="H71" s="2">
-        <v>39.687820000000002</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="21">
-        <v>1310</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M71" s="21">
-        <v>8</v>
-      </c>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="4">
-        <v>26508</v>
-      </c>
-      <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G72" s="2">
-        <v>-79.956755900000005</v>
-      </c>
-      <c r="H72" s="2">
-        <v>39.640189999999997</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M72" s="21">
-        <v>48</v>
-      </c>
-      <c r="N72" s="21">
-        <v>25</v>
-      </c>
-      <c r="O72" s="21">
-        <v>30</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G73" s="2">
-        <v>-78.226619999999997</v>
-      </c>
-      <c r="H73" s="2">
-        <v>39.628019999999999</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" s="20">
-        <v>3255</v>
-      </c>
-      <c r="L73" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M73" s="20">
-        <v>24</v>
-      </c>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="4">
-        <v>25411</v>
-      </c>
-      <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K74" s="20">
-        <v>20411</v>
-      </c>
-      <c r="L74" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M74" s="20">
-        <v>24</v>
-      </c>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" s="4"/>
-      <c r="S74" s="2"/>
-    </row>
-    <row r="75" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G75" s="2">
-        <v>-80.459909999999994</v>
-      </c>
-      <c r="H75" s="2">
-        <v>39.062240000000003</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="20">
-        <v>10364</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M75" s="20">
-        <v>24</v>
-      </c>
-      <c r="N75" s="20">
-        <v>25</v>
-      </c>
-      <c r="O75" s="20">
-        <v>20</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R75" s="4">
-        <v>26452</v>
-      </c>
-      <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G76" s="2">
-        <v>-79.925397000000004</v>
-      </c>
-      <c r="H76" s="2">
-        <v>39.6565887</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M76" s="21">
-        <v>48</v>
-      </c>
-      <c r="N76" s="21">
-        <v>25</v>
-      </c>
-      <c r="O76" s="21">
-        <v>30</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="4">
-        <v>26505</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G77" s="2">
-        <v>-80.778989999999993</v>
-      </c>
-      <c r="H77" s="19">
-        <v>39.299059999999997</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77" s="20">
-        <v>564</v>
-      </c>
-      <c r="L77" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M77" s="20">
-        <v>24</v>
-      </c>
-      <c r="N77" s="20">
-        <v>25</v>
-      </c>
-      <c r="O77" s="20">
-        <v>20</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" s="4">
-        <v>26456</v>
-      </c>
-      <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G78" s="2">
-        <v>-80.72757</v>
-      </c>
-      <c r="H78" s="2">
-        <v>40.055880000000002</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K78" s="20">
-        <v>50000</v>
-      </c>
-      <c r="L78" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M78" s="20">
-        <v>24</v>
-      </c>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="4">
-        <v>26003</v>
-      </c>
-      <c r="S78" s="2"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G79" s="12">
-        <v>-81.1824412</v>
-      </c>
-      <c r="H79" s="12">
-        <v>37.946477700000003</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="K79" s="39">
-        <v>2626</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M79" s="13">
-        <v>24</v>
-      </c>
-      <c r="N79" s="13">
-        <v>25</v>
-      </c>
-      <c r="O79" s="13">
-        <v>30</v>
-      </c>
-      <c r="P79" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q79" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="23">
-        <v>25917</v>
-      </c>
-      <c r="S79" s="12"/>
-    </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="D80" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>-80.260360000000006</v>
       </c>
-      <c r="H80" s="19">
+      <c r="I80" s="19">
         <v>39.452579999999998</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K80" s="20">
+      <c r="L80" s="20">
         <v>2742</v>
       </c>
-      <c r="L80" s="21" t="s">
+      <c r="M80" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M80" s="20">
+      <c r="N80" s="20">
         <v>24</v>
       </c>
-      <c r="N80" s="20">
+      <c r="O80" s="20">
         <v>25</v>
       </c>
-      <c r="O80" s="20">
+      <c r="P80" s="20">
         <v>30</v>
       </c>
-      <c r="P80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="4">
+      <c r="R80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="4">
         <v>26591</v>
       </c>
-      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T80">
+    <sortCondition ref="D2:D80"/>
+    <sortCondition ref="C2:C80"/>
     <sortCondition ref="A2:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6717,9 +6987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7759,7 +8029,9 @@
       <c r="E40" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>592</v>
+      </c>
       <c r="G40" s="42">
         <v>54003203001</v>
       </c>
@@ -7878,7 +8150,9 @@
       <c r="A45" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>501</v>
       </c>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72ACFE2-294C-8143-BDD8-B3EBE47FF3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E8BEF-1FA6-0246-8B28-5E32F9B72DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="900" windowWidth="25880" windowHeight="16820" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="25880" windowHeight="16820" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="605">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1817,6 +1817,42 @@
   </si>
   <si>
     <t>WV0027707</t>
+  </si>
+  <si>
+    <t>WV0023108</t>
+  </si>
+  <si>
+    <t>WV0021792</t>
+  </si>
+  <si>
+    <t>WV0024481</t>
+  </si>
+  <si>
+    <t>WV0029289</t>
+  </si>
+  <si>
+    <t>WV0100323</t>
+  </si>
+  <si>
+    <t>WV0025461</t>
+  </si>
+  <si>
+    <t>WV0020125</t>
+  </si>
+  <si>
+    <t>WV0023353</t>
+  </si>
+  <si>
+    <t>WV0021865</t>
+  </si>
+  <si>
+    <t>WV0024392</t>
+  </si>
+  <si>
+    <t>WV0021814</t>
+  </si>
+  <si>
+    <t>WV0020168</t>
   </si>
 </sst>
 </file>
@@ -2425,11 +2461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7018,9 +7054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7134,7 +7170,9 @@
       <c r="E4" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="G4" s="38">
         <v>54000601001</v>
       </c>
@@ -7159,7 +7197,9 @@
       <c r="E5" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>596</v>
+      </c>
       <c r="G5" s="38">
         <v>54000101001</v>
       </c>
@@ -7184,7 +7224,9 @@
       <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="G6" s="38">
         <v>54003031001</v>
       </c>
@@ -7209,7 +7251,9 @@
       <c r="E7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="G7" s="38">
         <v>54001702001</v>
       </c>
@@ -7232,7 +7276,9 @@
       <c r="E8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="G8" s="38">
         <v>54002510001</v>
       </c>
@@ -7446,7 +7492,9 @@
       <c r="E16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>600</v>
+      </c>
       <c r="G16" s="38">
         <v>54002405001</v>
       </c>
@@ -7471,7 +7519,9 @@
       <c r="E17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>601</v>
+      </c>
       <c r="G17" s="38">
         <v>54002408001</v>
       </c>
@@ -7629,7 +7679,9 @@
       <c r="E23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>602</v>
+      </c>
       <c r="G23" s="38">
         <v>54002803001</v>
       </c>
@@ -7827,7 +7879,9 @@
       <c r="E31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>594</v>
+      </c>
       <c r="G31" s="22">
         <v>54001205001</v>
       </c>
@@ -7981,7 +8035,9 @@
       <c r="E37" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="G37" s="38">
         <v>54004804001</v>
       </c>
@@ -8035,7 +8091,9 @@
       <c r="E39" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="22"/>
+      <c r="F39" s="22" t="s">
+        <v>604</v>
+      </c>
       <c r="G39" s="22">
         <v>54003703001</v>
       </c>
@@ -8085,7 +8143,9 @@
       <c r="E41" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="22" t="s">
+        <v>593</v>
+      </c>
       <c r="G41" s="38">
         <v>54000509001</v>
       </c>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E8BEF-1FA6-0246-8B28-5E32F9B72DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595C6D0-E750-1F49-9A4D-8F403238F563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="25880" windowHeight="16820" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="25880" windowHeight="16820" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -1993,7 +1993,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2004,12 +2004,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2032,7 +2026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2061,19 +2055,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2096,12 +2079,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2109,35 +2086,56 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2461,11 +2459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2484,7 +2482,7 @@
     <col min="17" max="17" width="35" customWidth="1"/>
     <col min="18" max="18" width="30.6640625" customWidth="1"/>
     <col min="19" max="19" width="20.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -2512,7 +2510,7 @@
       <c r="H1" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>235</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -2521,19 +2519,19 @@
       <c r="K1" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>354</v>
       </c>
       <c r="Q1" s="14" t="s">
@@ -2559,7 +2557,7 @@
       <c r="C2" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
@@ -2574,7 +2572,7 @@
       <c r="H2" s="36">
         <v>-79.50179</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="38">
         <v>39.457090000000001</v>
       </c>
       <c r="J2" s="36" t="s">
@@ -2583,20 +2581,20 @@
       <c r="K2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="39">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N2" s="42">
+      <c r="N2" s="40">
         <v>24</v>
       </c>
-      <c r="O2" s="42">
+      <c r="O2" s="40">
         <v>25</v>
       </c>
-      <c r="P2" s="42">
+      <c r="P2" s="40">
         <v>20</v>
       </c>
       <c r="Q2" s="36" t="s">
@@ -2605,7 +2603,7 @@
       <c r="R2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="39">
+      <c r="S2" s="37">
         <v>26764</v>
       </c>
       <c r="T2" s="36"/>
@@ -2620,7 +2618,7 @@
       <c r="C3" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -2644,24 +2642,24 @@
       <c r="K3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="40">
         <v>50000</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="40">
         <v>24</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="39">
+      <c r="S3" s="37">
         <v>25312</v>
       </c>
       <c r="T3" s="36"/>
@@ -2676,7 +2674,7 @@
       <c r="C4" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -2700,24 +2698,24 @@
       <c r="K4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="40">
         <v>17000</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="40">
         <v>24</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="37">
         <v>25414</v>
       </c>
       <c r="T4" s="36"/>
@@ -2732,7 +2730,7 @@
       <c r="C5" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
@@ -2747,7 +2745,7 @@
       <c r="H5" s="36">
         <v>-79.856999999999999</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>39.677120000000002</v>
       </c>
       <c r="J5" s="36" t="s">
@@ -2756,19 +2754,19 @@
       <c r="K5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="40">
         <v>2000</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="40">
         <v>24</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="40">
         <v>25</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="40">
         <v>20</v>
       </c>
       <c r="Q5" s="36" t="s">
@@ -2777,7 +2775,7 @@
       <c r="R5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="37">
         <v>26508</v>
       </c>
       <c r="T5" s="36"/>
@@ -2792,7 +2790,7 @@
       <c r="C6" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
@@ -2807,7 +2805,7 @@
       <c r="H6" s="36">
         <v>-80.338570000000004</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>39.279310000000002</v>
       </c>
       <c r="J6" s="36" t="s">
@@ -2816,24 +2814,24 @@
       <c r="K6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="40">
         <v>26498</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="40">
         <v>24</v>
       </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="37">
         <v>26301</v>
       </c>
       <c r="T6" s="36"/>
@@ -2848,7 +2846,7 @@
       <c r="C7" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
@@ -2872,17 +2870,17 @@
       <c r="K7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="39">
         <v>8</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="40">
         <v>25</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="40">
         <v>30</v>
       </c>
       <c r="Q7" s="36" t="s">
@@ -2891,7 +2889,7 @@
       <c r="R7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="37">
         <v>26505</v>
       </c>
       <c r="T7" s="36"/>
@@ -2906,7 +2904,7 @@
       <c r="C8" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="36" t="s">
@@ -2921,7 +2919,7 @@
       <c r="H8" s="36">
         <v>-79.865430000000003</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>38.920259999999999</v>
       </c>
       <c r="J8" s="36" t="s">
@@ -2930,19 +2928,19 @@
       <c r="K8" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="40">
         <v>13156</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="40">
         <v>24</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="40">
         <v>25</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="40">
         <v>20</v>
       </c>
       <c r="Q8" s="36" t="s">
@@ -2951,7 +2949,7 @@
       <c r="R8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="37">
         <v>26241</v>
       </c>
       <c r="T8" s="36"/>
@@ -2966,7 +2964,7 @@
       <c r="C9" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -2981,7 +2979,7 @@
       <c r="H9" s="36">
         <v>-80.24933</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>39.511809999999997</v>
       </c>
       <c r="J9" s="36" t="s">
@@ -2990,19 +2988,19 @@
       <c r="K9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="39">
         <v>610</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="40">
         <v>24</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="40">
         <v>25</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="40">
         <v>20</v>
       </c>
       <c r="Q9" s="36" t="s">
@@ -3011,7 +3009,7 @@
       <c r="R9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="37">
         <v>26571</v>
       </c>
       <c r="T9" s="36"/>
@@ -3026,7 +3024,7 @@
       <c r="C10" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -3041,7 +3039,7 @@
       <c r="H10" s="36">
         <v>-80.018370000000004</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="38">
         <v>39.338769999999997</v>
       </c>
       <c r="J10" s="36" t="s">
@@ -3050,24 +3048,24 @@
       <c r="K10" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <v>6071</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="40">
         <v>24</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="37">
         <v>26354</v>
       </c>
       <c r="T10" s="36"/>
@@ -3082,7 +3080,7 @@
       <c r="C11" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="36" t="s">
@@ -3097,7 +3095,7 @@
       <c r="H11" s="36">
         <v>-79.978949999999998</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="38">
         <v>38.712879999999998</v>
       </c>
       <c r="J11" s="36" t="s">
@@ -3106,19 +3104,19 @@
       <c r="K11" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="40">
         <v>2101</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="40">
         <v>24</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="40">
         <v>25</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="40">
         <v>20</v>
       </c>
       <c r="Q11" s="36" t="s">
@@ -3127,7 +3125,7 @@
       <c r="R11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="37">
         <v>26273</v>
       </c>
       <c r="T11" s="36"/>
@@ -3142,7 +3140,7 @@
       <c r="C12" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="36" t="s">
@@ -3166,19 +3164,19 @@
       <c r="K12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="40">
         <v>8168</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="40">
         <v>24</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="40">
         <v>25</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="40">
         <v>20</v>
       </c>
       <c r="Q12" s="36" t="s">
@@ -3187,7 +3185,7 @@
       <c r="R12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="37">
         <v>26726</v>
       </c>
       <c r="T12" s="36"/>
@@ -3202,7 +3200,7 @@
       <c r="C13" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -3226,19 +3224,19 @@
       <c r="K13" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="40">
         <v>4555</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="40">
         <v>24</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="40">
         <v>25</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="40">
         <v>20</v>
       </c>
       <c r="Q13" s="36" t="s">
@@ -3247,7 +3245,7 @@
       <c r="R13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="37">
         <v>25053</v>
       </c>
       <c r="T13" s="36"/>
@@ -3262,7 +3260,7 @@
       <c r="C14" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -3277,7 +3275,7 @@
       <c r="H14" s="36">
         <v>-80.323710000000005</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>39.518140000000002</v>
       </c>
       <c r="J14" s="36" t="s">
@@ -3286,19 +3284,19 @@
       <c r="K14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="40">
         <v>1091</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="40">
         <v>24</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="40">
         <v>25</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="40">
         <v>20</v>
       </c>
       <c r="Q14" s="36" t="s">
@@ -3307,7 +3305,7 @@
       <c r="R14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="37">
         <v>26582</v>
       </c>
       <c r="T14" s="36"/>
@@ -3322,7 +3320,7 @@
       <c r="C15" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -3346,24 +3344,24 @@
       <c r="K15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="40">
         <v>12000</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="40">
         <v>24</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="37">
         <v>26041</v>
       </c>
       <c r="T15" s="36"/>
@@ -3378,7 +3376,7 @@
       <c r="C16" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -3393,7 +3391,7 @@
       <c r="H16" s="36">
         <v>-81.557389999999998</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="38">
         <v>39.281709999999997</v>
       </c>
       <c r="J16" s="36" t="s">
@@ -3402,24 +3400,24 @@
       <c r="K16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="40">
         <v>48050</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="40">
         <v>24</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="37">
         <v>26101</v>
       </c>
       <c r="T16" s="36"/>
@@ -3434,7 +3432,7 @@
       <c r="C17" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E17" s="36" t="s">
@@ -3458,19 +3456,19 @@
       <c r="K17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="40">
         <v>5515</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>24</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="40">
         <v>25</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="40">
         <v>20</v>
       </c>
       <c r="Q17" s="36" t="s">
@@ -3479,7 +3477,7 @@
       <c r="R17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S17" s="37">
         <v>25550</v>
       </c>
       <c r="T17" s="36"/>
@@ -3494,7 +3492,7 @@
       <c r="C18" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="36" t="s">
@@ -3518,19 +3516,19 @@
       <c r="K18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="40">
         <v>36000</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="40">
         <v>24</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="40">
         <v>25</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="40">
         <v>20</v>
       </c>
       <c r="Q18" s="36" t="s">
@@ -3539,7 +3537,7 @@
       <c r="R18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="39">
+      <c r="S18" s="37">
         <v>24740</v>
       </c>
       <c r="T18" s="36"/>
@@ -3554,7 +3552,7 @@
       <c r="C19" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="36" t="s">
@@ -3569,7 +3567,7 @@
       <c r="H19" s="36">
         <v>-80.545150000000007</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="38">
         <v>39.285969999999999</v>
       </c>
       <c r="J19" s="36" t="s">
@@ -3578,19 +3576,19 @@
       <c r="K19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="40">
         <v>1853</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="40">
         <v>24</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="40">
         <v>25</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="40">
         <v>20</v>
       </c>
       <c r="Q19" s="36" t="s">
@@ -3599,7 +3597,7 @@
       <c r="R19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="39">
+      <c r="S19" s="37">
         <v>26426</v>
       </c>
       <c r="T19" s="36"/>
@@ -3614,7 +3612,7 @@
       <c r="C20" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="36" t="s">
@@ -3638,24 +3636,24 @@
       <c r="K20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="40">
         <v>48328</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="40">
         <v>24</v>
       </c>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
       <c r="Q20" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="39">
+      <c r="S20" s="37">
         <v>26505</v>
       </c>
       <c r="T20" s="36"/>
@@ -3670,7 +3668,7 @@
       <c r="C21" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="36" t="s">
@@ -3694,19 +3692,19 @@
       <c r="K21" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="40">
         <v>10364</v>
       </c>
-      <c r="M21" s="41" t="s">
+      <c r="M21" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="40">
         <v>24</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="40">
         <v>25</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="40">
         <v>20</v>
       </c>
       <c r="Q21" s="36" t="s">
@@ -3715,7 +3713,7 @@
       <c r="R21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="39">
+      <c r="S21" s="37">
         <v>26452</v>
       </c>
       <c r="T21" s="36"/>
@@ -3730,7 +3728,7 @@
       <c r="C22" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="36" t="s">
@@ -3745,7 +3743,7 @@
       <c r="H22" s="36">
         <v>-80.778989999999993</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="38">
         <v>39.299059999999997</v>
       </c>
       <c r="J22" s="36" t="s">
@@ -3754,19 +3752,19 @@
       <c r="K22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="40">
         <v>564</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="40">
         <v>24</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="40">
         <v>25</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="40">
         <v>20</v>
       </c>
       <c r="Q22" s="36" t="s">
@@ -3775,7 +3773,7 @@
       <c r="R22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="39">
+      <c r="S22" s="37">
         <v>26456</v>
       </c>
       <c r="T22" s="36"/>
@@ -3790,7 +3788,7 @@
       <c r="C23" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E23" s="36" t="s">
@@ -3814,1175 +3812,1181 @@
       <c r="K23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="40">
         <v>50000</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="40">
         <v>24</v>
       </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
       <c r="Q23" s="36" t="s">
         <v>357</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="39">
+      <c r="S23" s="37">
         <v>26003</v>
       </c>
       <c r="T23" s="36"/>
     </row>
     <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="41">
         <v>-81.1824412</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="41">
         <v>37.946477700000003</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="40">
         <v>2626</v>
       </c>
-      <c r="M24" s="41" t="s">
+      <c r="M24" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="43">
         <v>24</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="43">
         <v>25</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="43">
         <v>30</v>
       </c>
-      <c r="Q24" s="46" t="s">
+      <c r="Q24" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="R24" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="44">
+      <c r="R24" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="42">
         <v>25917</v>
       </c>
-      <c r="T24" s="43"/>
+      <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="R25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="4"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="32"/>
+      <c r="T25" s="29"/>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="29">
         <v>-82.285698770801503</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="29">
         <v>38.414946823509098</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="33">
         <v>4000</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="33">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="33">
         <v>250</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="33">
         <v>5</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S26" s="21">
+      <c r="R26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="49">
         <v>25504</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="2"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="32"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="29">
         <v>-81.679554234298493</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="29">
         <v>38.373735533484897</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="33">
         <v>49500</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="34">
         <v>24</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="2" t="s">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S28" s="21">
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="49">
         <v>25387</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="29"/>
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="29">
         <v>-81.758709180509001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="29">
         <v>38.368519014596998</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="33">
         <v>9000</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="34">
         <v>24</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="34">
         <v>25</v>
       </c>
-      <c r="P29" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="P29" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="4">
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="32">
         <v>25064</v>
       </c>
-      <c r="T29" s="2"/>
+      <c r="T29" s="29"/>
     </row>
     <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="29">
         <v>-82.006959612418996</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="29">
         <v>38.446524084559897</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="33">
         <v>28759</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="34">
         <v>72</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="34">
         <v>25</v>
       </c>
-      <c r="P30" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+      <c r="P30" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="4">
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="32">
         <v>25526</v>
       </c>
-      <c r="T30" s="2"/>
+      <c r="T30" s="29"/>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="29">
         <v>-82.528864034905197</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="29">
         <v>38.400744931017101</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="33">
         <v>56000</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N31" s="34">
         <v>24</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="34">
         <v>25</v>
       </c>
-      <c r="P31" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
+      <c r="P31" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S31" s="21">
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="49">
         <v>25704</v>
       </c>
-      <c r="T31" s="2"/>
+      <c r="T31" s="29"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="29">
         <v>-82.451303840583293</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="29">
         <v>38.343336164586603</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="33">
         <v>1600</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="34">
         <v>24</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="34">
         <v>25</v>
       </c>
-      <c r="P32" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
+      <c r="P32" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" s="4">
+      <c r="R32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="32">
         <v>25701</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="29">
         <v>-82.287563960345196</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="29">
         <v>38.572623654172197</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="33">
         <v>1000</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="34">
         <v>24</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="34">
         <v>25</v>
       </c>
-      <c r="P33" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
+      <c r="P33" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" s="4">
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="32">
         <v>25537</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" s="29" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="29">
         <v>-82.298209254857795</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="29">
         <v>38.419661908139098</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="33">
         <v>7000</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="34">
         <v>24</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="34">
         <v>25</v>
       </c>
-      <c r="P34" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="2" t="s">
+      <c r="P34" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S34" s="4">
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="32">
         <v>25705</v>
       </c>
-      <c r="T34" s="2"/>
+      <c r="T34" s="29"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="29">
         <v>-82.105144999999993</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="29">
         <v>38.425437000000002</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="33">
         <v>7200</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="34">
         <v>24</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="34">
         <v>25</v>
       </c>
-      <c r="P35" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="2" t="s">
+      <c r="P35" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S35" s="4">
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="32">
         <v>25541</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="29">
         <v>-82.244877751268803</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="29">
         <v>38.372162360135</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="33">
         <v>4050</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="34">
         <v>24</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="34">
         <v>25</v>
       </c>
-      <c r="P36" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="s">
+      <c r="P36" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="4">
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="32">
         <v>25545</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="2"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="32"/>
+      <c r="T37" s="29"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2" t="s">
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="2"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="32"/>
+      <c r="T38" s="29"/>
     </row>
     <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="36">
         <v>-81.015979999999999</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="36">
         <v>37.42163</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="40">
         <v>2391</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="40">
         <v>24</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="40">
         <v>25</v>
       </c>
-      <c r="P39" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="2" t="s">
+      <c r="P39" s="40">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="4">
+      <c r="R39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="37">
         <v>24740</v>
       </c>
-      <c r="T39" s="2"/>
+      <c r="T39" s="36"/>
     </row>
     <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="36">
         <v>-79.905010000000004</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="36">
         <v>39.610210000000002</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="39">
         <v>579</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="39">
         <v>8</v>
       </c>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="2" t="s">
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S40" s="4">
+      <c r="R40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="37">
         <v>26508</v>
       </c>
-      <c r="T40" s="2"/>
+      <c r="T40" s="36"/>
     </row>
     <row r="41" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="36">
         <v>-79.867609999999999</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="36">
         <v>39.652670000000001</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="39">
         <v>830</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N41" s="39">
         <v>8</v>
       </c>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="2" t="s">
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="4">
+      <c r="R41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="37">
         <v>26508</v>
       </c>
-      <c r="T41" s="2"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="36">
         <v>-79.945801900000006</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="36">
         <v>39.6362083</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="39">
         <v>567</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="39">
         <v>48</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="39">
         <v>25</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P42" s="39">
         <v>30</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q42" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="4">
+      <c r="R42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="37">
         <v>26505</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" s="36" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="36">
         <v>-79.953093199999998</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="36">
         <v>39.636423100000002</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="39">
         <v>639</v>
       </c>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="39">
         <v>48</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="39">
         <v>25</v>
       </c>
-      <c r="P43" s="20">
+      <c r="P43" s="39">
         <v>30</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S43" s="4">
+      <c r="R43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="37">
         <v>26505</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="36" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="36">
         <v>-80.000420899999995</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="36">
         <v>39.6535571</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="39">
         <v>912</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N44" s="39">
         <v>48</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="39">
         <v>25</v>
       </c>
-      <c r="P44" s="20">
+      <c r="P44" s="39">
         <v>30</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="Q44" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S44" s="4">
+      <c r="R44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="37">
         <v>26505</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="36" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4996,7 +5000,7 @@
       <c r="C45" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="36" t="s">
@@ -5020,17 +5024,17 @@
       <c r="K45" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41" t="s">
+      <c r="L45" s="39"/>
+      <c r="M45" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="39">
         <v>48</v>
       </c>
-      <c r="O45" s="41">
+      <c r="O45" s="39">
         <v>25</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="39">
         <v>30</v>
       </c>
       <c r="Q45" s="36" t="s">
@@ -5039,7 +5043,7 @@
       <c r="R45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="39">
+      <c r="S45" s="37">
         <v>26505</v>
       </c>
       <c r="T45" s="36" t="s">
@@ -5047,235 +5051,238 @@
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="36">
         <v>-79.956234100000003</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="36">
         <v>39.667909799999997</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20" t="s">
+      <c r="L46" s="39"/>
+      <c r="M46" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="39">
         <v>48</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="39">
         <v>25</v>
       </c>
-      <c r="P46" s="20">
+      <c r="P46" s="39">
         <v>30</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S46" s="4">
+      <c r="R46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="37">
         <v>26505</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="36">
         <v>-79.956204600000007</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="36">
         <v>39.668112200000003</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20" t="s">
+      <c r="L47" s="39"/>
+      <c r="M47" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="39">
         <v>48</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="39">
         <v>25</v>
       </c>
-      <c r="P47" s="20">
+      <c r="P47" s="39">
         <v>30</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" s="4">
+      <c r="R47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="37">
         <v>26505</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="36">
         <v>-80.598290000000006</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="38">
         <v>40.325800000000001</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="40">
         <v>6468</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="40">
         <v>24</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="40">
         <v>25</v>
       </c>
-      <c r="P48" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P48" s="40">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="4">
+      <c r="R48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="37">
         <v>26037</v>
       </c>
+      <c r="T48" s="36"/>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="36">
         <v>-79.515240000000006</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="38">
         <v>39.66807</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="40">
         <v>1948</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="40">
         <v>24</v>
       </c>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="2" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="4">
+      <c r="R49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="37">
         <v>26525</v>
       </c>
+      <c r="T49" s="36"/>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
@@ -5287,7 +5294,7 @@
       <c r="C50" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -5311,19 +5318,19 @@
       <c r="K50" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="41">
+      <c r="L50" s="39">
         <v>874</v>
       </c>
-      <c r="M50" s="41" t="s">
+      <c r="M50" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N50" s="41">
+      <c r="N50" s="39">
         <v>48</v>
       </c>
-      <c r="O50" s="41">
+      <c r="O50" s="39">
         <v>25</v>
       </c>
-      <c r="P50" s="41">
+      <c r="P50" s="39">
         <v>30</v>
       </c>
       <c r="Q50" s="36" t="s">
@@ -5332,7 +5339,7 @@
       <c r="R50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="39">
+      <c r="S50" s="37">
         <v>26505</v>
       </c>
       <c r="T50" s="36" t="s">
@@ -5340,234 +5347,236 @@
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="36">
         <v>-79.955122099999997</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="36">
         <v>39.669188599999998</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20" t="s">
+      <c r="L51" s="39"/>
+      <c r="M51" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="39">
         <v>48</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="39">
         <v>25</v>
       </c>
-      <c r="P51" s="20">
+      <c r="P51" s="39">
         <v>30</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q51" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="4">
+      <c r="R51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="37">
         <v>26505</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="36">
         <v>-79.955245399999995</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="36">
         <v>39.669279500000002</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20" t="s">
+      <c r="L52" s="39"/>
+      <c r="M52" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="39">
         <v>48</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="39">
         <v>25</v>
       </c>
-      <c r="P52" s="20">
+      <c r="P52" s="39">
         <v>30</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="4">
+      <c r="R52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="37">
         <v>26505</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="36">
         <v>-79.957359999999994</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="36">
         <v>39.625419999999998</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="39">
         <v>1851</v>
       </c>
-      <c r="M53" s="20" t="s">
+      <c r="M53" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="39">
         <v>8</v>
       </c>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="2" t="s">
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S53" s="4">
+      <c r="R53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="37">
         <v>26501</v>
       </c>
+      <c r="T53" s="36"/>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="36">
         <v>-79.943309999999997</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="36">
         <v>39.61036</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="39">
         <v>726</v>
       </c>
-      <c r="M54" s="20" t="s">
+      <c r="M54" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="39">
         <v>8</v>
       </c>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="2" t="s">
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S54" s="4">
+      <c r="R54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="37">
         <v>26501</v>
       </c>
+      <c r="T54" s="36"/>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
@@ -5579,7 +5588,7 @@
       <c r="C55" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="36" t="s">
@@ -5603,17 +5612,17 @@
       <c r="K55" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41" t="s">
+      <c r="L55" s="39"/>
+      <c r="M55" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N55" s="41">
+      <c r="N55" s="39">
         <v>48</v>
       </c>
-      <c r="O55" s="41">
+      <c r="O55" s="39">
         <v>25</v>
       </c>
-      <c r="P55" s="41">
+      <c r="P55" s="39">
         <v>30</v>
       </c>
       <c r="Q55" s="36" t="s">
@@ -5622,7 +5631,7 @@
       <c r="R55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="39">
+      <c r="S55" s="37">
         <v>26505</v>
       </c>
       <c r="T55" s="36" t="s">
@@ -5630,60 +5639,60 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="36">
         <v>-79.956739999999996</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="36">
         <v>39.660640000000001</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="39">
         <v>688</v>
       </c>
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="39">
         <v>8</v>
       </c>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="2" t="s">
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="4">
+      <c r="R56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="37">
         <v>26505</v>
       </c>
-      <c r="T56" s="2"/>
+      <c r="T56" s="36"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
@@ -5695,7 +5704,7 @@
       <c r="C57" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="36" t="s">
@@ -5719,17 +5728,17 @@
       <c r="K57" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41" t="s">
+      <c r="L57" s="39"/>
+      <c r="M57" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N57" s="41">
+      <c r="N57" s="39">
         <v>48</v>
       </c>
-      <c r="O57" s="41">
+      <c r="O57" s="39">
         <v>25</v>
       </c>
-      <c r="P57" s="41">
+      <c r="P57" s="39">
         <v>30</v>
       </c>
       <c r="Q57" s="36" t="s">
@@ -5738,7 +5747,7 @@
       <c r="R57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="39">
+      <c r="S57" s="37">
         <v>26505</v>
       </c>
       <c r="T57" s="36" t="s">
@@ -5755,7 +5764,7 @@
       <c r="C58" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E58" s="36" t="s">
@@ -5779,19 +5788,19 @@
       <c r="K58" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="39">
         <v>862</v>
       </c>
-      <c r="M58" s="41" t="s">
+      <c r="M58" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N58" s="41">
+      <c r="N58" s="39">
         <v>48</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="39">
         <v>25</v>
       </c>
-      <c r="P58" s="41">
+      <c r="P58" s="39">
         <v>30</v>
       </c>
       <c r="Q58" s="36" t="s">
@@ -5800,7 +5809,7 @@
       <c r="R58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="39">
+      <c r="S58" s="37">
         <v>26505</v>
       </c>
       <c r="T58" s="36" t="s">
@@ -5808,58 +5817,58 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="36"/>
+      <c r="C59" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="36">
         <v>-79.127250000000004</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="38">
         <v>38.99091</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="40">
         <v>2700</v>
       </c>
-      <c r="M59" s="19" t="s">
+      <c r="M59" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N59" s="40">
         <v>24</v>
       </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="2" t="s">
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="4">
+      <c r="R59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="37">
         <v>26847</v>
       </c>
-      <c r="T59" s="2"/>
+      <c r="T59" s="36"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
@@ -5871,7 +5880,7 @@
       <c r="C60" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="36" t="s">
@@ -5895,19 +5904,19 @@
       <c r="K60" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="39">
         <v>474</v>
       </c>
-      <c r="M60" s="41" t="s">
+      <c r="M60" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N60" s="41">
+      <c r="N60" s="39">
         <v>48</v>
       </c>
-      <c r="O60" s="41">
+      <c r="O60" s="39">
         <v>25</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="39">
         <v>30</v>
       </c>
       <c r="Q60" s="36" t="s">
@@ -5916,7 +5925,7 @@
       <c r="R60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="39">
+      <c r="S60" s="37">
         <v>26505</v>
       </c>
       <c r="T60" s="36" t="s">
@@ -5933,7 +5942,7 @@
       <c r="C61" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="36" t="s">
@@ -5945,7 +5954,7 @@
       <c r="G61" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H61" s="43"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="36"/>
       <c r="J61" s="36" t="s">
         <v>10</v>
@@ -5954,16 +5963,16 @@
         <v>11</v>
       </c>
       <c r="L61" s="36"/>
-      <c r="M61" s="41" t="s">
+      <c r="M61" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N61" s="41">
+      <c r="N61" s="39">
         <v>12</v>
       </c>
-      <c r="O61" s="42">
+      <c r="O61" s="40">
         <v>25</v>
       </c>
-      <c r="P61" s="42">
+      <c r="P61" s="40">
         <v>30</v>
       </c>
       <c r="Q61" s="36" t="s">
@@ -5972,7 +5981,7 @@
       <c r="R61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="39">
+      <c r="S61" s="37">
         <v>26505</v>
       </c>
       <c r="T61" s="36"/>
@@ -5987,7 +5996,7 @@
       <c r="C62" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D62" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E62" s="36" t="s">
@@ -5999,7 +6008,7 @@
       <c r="G62" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H62" s="43"/>
+      <c r="H62" s="41"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36" t="s">
         <v>10</v>
@@ -6008,16 +6017,16 @@
         <v>11</v>
       </c>
       <c r="L62" s="36"/>
-      <c r="M62" s="41" t="s">
+      <c r="M62" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N62" s="41">
+      <c r="N62" s="39">
         <v>12</v>
       </c>
-      <c r="O62" s="42">
+      <c r="O62" s="40">
         <v>25</v>
       </c>
-      <c r="P62" s="42">
+      <c r="P62" s="40">
         <v>30</v>
       </c>
       <c r="Q62" s="36" t="s">
@@ -6026,7 +6035,7 @@
       <c r="R62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="39">
+      <c r="S62" s="37">
         <v>26505</v>
       </c>
       <c r="T62" s="36"/>
@@ -6041,7 +6050,7 @@
       <c r="C63" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E63" s="36" t="s">
@@ -6053,7 +6062,7 @@
       <c r="G63" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H63" s="43"/>
+      <c r="H63" s="41"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36" t="s">
         <v>10</v>
@@ -6062,16 +6071,16 @@
         <v>11</v>
       </c>
       <c r="L63" s="36"/>
-      <c r="M63" s="41" t="s">
+      <c r="M63" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N63" s="41">
+      <c r="N63" s="39">
         <v>12</v>
       </c>
-      <c r="O63" s="42">
+      <c r="O63" s="40">
         <v>25</v>
       </c>
-      <c r="P63" s="42">
+      <c r="P63" s="40">
         <v>30</v>
       </c>
       <c r="Q63" s="36" t="s">
@@ -6080,7 +6089,7 @@
       <c r="R63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="39">
+      <c r="S63" s="37">
         <v>26505</v>
       </c>
       <c r="T63" s="36"/>
@@ -6095,7 +6104,7 @@
       <c r="C64" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="36" t="s">
@@ -6107,7 +6116,7 @@
       <c r="G64" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H64" s="43"/>
+      <c r="H64" s="41"/>
       <c r="I64" s="36"/>
       <c r="J64" s="36" t="s">
         <v>10</v>
@@ -6116,16 +6125,16 @@
         <v>11</v>
       </c>
       <c r="L64" s="36"/>
-      <c r="M64" s="41" t="s">
+      <c r="M64" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N64" s="41">
+      <c r="N64" s="39">
         <v>12</v>
       </c>
-      <c r="O64" s="42">
+      <c r="O64" s="40">
         <v>25</v>
       </c>
-      <c r="P64" s="42">
+      <c r="P64" s="40">
         <v>30</v>
       </c>
       <c r="Q64" s="36" t="s">
@@ -6134,126 +6143,126 @@
       <c r="R64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="39">
+      <c r="S64" s="37">
         <v>26505</v>
       </c>
       <c r="T64" s="36"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="36">
         <v>-81.205110000000005</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="38">
         <v>39.391249999999999</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L65" s="40">
         <v>2892</v>
       </c>
-      <c r="M65" s="20" t="s">
+      <c r="M65" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N65" s="40">
         <v>24</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O65" s="40">
         <v>25</v>
       </c>
-      <c r="P65" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="2" t="s">
+      <c r="P65" s="40">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S65" s="4">
+      <c r="R65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="37">
         <v>26170</v>
       </c>
-      <c r="T65" s="2"/>
+      <c r="T65" s="36"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="36">
         <v>-79.978250000000003</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="36">
         <v>39.671370000000003</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="39">
         <v>515</v>
       </c>
-      <c r="M66" s="20" t="s">
+      <c r="M66" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="39">
         <v>8</v>
       </c>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="2" t="s">
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="4">
+      <c r="R66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="37">
         <v>26505</v>
       </c>
-      <c r="T66" s="2"/>
+      <c r="T66" s="36"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
@@ -6265,7 +6274,7 @@
       <c r="C67" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E67" s="36" t="s">
@@ -6289,19 +6298,19 @@
       <c r="K67" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="41">
+      <c r="L67" s="39">
         <v>904</v>
       </c>
-      <c r="M67" s="41" t="s">
+      <c r="M67" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="39">
         <v>48</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="39">
         <v>25</v>
       </c>
-      <c r="P67" s="41">
+      <c r="P67" s="39">
         <v>30</v>
       </c>
       <c r="Q67" s="36" t="s">
@@ -6310,7 +6319,7 @@
       <c r="R67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S67" s="39">
+      <c r="S67" s="37">
         <v>26505</v>
       </c>
       <c r="T67" s="36" t="s">
@@ -6318,60 +6327,60 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="36">
         <v>-79.926150000000007</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="36">
         <v>39.687820000000002</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="20">
+      <c r="L68" s="39">
         <v>1310</v>
       </c>
-      <c r="M68" s="20" t="s">
+      <c r="M68" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N68" s="20">
+      <c r="N68" s="39">
         <v>8</v>
       </c>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="2" t="s">
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S68" s="4">
+      <c r="R68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="37">
         <v>26508</v>
       </c>
-      <c r="T68" s="2"/>
+      <c r="T68" s="36"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
@@ -6383,7 +6392,7 @@
       <c r="C69" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="36" t="s">
@@ -6407,17 +6416,17 @@
       <c r="K69" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41" t="s">
+      <c r="L69" s="39"/>
+      <c r="M69" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N69" s="41">
+      <c r="N69" s="39">
         <v>48</v>
       </c>
-      <c r="O69" s="41">
+      <c r="O69" s="39">
         <v>25</v>
       </c>
-      <c r="P69" s="41">
+      <c r="P69" s="39">
         <v>30</v>
       </c>
       <c r="Q69" s="36" t="s">
@@ -6426,7 +6435,7 @@
       <c r="R69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="39">
+      <c r="S69" s="37">
         <v>26505</v>
       </c>
       <c r="T69" s="36" t="s">
@@ -6434,611 +6443,612 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="36">
         <v>-79.925397000000004</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="36">
         <v>39.6565887</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20" t="s">
+      <c r="L70" s="39"/>
+      <c r="M70" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="39">
         <v>48</v>
       </c>
-      <c r="O70" s="20">
+      <c r="O70" s="39">
         <v>25</v>
       </c>
-      <c r="P70" s="20">
+      <c r="P70" s="39">
         <v>30</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="Q70" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S70" s="4">
+      <c r="R70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="37">
         <v>26505</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="T70" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="36"/>
+      <c r="C71" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="36">
         <v>-79.936940000000007</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="38">
         <v>39.022010000000002</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L71" s="40">
         <v>1974</v>
       </c>
-      <c r="M71" s="19" t="s">
+      <c r="M71" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N71" s="40">
         <v>24</v>
       </c>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="2" t="s">
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S71" s="4">
+      <c r="R71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="37">
         <v>26250</v>
       </c>
-      <c r="T71" s="2"/>
+      <c r="T71" s="36"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="36"/>
+      <c r="C72" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="36">
         <v>-80.212010000000006</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="38">
         <v>39.72007</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L72" s="39">
         <v>400</v>
       </c>
-      <c r="M72" s="19" t="s">
+      <c r="M72" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N72" s="19">
+      <c r="N72" s="40">
         <v>24</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="2" t="s">
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" s="4">
+      <c r="R72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="37">
         <v>26521</v>
       </c>
-      <c r="T72" s="2"/>
+      <c r="T72" s="36"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="36"/>
+      <c r="C73" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="36">
         <v>-80.258989999999997</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="38">
         <v>39.280479999999997</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L73" s="40">
         <v>6984</v>
       </c>
-      <c r="M73" s="19" t="s">
+      <c r="M73" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N73" s="19">
+      <c r="N73" s="40">
         <v>24</v>
       </c>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="2" t="s">
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S73" s="4">
+      <c r="R73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="37">
         <v>26330</v>
       </c>
-      <c r="T73" s="2"/>
+      <c r="T73" s="36"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="36">
         <v>-80.567440000000005</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I74" s="38">
         <v>39.826610000000002</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="40">
         <v>1340</v>
       </c>
-      <c r="M74" s="20" t="s">
+      <c r="M74" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N74" s="19">
+      <c r="N74" s="40">
         <v>24</v>
       </c>
-      <c r="O74" s="19">
+      <c r="O74" s="40">
         <v>25</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P74" s="40">
         <v>30</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q74" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S74" s="4">
+      <c r="R74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="37">
         <v>26033</v>
       </c>
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="T74" s="36"/>
+    </row>
+    <row r="75" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="47"/>
+      <c r="C75" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="36">
         <v>-80.124449999999996</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="38">
         <v>39.493949999999998</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="40">
         <v>25525</v>
       </c>
-      <c r="M75" s="20" t="s">
+      <c r="M75" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N75" s="19">
+      <c r="N75" s="40">
         <v>24</v>
       </c>
-      <c r="O75" s="19">
+      <c r="O75" s="40">
         <v>25</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="40">
         <v>30</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="Q75" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S75" s="4">
+      <c r="R75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="37">
         <v>26554</v>
       </c>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="T75" s="36"/>
+    </row>
+    <row r="76" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="36" t="s">
         <v>582</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="36">
         <v>-78.98272</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I76" s="38">
         <v>39.438070000000003</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L76" s="20">
+      <c r="L76" s="39">
         <v>1193</v>
       </c>
-      <c r="M76" s="20" t="s">
+      <c r="M76" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N76" s="39">
         <v>48</v>
       </c>
-      <c r="O76" s="19">
+      <c r="O76" s="40">
         <v>25</v>
       </c>
-      <c r="P76" s="19">
+      <c r="P76" s="40">
         <v>30</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="Q76" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S76" s="4">
+      <c r="R76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="37">
         <v>26726</v>
       </c>
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="T76" s="36"/>
+    </row>
+    <row r="77" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="36"/>
+      <c r="C77" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="40">
         <v>1800</v>
       </c>
-      <c r="M77" s="19" t="s">
+      <c r="M77" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N77" s="40">
         <v>24</v>
       </c>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="2" t="s">
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="R77" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="37"/>
+      <c r="T77" s="36"/>
+    </row>
+    <row r="78" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="36">
         <v>-78.226619999999997</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="36">
         <v>39.628019999999999</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="40">
         <v>3255</v>
       </c>
-      <c r="M78" s="19" t="s">
+      <c r="M78" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N78" s="40">
         <v>24</v>
       </c>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="2" t="s">
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S78" s="4">
+      <c r="R78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="37">
         <v>25411</v>
       </c>
-      <c r="T78" s="2"/>
+      <c r="T78" s="36"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="48"/>
+      <c r="C79" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2" t="s">
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="40">
         <v>20411</v>
       </c>
-      <c r="M79" s="19" t="s">
+      <c r="M79" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N79" s="40">
         <v>24</v>
       </c>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="2" t="s">
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="2"/>
+      <c r="R79" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="37"/>
+      <c r="T79" s="36"/>
     </row>
     <row r="80" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="36">
         <v>-80.260360000000006</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I80" s="38">
         <v>39.452579999999998</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="40">
         <v>2742</v>
       </c>
-      <c r="M80" s="20" t="s">
+      <c r="M80" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="N80" s="19">
+      <c r="N80" s="40">
         <v>24</v>
       </c>
-      <c r="O80" s="19">
+      <c r="O80" s="40">
         <v>25</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P80" s="40">
         <v>30</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="Q80" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S80" s="4">
+      <c r="R80" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="37">
         <v>26591</v>
       </c>
-      <c r="T80" s="2"/>
+      <c r="T80" s="36"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T80">
@@ -7054,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -7100,765 +7110,765 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>527</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="31">
         <v>54003906001</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="17">
         <v>0.15</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="17">
         <f>175*4</f>
         <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>528</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="17">
         <v>54002701001</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="17">
         <v>0.5</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="30">
         <v>2391</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="31">
         <v>54000601001</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="17">
         <v>1.8</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="17">
         <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="31">
         <v>54000101001</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="17">
         <v>0.36499999999999999</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="30">
         <v>1974</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="31">
         <v>54003031001</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="17">
         <v>0.05</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="17">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="31">
         <v>54001702001</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="17">
         <v>3</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="30">
         <v>6984</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="31">
         <v>54002510001</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="17">
         <v>0.21</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="30">
         <v>1340</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>366</v>
       </c>
       <c r="B9" t="s">
         <v>530</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>558</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="31">
         <v>54002003001</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="17">
         <v>14</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="17">
         <v>49500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B10" t="s">
         <v>529</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="31">
         <v>54002003001</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="17">
         <v>14</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="30">
         <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B11" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="31">
         <v>54001901001</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="17">
         <v>2.25</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="30">
         <v>17000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B12" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="31">
         <v>54003045001</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="17">
         <v>0.75</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="30">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B13" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="31">
         <v>54001703001</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="17">
         <v>8</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="30">
         <v>26498</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="17" t="s">
         <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>534</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>559</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="31">
         <v>54002007001</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="17">
         <v>2.25</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="17">
         <v>9000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B15" t="s">
         <v>535</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="31">
         <v>54004202001</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="17">
         <v>4.99</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="30">
         <v>13156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="31">
         <v>54002405001</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="17">
         <v>9</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="30">
         <v>25525</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B17" t="s">
         <v>536</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="31">
         <v>54002408001</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="17">
         <v>0.125</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="17">
         <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B18" t="s">
         <v>537</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="17">
         <v>54000504001</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="17">
         <v>1.6</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="30">
         <v>6468</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B19" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="31">
         <v>54004602001</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="30">
         <v>6071</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="22">
+      <c r="H20" s="17">
         <v>0.5</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="30">
         <v>1948</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="17" t="s">
         <v>362</v>
       </c>
       <c r="B21" t="s">
         <v>539</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="17" t="s">
         <v>191</v>
       </c>
       <c r="F21" t="s">
         <v>560</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="31">
         <v>54000603001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="17">
         <v>17</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="17">
         <v>56000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B22" t="s">
         <v>540</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="31">
         <v>54004215001</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="17">
         <v>0.41</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="30">
         <v>2101</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B23" t="s">
         <v>541</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="31">
         <v>54002803001</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="17">
         <v>2.4</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="30">
         <v>8168</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>268</v>
       </c>
       <c r="B24" t="s">
         <v>542</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="31">
         <v>54000316001</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="17">
         <v>0.5</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="30">
         <v>4555</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17" t="s">
         <v>269</v>
       </c>
       <c r="B25" t="s">
         <v>543</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="31">
         <v>54002415001</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="17">
         <v>0.25</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="30">
         <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="17" t="s">
         <v>270</v>
       </c>
       <c r="B26" t="s">
         <v>544</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="31">
         <v>54002509001</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="17">
         <v>2.34</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="30">
         <v>12000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>271</v>
       </c>
       <c r="B27" t="s">
         <v>545</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="31">
         <v>54005405001</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="17">
         <v>15.5</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="30">
         <v>48050</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="17" t="s">
         <v>364</v>
       </c>
       <c r="B28" t="s">
         <v>546</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F28" t="s">
         <v>561</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="22">
+      <c r="H28" s="17">
         <v>2.16</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="17">
         <v>7000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17">
         <v>0.125</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="17">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
         <v>375</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4">
         <v>0.125</v>
@@ -7868,372 +7878,372 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="17">
         <v>54001205001</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="17">
         <v>1.35</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="30">
         <v>2700</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="17" t="s">
         <v>273</v>
       </c>
       <c r="B32" t="s">
         <v>547</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
         <v>199</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="17">
         <v>54002606001</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="17">
         <v>0.7</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="30">
         <v>5515</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="17" t="s">
         <v>274</v>
       </c>
       <c r="B33" t="s">
         <v>548</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="17">
         <v>54002716001</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="30">
         <v>36000</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>275</v>
       </c>
       <c r="B34" t="s">
         <v>549</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="31">
         <v>54001710001</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="17">
         <v>0.4</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="30">
         <v>1853</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="17" t="s">
         <v>379</v>
       </c>
       <c r="B35" t="s">
         <v>550</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F35" t="s">
         <v>562</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="22">
+      <c r="H35" s="17">
         <v>1.8</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="17">
         <v>7200</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="17" t="s">
         <v>380</v>
       </c>
       <c r="B36" t="s">
         <v>551</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F36" t="s">
         <v>562</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17">
         <v>0.7</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="17">
         <v>4050</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="31">
         <v>54004804001</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="17">
         <v>0.3</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="30">
         <v>1800</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>240</v>
       </c>
       <c r="B38" t="s">
         <v>552</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="31">
         <v>54003011001</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="17">
         <v>20.8</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="30">
         <v>48328</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B39" t="s">
         <v>553</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="17">
         <v>54003703001</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="30">
         <v>2892</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="17" t="s">
         <v>278</v>
       </c>
       <c r="B40" t="s">
         <v>554</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="31">
         <v>54003203001</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="17">
         <v>1.8</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="30">
         <v>3255</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="31">
         <v>54000509001</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="17">
         <v>4</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="30">
         <v>20411</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>280</v>
       </c>
       <c r="B42" t="s">
         <v>555</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="17">
         <v>54002102001</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="17">
         <v>2.5</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="30">
         <v>10364</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>281</v>
       </c>
       <c r="B43" t="s">
         <v>556</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="31">
         <v>54000901001</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="17">
         <v>0.2</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="30">
         <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="17" t="s">
         <v>282</v>
       </c>
       <c r="B44" t="s">
         <v>557</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="31">
         <v>54003508001</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="17">
         <v>10</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="30">
         <v>50000</v>
       </c>
     </row>
@@ -8251,43 +8261,43 @@
       <c r="E45" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="31">
         <v>54001022001</v>
       </c>
       <c r="H45" s="4">
         <v>0.75</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="19">
         <v>2626</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="38">
+      <c r="F46" s="17"/>
+      <c r="G46" s="31">
         <v>54002422001</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="17">
         <v>0.1</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="30">
         <v>2742</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="36"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29"/>
       <c r="L46"/>
       <c r="M46" s="1"/>
       <c r="N46"/>
@@ -8316,7 +8326,7 @@
     <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -8339,991 +8349,991 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="17">
         <v>54061</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="18">
         <v>105612</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <v>54039</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="20">
         <v>183279</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="17">
         <v>54069</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="18">
         <v>41411</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>54037</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="18">
         <v>57146</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>54055</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <v>58758</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="17">
         <v>54041</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <v>16166</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>54057</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <v>26868</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="17">
         <v>54051</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="18">
         <v>30531</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>54065</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="18">
         <v>17884</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="17">
         <v>54077</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="18">
         <v>33432</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="17">
         <v>54107</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="18">
         <v>83518</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="17">
         <v>54017</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="18">
         <v>8448</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="17">
         <v>54049</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="18">
         <v>56072</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="17">
         <v>54033</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="18">
         <v>67256</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="17">
         <v>54091</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="18">
         <v>16695</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="17">
         <v>54073</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="18">
         <v>7482</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="17">
         <v>54005</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="18">
         <v>21809</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="17">
         <v>54083</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="18">
         <v>28695</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="17">
         <v>54009</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="18">
         <v>21939</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="17" t="s">
         <v>199</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="17">
         <v>54053</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="18">
         <v>26700</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="17">
         <v>54001</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="18">
         <v>16633</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>202</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="17">
         <v>54003</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="18">
         <v>126069</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="17">
         <v>54007</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="18">
         <v>12247</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="17">
         <v>54011</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="20">
         <v>96319</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="17">
         <v>54013</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="18">
         <v>6176</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="17">
         <v>54015</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="18">
         <v>7892</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="17" t="s">
         <v>206</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="17">
         <v>54019</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="18">
         <v>39927</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="17">
         <v>54021</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="18">
         <v>7377</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="17">
         <v>54023</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="18">
         <v>11616</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>208</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="17">
         <v>54025</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="18">
         <v>32608</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="17">
         <v>54027</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="18">
         <v>23302</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="17" t="s">
         <v>210</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="17">
         <v>54029</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="18">
         <v>28656</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="17">
         <v>54031</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="18">
         <v>14160</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="17">
         <v>54035</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="18">
         <v>27738</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="17">
         <v>54043</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="18">
         <v>20126</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="17" t="s">
         <v>214</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="17">
         <v>54045</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="18">
         <v>31909</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>215</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="17">
         <v>54047</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="18">
         <v>18363</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="17">
         <v>54059</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="18">
         <v>23005</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="17" t="s">
         <v>217</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="17">
         <v>54063</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="18">
         <v>12332</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="17" t="s">
         <v>218</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="17">
         <v>54067</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="18">
         <v>24300</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>219</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="17">
         <v>54071</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="18">
         <v>6142</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>220</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="17">
         <v>54075</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="18">
         <v>7841</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="17">
         <v>54079</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="20">
         <v>55486</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="17">
         <v>54081</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="18">
         <v>73771</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="17" t="s">
         <v>222</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="17">
         <v>54085</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="18">
         <v>8383</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="17">
         <v>54087</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="18">
         <v>13898</v>
       </c>
-      <c r="F47" s="24"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="17" t="s">
         <v>224</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="17">
         <v>54089</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="18">
         <v>11908</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="17">
         <v>54093</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="18">
         <v>6672</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="17">
         <v>54095</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="18">
         <v>8811</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="17" t="s">
         <v>226</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="17">
         <v>54097</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="18">
         <v>23791</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="17">
         <v>54099</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="20">
         <v>42481</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="17">
         <v>54101</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="18">
         <v>8249</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="17" t="s">
         <v>228</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="17">
         <v>54103</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="18">
         <v>14170</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="17">
         <v>54105</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="18">
         <v>5063</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="17">
         <v>54109</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="18">
         <v>21051</v>
       </c>
-      <c r="F56" s="24"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F58" s="24"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="24"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F60" s="24"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="24"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
-      <c r="F62" s="27"/>
+      <c r="F62" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E56">
@@ -9353,342 +9363,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="24" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="25" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="25" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="25" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="25" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="25" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="25" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="25" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="25" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9715,19 +9725,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>444</v>
       </c>
     </row>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595C6D0-E750-1F49-9A4D-8F403238F563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC1544-6710-A847-B533-0319A57D06AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="760" windowWidth="25880" windowHeight="16820" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -2026,7 +2026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2105,35 +2105,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2460,10 +2447,10 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2548,1351 +2535,1347 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="2">
         <v>-79.50179</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="36">
         <v>39.457090000000001</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="37">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="38">
         <v>24</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="38">
         <v>25</v>
       </c>
-      <c r="P2" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="P2" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="37">
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="4">
         <v>26764</v>
       </c>
-      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="2">
         <v>-81.677679999999995</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="2">
         <v>38.372869999999999</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="38">
         <v>50000</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="38">
         <v>24</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="36" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="37">
+      <c r="R3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4">
         <v>25312</v>
       </c>
-      <c r="T3" s="36"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-77.855890000000002</v>
+      </c>
+      <c r="I4" s="2">
+        <v>39.279240000000001</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="38">
+        <v>17000</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="38">
+        <v>24</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="4">
+        <v>25414</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-79.856999999999999</v>
+      </c>
+      <c r="I5" s="36">
+        <v>39.677120000000002</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="38">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" s="38">
+        <v>24</v>
+      </c>
+      <c r="O5" s="38">
+        <v>25</v>
+      </c>
+      <c r="P5" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="4">
+        <v>26508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-80.338570000000004</v>
+      </c>
+      <c r="I6" s="36">
+        <v>39.279310000000002</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="38">
+        <v>26498</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="38">
+        <v>24</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4">
+        <v>26301</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-79.985057699999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>39.648165400000003</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N7" s="37">
+        <v>8</v>
+      </c>
+      <c r="O7" s="38">
+        <v>25</v>
+      </c>
+      <c r="P7" s="38">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-79.865430000000003</v>
+      </c>
+      <c r="I8" s="36">
+        <v>38.920259999999999</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="38">
+        <v>13156</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N8" s="38">
+        <v>24</v>
+      </c>
+      <c r="O8" s="38">
+        <v>25</v>
+      </c>
+      <c r="P8" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="4">
+        <v>26241</v>
+      </c>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-80.24933</v>
+      </c>
+      <c r="I9" s="36">
+        <v>39.511809999999997</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="37">
+        <v>610</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N9" s="38">
+        <v>24</v>
+      </c>
+      <c r="O9" s="38">
+        <v>25</v>
+      </c>
+      <c r="P9" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="4">
+        <v>26571</v>
+      </c>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-80.018370000000004</v>
+      </c>
+      <c r="I10" s="36">
+        <v>39.338769999999997</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="38">
+        <v>6071</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" s="38">
+        <v>24</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4">
+        <v>26354</v>
+      </c>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-79.978949999999998</v>
+      </c>
+      <c r="I11" s="36">
+        <v>38.712879999999998</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="38">
+        <v>2101</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N11" s="38">
+        <v>24</v>
+      </c>
+      <c r="O11" s="38">
+        <v>25</v>
+      </c>
+      <c r="P11" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="4">
+        <v>26273</v>
+      </c>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-78.975080000000005</v>
+      </c>
+      <c r="I12" s="2">
+        <v>39.441229999999997</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="38">
+        <v>8168</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N12" s="38">
+        <v>24</v>
+      </c>
+      <c r="O12" s="38">
+        <v>25</v>
+      </c>
+      <c r="P12" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="4">
+        <v>26726</v>
+      </c>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-81.847288800000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>38.102483999999997</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="38">
+        <v>4555</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N13" s="38">
+        <v>24</v>
+      </c>
+      <c r="O13" s="38">
+        <v>25</v>
+      </c>
+      <c r="P13" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="4">
+        <v>25053</v>
+      </c>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-80.323710000000005</v>
+      </c>
+      <c r="I14" s="36">
+        <v>39.518140000000002</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1091</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N14" s="38">
+        <v>24</v>
+      </c>
+      <c r="O14" s="38">
+        <v>25</v>
+      </c>
+      <c r="P14" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="4">
+        <v>26582</v>
+      </c>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-80.754930000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <v>39.929859999999998</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="38">
+        <v>12000</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N15" s="38">
+        <v>24</v>
+      </c>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="4">
+        <v>26041</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-81.557389999999998</v>
+      </c>
+      <c r="I16" s="36">
+        <v>39.281709999999997</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="38">
+        <v>48050</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N16" s="38">
+        <v>24</v>
+      </c>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="4">
+        <v>26101</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-82.135114799999997</v>
+      </c>
+      <c r="I17" s="2">
+        <v>38.856708400000002</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="38">
+        <v>5515</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N17" s="38">
+        <v>24</v>
+      </c>
+      <c r="O17" s="38">
+        <v>25</v>
+      </c>
+      <c r="P17" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="4">
+        <v>25550</v>
+      </c>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H4" s="36">
-        <v>-77.855890000000002</v>
-      </c>
-      <c r="I4" s="36">
-        <v>39.279240000000001</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="40">
-        <v>17000</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="H18" s="2">
+        <v>-81.079930000000004</v>
+      </c>
+      <c r="I18" s="2">
+        <v>37.380360000000003</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="38">
+        <v>36000</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="N18" s="38">
+        <v>24</v>
+      </c>
+      <c r="O18" s="38">
+        <v>25</v>
+      </c>
+      <c r="P18" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="4">
+        <v>24740</v>
+      </c>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-80.545150000000007</v>
+      </c>
+      <c r="I19" s="36">
+        <v>39.285969999999999</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="38">
+        <v>1853</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N19" s="38">
+        <v>24</v>
+      </c>
+      <c r="O19" s="38">
+        <v>25</v>
+      </c>
+      <c r="P19" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="4">
+        <v>26426</v>
+      </c>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-79.992055399999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>39.655174500000001</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="38">
+        <v>48328</v>
+      </c>
+      <c r="M20" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N20" s="38">
         <v>24</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="36" t="s">
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="37">
-        <v>25414</v>
-      </c>
-      <c r="T4" s="36"/>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="R20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G21" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H5" s="36">
-        <v>-79.856999999999999</v>
-      </c>
-      <c r="I5" s="38">
-        <v>39.677120000000002</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="40">
-        <v>2000</v>
-      </c>
-      <c r="M5" s="39" t="s">
+      <c r="H21" s="2">
+        <v>-80.459909999999994</v>
+      </c>
+      <c r="I21" s="2">
+        <v>39.062240000000003</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="38">
+        <v>10364</v>
+      </c>
+      <c r="M21" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N21" s="38">
         <v>24</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O21" s="38">
         <v>25</v>
       </c>
-      <c r="P5" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="36" t="s">
+      <c r="P21" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="37">
-        <v>26508</v>
-      </c>
-      <c r="T5" s="36"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="R21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="4">
+        <v>26452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G22" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-80.778989999999993</v>
+      </c>
+      <c r="I22" s="36">
+        <v>39.299059999999997</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="38">
+        <v>564</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N22" s="38">
+        <v>24</v>
+      </c>
+      <c r="O22" s="38">
+        <v>25</v>
+      </c>
+      <c r="P22" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="4">
+        <v>26456</v>
+      </c>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H6" s="36">
-        <v>-80.338570000000004</v>
-      </c>
-      <c r="I6" s="38">
-        <v>39.279310000000002</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="40">
-        <v>26498</v>
-      </c>
-      <c r="M6" s="40" t="s">
+      <c r="H23" s="2">
+        <v>-80.72757</v>
+      </c>
+      <c r="I23" s="2">
+        <v>40.055880000000002</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="38">
+        <v>50000</v>
+      </c>
+      <c r="M23" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N23" s="38">
         <v>24</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="36" t="s">
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="37">
-        <v>26301</v>
-      </c>
-      <c r="T6" s="36"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="R23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="4">
+        <v>26003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="36" t="s">
+      <c r="E24" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="H7" s="36">
-        <v>-79.985057699999999</v>
-      </c>
-      <c r="I7" s="36">
-        <v>39.648165400000003</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="H24" s="12">
+        <v>-81.1824412</v>
+      </c>
+      <c r="I24" s="12">
+        <v>37.946477700000003</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="38">
+        <v>2626</v>
+      </c>
+      <c r="M24" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N7" s="39">
-        <v>8</v>
-      </c>
-      <c r="O7" s="40">
+      <c r="N24" s="39">
+        <v>24</v>
+      </c>
+      <c r="O24" s="39">
         <v>25</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P24" s="39">
         <v>30</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q24" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="R7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="37">
-        <v>26505</v>
-      </c>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="36">
-        <v>-79.865430000000003</v>
-      </c>
-      <c r="I8" s="38">
-        <v>38.920259999999999</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="40">
-        <v>13156</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N8" s="40">
-        <v>24</v>
-      </c>
-      <c r="O8" s="40">
-        <v>25</v>
-      </c>
-      <c r="P8" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="37">
-        <v>26241</v>
-      </c>
-      <c r="T8" s="36"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H9" s="36">
-        <v>-80.24933</v>
-      </c>
-      <c r="I9" s="38">
-        <v>39.511809999999997</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="39">
-        <v>610</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N9" s="40">
-        <v>24</v>
-      </c>
-      <c r="O9" s="40">
-        <v>25</v>
-      </c>
-      <c r="P9" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="37">
-        <v>26571</v>
-      </c>
-      <c r="T9" s="36"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>575</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H10" s="36">
-        <v>-80.018370000000004</v>
-      </c>
-      <c r="I10" s="38">
-        <v>39.338769999999997</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="40">
-        <v>6071</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="N10" s="40">
-        <v>24</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="37">
-        <v>26354</v>
-      </c>
-      <c r="T10" s="36"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" s="36">
-        <v>-79.978949999999998</v>
-      </c>
-      <c r="I11" s="38">
-        <v>38.712879999999998</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="40">
-        <v>2101</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N11" s="40">
-        <v>24</v>
-      </c>
-      <c r="O11" s="40">
-        <v>25</v>
-      </c>
-      <c r="P11" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="37">
-        <v>26273</v>
-      </c>
-      <c r="T11" s="36"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H12" s="36">
-        <v>-78.975080000000005</v>
-      </c>
-      <c r="I12" s="36">
-        <v>39.441229999999997</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="40">
-        <v>8168</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N12" s="40">
-        <v>24</v>
-      </c>
-      <c r="O12" s="40">
-        <v>25</v>
-      </c>
-      <c r="P12" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="37">
-        <v>26726</v>
-      </c>
-      <c r="T12" s="36"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" s="36">
-        <v>-81.847288800000001</v>
-      </c>
-      <c r="I13" s="36">
-        <v>38.102483999999997</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="40">
-        <v>4555</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N13" s="40">
-        <v>24</v>
-      </c>
-      <c r="O13" s="40">
-        <v>25</v>
-      </c>
-      <c r="P13" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="37">
-        <v>25053</v>
-      </c>
-      <c r="T13" s="36"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H14" s="36">
-        <v>-80.323710000000005</v>
-      </c>
-      <c r="I14" s="38">
-        <v>39.518140000000002</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="40">
-        <v>1091</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N14" s="40">
-        <v>24</v>
-      </c>
-      <c r="O14" s="40">
-        <v>25</v>
-      </c>
-      <c r="P14" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="37">
-        <v>26582</v>
-      </c>
-      <c r="T14" s="36"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H15" s="36">
-        <v>-80.754930000000002</v>
-      </c>
-      <c r="I15" s="36">
-        <v>39.929859999999998</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="40">
-        <v>12000</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="N15" s="40">
-        <v>24</v>
-      </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="37">
-        <v>26041</v>
-      </c>
-      <c r="T15" s="36"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H16" s="36">
-        <v>-81.557389999999998</v>
-      </c>
-      <c r="I16" s="38">
-        <v>39.281709999999997</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="40">
-        <v>48050</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="N16" s="40">
-        <v>24</v>
-      </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="37">
-        <v>26101</v>
-      </c>
-      <c r="T16" s="36"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H17" s="36">
-        <v>-82.135114799999997</v>
-      </c>
-      <c r="I17" s="36">
-        <v>38.856708400000002</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" s="40">
-        <v>5515</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N17" s="40">
-        <v>24</v>
-      </c>
-      <c r="O17" s="40">
-        <v>25</v>
-      </c>
-      <c r="P17" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="37">
-        <v>25550</v>
-      </c>
-      <c r="T17" s="36"/>
-    </row>
-    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="H18" s="36">
-        <v>-81.079930000000004</v>
-      </c>
-      <c r="I18" s="36">
-        <v>37.380360000000003</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="40">
-        <v>36000</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="N18" s="40">
-        <v>24</v>
-      </c>
-      <c r="O18" s="40">
-        <v>25</v>
-      </c>
-      <c r="P18" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="37">
-        <v>24740</v>
-      </c>
-      <c r="T18" s="36"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H19" s="36">
-        <v>-80.545150000000007</v>
-      </c>
-      <c r="I19" s="38">
-        <v>39.285969999999999</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="40">
-        <v>1853</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N19" s="40">
-        <v>24</v>
-      </c>
-      <c r="O19" s="40">
-        <v>25</v>
-      </c>
-      <c r="P19" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="37">
-        <v>26426</v>
-      </c>
-      <c r="T19" s="36"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="H20" s="36">
-        <v>-79.992055399999998</v>
-      </c>
-      <c r="I20" s="36">
-        <v>39.655174500000001</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="40">
-        <v>48328</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="N20" s="40">
-        <v>24</v>
-      </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="37">
-        <v>26505</v>
-      </c>
-      <c r="T20" s="36"/>
-    </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H21" s="36">
-        <v>-80.459909999999994</v>
-      </c>
-      <c r="I21" s="36">
-        <v>39.062240000000003</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="40">
-        <v>10364</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N21" s="40">
-        <v>24</v>
-      </c>
-      <c r="O21" s="40">
-        <v>25</v>
-      </c>
-      <c r="P21" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="37">
-        <v>26452</v>
-      </c>
-      <c r="T21" s="36"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="H22" s="36">
-        <v>-80.778989999999993</v>
-      </c>
-      <c r="I22" s="38">
-        <v>39.299059999999997</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="40">
-        <v>564</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N22" s="40">
-        <v>24</v>
-      </c>
-      <c r="O22" s="40">
-        <v>25</v>
-      </c>
-      <c r="P22" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="37">
-        <v>26456</v>
-      </c>
-      <c r="T22" s="36"/>
-    </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="H23" s="36">
-        <v>-80.72757</v>
-      </c>
-      <c r="I23" s="36">
-        <v>40.055880000000002</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="40">
-        <v>50000</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="N23" s="40">
-        <v>24</v>
-      </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="37">
-        <v>26003</v>
-      </c>
-      <c r="T23" s="36"/>
-    </row>
-    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H24" s="41">
-        <v>-81.1824412</v>
-      </c>
-      <c r="I24" s="41">
-        <v>37.946477700000003</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>499</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="L24" s="40">
-        <v>2626</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="N24" s="43">
-        <v>24</v>
-      </c>
-      <c r="O24" s="43">
-        <v>25</v>
-      </c>
-      <c r="P24" s="43">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="R24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="42">
+      <c r="R24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="17">
         <v>25917</v>
       </c>
-      <c r="T24" s="41"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
@@ -3985,7 +3968,7 @@
       <c r="R26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="42">
         <v>25504</v>
       </c>
       <c r="T26" s="29" t="s">
@@ -4079,7 +4062,7 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="49">
+      <c r="S28" s="42">
         <v>25387</v>
       </c>
       <c r="T28" s="29"/>
@@ -4253,7 +4236,7 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="49">
+      <c r="S31" s="42">
         <v>25704</v>
       </c>
       <c r="T31" s="29"/>
@@ -4633,2422 +4616,2416 @@
       <c r="T38" s="29"/>
     </row>
     <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="2">
         <v>-81.015979999999999</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="2">
         <v>37.42163</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="J39" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="38">
         <v>2391</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="N39" s="40">
+      <c r="N39" s="38">
         <v>24</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="38">
         <v>25</v>
       </c>
-      <c r="P39" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="36" t="s">
+      <c r="P39" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="37">
+      <c r="R39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="4">
         <v>24740</v>
       </c>
-      <c r="T39" s="36"/>
+      <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="2">
         <v>-79.905010000000004</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="2">
         <v>39.610210000000002</v>
       </c>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="37">
         <v>579</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="37">
         <v>8</v>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="36" t="s">
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S40" s="37">
+      <c r="R40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="4">
         <v>26508</v>
       </c>
-      <c r="T40" s="36"/>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="2">
         <v>-79.867609999999999</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="2">
         <v>39.652670000000001</v>
       </c>
-      <c r="J41" s="36" t="s">
+      <c r="J41" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="37">
         <v>830</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="37">
         <v>8</v>
       </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="36" t="s">
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="37">
+      <c r="R41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="4">
         <v>26508</v>
       </c>
-      <c r="T41" s="36"/>
+      <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="2">
         <v>-79.945801900000006</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="2">
         <v>39.6362083</v>
       </c>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="37">
         <v>567</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N42" s="39">
+      <c r="N42" s="37">
         <v>48</v>
       </c>
-      <c r="O42" s="39">
+      <c r="O42" s="37">
         <v>25</v>
       </c>
-      <c r="P42" s="39">
+      <c r="P42" s="37">
         <v>30</v>
       </c>
-      <c r="Q42" s="36" t="s">
+      <c r="Q42" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="37">
+      <c r="R42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="4">
         <v>26505</v>
       </c>
-      <c r="T42" s="36" t="s">
+      <c r="T42" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="2">
         <v>-79.953093199999998</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="2">
         <v>39.636423100000002</v>
       </c>
-      <c r="J43" s="36" t="s">
+      <c r="J43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="37">
         <v>639</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N43" s="39">
+      <c r="N43" s="37">
         <v>48</v>
       </c>
-      <c r="O43" s="39">
+      <c r="O43" s="37">
         <v>25</v>
       </c>
-      <c r="P43" s="39">
+      <c r="P43" s="37">
         <v>30</v>
       </c>
-      <c r="Q43" s="36" t="s">
+      <c r="Q43" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S43" s="37">
+      <c r="R43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="4">
         <v>26505</v>
       </c>
-      <c r="T43" s="36" t="s">
+      <c r="T43" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="2">
         <v>-80.000420899999995</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="2">
         <v>39.6535571</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="J44" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="37">
         <v>912</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N44" s="39">
+      <c r="N44" s="37">
         <v>48</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="37">
         <v>25</v>
       </c>
-      <c r="P44" s="39">
+      <c r="P44" s="37">
         <v>30</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="Q44" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S44" s="37">
+      <c r="R44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="4">
         <v>26505</v>
       </c>
-      <c r="T44" s="36" t="s">
+      <c r="T44" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="2">
         <v>-79.972157499999994</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="2">
         <v>39.650096900000001</v>
       </c>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39" t="s">
+      <c r="L45" s="37"/>
+      <c r="M45" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N45" s="39">
+      <c r="N45" s="37">
         <v>48</v>
       </c>
-      <c r="O45" s="39">
+      <c r="O45" s="37">
         <v>25</v>
       </c>
-      <c r="P45" s="39">
+      <c r="P45" s="37">
         <v>30</v>
       </c>
-      <c r="Q45" s="36" t="s">
+      <c r="Q45" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S45" s="37">
+      <c r="R45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="4">
         <v>26505</v>
       </c>
-      <c r="T45" s="36" t="s">
+      <c r="T45" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="2">
         <v>-79.956234100000003</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="2">
         <v>39.667909799999997</v>
       </c>
-      <c r="J46" s="36" t="s">
+      <c r="J46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39" t="s">
+      <c r="L46" s="37"/>
+      <c r="M46" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N46" s="39">
+      <c r="N46" s="37">
         <v>48</v>
       </c>
-      <c r="O46" s="39">
+      <c r="O46" s="37">
         <v>25</v>
       </c>
-      <c r="P46" s="39">
+      <c r="P46" s="37">
         <v>30</v>
       </c>
-      <c r="Q46" s="36" t="s">
+      <c r="Q46" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S46" s="37">
+      <c r="R46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="4">
         <v>26505</v>
       </c>
-      <c r="T46" s="36" t="s">
+      <c r="T46" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="2">
         <v>-79.956204600000007</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="2">
         <v>39.668112200000003</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K47" s="36" t="s">
+      <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39" t="s">
+      <c r="L47" s="37"/>
+      <c r="M47" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N47" s="39">
+      <c r="N47" s="37">
         <v>48</v>
       </c>
-      <c r="O47" s="39">
+      <c r="O47" s="37">
         <v>25</v>
       </c>
-      <c r="P47" s="39">
+      <c r="P47" s="37">
         <v>30</v>
       </c>
-      <c r="Q47" s="36" t="s">
+      <c r="Q47" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" s="37">
+      <c r="R47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="4">
         <v>26505</v>
       </c>
-      <c r="T47" s="36" t="s">
+      <c r="T47" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="2">
         <v>-80.598290000000006</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="36">
         <v>40.325800000000001</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="K48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="38">
         <v>6468</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N48" s="40">
+      <c r="N48" s="38">
         <v>24</v>
       </c>
-      <c r="O48" s="40">
+      <c r="O48" s="38">
         <v>25</v>
       </c>
-      <c r="P48" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="36" t="s">
+      <c r="P48" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="37">
+      <c r="R48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="4">
         <v>26037</v>
       </c>
-      <c r="T48" s="36"/>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="2">
         <v>-79.515240000000006</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="36">
         <v>39.66807</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="38">
         <v>1948</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N49" s="40">
+      <c r="N49" s="38">
         <v>24</v>
       </c>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="36" t="s">
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="37">
+      <c r="R49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="4">
         <v>26525</v>
       </c>
-      <c r="T49" s="36"/>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="2">
         <v>-79.956762600000005</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="2">
         <v>39.637875299999997</v>
       </c>
-      <c r="J50" s="36" t="s">
+      <c r="J50" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="37">
         <v>874</v>
       </c>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N50" s="39">
+      <c r="N50" s="37">
         <v>48</v>
       </c>
-      <c r="O50" s="39">
+      <c r="O50" s="37">
         <v>25</v>
       </c>
-      <c r="P50" s="39">
+      <c r="P50" s="37">
         <v>30</v>
       </c>
-      <c r="Q50" s="36" t="s">
+      <c r="Q50" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="37">
+      <c r="R50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="4">
         <v>26505</v>
       </c>
-      <c r="T50" s="36" t="s">
+      <c r="T50" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="2">
         <v>-79.955122099999997</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="2">
         <v>39.669188599999998</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J51" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
+      <c r="L51" s="37"/>
+      <c r="M51" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N51" s="39">
+      <c r="N51" s="37">
         <v>48</v>
       </c>
-      <c r="O51" s="39">
+      <c r="O51" s="37">
         <v>25</v>
       </c>
-      <c r="P51" s="39">
+      <c r="P51" s="37">
         <v>30</v>
       </c>
-      <c r="Q51" s="36" t="s">
+      <c r="Q51" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="37">
+      <c r="R51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="4">
         <v>26505</v>
       </c>
-      <c r="T51" s="36" t="s">
+      <c r="T51" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="2">
         <v>-79.955245399999995</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="2">
         <v>39.669279500000002</v>
       </c>
-      <c r="J52" s="36" t="s">
+      <c r="J52" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39" t="s">
+      <c r="L52" s="37"/>
+      <c r="M52" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N52" s="37">
         <v>48</v>
       </c>
-      <c r="O52" s="39">
+      <c r="O52" s="37">
         <v>25</v>
       </c>
-      <c r="P52" s="39">
+      <c r="P52" s="37">
         <v>30</v>
       </c>
-      <c r="Q52" s="36" t="s">
+      <c r="Q52" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="37">
+      <c r="R52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="4">
         <v>26505</v>
       </c>
-      <c r="T52" s="36" t="s">
+      <c r="T52" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="2">
         <v>-79.957359999999994</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="2">
         <v>39.625419999999998</v>
       </c>
-      <c r="J53" s="36" t="s">
+      <c r="J53" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="37">
         <v>1851</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N53" s="39">
+      <c r="N53" s="37">
         <v>8</v>
       </c>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="36" t="s">
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S53" s="37">
+      <c r="R53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="4">
         <v>26501</v>
       </c>
-      <c r="T53" s="36"/>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="2">
         <v>-79.943309999999997</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="2">
         <v>39.61036</v>
       </c>
-      <c r="J54" s="36" t="s">
+      <c r="J54" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K54" s="36" t="s">
+      <c r="K54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="37">
         <v>726</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N54" s="39">
+      <c r="N54" s="37">
         <v>8</v>
       </c>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="36" t="s">
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S54" s="37">
+      <c r="R54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="4">
         <v>26501</v>
       </c>
-      <c r="T54" s="36"/>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="2">
         <v>-79.965769100000003</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="2">
         <v>39.672765599999998</v>
       </c>
-      <c r="J55" s="36" t="s">
+      <c r="J55" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
+      <c r="L55" s="37"/>
+      <c r="M55" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N55" s="39">
+      <c r="N55" s="37">
         <v>48</v>
       </c>
-      <c r="O55" s="39">
+      <c r="O55" s="37">
         <v>25</v>
       </c>
-      <c r="P55" s="39">
+      <c r="P55" s="37">
         <v>30</v>
       </c>
-      <c r="Q55" s="36" t="s">
+      <c r="Q55" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S55" s="37">
+      <c r="R55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="4">
         <v>26505</v>
       </c>
-      <c r="T55" s="36" t="s">
+      <c r="T55" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="2">
         <v>-79.956739999999996</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="2">
         <v>39.660640000000001</v>
       </c>
-      <c r="J56" s="36" t="s">
+      <c r="J56" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="37">
         <v>688</v>
       </c>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N56" s="39">
+      <c r="N56" s="37">
         <v>8</v>
       </c>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="36" t="s">
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="37">
+      <c r="R56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="4">
         <v>26505</v>
       </c>
-      <c r="T56" s="36"/>
+      <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G57" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="2">
         <v>-79.953202899999994</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="2">
         <v>39.633116399999999</v>
       </c>
-      <c r="J57" s="36" t="s">
+      <c r="J57" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K57" s="36" t="s">
+      <c r="K57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39" t="s">
+      <c r="L57" s="37"/>
+      <c r="M57" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N57" s="39">
+      <c r="N57" s="37">
         <v>48</v>
       </c>
-      <c r="O57" s="39">
+      <c r="O57" s="37">
         <v>25</v>
       </c>
-      <c r="P57" s="39">
+      <c r="P57" s="37">
         <v>30</v>
       </c>
-      <c r="Q57" s="36" t="s">
+      <c r="Q57" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" s="37">
+      <c r="R57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="4">
         <v>26505</v>
       </c>
-      <c r="T57" s="36" t="s">
+      <c r="T57" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="2">
         <v>-79.962211800000006</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="2">
         <v>39.6511596</v>
       </c>
-      <c r="J58" s="36" t="s">
+      <c r="J58" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K58" s="36" t="s">
+      <c r="K58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L58" s="37">
         <v>862</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N58" s="39">
+      <c r="N58" s="37">
         <v>48</v>
       </c>
-      <c r="O58" s="39">
+      <c r="O58" s="37">
         <v>25</v>
       </c>
-      <c r="P58" s="39">
+      <c r="P58" s="37">
         <v>30</v>
       </c>
-      <c r="Q58" s="36" t="s">
+      <c r="Q58" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="37">
+      <c r="R58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="4">
         <v>26505</v>
       </c>
-      <c r="T58" s="36" t="s">
+      <c r="T58" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="2">
         <v>-79.127250000000004</v>
       </c>
-      <c r="I59" s="38">
+      <c r="I59" s="36">
         <v>38.99091</v>
       </c>
-      <c r="J59" s="36" t="s">
+      <c r="J59" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K59" s="36" t="s">
+      <c r="K59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="40">
+      <c r="L59" s="38">
         <v>2700</v>
       </c>
-      <c r="M59" s="40" t="s">
+      <c r="M59" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N59" s="40">
+      <c r="N59" s="38">
         <v>24</v>
       </c>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="36" t="s">
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="37">
+      <c r="R59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="4">
         <v>26847</v>
       </c>
-      <c r="T59" s="36"/>
+      <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="2">
         <v>-79.956140000000005</v>
       </c>
-      <c r="I60" s="36">
+      <c r="I60" s="2">
         <v>39.639200000000002</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K60" s="36" t="s">
+      <c r="K60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="39">
+      <c r="L60" s="37">
         <v>474</v>
       </c>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N60" s="39">
+      <c r="N60" s="37">
         <v>48</v>
       </c>
-      <c r="O60" s="39">
+      <c r="O60" s="37">
         <v>25</v>
       </c>
-      <c r="P60" s="39">
+      <c r="P60" s="37">
         <v>30</v>
       </c>
-      <c r="Q60" s="36" t="s">
+      <c r="Q60" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="37">
+      <c r="R60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="4">
         <v>26505</v>
       </c>
-      <c r="T60" s="36" t="s">
+      <c r="T60" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36" t="s">
+      <c r="H61" s="12"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="36" t="s">
+      <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="36"/>
-      <c r="M61" s="39" t="s">
+      <c r="L61" s="2"/>
+      <c r="M61" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N61" s="39">
+      <c r="N61" s="37">
         <v>12</v>
       </c>
-      <c r="O61" s="40">
+      <c r="O61" s="38">
         <v>25</v>
       </c>
-      <c r="P61" s="40">
+      <c r="P61" s="38">
         <v>30</v>
       </c>
-      <c r="Q61" s="36" t="s">
+      <c r="Q61" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="37">
+      <c r="R61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="4">
         <v>26505</v>
       </c>
-      <c r="T61" s="36"/>
+      <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="36"/>
-      <c r="M62" s="39" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N62" s="39">
+      <c r="N62" s="37">
         <v>12</v>
       </c>
-      <c r="O62" s="40">
+      <c r="O62" s="38">
         <v>25</v>
       </c>
-      <c r="P62" s="40">
+      <c r="P62" s="38">
         <v>30</v>
       </c>
-      <c r="Q62" s="36" t="s">
+      <c r="Q62" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="37">
+      <c r="R62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="4">
         <v>26505</v>
       </c>
-      <c r="T62" s="36"/>
+      <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G63" s="36" t="s">
+      <c r="G63" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36" t="s">
+      <c r="H63" s="12"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K63" s="36" t="s">
+      <c r="K63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="36"/>
-      <c r="M63" s="39" t="s">
+      <c r="L63" s="2"/>
+      <c r="M63" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N63" s="39">
+      <c r="N63" s="37">
         <v>12</v>
       </c>
-      <c r="O63" s="40">
+      <c r="O63" s="38">
         <v>25</v>
       </c>
-      <c r="P63" s="40">
+      <c r="P63" s="38">
         <v>30</v>
       </c>
-      <c r="Q63" s="36" t="s">
+      <c r="Q63" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S63" s="37">
+      <c r="R63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="4">
         <v>26505</v>
       </c>
-      <c r="T63" s="36"/>
+      <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G64" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36" t="s">
+      <c r="H64" s="12"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K64" s="36" t="s">
+      <c r="K64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="36"/>
-      <c r="M64" s="39" t="s">
+      <c r="L64" s="2"/>
+      <c r="M64" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N64" s="39">
+      <c r="N64" s="37">
         <v>12</v>
       </c>
-      <c r="O64" s="40">
+      <c r="O64" s="38">
         <v>25</v>
       </c>
-      <c r="P64" s="40">
+      <c r="P64" s="38">
         <v>30</v>
       </c>
-      <c r="Q64" s="36" t="s">
+      <c r="Q64" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S64" s="37">
+      <c r="R64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="4">
         <v>26505</v>
       </c>
-      <c r="T64" s="36"/>
+      <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H65" s="36">
+      <c r="H65" s="2">
         <v>-81.205110000000005</v>
       </c>
-      <c r="I65" s="38">
+      <c r="I65" s="36">
         <v>39.391249999999999</v>
       </c>
-      <c r="J65" s="36" t="s">
+      <c r="J65" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K65" s="36" t="s">
+      <c r="K65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L65" s="40">
+      <c r="L65" s="38">
         <v>2892</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N65" s="40">
+      <c r="N65" s="38">
         <v>24</v>
       </c>
-      <c r="O65" s="40">
+      <c r="O65" s="38">
         <v>25</v>
       </c>
-      <c r="P65" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="36" t="s">
+      <c r="P65" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S65" s="37">
+      <c r="R65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="4">
         <v>26170</v>
       </c>
-      <c r="T65" s="36"/>
+      <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H66" s="36">
+      <c r="H66" s="2">
         <v>-79.978250000000003</v>
       </c>
-      <c r="I66" s="36">
+      <c r="I66" s="2">
         <v>39.671370000000003</v>
       </c>
-      <c r="J66" s="36" t="s">
+      <c r="J66" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K66" s="36" t="s">
+      <c r="K66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="37">
         <v>515</v>
       </c>
-      <c r="M66" s="39" t="s">
+      <c r="M66" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N66" s="39">
+      <c r="N66" s="37">
         <v>8</v>
       </c>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="36" t="s">
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="37">
+      <c r="R66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="4">
         <v>26505</v>
       </c>
-      <c r="T66" s="36"/>
+      <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="36" t="s">
+      <c r="G67" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H67" s="36">
+      <c r="H67" s="2">
         <v>-79.966336100000007</v>
       </c>
-      <c r="I67" s="36">
+      <c r="I67" s="2">
         <v>39.649548899999999</v>
       </c>
-      <c r="J67" s="36" t="s">
+      <c r="J67" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K67" s="36" t="s">
+      <c r="K67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="39">
+      <c r="L67" s="37">
         <v>904</v>
       </c>
-      <c r="M67" s="39" t="s">
+      <c r="M67" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N67" s="39">
+      <c r="N67" s="37">
         <v>48</v>
       </c>
-      <c r="O67" s="39">
+      <c r="O67" s="37">
         <v>25</v>
       </c>
-      <c r="P67" s="39">
+      <c r="P67" s="37">
         <v>30</v>
       </c>
-      <c r="Q67" s="36" t="s">
+      <c r="Q67" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S67" s="37">
+      <c r="R67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="4">
         <v>26505</v>
       </c>
-      <c r="T67" s="36" t="s">
+      <c r="T67" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G68" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="2">
         <v>-79.926150000000007</v>
       </c>
-      <c r="I68" s="36">
+      <c r="I68" s="2">
         <v>39.687820000000002</v>
       </c>
-      <c r="J68" s="36" t="s">
+      <c r="J68" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K68" s="36" t="s">
+      <c r="K68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L68" s="37">
         <v>1310</v>
       </c>
-      <c r="M68" s="39" t="s">
+      <c r="M68" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N68" s="39">
+      <c r="N68" s="37">
         <v>8</v>
       </c>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="36" t="s">
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S68" s="37">
+      <c r="R68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="4">
         <v>26508</v>
       </c>
-      <c r="T68" s="36"/>
+      <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="2">
         <v>-79.956755900000005</v>
       </c>
-      <c r="I69" s="36">
+      <c r="I69" s="2">
         <v>39.640189999999997</v>
       </c>
-      <c r="J69" s="36" t="s">
+      <c r="J69" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K69" s="36" t="s">
+      <c r="K69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39" t="s">
+      <c r="L69" s="37"/>
+      <c r="M69" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N69" s="39">
+      <c r="N69" s="37">
         <v>48</v>
       </c>
-      <c r="O69" s="39">
+      <c r="O69" s="37">
         <v>25</v>
       </c>
-      <c r="P69" s="39">
+      <c r="P69" s="37">
         <v>30</v>
       </c>
-      <c r="Q69" s="36" t="s">
+      <c r="Q69" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S69" s="37">
+      <c r="R69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="4">
         <v>26505</v>
       </c>
-      <c r="T69" s="36" t="s">
+      <c r="T69" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="36" t="s">
+      <c r="G70" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H70" s="36">
+      <c r="H70" s="2">
         <v>-79.925397000000004</v>
       </c>
-      <c r="I70" s="36">
+      <c r="I70" s="2">
         <v>39.6565887</v>
       </c>
-      <c r="J70" s="36" t="s">
+      <c r="J70" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K70" s="36" t="s">
+      <c r="K70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39" t="s">
+      <c r="L70" s="37"/>
+      <c r="M70" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N70" s="39">
+      <c r="N70" s="37">
         <v>48</v>
       </c>
-      <c r="O70" s="39">
+      <c r="O70" s="37">
         <v>25</v>
       </c>
-      <c r="P70" s="39">
+      <c r="P70" s="37">
         <v>30</v>
       </c>
-      <c r="Q70" s="36" t="s">
+      <c r="Q70" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S70" s="37">
+      <c r="R70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="4">
         <v>26505</v>
       </c>
-      <c r="T70" s="36" t="s">
+      <c r="T70" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="36" t="s">
+      <c r="F71" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G71" s="36" t="s">
+      <c r="G71" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H71" s="36">
+      <c r="H71" s="2">
         <v>-79.936940000000007</v>
       </c>
-      <c r="I71" s="38">
+      <c r="I71" s="36">
         <v>39.022010000000002</v>
       </c>
-      <c r="J71" s="36" t="s">
+      <c r="J71" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K71" s="36" t="s">
+      <c r="K71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L71" s="40">
+      <c r="L71" s="38">
         <v>1974</v>
       </c>
-      <c r="M71" s="40" t="s">
+      <c r="M71" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N71" s="40">
+      <c r="N71" s="38">
         <v>24</v>
       </c>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="36" t="s">
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S71" s="37">
+      <c r="R71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="4">
         <v>26250</v>
       </c>
-      <c r="T71" s="36"/>
+      <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G72" s="36" t="s">
+      <c r="G72" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72" s="2">
         <v>-80.212010000000006</v>
       </c>
-      <c r="I72" s="38">
+      <c r="I72" s="36">
         <v>39.72007</v>
       </c>
-      <c r="J72" s="36" t="s">
+      <c r="J72" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K72" s="36" t="s">
+      <c r="K72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="39">
+      <c r="L72" s="37">
         <v>400</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N72" s="40">
+      <c r="N72" s="38">
         <v>24</v>
       </c>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="36" t="s">
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" s="37">
+      <c r="R72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="4">
         <v>26521</v>
       </c>
-      <c r="T72" s="36"/>
+      <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G73" s="36" t="s">
+      <c r="G73" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H73" s="36">
+      <c r="H73" s="2">
         <v>-80.258989999999997</v>
       </c>
-      <c r="I73" s="38">
+      <c r="I73" s="36">
         <v>39.280479999999997</v>
       </c>
-      <c r="J73" s="36" t="s">
+      <c r="J73" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K73" s="36" t="s">
+      <c r="K73" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L73" s="40">
+      <c r="L73" s="38">
         <v>6984</v>
       </c>
-      <c r="M73" s="40" t="s">
+      <c r="M73" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N73" s="40">
+      <c r="N73" s="38">
         <v>24</v>
       </c>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="36" t="s">
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S73" s="37">
+      <c r="R73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="4">
         <v>26330</v>
       </c>
-      <c r="T73" s="36"/>
+      <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D74" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G74" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H74" s="36">
+      <c r="H74" s="2">
         <v>-80.567440000000005</v>
       </c>
-      <c r="I74" s="38">
+      <c r="I74" s="36">
         <v>39.826610000000002</v>
       </c>
-      <c r="J74" s="36" t="s">
+      <c r="J74" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="K74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L74" s="40">
+      <c r="L74" s="38">
         <v>1340</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N74" s="40">
+      <c r="N74" s="38">
         <v>24</v>
       </c>
-      <c r="O74" s="40">
+      <c r="O74" s="38">
         <v>25</v>
       </c>
-      <c r="P74" s="40">
+      <c r="P74" s="38">
         <v>30</v>
       </c>
-      <c r="Q74" s="36" t="s">
+      <c r="Q74" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R74" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S74" s="37">
+      <c r="R74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="4">
         <v>26033</v>
       </c>
-      <c r="T74" s="36"/>
+      <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="36" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H75" s="36">
+      <c r="H75" s="2">
         <v>-80.124449999999996</v>
       </c>
-      <c r="I75" s="38">
+      <c r="I75" s="36">
         <v>39.493949999999998</v>
       </c>
-      <c r="J75" s="36" t="s">
+      <c r="J75" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K75" s="36" t="s">
+      <c r="K75" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L75" s="40">
+      <c r="L75" s="38">
         <v>25525</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N75" s="40">
+      <c r="N75" s="38">
         <v>24</v>
       </c>
-      <c r="O75" s="40">
+      <c r="O75" s="38">
         <v>25</v>
       </c>
-      <c r="P75" s="40">
+      <c r="P75" s="38">
         <v>30</v>
       </c>
-      <c r="Q75" s="36" t="s">
+      <c r="Q75" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R75" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S75" s="37">
+      <c r="R75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="4">
         <v>26554</v>
       </c>
-      <c r="T75" s="36"/>
+      <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="36" t="s">
+      <c r="G76" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H76" s="2">
         <v>-78.98272</v>
       </c>
-      <c r="I76" s="38">
+      <c r="I76" s="36">
         <v>39.438070000000003</v>
       </c>
-      <c r="J76" s="36" t="s">
+      <c r="J76" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K76" s="36" t="s">
+      <c r="K76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L76" s="39">
+      <c r="L76" s="37">
         <v>1193</v>
       </c>
-      <c r="M76" s="39" t="s">
+      <c r="M76" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N76" s="39">
+      <c r="N76" s="37">
         <v>48</v>
       </c>
-      <c r="O76" s="40">
+      <c r="O76" s="38">
         <v>25</v>
       </c>
-      <c r="P76" s="40">
+      <c r="P76" s="38">
         <v>30</v>
       </c>
-      <c r="Q76" s="36" t="s">
+      <c r="Q76" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R76" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S76" s="37">
+      <c r="R76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="4">
         <v>26726</v>
       </c>
-      <c r="T76" s="36"/>
+      <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G77" s="36" t="s">
+      <c r="G77" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36" t="s">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K77" s="36" t="s">
+      <c r="K77" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="38">
         <v>1800</v>
       </c>
-      <c r="M77" s="40" t="s">
+      <c r="M77" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N77" s="40">
+      <c r="N77" s="38">
         <v>24</v>
       </c>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="36" t="s">
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R77" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S77" s="37"/>
-      <c r="T77" s="36"/>
+      <c r="R77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D78" s="46" t="s">
+      <c r="D78" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="36" t="s">
+      <c r="F78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G78" s="36" t="s">
+      <c r="G78" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H78" s="36">
+      <c r="H78" s="2">
         <v>-78.226619999999997</v>
       </c>
-      <c r="I78" s="36">
+      <c r="I78" s="2">
         <v>39.628019999999999</v>
       </c>
-      <c r="J78" s="36" t="s">
+      <c r="J78" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K78" s="36" t="s">
+      <c r="K78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="38">
         <v>3255</v>
       </c>
-      <c r="M78" s="40" t="s">
+      <c r="M78" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N78" s="40">
+      <c r="N78" s="38">
         <v>24</v>
       </c>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="36" t="s">
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R78" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S78" s="37">
+      <c r="R78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="4">
         <v>25411</v>
       </c>
-      <c r="T78" s="36"/>
+      <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G79" s="36" t="s">
+      <c r="G79" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K79" s="36" t="s">
+      <c r="K79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="38">
         <v>20411</v>
       </c>
-      <c r="M79" s="40" t="s">
+      <c r="M79" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="N79" s="40">
+      <c r="N79" s="38">
         <v>24</v>
       </c>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="36" t="s">
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R79" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S79" s="37"/>
-      <c r="T79" s="36"/>
+      <c r="R79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="36" t="s">
+      <c r="F80" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G80" s="36" t="s">
+      <c r="G80" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H80" s="36">
+      <c r="H80" s="2">
         <v>-80.260360000000006</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="36">
         <v>39.452579999999998</v>
       </c>
-      <c r="J80" s="36" t="s">
+      <c r="J80" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K80" s="36" t="s">
+      <c r="K80" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L80" s="40">
+      <c r="L80" s="38">
         <v>2742</v>
       </c>
-      <c r="M80" s="39" t="s">
+      <c r="M80" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N80" s="40">
+      <c r="N80" s="38">
         <v>24</v>
       </c>
-      <c r="O80" s="40">
+      <c r="O80" s="38">
         <v>25</v>
       </c>
-      <c r="P80" s="40">
+      <c r="P80" s="38">
         <v>30</v>
       </c>
-      <c r="Q80" s="36" t="s">
+      <c r="Q80" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R80" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S80" s="37">
+      <c r="R80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="4">
         <v>26591</v>
       </c>
-      <c r="T80" s="36"/>
+      <c r="T80" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T80">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC1544-6710-A847-B533-0319A57D06AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A810B81-0CFA-ED4F-99A1-E18B7BC08F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="25880" windowHeight="16820" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="31180" yWindow="9800" windowWidth="25880" windowHeight="16820" activeTab="2" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="606">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1853,6 +1853,9 @@
   </si>
   <si>
     <t>WV0020168</t>
+  </si>
+  <si>
+    <t>M04</t>
   </si>
 </sst>
 </file>
@@ -2446,11 +2449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2947,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>360</v>
@@ -7042,8 +7045,8 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8293,8 +8296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DED6B-84CB-6D46-B3EB-C814548CEBA4}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A810B81-0CFA-ED4F-99A1-E18B7BC08F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B4C12-A117-6449-AE96-AD16BD61F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="9800" windowWidth="25880" windowHeight="16820" activeTab="2" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="50440" yWindow="5140" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="county" sheetId="2" r:id="rId3"/>
     <sheet name="target" sheetId="4" r:id="rId4"/>
     <sheet name="lab" sheetId="5" r:id="rId5"/>
+    <sheet name="loci" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="634">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1303,24 +1304,9 @@
     <t>Bacteria</t>
   </si>
   <si>
-    <t>Human Norovirus GII</t>
-  </si>
-  <si>
     <t>huNovGII</t>
   </si>
   <si>
-    <t>Mpox Virus Clade I</t>
-  </si>
-  <si>
-    <t>Mpox Virus Clade II</t>
-  </si>
-  <si>
-    <t>Escherichia coli, Shiga toxin-producing</t>
-  </si>
-  <si>
-    <t>Human Immunodeficiency Virus 1</t>
-  </si>
-  <si>
     <t>Enterovirus</t>
   </si>
   <si>
@@ -1330,36 +1316,12 @@
     <t>Rv</t>
   </si>
   <si>
-    <t>Pepper Mild Mottle Virus</t>
-  </si>
-  <si>
-    <t>Respiratory Syncitial Virus, Bovine</t>
-  </si>
-  <si>
-    <t>Cross-assembly phage</t>
-  </si>
-  <si>
-    <t>Human RNAse P</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Respiratory Syncitial Virus, Human</t>
-  </si>
-  <si>
     <t>Viral</t>
   </si>
   <si>
     <t>Bacterial</t>
   </si>
   <si>
-    <t>Eukaryotic</t>
-  </si>
-  <si>
     <t>lab_id</t>
   </si>
   <si>
@@ -1856,6 +1818,129 @@
   </si>
   <si>
     <t>M04</t>
+  </si>
+  <si>
+    <t>WhiteOakWWTP</t>
+  </si>
+  <si>
+    <t>crAssphage</t>
+  </si>
+  <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
+    <t>Escherichia coli, Shiga toxin-producing (STEC)</t>
+  </si>
+  <si>
+    <t>Human Immunodeficiency Virus 1 (HIV-1)</t>
+  </si>
+  <si>
+    <t>Human Immunodeficiency Virus 2 (HIV-2)</t>
+  </si>
+  <si>
+    <t>Legionella</t>
+  </si>
+  <si>
+    <t>Pepper Mild Mottle Virus (PMMoV)</t>
+  </si>
+  <si>
+    <t>Respiratory Syncitial Virus, Bovine (BRSV)</t>
+  </si>
+  <si>
+    <t>Respiratory Syncitial Virus, Human (RSV)</t>
+  </si>
+  <si>
+    <t>Salmonella enterica subsp. enterica serovar Enteritidis</t>
+  </si>
+  <si>
+    <t>Salmonella enterica subsp. enterica serovar Javiana</t>
+  </si>
+  <si>
+    <t>Salmonella enterica subsp. enterica serovar Newport</t>
+  </si>
+  <si>
+    <t>Salmonella enterica subsp. enterica serovar Typhimurium</t>
+  </si>
+  <si>
+    <t>HIV-2</t>
+  </si>
+  <si>
+    <t>Mpox Virus I (MPXV I)</t>
+  </si>
+  <si>
+    <t>Mpox Virus II (MPXV II)</t>
+  </si>
+  <si>
+    <t>Ec</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Lg</t>
+  </si>
+  <si>
+    <t>Salmonella Enteritidis</t>
+  </si>
+  <si>
+    <t>Salmonella Newport</t>
+  </si>
+  <si>
+    <t>Salmonella Typhimurium</t>
+  </si>
+  <si>
+    <t>Salmonella Javiana</t>
+  </si>
+  <si>
+    <t>Legionairre's Disease</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>23S</t>
+  </si>
+  <si>
+    <t>C3b</t>
+  </si>
+  <si>
+    <t>N1:SARS</t>
+  </si>
+  <si>
+    <t>N2:SARS</t>
+  </si>
+  <si>
+    <t>NEP/NS1</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>RNase P</t>
+  </si>
+  <si>
+    <t>S:E484K</t>
+  </si>
+  <si>
+    <t>S:E484K WT</t>
+  </si>
+  <si>
+    <t>S:HVdel69-70</t>
+  </si>
+  <si>
+    <t>S:HVdel69-70 WT</t>
+  </si>
+  <si>
+    <t>S:N501Y</t>
+  </si>
+  <si>
+    <t>S:N501Y WT</t>
+  </si>
+  <si>
+    <t>TNFR</t>
+  </si>
+  <si>
+    <t>locus_id</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1995,6 +2080,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2029,7 +2130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2127,6 +2228,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2151,9 +2255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2191,7 +2295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2297,7 +2401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2439,7 +2543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2449,11 +2553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2480,7 +2584,7 @@
         <v>200</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>358</v>
@@ -2542,7 +2646,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>360</v>
@@ -2602,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>360</v>
@@ -2658,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>360</v>
@@ -2714,7 +2818,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>360</v>
@@ -2773,7 +2877,7 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>360</v>
@@ -2826,10 +2930,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>360</v>
@@ -2838,7 +2942,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>350</v>
@@ -2887,7 +2991,7 @@
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>360</v>
@@ -2947,7 +3051,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>360</v>
@@ -3007,7 +3111,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>360</v>
@@ -3063,7 +3167,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>360</v>
@@ -3123,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>360</v>
@@ -3183,7 +3287,7 @@
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>360</v>
@@ -3243,7 +3347,7 @@
         <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>360</v>
@@ -3303,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>360</v>
@@ -3359,7 +3463,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>360</v>
@@ -3415,7 +3519,7 @@
         <v>197</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>360</v>
@@ -3475,7 +3579,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>360</v>
@@ -3535,7 +3639,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>360</v>
@@ -3595,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>360</v>
@@ -3651,7 +3755,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>360</v>
@@ -3710,7 +3814,7 @@
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>360</v>
@@ -3770,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>360</v>
@@ -3822,10 +3926,10 @@
     </row>
     <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>360</v>
@@ -3834,7 +3938,7 @@
         <v>103</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>349</v>
@@ -3849,7 +3953,7 @@
         <v>37.946477700000003</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>206</v>
@@ -4623,7 +4727,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>360</v>
@@ -4683,7 +4787,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>360</v>
@@ -4739,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>360</v>
@@ -4795,7 +4899,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>360</v>
@@ -4857,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>360</v>
@@ -4919,7 +5023,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>360</v>
@@ -4981,7 +5085,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>360</v>
@@ -5041,7 +5145,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>360</v>
@@ -5101,7 +5205,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>360</v>
@@ -5161,7 +5265,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>360</v>
@@ -5272,7 +5376,7 @@
         <v>201</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>360</v>
@@ -5334,7 +5438,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>360</v>
@@ -5394,7 +5498,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>360</v>
@@ -5454,7 +5558,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>360</v>
@@ -5509,7 +5613,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>360</v>
@@ -5564,7 +5668,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>360</v>
@@ -5624,7 +5728,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>360</v>
@@ -5680,7 +5784,7 @@
         <v>348</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>360</v>
@@ -5740,7 +5844,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>360</v>
@@ -5856,7 +5960,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>360</v>
@@ -5915,10 +6019,10 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>360</v>
@@ -5927,7 +6031,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>350</v>
@@ -5969,10 +6073,10 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>360</v>
@@ -5981,7 +6085,7 @@
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>350</v>
@@ -6023,10 +6127,10 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>360</v>
@@ -6035,7 +6139,7 @@
         <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>350</v>
@@ -6077,10 +6181,10 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>360</v>
@@ -6089,7 +6193,7 @@
         <v>60</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>350</v>
@@ -6134,7 +6238,7 @@
         <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>360</v>
@@ -6194,7 +6298,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>360</v>
@@ -6250,7 +6354,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>360</v>
@@ -6312,7 +6416,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>360</v>
@@ -6368,7 +6472,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>360</v>
@@ -6428,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>360</v>
@@ -6766,7 +6870,7 @@
         <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>360</v>
@@ -6874,7 +6978,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>360</v>
@@ -7046,7 +7150,7 @@
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7065,7 +7169,7 @@
         <v>239</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>238</v>
@@ -7077,7 +7181,7 @@
         <v>247</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>249</v>
@@ -7094,7 +7198,7 @@
         <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>64</v>
@@ -7106,7 +7210,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="G2" s="31">
         <v>54003906001</v>
@@ -7124,7 +7228,7 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>286</v>
@@ -7136,7 +7240,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G3" s="17">
         <v>54002701001</v>
@@ -7161,7 +7265,7 @@
         <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="G4" s="31">
         <v>54000601001</v>
@@ -7188,7 +7292,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G5" s="31">
         <v>54000101001</v>
@@ -7215,7 +7319,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="G6" s="31">
         <v>54003031001</v>
@@ -7242,7 +7346,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G7" s="31">
         <v>54001702001</v>
@@ -7267,7 +7371,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="G8" s="31">
         <v>54002510001</v>
@@ -7284,7 +7388,7 @@
         <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>371</v>
@@ -7294,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G9" s="31">
         <v>54002003001</v>
@@ -7311,7 +7415,7 @@
         <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>291</v>
@@ -7321,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G10" s="31">
         <v>54002003001</v>
@@ -7338,7 +7442,7 @@
         <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>292</v>
@@ -7348,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G11" s="31">
         <v>54001901001</v>
@@ -7365,7 +7469,7 @@
         <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>315</v>
@@ -7377,7 +7481,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G12" s="31">
         <v>54003045001</v>
@@ -7394,7 +7498,7 @@
         <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>293</v>
@@ -7404,7 +7508,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G13" s="31">
         <v>54001703001</v>
@@ -7421,7 +7525,7 @@
         <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>372</v>
@@ -7431,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="G14" s="31">
         <v>54002007001</v>
@@ -7448,7 +7552,7 @@
         <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>294</v>
@@ -7458,7 +7562,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="G15" s="31">
         <v>54004202001</v>
@@ -7483,7 +7587,7 @@
         <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G16" s="31">
         <v>54002405001</v>
@@ -7500,7 +7604,7 @@
         <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>296</v>
@@ -7510,7 +7614,7 @@
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="G17" s="31">
         <v>54002408001</v>
@@ -7527,7 +7631,7 @@
         <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>297</v>
@@ -7537,7 +7641,7 @@
         <v>122</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G18" s="17">
         <v>54000504001</v>
@@ -7554,7 +7658,7 @@
         <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>298</v>
@@ -7564,7 +7668,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G19" s="31">
         <v>54004602001</v>
@@ -7604,7 +7708,7 @@
         <v>362</v>
       </c>
       <c r="B21" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>369</v>
@@ -7616,7 +7720,7 @@
         <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G21" s="31">
         <v>54000603001</v>
@@ -7633,7 +7737,7 @@
         <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>300</v>
@@ -7643,7 +7747,7 @@
         <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G22" s="31">
         <v>54004215001</v>
@@ -7660,7 +7764,7 @@
         <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>301</v>
@@ -7670,7 +7774,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G23" s="31">
         <v>54002803001</v>
@@ -7687,7 +7791,7 @@
         <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>302</v>
@@ -7697,7 +7801,7 @@
         <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="G24" s="31">
         <v>54000316001</v>
@@ -7714,7 +7818,7 @@
         <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>303</v>
@@ -7724,7 +7828,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G25" s="31">
         <v>54002415001</v>
@@ -7741,7 +7845,7 @@
         <v>270</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>304</v>
@@ -7751,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G26" s="31">
         <v>54002509001</v>
@@ -7768,7 +7872,7 @@
         <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>305</v>
@@ -7778,7 +7882,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G27" s="31">
         <v>54005405001</v>
@@ -7795,7 +7899,7 @@
         <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>374</v>
@@ -7805,7 +7909,7 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="17">
@@ -7870,7 +7974,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G31" s="17">
         <v>54001205001</v>
@@ -7887,7 +7991,7 @@
         <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>316</v>
@@ -7897,7 +8001,7 @@
         <v>199</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G32" s="17">
         <v>54002606001</v>
@@ -7914,7 +8018,7 @@
         <v>274</v>
       </c>
       <c r="B33" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>307</v>
@@ -7924,7 +8028,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G33" s="17">
         <v>54002716001</v>
@@ -7941,7 +8045,7 @@
         <v>275</v>
       </c>
       <c r="B34" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>308</v>
@@ -7951,7 +8055,7 @@
         <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="G34" s="31">
         <v>54001710001</v>
@@ -7968,7 +8072,7 @@
         <v>379</v>
       </c>
       <c r="B35" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>381</v>
@@ -7978,7 +8082,7 @@
         <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="17">
@@ -7993,7 +8097,7 @@
         <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>382</v>
@@ -8003,7 +8107,7 @@
         <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
@@ -8026,7 +8130,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="G37" s="31">
         <v>54004804001</v>
@@ -8043,7 +8147,7 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>285</v>
@@ -8055,7 +8159,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G38" s="31">
         <v>54003011001</v>
@@ -8072,7 +8176,7 @@
         <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>317</v>
@@ -8082,7 +8186,7 @@
         <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G39" s="17">
         <v>54003703001</v>
@@ -8099,7 +8203,7 @@
         <v>278</v>
       </c>
       <c r="B40" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>310</v>
@@ -8109,7 +8213,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G40" s="31">
         <v>54003203001</v>
@@ -8134,7 +8238,7 @@
         <v>122</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G41" s="31">
         <v>54000509001</v>
@@ -8151,7 +8255,7 @@
         <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>312</v>
@@ -8161,7 +8265,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="G42" s="17">
         <v>54002102001</v>
@@ -8178,7 +8282,7 @@
         <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>318</v>
@@ -8188,7 +8292,7 @@
         <v>57</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G43" s="31">
         <v>54000901001</v>
@@ -8205,7 +8309,7 @@
         <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>313</v>
@@ -8215,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G44" s="31">
         <v>54003508001</v>
@@ -8229,20 +8333,20 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G45" s="31">
         <v>54001022001</v>
@@ -8296,8 +8400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DED6B-84CB-6D46-B3EB-C814548CEBA4}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8313,10 +8417,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>248</v>
@@ -8685,7 +8789,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C22" s="17">
         <v>54001</v>
@@ -8702,7 +8806,7 @@
         <v>202</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C23" s="17">
         <v>54003</v>
@@ -8720,7 +8824,7 @@
         <v>203</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C24" s="17">
         <v>54007</v>
@@ -8738,7 +8842,7 @@
         <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C25" s="17">
         <v>54011</v>
@@ -8755,7 +8859,7 @@
         <v>204</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C26" s="17">
         <v>54013</v>
@@ -8772,7 +8876,7 @@
         <v>205</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C27" s="17">
         <v>54015</v>
@@ -8790,7 +8894,7 @@
         <v>206</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C28" s="17">
         <v>54019</v>
@@ -8808,7 +8912,7 @@
         <v>207</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C29" s="17">
         <v>54021</v>
@@ -8826,7 +8930,7 @@
         <v>55</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C30" s="17">
         <v>54023</v>
@@ -8843,7 +8947,7 @@
         <v>208</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C31" s="17">
         <v>54025</v>
@@ -8861,7 +8965,7 @@
         <v>209</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C32" s="17">
         <v>54027</v>
@@ -8878,7 +8982,7 @@
         <v>210</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C33" s="17">
         <v>54029</v>
@@ -8895,7 +8999,7 @@
         <v>211</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C34" s="17">
         <v>54031</v>
@@ -8912,7 +9016,7 @@
         <v>212</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C35" s="17">
         <v>54035</v>
@@ -8929,7 +9033,7 @@
         <v>213</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C36" s="17">
         <v>54043</v>
@@ -8946,7 +9050,7 @@
         <v>214</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C37" s="17">
         <v>54045</v>
@@ -8964,7 +9068,7 @@
         <v>215</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C38" s="17">
         <v>54047</v>
@@ -8981,7 +9085,7 @@
         <v>216</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C39" s="17">
         <v>54059</v>
@@ -8998,7 +9102,7 @@
         <v>217</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C40" s="17">
         <v>54063</v>
@@ -9016,7 +9120,7 @@
         <v>218</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C41" s="17">
         <v>54067</v>
@@ -9033,7 +9137,7 @@
         <v>219</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C42" s="17">
         <v>54071</v>
@@ -9050,7 +9154,7 @@
         <v>220</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C43" s="17">
         <v>54075</v>
@@ -9067,7 +9171,7 @@
         <v>161</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C44" s="17">
         <v>54079</v>
@@ -9084,7 +9188,7 @@
         <v>221</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C45" s="17">
         <v>54081</v>
@@ -9102,7 +9206,7 @@
         <v>222</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C46" s="17">
         <v>54085</v>
@@ -9120,7 +9224,7 @@
         <v>223</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C47" s="17">
         <v>54087</v>
@@ -9138,7 +9242,7 @@
         <v>224</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C48" s="17">
         <v>54089</v>
@@ -9156,7 +9260,7 @@
         <v>225</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C49" s="17">
         <v>54093</v>
@@ -9174,7 +9278,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C50" s="17">
         <v>54095</v>
@@ -9192,7 +9296,7 @@
         <v>226</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C51" s="17">
         <v>54097</v>
@@ -9210,7 +9314,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C52" s="17">
         <v>54099</v>
@@ -9228,7 +9332,7 @@
         <v>227</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C53" s="17">
         <v>54101</v>
@@ -9246,7 +9350,7 @@
         <v>228</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C54" s="17">
         <v>54103</v>
@@ -9264,7 +9368,7 @@
         <v>229</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C55" s="17">
         <v>54105</v>
@@ -9282,7 +9386,7 @@
         <v>230</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C56" s="17">
         <v>54109</v>
@@ -9325,24 +9429,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>383</v>
       </c>
@@ -9362,15 +9466,15 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>389</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>389</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>390</v>
@@ -9382,55 +9486,50 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>392</v>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>594</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>395</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>595</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>396</v>
+        <v>610</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>390</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>421</v>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>422</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>399</v>
@@ -9438,19 +9537,16 @@
       <c r="E5" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>436</v>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>596</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>390</v>
@@ -9459,178 +9555,174 @@
         <v>391</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>401</v>
+        <v>408</v>
+      </c>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>597</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>402</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>598</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>402</v>
+        <v>607</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>423</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>392</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>424</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>395</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>425</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>599</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>408</v>
+        <v>612</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>426</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>608</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>427</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>609</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>433</v>
+        <v>406</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>398</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>391</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>430</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>600</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>412</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>413</v>
@@ -9642,15 +9734,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>431</v>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>601</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>416</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>390</v>
@@ -9661,28 +9753,143 @@
       <c r="F16" s="25" t="s">
         <v>416</v>
       </c>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>432</v>
+      <c r="A17" s="43" t="s">
+        <v>602</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>324</v>
-      </c>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9706,19 +9913,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9726,16 +9933,16 @@
         <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9743,19 +9950,205 @@
         <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874AFBB5-8FFB-B248-A4C3-9A81309B9614}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B4C12-A117-6449-AE96-AD16BD61F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F143C3EC-2C9E-154D-A5D0-3C78DBFC9460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50440" yWindow="5140" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -2553,11 +2553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3947,10 +3947,10 @@
         <v>377</v>
       </c>
       <c r="H24" s="12">
-        <v>-81.1824412</v>
+        <v>-81.165005500000007</v>
       </c>
       <c r="I24" s="12">
-        <v>37.946477700000003</v>
+        <v>37.946770700000002</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>593</v>
@@ -7148,9 +7148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8400,8 +8400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DED6B-84CB-6D46-B3EB-C814548CEBA4}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F143C3EC-2C9E-154D-A5D0-3C78DBFC9460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2F676-5D18-4E40-9C94-23AA03D22355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -2553,11 +2553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2712,7 +2712,7 @@
         <v>360</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>68</v>
@@ -4031,7 +4031,7 @@
         <v>361</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>156</v>
@@ -4129,7 +4129,7 @@
         <v>361</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>68</v>
@@ -4183,7 +4183,7 @@
         <v>361</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>164</v>
@@ -4241,7 +4241,7 @@
         <v>361</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>160</v>
@@ -4299,7 +4299,7 @@
         <v>361</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>155</v>
@@ -4320,7 +4320,7 @@
         <v>362</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L31" s="33">
         <v>56000</v>
@@ -4357,7 +4357,7 @@
         <v>361</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>166</v>
@@ -4417,7 +4417,7 @@
         <v>361</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>170</v>
@@ -4477,7 +4477,7 @@
         <v>361</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>163</v>
@@ -4535,7 +4535,7 @@
         <v>361</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>179</v>
@@ -4595,7 +4595,7 @@
         <v>361</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>177</v>
@@ -7148,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2F676-5D18-4E40-9C94-23AA03D22355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D6D88E-19CF-BE40-BA20-B470ADFD51B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -2557,7 +2557,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3760,8 +3760,8 @@
       <c r="C21" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>103</v>
+      <c r="D21" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>83</v>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D6D88E-19CF-BE40-BA20-B470ADFD51B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65177306-A7B6-3C48-BF95-C3622DB65A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="635">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -572,15 +572,9 @@
     <t>SRO</t>
   </si>
   <si>
-    <t>Ona, Salt Rock</t>
-  </si>
-  <si>
     <t>SRM</t>
   </si>
   <si>
-    <t>Milton, Culloden</t>
-  </si>
-  <si>
     <t>PRPSD</t>
   </si>
   <si>
@@ -1941,6 +1935,15 @@
   </si>
   <si>
     <t>locus_id</t>
+  </si>
+  <si>
+    <t>SaltRock WWTP: Ona and SaltRock</t>
+  </si>
+  <si>
+    <t>SaltRock WWTP: Milton and Culloden</t>
+  </si>
+  <si>
+    <t>CharlestonWVU</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2231,6 +2234,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2557,7 +2563,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2581,64 +2587,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>61</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2646,10 +2652,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>103</v>
@@ -2658,10 +2664,10 @@
         <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H2" s="2">
         <v>-79.50179</v>
@@ -2670,7 +2676,7 @@
         <v>39.457090000000001</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>63</v>
@@ -2680,7 +2686,7 @@
         <v>700</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N2" s="38">
         <v>24</v>
@@ -2692,7 +2698,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>20</v>
@@ -2706,22 +2712,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>634</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H3" s="2">
         <v>-81.677679999999995</v>
@@ -2730,7 +2736,7 @@
         <v>38.372869999999999</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
@@ -2739,7 +2745,7 @@
         <v>50000</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N3" s="38">
         <v>24</v>
@@ -2747,7 +2753,7 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>20</v>
@@ -2762,10 +2768,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>103</v>
@@ -2774,10 +2780,10 @@
         <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H4" s="2">
         <v>-77.855890000000002</v>
@@ -2786,7 +2792,7 @@
         <v>39.279240000000001</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>7</v>
@@ -2795,7 +2801,7 @@
         <v>17000</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N4" s="38">
         <v>24</v>
@@ -2803,7 +2809,7 @@
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>20</v>
@@ -2818,10 +2824,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>103</v>
@@ -2830,10 +2836,10 @@
         <v>102</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H5" s="2">
         <v>-79.856999999999999</v>
@@ -2842,7 +2848,7 @@
         <v>39.677120000000002</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>11</v>
@@ -2851,7 +2857,7 @@
         <v>2000</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N5" s="38">
         <v>24</v>
@@ -2863,7 +2869,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>20</v>
@@ -2877,10 +2883,10 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>103</v>
@@ -2889,10 +2895,10 @@
         <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H6" s="2">
         <v>-80.338570000000004</v>
@@ -2901,7 +2907,7 @@
         <v>39.279310000000002</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>88</v>
@@ -2910,7 +2916,7 @@
         <v>26498</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N6" s="38">
         <v>24</v>
@@ -2918,7 +2924,7 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>20</v>
@@ -2930,25 +2936,25 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H7" s="2">
         <v>-79.985057699999999</v>
@@ -2964,7 +2970,7 @@
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N7" s="37">
         <v>8</v>
@@ -2976,7 +2982,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>20</v>
@@ -2991,10 +2997,10 @@
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>103</v>
@@ -3003,10 +3009,10 @@
         <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H8" s="2">
         <v>-79.865430000000003</v>
@@ -3015,7 +3021,7 @@
         <v>38.920259999999999</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>121</v>
@@ -3024,7 +3030,7 @@
         <v>13156</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N8" s="38">
         <v>24</v>
@@ -3036,7 +3042,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>20</v>
@@ -3051,10 +3057,10 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>103</v>
@@ -3063,10 +3069,10 @@
         <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H9" s="2">
         <v>-80.24933</v>
@@ -3075,7 +3081,7 @@
         <v>39.511809999999997</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>89</v>
@@ -3084,7 +3090,7 @@
         <v>610</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N9" s="38">
         <v>24</v>
@@ -3096,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>20</v>
@@ -3111,10 +3117,10 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>103</v>
@@ -3123,10 +3129,10 @@
         <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H10" s="2">
         <v>-80.018370000000004</v>
@@ -3135,7 +3141,7 @@
         <v>39.338769999999997</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>100</v>
@@ -3144,7 +3150,7 @@
         <v>6071</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N10" s="38">
         <v>24</v>
@@ -3152,7 +3158,7 @@
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>20</v>
@@ -3167,10 +3173,10 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>103</v>
@@ -3179,10 +3185,10 @@
         <v>115</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H11" s="2">
         <v>-79.978949999999998</v>
@@ -3191,7 +3197,7 @@
         <v>38.712879999999998</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>121</v>
@@ -3200,7 +3206,7 @@
         <v>2101</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N11" s="38">
         <v>24</v>
@@ -3212,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>20</v>
@@ -3227,10 +3233,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>103</v>
@@ -3239,10 +3245,10 @@
         <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H12" s="2">
         <v>-78.975080000000005</v>
@@ -3251,7 +3257,7 @@
         <v>39.441229999999997</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>13</v>
@@ -3260,7 +3266,7 @@
         <v>8168</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N12" s="38">
         <v>24</v>
@@ -3272,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
@@ -3287,10 +3293,10 @@
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>103</v>
@@ -3299,10 +3305,10 @@
         <v>154</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H13" s="2">
         <v>-81.847288800000001</v>
@@ -3311,7 +3317,7 @@
         <v>38.102483999999997</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>153</v>
@@ -3320,7 +3326,7 @@
         <v>4555</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N13" s="38">
         <v>24</v>
@@ -3332,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>20</v>
@@ -3347,10 +3353,10 @@
         <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>103</v>
@@ -3359,10 +3365,10 @@
         <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H14" s="2">
         <v>-80.323710000000005</v>
@@ -3371,7 +3377,7 @@
         <v>39.518140000000002</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>89</v>
@@ -3380,7 +3386,7 @@
         <v>1091</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N14" s="38">
         <v>24</v>
@@ -3392,7 +3398,7 @@
         <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>20</v>
@@ -3407,10 +3413,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>103</v>
@@ -3419,10 +3425,10 @@
         <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H15" s="2">
         <v>-80.754930000000002</v>
@@ -3431,7 +3437,7 @@
         <v>39.929859999999998</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>5</v>
@@ -3440,7 +3446,7 @@
         <v>12000</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N15" s="38">
         <v>24</v>
@@ -3448,7 +3454,7 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>20</v>
@@ -3463,10 +3469,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>103</v>
@@ -3475,10 +3481,10 @@
         <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H16" s="2">
         <v>-81.557389999999998</v>
@@ -3487,7 +3493,7 @@
         <v>39.281709999999997</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>54</v>
@@ -3496,7 +3502,7 @@
         <v>48050</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N16" s="38">
         <v>24</v>
@@ -3504,7 +3510,7 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>20</v>
@@ -3516,25 +3522,25 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H17" s="2">
         <v>-82.135114799999997</v>
@@ -3543,16 +3549,16 @@
         <v>38.856708400000002</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L17" s="38">
         <v>5515</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N17" s="38">
         <v>24</v>
@@ -3564,7 +3570,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>20</v>
@@ -3579,10 +3585,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>103</v>
@@ -3591,10 +3597,10 @@
         <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H18" s="2">
         <v>-81.079930000000004</v>
@@ -3603,7 +3609,7 @@
         <v>37.380360000000003</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
@@ -3612,7 +3618,7 @@
         <v>36000</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N18" s="38">
         <v>24</v>
@@ -3624,7 +3630,7 @@
         <v>20</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>20</v>
@@ -3639,10 +3645,10 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>103</v>
@@ -3651,10 +3657,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H19" s="2">
         <v>-80.545150000000007</v>
@@ -3663,7 +3669,7 @@
         <v>39.285969999999999</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>88</v>
@@ -3672,7 +3678,7 @@
         <v>1853</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N19" s="38">
         <v>24</v>
@@ -3684,7 +3690,7 @@
         <v>20</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>20</v>
@@ -3699,10 +3705,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>103</v>
@@ -3711,10 +3717,10 @@
         <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H20" s="2">
         <v>-79.992055399999998</v>
@@ -3723,7 +3729,7 @@
         <v>39.655174500000001</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>11</v>
@@ -3732,7 +3738,7 @@
         <v>48328</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N20" s="38">
         <v>24</v>
@@ -3740,7 +3746,7 @@
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>20</v>
@@ -3755,10 +3761,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>60</v>
@@ -3767,10 +3773,10 @@
         <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H21" s="2">
         <v>-80.459909999999994</v>
@@ -3779,7 +3785,7 @@
         <v>39.062240000000003</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>9</v>
@@ -3788,7 +3794,7 @@
         <v>10364</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N21" s="38">
         <v>24</v>
@@ -3800,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>20</v>
@@ -3814,10 +3820,10 @@
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>103</v>
@@ -3826,10 +3832,10 @@
         <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H22" s="2">
         <v>-80.778989999999993</v>
@@ -3838,7 +3844,7 @@
         <v>39.299059999999997</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>57</v>
@@ -3847,7 +3853,7 @@
         <v>564</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N22" s="38">
         <v>24</v>
@@ -3859,7 +3865,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>20</v>
@@ -3874,10 +3880,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>103</v>
@@ -3886,10 +3892,10 @@
         <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H23" s="2">
         <v>-80.72757</v>
@@ -3898,7 +3904,7 @@
         <v>40.055880000000002</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>3</v>
@@ -3907,7 +3913,7 @@
         <v>50000</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N23" s="38">
         <v>24</v>
@@ -3915,7 +3921,7 @@
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>20</v>
@@ -3926,25 +3932,25 @@
     </row>
     <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H24" s="12">
         <v>-81.165005500000007</v>
@@ -3953,16 +3959,16 @@
         <v>37.946770700000002</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L24" s="38">
         <v>2626</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N24" s="39">
         <v>24</v>
@@ -3974,7 +3980,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>20</v>
@@ -3986,23 +3992,23 @@
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -4012,7 +4018,9 @@
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="N25" s="46">
+        <v>24</v>
+      </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="29"/>
@@ -4028,19 +4036,19 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>156</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H26" s="29">
         <v>-82.285698770801503</v>
@@ -4049,7 +4057,7 @@
         <v>38.414946823509098</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K26" s="29" t="s">
         <v>157</v>
@@ -4058,7 +4066,7 @@
         <v>4000</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N26" s="33">
         <v>8.3333329999999997E-2</v>
@@ -4084,23 +4092,23 @@
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -4110,7 +4118,9 @@
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="N27" s="46">
+        <v>24</v>
+      </c>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="29"/>
@@ -4126,19 +4136,19 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H28" s="29">
         <v>-81.679554234298493</v>
@@ -4147,7 +4157,7 @@
         <v>38.373735533484897</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>1</v>
@@ -4156,7 +4166,7 @@
         <v>49500</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N28" s="34">
         <v>24</v>
@@ -4164,7 +4174,7 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>20</v>
@@ -4176,23 +4186,23 @@
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>164</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H29" s="29">
         <v>-81.758709180509001</v>
@@ -4201,7 +4211,7 @@
         <v>38.368519014596998</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K29" s="29" t="s">
         <v>1</v>
@@ -4210,7 +4220,7 @@
         <v>9000</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N29" s="34">
         <v>24</v>
@@ -4222,7 +4232,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>20</v>
@@ -4238,19 +4248,19 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>160</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H30" s="29">
         <v>-82.006959612418996</v>
@@ -4259,7 +4269,7 @@
         <v>38.446524084559897</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>161</v>
@@ -4268,7 +4278,7 @@
         <v>28759</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N30" s="34">
         <v>72</v>
@@ -4280,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>20</v>
@@ -4296,19 +4306,19 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>155</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H31" s="29">
         <v>-82.528864034905197</v>
@@ -4317,7 +4327,7 @@
         <v>38.400744931017101</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K31" s="29" t="s">
         <v>167</v>
@@ -4326,7 +4336,7 @@
         <v>56000</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N31" s="34">
         <v>24</v>
@@ -4338,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>20</v>
@@ -4354,19 +4364,19 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>166</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H32" s="29">
         <v>-82.451303840583293</v>
@@ -4375,7 +4385,7 @@
         <v>38.343336164586603</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K32" s="29" t="s">
         <v>167</v>
@@ -4384,7 +4394,7 @@
         <v>1600</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N32" s="34">
         <v>24</v>
@@ -4396,7 +4406,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R32" s="29" t="s">
         <v>20</v>
@@ -4414,19 +4424,19 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>170</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H33" s="29">
         <v>-82.287563960345196</v>
@@ -4435,7 +4445,7 @@
         <v>38.572623654172197</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K33" s="29" t="s">
         <v>157</v>
@@ -4444,7 +4454,7 @@
         <v>1000</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N33" s="34">
         <v>24</v>
@@ -4456,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R33" s="29" t="s">
         <v>20</v>
@@ -4470,23 +4480,23 @@
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D34" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>163</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H34" s="29">
         <v>-82.298209254857795</v>
@@ -4495,7 +4505,7 @@
         <v>38.419661908139098</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K34" s="29" t="s">
         <v>157</v>
@@ -4504,7 +4514,7 @@
         <v>7000</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4516,7 +4526,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>20</v>
@@ -4528,23 +4538,23 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>179</v>
+        <v>633</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H35" s="29">
         <v>-82.105144999999993</v>
@@ -4553,7 +4563,7 @@
         <v>38.425437000000002</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>157</v>
@@ -4562,7 +4572,7 @@
         <v>7200</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N35" s="34">
         <v>24</v>
@@ -4574,7 +4584,7 @@
         <v>20</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R35" s="29" t="s">
         <v>20</v>
@@ -4592,19 +4602,19 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="D36" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>177</v>
+        <v>632</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H36" s="29">
         <v>-82.244877751268803</v>
@@ -4613,7 +4623,7 @@
         <v>38.372162360135</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>157</v>
@@ -4622,7 +4632,7 @@
         <v>4050</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N36" s="34">
         <v>24</v>
@@ -4634,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R36" s="29" t="s">
         <v>20</v>
@@ -4648,23 +4658,23 @@
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -4674,7 +4684,9 @@
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
+      <c r="N37" s="46">
+        <v>24</v>
+      </c>
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="29"/>
@@ -4686,23 +4698,23 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -4712,7 +4724,9 @@
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
+      <c r="N38" s="46">
+        <v>24</v>
+      </c>
       <c r="O38" s="33"/>
       <c r="P38" s="33"/>
       <c r="Q38" s="29"/>
@@ -4727,10 +4741,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>60</v>
@@ -4739,10 +4753,10 @@
         <v>65</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H39" s="2">
         <v>-81.015979999999999</v>
@@ -4751,7 +4765,7 @@
         <v>37.42163</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>17</v>
@@ -4760,7 +4774,7 @@
         <v>2391</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N39" s="38">
         <v>24</v>
@@ -4772,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>20</v>
@@ -4787,10 +4801,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>60</v>
@@ -4802,7 +4816,7 @@
         <v>34</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H40" s="2">
         <v>-79.905010000000004</v>
@@ -4811,7 +4825,7 @@
         <v>39.610210000000002</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>11</v>
@@ -4820,7 +4834,7 @@
         <v>579</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N40" s="37">
         <v>8</v>
@@ -4828,7 +4842,7 @@
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
       <c r="Q40" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>20</v>
@@ -4843,10 +4857,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>60</v>
@@ -4858,7 +4872,7 @@
         <v>34</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H41" s="2">
         <v>-79.867609999999999</v>
@@ -4867,7 +4881,7 @@
         <v>39.652670000000001</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>11</v>
@@ -4876,7 +4890,7 @@
         <v>830</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N41" s="37">
         <v>8</v>
@@ -4884,7 +4898,7 @@
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
       <c r="Q41" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>20</v>
@@ -4899,22 +4913,22 @@
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H42" s="2">
         <v>-79.945801900000006</v>
@@ -4923,7 +4937,7 @@
         <v>39.6362083</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
@@ -4932,7 +4946,7 @@
         <v>567</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N42" s="37">
         <v>48</v>
@@ -4944,7 +4958,7 @@
         <v>30</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>20</v>
@@ -4961,10 +4975,10 @@
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>60</v>
@@ -4976,7 +4990,7 @@
         <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H43" s="2">
         <v>-79.953093199999998</v>
@@ -4985,7 +4999,7 @@
         <v>39.636423100000002</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
@@ -4994,7 +5008,7 @@
         <v>639</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N43" s="37">
         <v>48</v>
@@ -5006,7 +5020,7 @@
         <v>30</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>20</v>
@@ -5023,10 +5037,10 @@
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>60</v>
@@ -5038,7 +5052,7 @@
         <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H44" s="2">
         <v>-80.000420899999995</v>
@@ -5047,7 +5061,7 @@
         <v>39.6535571</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
@@ -5056,7 +5070,7 @@
         <v>912</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N44" s="37">
         <v>48</v>
@@ -5068,7 +5082,7 @@
         <v>30</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>20</v>
@@ -5085,10 +5099,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>60</v>
@@ -5097,10 +5111,10 @@
         <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H45" s="2">
         <v>-79.972157499999994</v>
@@ -5109,14 +5123,14 @@
         <v>39.650096900000001</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="37"/>
       <c r="M45" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N45" s="37">
         <v>48</v>
@@ -5128,7 +5142,7 @@
         <v>30</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>20</v>
@@ -5145,10 +5159,10 @@
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>60</v>
@@ -5160,7 +5174,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H46" s="2">
         <v>-79.956234100000003</v>
@@ -5169,14 +5183,14 @@
         <v>39.667909799999997</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N46" s="37">
         <v>48</v>
@@ -5188,7 +5202,7 @@
         <v>30</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>20</v>
@@ -5205,10 +5219,10 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>60</v>
@@ -5220,7 +5234,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H47" s="2">
         <v>-79.956204600000007</v>
@@ -5229,14 +5243,14 @@
         <v>39.668112200000003</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N47" s="37">
         <v>48</v>
@@ -5248,7 +5262,7 @@
         <v>30</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>20</v>
@@ -5265,10 +5279,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>60</v>
@@ -5277,10 +5291,10 @@
         <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H48" s="2">
         <v>-80.598290000000006</v>
@@ -5289,7 +5303,7 @@
         <v>40.325800000000001</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>122</v>
@@ -5298,7 +5312,7 @@
         <v>6468</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N48" s="38">
         <v>24</v>
@@ -5310,7 +5324,7 @@
         <v>20</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>20</v>
@@ -5321,10 +5335,10 @@
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>60</v>
@@ -5336,7 +5350,7 @@
         <v>124</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H49" s="2">
         <v>-79.515240000000006</v>
@@ -5345,7 +5359,7 @@
         <v>39.66807</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>63</v>
@@ -5354,7 +5368,7 @@
         <v>1948</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N49" s="38">
         <v>24</v>
@@ -5362,7 +5376,7 @@
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>20</v>
@@ -5373,13 +5387,13 @@
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>60</v>
@@ -5391,7 +5405,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H50" s="2">
         <v>-79.956762600000005</v>
@@ -5400,7 +5414,7 @@
         <v>39.637875299999997</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
@@ -5409,7 +5423,7 @@
         <v>874</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N50" s="37">
         <v>48</v>
@@ -5421,7 +5435,7 @@
         <v>30</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>20</v>
@@ -5438,10 +5452,10 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>60</v>
@@ -5453,7 +5467,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H51" s="2">
         <v>-79.955122099999997</v>
@@ -5462,14 +5476,14 @@
         <v>39.669188599999998</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="37"/>
       <c r="M51" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N51" s="37">
         <v>48</v>
@@ -5481,7 +5495,7 @@
         <v>30</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>20</v>
@@ -5498,10 +5512,10 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>60</v>
@@ -5513,7 +5527,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H52" s="2">
         <v>-79.955245399999995</v>
@@ -5522,14 +5536,14 @@
         <v>39.669279500000002</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="37"/>
       <c r="M52" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N52" s="37">
         <v>48</v>
@@ -5541,7 +5555,7 @@
         <v>30</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>20</v>
@@ -5558,10 +5572,10 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>60</v>
@@ -5573,7 +5587,7 @@
         <v>34</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H53" s="2">
         <v>-79.957359999999994</v>
@@ -5582,7 +5596,7 @@
         <v>39.625419999999998</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>11</v>
@@ -5591,7 +5605,7 @@
         <v>1851</v>
       </c>
       <c r="M53" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N53" s="37">
         <v>8</v>
@@ -5599,7 +5613,7 @@
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
       <c r="Q53" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>20</v>
@@ -5613,10 +5627,10 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>60</v>
@@ -5628,7 +5642,7 @@
         <v>34</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H54" s="2">
         <v>-79.943309999999997</v>
@@ -5637,7 +5651,7 @@
         <v>39.61036</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>11</v>
@@ -5646,7 +5660,7 @@
         <v>726</v>
       </c>
       <c r="M54" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N54" s="37">
         <v>8</v>
@@ -5654,7 +5668,7 @@
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>20</v>
@@ -5668,22 +5682,22 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H55" s="2">
         <v>-79.965769100000003</v>
@@ -5692,14 +5706,14 @@
         <v>39.672765599999998</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="37"/>
       <c r="M55" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N55" s="37">
         <v>48</v>
@@ -5711,7 +5725,7 @@
         <v>30</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>20</v>
@@ -5728,10 +5742,10 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>60</v>
@@ -5743,7 +5757,7 @@
         <v>34</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H56" s="2">
         <v>-79.956739999999996</v>
@@ -5752,7 +5766,7 @@
         <v>39.660640000000001</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>11</v>
@@ -5761,7 +5775,7 @@
         <v>688</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N56" s="37">
         <v>8</v>
@@ -5769,7 +5783,7 @@
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
       <c r="Q56" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>20</v>
@@ -5781,13 +5795,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>60</v>
@@ -5799,7 +5813,7 @@
         <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H57" s="2">
         <v>-79.953202899999994</v>
@@ -5808,14 +5822,14 @@
         <v>39.633116399999999</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="37"/>
       <c r="M57" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N57" s="37">
         <v>48</v>
@@ -5827,7 +5841,7 @@
         <v>30</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>20</v>
@@ -5844,10 +5858,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D58" s="40" t="s">
         <v>60</v>
@@ -5859,7 +5873,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H58" s="2">
         <v>-79.962211800000006</v>
@@ -5868,7 +5882,7 @@
         <v>39.6511596</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>11</v>
@@ -5877,7 +5891,7 @@
         <v>862</v>
       </c>
       <c r="M58" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N58" s="37">
         <v>48</v>
@@ -5889,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>20</v>
@@ -5907,7 +5921,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>60</v>
@@ -5916,10 +5930,10 @@
         <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H59" s="2">
         <v>-79.127250000000004</v>
@@ -5928,7 +5942,7 @@
         <v>38.99091</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>55</v>
@@ -5937,7 +5951,7 @@
         <v>2700</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N59" s="38">
         <v>24</v>
@@ -5945,7 +5959,7 @@
       <c r="O59" s="38"/>
       <c r="P59" s="38"/>
       <c r="Q59" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>20</v>
@@ -5957,25 +5971,25 @@
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H60" s="2">
         <v>-79.956140000000005</v>
@@ -5984,7 +5998,7 @@
         <v>39.639200000000002</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>11</v>
@@ -5993,7 +6007,7 @@
         <v>474</v>
       </c>
       <c r="M60" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N60" s="37">
         <v>48</v>
@@ -6005,7 +6019,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>20</v>
@@ -6014,30 +6028,30 @@
         <v>26505</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="2"/>
@@ -6049,7 +6063,7 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N61" s="37">
         <v>12</v>
@@ -6061,7 +6075,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>20</v>
@@ -6073,25 +6087,25 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="2"/>
@@ -6103,7 +6117,7 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N62" s="37">
         <v>12</v>
@@ -6115,7 +6129,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>20</v>
@@ -6127,25 +6141,25 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="2"/>
@@ -6157,7 +6171,7 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N63" s="37">
         <v>12</v>
@@ -6169,7 +6183,7 @@
         <v>30</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>20</v>
@@ -6181,25 +6195,25 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="2"/>
@@ -6211,7 +6225,7 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N64" s="37">
         <v>12</v>
@@ -6223,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>20</v>
@@ -6238,10 +6252,10 @@
         <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D65" s="40" t="s">
         <v>60</v>
@@ -6250,10 +6264,10 @@
         <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H65" s="2">
         <v>-81.205110000000005</v>
@@ -6262,7 +6276,7 @@
         <v>39.391249999999999</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>56</v>
@@ -6271,7 +6285,7 @@
         <v>2892</v>
       </c>
       <c r="M65" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N65" s="38">
         <v>24</v>
@@ -6283,7 +6297,7 @@
         <v>20</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>20</v>
@@ -6298,10 +6312,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D66" s="40" t="s">
         <v>60</v>
@@ -6313,7 +6327,7 @@
         <v>34</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H66" s="2">
         <v>-79.978250000000003</v>
@@ -6322,7 +6336,7 @@
         <v>39.671370000000003</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>11</v>
@@ -6331,7 +6345,7 @@
         <v>515</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N66" s="37">
         <v>8</v>
@@ -6339,7 +6353,7 @@
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
       <c r="Q66" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>20</v>
@@ -6354,10 +6368,10 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D67" s="40" t="s">
         <v>60</v>
@@ -6369,7 +6383,7 @@
         <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H67" s="2">
         <v>-79.966336100000007</v>
@@ -6378,7 +6392,7 @@
         <v>39.649548899999999</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>11</v>
@@ -6387,7 +6401,7 @@
         <v>904</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N67" s="37">
         <v>48</v>
@@ -6399,7 +6413,7 @@
         <v>30</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R67" s="2" t="s">
         <v>20</v>
@@ -6416,10 +6430,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D68" s="40" t="s">
         <v>60</v>
@@ -6431,7 +6445,7 @@
         <v>34</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H68" s="2">
         <v>-79.926150000000007</v>
@@ -6440,7 +6454,7 @@
         <v>39.687820000000002</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>11</v>
@@ -6449,7 +6463,7 @@
         <v>1310</v>
       </c>
       <c r="M68" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N68" s="37">
         <v>8</v>
@@ -6457,7 +6471,7 @@
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
       <c r="Q68" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>20</v>
@@ -6472,10 +6486,10 @@
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>60</v>
@@ -6487,7 +6501,7 @@
         <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H69" s="2">
         <v>-79.956755900000005</v>
@@ -6496,14 +6510,14 @@
         <v>39.640189999999997</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N69" s="37">
         <v>48</v>
@@ -6515,7 +6529,7 @@
         <v>30</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>20</v>
@@ -6532,10 +6546,10 @@
         <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D70" s="40" t="s">
         <v>60</v>
@@ -6547,7 +6561,7 @@
         <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H70" s="2">
         <v>-79.925397000000004</v>
@@ -6556,14 +6570,14 @@
         <v>39.6565887</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N70" s="37">
         <v>48</v>
@@ -6575,7 +6589,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>20</v>
@@ -6593,19 +6607,19 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H71" s="2">
         <v>-79.936940000000007</v>
@@ -6614,7 +6628,7 @@
         <v>39.022010000000002</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>123</v>
@@ -6623,7 +6637,7 @@
         <v>1974</v>
       </c>
       <c r="M71" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N71" s="38">
         <v>24</v>
@@ -6631,7 +6645,7 @@
       <c r="O71" s="38"/>
       <c r="P71" s="38"/>
       <c r="Q71" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>20</v>
@@ -6647,19 +6661,19 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H72" s="2">
         <v>-80.212010000000006</v>
@@ -6668,7 +6682,7 @@
         <v>39.72007</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>11</v>
@@ -6677,7 +6691,7 @@
         <v>400</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N72" s="38">
         <v>24</v>
@@ -6685,7 +6699,7 @@
       <c r="O72" s="38"/>
       <c r="P72" s="38"/>
       <c r="Q72" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R72" s="2" t="s">
         <v>20</v>
@@ -6701,19 +6715,19 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H73" s="2">
         <v>-80.258989999999997</v>
@@ -6722,7 +6736,7 @@
         <v>39.280479999999997</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>88</v>
@@ -6731,7 +6745,7 @@
         <v>6984</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N73" s="38">
         <v>24</v>
@@ -6739,7 +6753,7 @@
       <c r="O73" s="38"/>
       <c r="P73" s="38"/>
       <c r="Q73" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>20</v>
@@ -6755,19 +6769,19 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H74" s="2">
         <v>-80.567440000000005</v>
@@ -6776,7 +6790,7 @@
         <v>39.826610000000002</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>5</v>
@@ -6785,7 +6799,7 @@
         <v>1340</v>
       </c>
       <c r="M74" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N74" s="38">
         <v>24</v>
@@ -6797,7 +6811,7 @@
         <v>30</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R74" s="2" t="s">
         <v>20</v>
@@ -6813,19 +6827,19 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H75" s="2">
         <v>-80.124449999999996</v>
@@ -6834,7 +6848,7 @@
         <v>39.493949999999998</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>89</v>
@@ -6843,7 +6857,7 @@
         <v>25525</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N75" s="38">
         <v>24</v>
@@ -6855,7 +6869,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R75" s="2" t="s">
         <v>20</v>
@@ -6870,13 +6884,13 @@
         <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>87</v>
@@ -6885,7 +6899,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H76" s="2">
         <v>-78.98272</v>
@@ -6894,7 +6908,7 @@
         <v>39.438070000000003</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>13</v>
@@ -6903,7 +6917,7 @@
         <v>1193</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N76" s="37">
         <v>48</v>
@@ -6915,7 +6929,7 @@
         <v>30</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R76" s="2" t="s">
         <v>20</v>
@@ -6931,24 +6945,24 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>129</v>
@@ -6957,7 +6971,7 @@
         <v>1800</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N77" s="38">
         <v>24</v>
@@ -6965,7 +6979,7 @@
       <c r="O77" s="38"/>
       <c r="P77" s="38"/>
       <c r="Q77" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R77" s="2" t="s">
         <v>20</v>
@@ -6978,22 +6992,22 @@
         <v>14</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H78" s="2">
         <v>-78.226619999999997</v>
@@ -7002,7 +7016,7 @@
         <v>39.628019999999999</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>15</v>
@@ -7011,7 +7025,7 @@
         <v>3255</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N78" s="38">
         <v>24</v>
@@ -7019,7 +7033,7 @@
       <c r="O78" s="38"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R78" s="2" t="s">
         <v>20</v>
@@ -7034,24 +7048,24 @@
         <v>126</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>122</v>
@@ -7060,7 +7074,7 @@
         <v>20411</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N79" s="38">
         <v>24</v>
@@ -7068,7 +7082,7 @@
       <c r="O79" s="38"/>
       <c r="P79" s="38"/>
       <c r="Q79" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R79" s="2" t="s">
         <v>20</v>
@@ -7082,19 +7096,19 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H80" s="2">
         <v>-80.260360000000006</v>
@@ -7103,7 +7117,7 @@
         <v>39.452579999999998</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>89</v>
@@ -7112,7 +7126,7 @@
         <v>2742</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N80" s="38">
         <v>24</v>
@@ -7124,7 +7138,7 @@
         <v>30</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>20</v>
@@ -7149,13 +7163,14 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="5" width="23.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
@@ -7166,51 +7181,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G2" s="31">
         <v>54003906001</v>
@@ -7225,22 +7240,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G3" s="17">
         <v>54002701001</v>
@@ -7254,18 +7269,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G4" s="31">
         <v>54000601001</v>
@@ -7279,20 +7294,20 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G5" s="31">
         <v>54000101001</v>
@@ -7306,20 +7321,20 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G6" s="31">
         <v>54003031001</v>
@@ -7333,20 +7348,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G7" s="31">
         <v>54001702001</v>
@@ -7360,18 +7375,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G8" s="31">
         <v>54002510001</v>
@@ -7385,20 +7400,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G9" s="31">
         <v>54002003001</v>
@@ -7412,20 +7427,20 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G10" s="31">
         <v>54002003001</v>
@@ -7439,20 +7454,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G11" s="31">
         <v>54001901001</v>
@@ -7466,22 +7481,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G12" s="31">
         <v>54003045001</v>
@@ -7495,20 +7510,20 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G13" s="31">
         <v>54001703001</v>
@@ -7522,20 +7537,20 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G14" s="31">
         <v>54002007001</v>
@@ -7549,20 +7564,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G15" s="31">
         <v>54004202001</v>
@@ -7576,18 +7591,18 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G16" s="31">
         <v>54002405001</v>
@@ -7601,20 +7616,20 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G17" s="31">
         <v>54002408001</v>
@@ -7628,20 +7643,20 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G18" s="17">
         <v>54000504001</v>
@@ -7655,20 +7670,20 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G19" s="31">
         <v>54004602001</v>
@@ -7682,14 +7697,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>63</v>
@@ -7705,22 +7720,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G21" s="31">
         <v>54000603001</v>
@@ -7734,20 +7749,20 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G22" s="31">
         <v>54004215001</v>
@@ -7761,20 +7776,20 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G23" s="31">
         <v>54002803001</v>
@@ -7788,20 +7803,20 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G24" s="31">
         <v>54000316001</v>
@@ -7815,20 +7830,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G25" s="31">
         <v>54002415001</v>
@@ -7842,20 +7857,20 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G26" s="31">
         <v>54002509001</v>
@@ -7869,20 +7884,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G27" s="31">
         <v>54005405001</v>
@@ -7896,20 +7911,20 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="17">
@@ -7921,11 +7936,11 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
@@ -7942,11 +7957,11 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="17" t="s">
@@ -7963,18 +7978,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G31" s="17">
         <v>54001205001</v>
@@ -7988,20 +8003,20 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G32" s="17">
         <v>54002606001</v>
@@ -8015,20 +8030,20 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G33" s="17">
         <v>54002716001</v>
@@ -8042,20 +8057,20 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G34" s="31">
         <v>54001710001</v>
@@ -8069,20 +8084,20 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" t="s">
+        <v>535</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="B35" t="s">
-        <v>537</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>381</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="17">
@@ -8094,20 +8109,20 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36" t="s">
+        <v>536</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="B36" t="s">
-        <v>538</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>382</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
@@ -8119,18 +8134,18 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G37" s="31">
         <v>54004804001</v>
@@ -8144,22 +8159,22 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G38" s="31">
         <v>54003011001</v>
@@ -8173,20 +8188,20 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G39" s="17">
         <v>54003703001</v>
@@ -8200,20 +8215,20 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G40" s="31">
         <v>54003203001</v>
@@ -8227,18 +8242,18 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G41" s="31">
         <v>54000509001</v>
@@ -8252,20 +8267,20 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G42" s="17">
         <v>54002102001</v>
@@ -8279,20 +8294,20 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G43" s="31">
         <v>54000901001</v>
@@ -8306,20 +8321,20 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G44" s="31">
         <v>54003508001</v>
@@ -8333,20 +8348,20 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G45" s="31">
         <v>54001022001</v>
@@ -8360,11 +8375,11 @@
     </row>
     <row r="46" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -8417,16 +8432,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>151</v>
@@ -8437,7 +8452,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" s="17">
         <v>54061</v>
@@ -8454,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" s="17">
         <v>54039</v>
@@ -8471,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="17">
         <v>54069</v>
@@ -8488,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C5" s="17">
         <v>54037</v>
@@ -8506,7 +8521,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" s="17">
         <v>54055</v>
@@ -8523,7 +8538,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="17">
         <v>54041</v>
@@ -8541,7 +8556,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C8" s="17">
         <v>54057</v>
@@ -8559,7 +8574,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C9" s="17">
         <v>54051</v>
@@ -8577,7 +8592,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C10" s="17">
         <v>54065</v>
@@ -8595,7 +8610,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C11" s="17">
         <v>54077</v>
@@ -8613,7 +8628,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C12" s="17">
         <v>54107</v>
@@ -8631,7 +8646,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C13" s="17">
         <v>54017</v>
@@ -8649,7 +8664,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C14" s="17">
         <v>54049</v>
@@ -8667,7 +8682,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" s="17">
         <v>54033</v>
@@ -8685,7 +8700,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C16" s="17">
         <v>54091</v>
@@ -8702,7 +8717,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C17" s="17">
         <v>54073</v>
@@ -8719,7 +8734,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C18" s="17">
         <v>54005</v>
@@ -8736,7 +8751,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C19" s="17">
         <v>54083</v>
@@ -8754,7 +8769,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C20" s="17">
         <v>54009</v>
@@ -8769,16 +8784,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C21" s="17">
         <v>54053</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" s="18">
         <v>26700</v>
@@ -8789,7 +8804,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C22" s="17">
         <v>54001</v>
@@ -8803,16 +8818,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C23" s="17">
         <v>54003</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E23" s="18">
         <v>126069</v>
@@ -8821,16 +8836,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C24" s="17">
         <v>54007</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E24" s="18">
         <v>12247</v>
@@ -8842,7 +8857,7 @@
         <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C25" s="17">
         <v>54011</v>
@@ -8856,16 +8871,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C26" s="17">
         <v>54013</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" s="18">
         <v>6176</v>
@@ -8873,16 +8888,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C27" s="17">
         <v>54015</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E27" s="18">
         <v>7892</v>
@@ -8891,16 +8906,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C28" s="17">
         <v>54019</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28" s="18">
         <v>39927</v>
@@ -8909,16 +8924,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C29" s="17">
         <v>54021</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29" s="18">
         <v>7377</v>
@@ -8930,7 +8945,7 @@
         <v>55</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C30" s="17">
         <v>54023</v>
@@ -8944,16 +8959,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C31" s="17">
         <v>54025</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E31" s="18">
         <v>32608</v>
@@ -8962,16 +8977,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C32" s="17">
         <v>54027</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E32" s="18">
         <v>23302</v>
@@ -8979,16 +8994,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C33" s="17">
         <v>54029</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E33" s="18">
         <v>28656</v>
@@ -8996,16 +9011,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C34" s="17">
         <v>54031</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E34" s="18">
         <v>14160</v>
@@ -9013,16 +9028,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C35" s="17">
         <v>54035</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E35" s="18">
         <v>27738</v>
@@ -9030,16 +9045,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C36" s="17">
         <v>54043</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="18">
         <v>20126</v>
@@ -9047,16 +9062,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C37" s="17">
         <v>54045</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E37" s="18">
         <v>31909</v>
@@ -9065,16 +9080,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C38" s="17">
         <v>54047</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" s="18">
         <v>18363</v>
@@ -9082,16 +9097,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C39" s="17">
         <v>54059</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E39" s="18">
         <v>23005</v>
@@ -9099,16 +9114,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C40" s="17">
         <v>54063</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E40" s="18">
         <v>12332</v>
@@ -9117,16 +9132,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C41" s="17">
         <v>54067</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" s="18">
         <v>24300</v>
@@ -9134,16 +9149,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C42" s="17">
         <v>54071</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" s="18">
         <v>6142</v>
@@ -9151,16 +9166,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C43" s="17">
         <v>54075</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E43" s="18">
         <v>7841</v>
@@ -9171,7 +9186,7 @@
         <v>161</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C44" s="17">
         <v>54079</v>
@@ -9185,16 +9200,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C45" s="17">
         <v>54081</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="18">
         <v>73771</v>
@@ -9203,16 +9218,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C46" s="17">
         <v>54085</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" s="18">
         <v>8383</v>
@@ -9221,16 +9236,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C47" s="17">
         <v>54087</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E47" s="18">
         <v>13898</v>
@@ -9239,16 +9254,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C48" s="17">
         <v>54089</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E48" s="18">
         <v>11908</v>
@@ -9257,16 +9272,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C49" s="17">
         <v>54093</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E49" s="18">
         <v>6672</v>
@@ -9278,7 +9293,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C50" s="17">
         <v>54095</v>
@@ -9293,16 +9308,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C51" s="17">
         <v>54097</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E51" s="18">
         <v>23791</v>
@@ -9314,7 +9329,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C52" s="17">
         <v>54099</v>
@@ -9329,16 +9344,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C53" s="17">
         <v>54101</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E53" s="18">
         <v>8249</v>
@@ -9347,16 +9362,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C54" s="17">
         <v>54103</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E54" s="18">
         <v>14170</v>
@@ -9365,16 +9380,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C55" s="17">
         <v>54105</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E55" s="18">
         <v>5063</v>
@@ -9383,16 +9398,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C56" s="17">
         <v>54109</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E56" s="18">
         <v>21051</v>
@@ -9448,439 +9463,439 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>391</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>420</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>425</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>409</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>392</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>395</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>404</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="F15" s="25" t="s">
         <v>413</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="19" x14ac:dyDescent="0.25">
@@ -9913,53 +9928,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>429</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" t="s">
         <v>432</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>433</v>
-      </c>
-      <c r="D2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" t="s">
         <v>436</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>437</v>
-      </c>
-      <c r="D3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -9984,162 +9999,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65177306-A7B6-3C48-BF95-C3622DB65A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12CEAD-B619-CF48-90B2-DBE19C445B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -2563,7 +2563,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4250,8 +4250,8 @@
       <c r="C30" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>103</v>
+      <c r="D30" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>160</v>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12CEAD-B619-CF48-90B2-DBE19C445B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E649F7B8-227C-474F-9307-BE0B5FFD092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="646">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -515,12 +515,6 @@
     <t>Cabell</t>
   </si>
   <si>
-    <t>grab</t>
-  </si>
-  <si>
-    <t>lagoon - plan to pump into PeaRidge some day when new pearidge plant comes to be</t>
-  </si>
-  <si>
     <t>Hurricane</t>
   </si>
   <si>
@@ -539,24 +533,12 @@
     <t>Northern Wayne Co PSD</t>
   </si>
   <si>
-    <t>North Wayne</t>
-  </si>
-  <si>
     <t>Wayne</t>
   </si>
   <si>
-    <t>upstream from Huntington Sanitary board</t>
-  </si>
-  <si>
     <t>Pea Ridge PSD LeSage</t>
   </si>
   <si>
-    <t>LeSage</t>
-  </si>
-  <si>
-    <t>small independent plant under PeaRidge management</t>
-  </si>
-  <si>
     <t>HSB</t>
   </si>
   <si>
@@ -572,9 +554,6 @@
     <t>SRO</t>
   </si>
   <si>
-    <t>SRM</t>
-  </si>
-  <si>
     <t>PRPSD</t>
   </si>
   <si>
@@ -1944,6 +1923,60 @@
   </si>
   <si>
     <t>CharlestonWVU</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Hometown-Putnam</t>
+  </si>
+  <si>
+    <t>PutnamPSD</t>
+  </si>
+  <si>
+    <t>3rdAndHalGreerMU</t>
+  </si>
+  <si>
+    <t>CommonsDormsMU</t>
+  </si>
+  <si>
+    <t>SRCM</t>
+  </si>
+  <si>
+    <t>TwinTowersEastDormMU</t>
+  </si>
+  <si>
+    <t>TwinTowersWestDormMU</t>
+  </si>
+  <si>
+    <t>MU HACH</t>
+  </si>
+  <si>
+    <t>Manhole collects from Willis, Gibson, and Wellman dormatories - Haymaker WW goes toward Harless Cafe</t>
+  </si>
+  <si>
+    <t>Manhole located on the corner of 3rd Avene and Hal Greer. Collects from parts or all of Smith Music Hall, Smith Hall, Communications Building, and Science Building, Morrow, and Old Main</t>
+  </si>
+  <si>
+    <t>Lagoon - plan to pump into PeaRidge some day when new pearidge plant comes to be</t>
+  </si>
+  <si>
+    <t>Upstream from Huntington Sanitary board</t>
+  </si>
+  <si>
+    <t>Small independent plant under PeaRidge management</t>
+  </si>
+  <si>
+    <t>HometownWWTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54079-002-01-00-00</t>
+  </si>
+  <si>
+    <t>Putnam PSD</t>
+  </si>
+  <si>
+    <t>WV0028045</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2133,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2119,6 +2152,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2133,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2234,9 +2279,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2557,13 +2619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2587,64 +2649,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>61</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2652,10 +2714,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>103</v>
@@ -2664,10 +2726,10 @@
         <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H2" s="2">
         <v>-79.50179</v>
@@ -2676,7 +2738,7 @@
         <v>39.457090000000001</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>63</v>
@@ -2686,7 +2748,7 @@
         <v>700</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N2" s="38">
         <v>24</v>
@@ -2698,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>20</v>
@@ -2712,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H3" s="2">
         <v>-81.677679999999995</v>
@@ -2736,7 +2798,7 @@
         <v>38.372869999999999</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
@@ -2745,7 +2807,7 @@
         <v>50000</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N3" s="38">
         <v>24</v>
@@ -2753,7 +2815,7 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>20</v>
@@ -2768,10 +2830,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>103</v>
@@ -2780,10 +2842,10 @@
         <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H4" s="2">
         <v>-77.855890000000002</v>
@@ -2792,7 +2854,7 @@
         <v>39.279240000000001</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>7</v>
@@ -2801,7 +2863,7 @@
         <v>17000</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N4" s="38">
         <v>24</v>
@@ -2809,7 +2871,7 @@
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>20</v>
@@ -2824,10 +2886,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>103</v>
@@ -2836,10 +2898,10 @@
         <v>102</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H5" s="2">
         <v>-79.856999999999999</v>
@@ -2848,7 +2910,7 @@
         <v>39.677120000000002</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>11</v>
@@ -2857,7 +2919,7 @@
         <v>2000</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N5" s="38">
         <v>24</v>
@@ -2869,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>20</v>
@@ -2883,10 +2945,10 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>103</v>
@@ -2895,10 +2957,10 @@
         <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H6" s="2">
         <v>-80.338570000000004</v>
@@ -2907,7 +2969,7 @@
         <v>39.279310000000002</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>88</v>
@@ -2916,7 +2978,7 @@
         <v>26498</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N6" s="38">
         <v>24</v>
@@ -2924,7 +2986,7 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>20</v>
@@ -2936,25 +2998,25 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H7" s="2">
         <v>-79.985057699999999</v>
@@ -2970,7 +3032,7 @@
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N7" s="37">
         <v>8</v>
@@ -2982,7 +3044,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>20</v>
@@ -2997,10 +3059,10 @@
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>103</v>
@@ -3009,10 +3071,10 @@
         <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H8" s="2">
         <v>-79.865430000000003</v>
@@ -3021,7 +3083,7 @@
         <v>38.920259999999999</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>121</v>
@@ -3030,7 +3092,7 @@
         <v>13156</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N8" s="38">
         <v>24</v>
@@ -3042,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>20</v>
@@ -3057,10 +3119,10 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>103</v>
@@ -3069,10 +3131,10 @@
         <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H9" s="2">
         <v>-80.24933</v>
@@ -3081,7 +3143,7 @@
         <v>39.511809999999997</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>89</v>
@@ -3090,7 +3152,7 @@
         <v>610</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N9" s="38">
         <v>24</v>
@@ -3102,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>20</v>
@@ -3117,10 +3179,10 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>103</v>
@@ -3129,10 +3191,10 @@
         <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H10" s="2">
         <v>-80.018370000000004</v>
@@ -3141,7 +3203,7 @@
         <v>39.338769999999997</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>100</v>
@@ -3150,7 +3212,7 @@
         <v>6071</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N10" s="38">
         <v>24</v>
@@ -3158,7 +3220,7 @@
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>20</v>
@@ -3173,10 +3235,10 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>103</v>
@@ -3185,10 +3247,10 @@
         <v>115</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H11" s="2">
         <v>-79.978949999999998</v>
@@ -3197,7 +3259,7 @@
         <v>38.712879999999998</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>121</v>
@@ -3206,7 +3268,7 @@
         <v>2101</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N11" s="38">
         <v>24</v>
@@ -3218,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>20</v>
@@ -3233,10 +3295,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>103</v>
@@ -3245,10 +3307,10 @@
         <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H12" s="2">
         <v>-78.975080000000005</v>
@@ -3257,7 +3319,7 @@
         <v>39.441229999999997</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>13</v>
@@ -3266,7 +3328,7 @@
         <v>8168</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N12" s="38">
         <v>24</v>
@@ -3278,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
@@ -3293,10 +3355,10 @@
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>103</v>
@@ -3305,10 +3367,10 @@
         <v>154</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H13" s="2">
         <v>-81.847288800000001</v>
@@ -3317,7 +3379,7 @@
         <v>38.102483999999997</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>153</v>
@@ -3326,7 +3388,7 @@
         <v>4555</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N13" s="38">
         <v>24</v>
@@ -3338,7 +3400,7 @@
         <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>20</v>
@@ -3353,10 +3415,10 @@
         <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>103</v>
@@ -3365,10 +3427,10 @@
         <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H14" s="2">
         <v>-80.323710000000005</v>
@@ -3377,7 +3439,7 @@
         <v>39.518140000000002</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>89</v>
@@ -3386,7 +3448,7 @@
         <v>1091</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N14" s="38">
         <v>24</v>
@@ -3398,7 +3460,7 @@
         <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>20</v>
@@ -3413,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>103</v>
@@ -3425,10 +3487,10 @@
         <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H15" s="2">
         <v>-80.754930000000002</v>
@@ -3437,7 +3499,7 @@
         <v>39.929859999999998</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>5</v>
@@ -3446,7 +3508,7 @@
         <v>12000</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N15" s="38">
         <v>24</v>
@@ -3454,7 +3516,7 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>20</v>
@@ -3469,10 +3531,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>103</v>
@@ -3481,10 +3543,10 @@
         <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H16" s="2">
         <v>-81.557389999999998</v>
@@ -3493,7 +3555,7 @@
         <v>39.281709999999997</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>54</v>
@@ -3502,7 +3564,7 @@
         <v>48050</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N16" s="38">
         <v>24</v>
@@ -3510,7 +3572,7 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>20</v>
@@ -3522,25 +3584,25 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H17" s="2">
         <v>-82.135114799999997</v>
@@ -3549,16 +3611,16 @@
         <v>38.856708400000002</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L17" s="38">
         <v>5515</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N17" s="38">
         <v>24</v>
@@ -3570,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>20</v>
@@ -3585,10 +3647,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>103</v>
@@ -3597,10 +3659,10 @@
         <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H18" s="2">
         <v>-81.079930000000004</v>
@@ -3609,7 +3671,7 @@
         <v>37.380360000000003</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
@@ -3618,7 +3680,7 @@
         <v>36000</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="N18" s="38">
         <v>24</v>
@@ -3630,7 +3692,7 @@
         <v>20</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>20</v>
@@ -3645,10 +3707,10 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>103</v>
@@ -3657,10 +3719,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H19" s="2">
         <v>-80.545150000000007</v>
@@ -3669,7 +3731,7 @@
         <v>39.285969999999999</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>88</v>
@@ -3678,7 +3740,7 @@
         <v>1853</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N19" s="38">
         <v>24</v>
@@ -3690,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>20</v>
@@ -3705,10 +3767,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>103</v>
@@ -3717,10 +3779,10 @@
         <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H20" s="2">
         <v>-79.992055399999998</v>
@@ -3729,7 +3791,7 @@
         <v>39.655174500000001</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>11</v>
@@ -3738,7 +3800,7 @@
         <v>48328</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N20" s="38">
         <v>24</v>
@@ -3746,7 +3808,7 @@
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>20</v>
@@ -3761,10 +3823,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>60</v>
@@ -3773,10 +3835,10 @@
         <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H21" s="2">
         <v>-80.459909999999994</v>
@@ -3785,7 +3847,7 @@
         <v>39.062240000000003</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>9</v>
@@ -3794,7 +3856,7 @@
         <v>10364</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N21" s="38">
         <v>24</v>
@@ -3806,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>20</v>
@@ -3820,10 +3882,10 @@
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>103</v>
@@ -3832,10 +3894,10 @@
         <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H22" s="2">
         <v>-80.778989999999993</v>
@@ -3844,7 +3906,7 @@
         <v>39.299059999999997</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>57</v>
@@ -3853,7 +3915,7 @@
         <v>564</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N22" s="38">
         <v>24</v>
@@ -3865,7 +3927,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>20</v>
@@ -3880,10 +3942,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>103</v>
@@ -3892,10 +3954,10 @@
         <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H23" s="2">
         <v>-80.72757</v>
@@ -3904,7 +3966,7 @@
         <v>40.055880000000002</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>3</v>
@@ -3913,7 +3975,7 @@
         <v>50000</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N23" s="38">
         <v>24</v>
@@ -3921,7 +3983,7 @@
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>20</v>
@@ -3932,25 +3994,25 @@
     </row>
     <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H24" s="12">
         <v>-81.165005500000007</v>
@@ -3959,16 +4021,16 @@
         <v>37.946770700000002</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L24" s="38">
         <v>2626</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N24" s="39">
         <v>24</v>
@@ -3980,7 +4042,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>20</v>
@@ -3992,51 +4054,69 @@
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+        <v>368</v>
+      </c>
+      <c r="H25" s="46">
+        <v>-82.430654000000004</v>
+      </c>
+      <c r="I25" s="46">
+        <v>38.424089000000002</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>631</v>
+      </c>
       <c r="K25" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="46">
-        <v>24</v>
-      </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="29"/>
+      <c r="M25" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="N25" s="33">
+        <v>5</v>
+      </c>
+      <c r="O25" s="33">
+        <v>35</v>
+      </c>
+      <c r="P25" s="33">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="R25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="32"/>
-      <c r="T25" s="29"/>
+      <c r="S25" s="32">
+        <v>25703</v>
+      </c>
+      <c r="T25" s="46" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>60</v>
@@ -4045,10 +4125,10 @@
         <v>156</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H26" s="29">
         <v>-82.285698770801503</v>
@@ -4057,7 +4137,7 @@
         <v>38.414946823509098</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K26" s="29" t="s">
         <v>157</v>
@@ -4065,20 +4145,20 @@
       <c r="L26" s="33">
         <v>4000</v>
       </c>
-      <c r="M26" s="34" t="s">
-        <v>345</v>
+      <c r="M26" s="33" t="s">
+        <v>636</v>
       </c>
       <c r="N26" s="33">
-        <v>8.3333329999999997E-2</v>
+        <v>24</v>
       </c>
       <c r="O26" s="33">
         <v>250</v>
       </c>
       <c r="P26" s="33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>20</v>
@@ -4086,57 +4166,75 @@
       <c r="S26" s="42">
         <v>25504</v>
       </c>
-      <c r="T26" s="29" t="s">
-        <v>159</v>
+      <c r="T26" s="47" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+        <v>368</v>
+      </c>
+      <c r="H27" s="46">
+        <v>-82.425917999999996</v>
+      </c>
+      <c r="I27" s="46">
+        <v>38.421745999999999</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>632</v>
+      </c>
       <c r="K27" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="46">
-        <v>24</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="29"/>
+      <c r="M27" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="N27" s="33">
+        <v>5</v>
+      </c>
+      <c r="O27" s="33">
+        <v>100</v>
+      </c>
+      <c r="P27" s="33">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="32"/>
-      <c r="T27" s="29"/>
+      <c r="S27" s="32">
+        <v>25703</v>
+      </c>
+      <c r="T27" s="46" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>103</v>
@@ -4145,10 +4243,10 @@
         <v>68</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H28" s="29">
         <v>-81.679554234298493</v>
@@ -4157,7 +4255,7 @@
         <v>38.373735533484897</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>1</v>
@@ -4166,7 +4264,7 @@
         <v>49500</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N28" s="34">
         <v>24</v>
@@ -4174,7 +4272,7 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="29" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>20</v>
@@ -4186,23 +4284,23 @@
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H29" s="29">
         <v>-81.758709180509001</v>
@@ -4211,7 +4309,7 @@
         <v>38.368519014596998</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K29" s="29" t="s">
         <v>1</v>
@@ -4220,7 +4318,7 @@
         <v>9000</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N29" s="34">
         <v>24</v>
@@ -4232,7 +4330,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>20</v>
@@ -4244,23 +4342,23 @@
     </row>
     <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H30" s="29">
         <v>-82.006959612418996</v>
@@ -4269,16 +4367,16 @@
         <v>38.446524084559897</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L30" s="33">
         <v>28759</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N30" s="34">
         <v>72</v>
@@ -4290,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>20</v>
@@ -4302,11 +4400,11 @@
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>103</v>
@@ -4315,10 +4413,10 @@
         <v>155</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H31" s="29">
         <v>-82.528864034905197</v>
@@ -4327,16 +4425,16 @@
         <v>38.400744931017101</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L31" s="33">
         <v>56000</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N31" s="34">
         <v>24</v>
@@ -4348,7 +4446,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>20</v>
@@ -4360,23 +4458,23 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H32" s="29">
         <v>-82.451303840583293</v>
@@ -4385,16 +4483,16 @@
         <v>38.343336164586603</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L32" s="33">
         <v>1600</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N32" s="34">
         <v>24</v>
@@ -4406,7 +4504,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R32" s="29" t="s">
         <v>20</v>
@@ -4415,28 +4513,28 @@
         <v>25701</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>168</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H33" s="29">
         <v>-82.287563960345196</v>
@@ -4445,7 +4543,7 @@
         <v>38.572623654172197</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K33" s="29" t="s">
         <v>157</v>
@@ -4454,7 +4552,7 @@
         <v>1000</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N33" s="34">
         <v>24</v>
@@ -4466,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R33" s="29" t="s">
         <v>20</v>
@@ -4475,28 +4573,28 @@
         <v>25537</v>
       </c>
       <c r="T33" s="29" t="s">
-        <v>171</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H34" s="29">
         <v>-82.298209254857795</v>
@@ -4505,7 +4603,7 @@
         <v>38.419661908139098</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K34" s="29" t="s">
         <v>157</v>
@@ -4514,7 +4612,7 @@
         <v>7000</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>345</v>
+        <v>636</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4526,7 +4624,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>20</v>
@@ -4538,23 +4636,23 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>177</v>
+        <v>633</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H35" s="29">
         <v>-82.105144999999993</v>
@@ -4563,7 +4661,7 @@
         <v>38.425437000000002</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>157</v>
@@ -4572,7 +4670,7 @@
         <v>7200</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N35" s="34">
         <v>24</v>
@@ -4584,7 +4682,7 @@
         <v>20</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R35" s="29" t="s">
         <v>20</v>
@@ -4593,28 +4691,28 @@
         <v>25541</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H36" s="29">
         <v>-82.244877751268803</v>
@@ -4623,7 +4721,7 @@
         <v>38.372162360135</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>157</v>
@@ -4632,7 +4730,7 @@
         <v>4050</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N36" s="34">
         <v>24</v>
@@ -4644,7 +4742,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R36" s="29" t="s">
         <v>20</v>
@@ -4653,244 +4751,278 @@
         <v>25545</v>
       </c>
       <c r="T36" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+        <v>368</v>
+      </c>
+      <c r="H37" s="46">
+        <v>-82.425557700629597</v>
+      </c>
+      <c r="I37" s="46">
+        <v>38.422913110104098</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>634</v>
+      </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="46">
-        <v>24</v>
-      </c>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="29"/>
+      <c r="M37" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="N37" s="33">
+        <v>5</v>
+      </c>
+      <c r="O37" s="33">
+        <v>35</v>
+      </c>
+      <c r="P37" s="33">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="32"/>
+      <c r="S37" s="32">
+        <v>25703</v>
+      </c>
       <c r="T37" s="29"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+        <v>368</v>
+      </c>
+      <c r="H38" s="46">
+        <v>-82.424907815220195</v>
+      </c>
+      <c r="I38" s="46">
+        <v>38.423076174075902</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>635</v>
+      </c>
       <c r="K38" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="46">
+      <c r="M38" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="N38" s="33">
         <v>24</v>
       </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="29"/>
+      <c r="O38" s="33">
+        <v>100</v>
+      </c>
+      <c r="P38" s="33">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="32"/>
+      <c r="S38" s="32">
+        <v>25703</v>
+      </c>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="2" t="s">
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="H39" s="46">
+        <v>-81.867118796822695</v>
+      </c>
+      <c r="I39" s="46">
+        <v>38.537901317549398</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="K39" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="49">
+        <v>4900</v>
+      </c>
+      <c r="M39" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="N39" s="50">
+        <v>48</v>
+      </c>
+      <c r="O39" s="50">
+        <v>333</v>
+      </c>
+      <c r="P39" s="50">
+        <v>1440</v>
+      </c>
+      <c r="Q39" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H39" s="2">
-        <v>-81.015979999999999</v>
-      </c>
-      <c r="I39" s="2">
-        <v>37.42163</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="38">
-        <v>2391</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="N39" s="38">
-        <v>24</v>
-      </c>
-      <c r="O39" s="38">
-        <v>25</v>
-      </c>
-      <c r="P39" s="38">
+      <c r="R39" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="4">
-        <v>24740</v>
-      </c>
-      <c r="T39" s="2"/>
+      <c r="S39" s="48">
+        <v>25168</v>
+      </c>
+      <c r="T39" s="46"/>
     </row>
     <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H40" s="2">
-        <v>-79.905010000000004</v>
+        <v>-81.015979999999999</v>
       </c>
       <c r="I40" s="2">
-        <v>39.610210000000002</v>
+        <v>37.42163</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="37">
-        <v>579</v>
+        <v>17</v>
+      </c>
+      <c r="L40" s="38">
+        <v>2391</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N40" s="37">
-        <v>8</v>
-      </c>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+        <v>342</v>
+      </c>
+      <c r="N40" s="38">
+        <v>24</v>
+      </c>
+      <c r="O40" s="38">
+        <v>25</v>
+      </c>
+      <c r="P40" s="38">
+        <v>20</v>
+      </c>
       <c r="Q40" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S40" s="4">
-        <v>26508</v>
+        <v>24740</v>
       </c>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H41" s="2">
-        <v>-79.867609999999999</v>
+        <v>-79.905010000000004</v>
       </c>
       <c r="I41" s="2">
-        <v>39.652670000000001</v>
+        <v>39.610210000000002</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="37">
-        <v>830</v>
+        <v>579</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N41" s="37">
         <v>8</v>
@@ -4898,7 +5030,7 @@
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
       <c r="Q41" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>20</v>
@@ -4908,107 +5040,101 @@
       </c>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H42" s="2">
-        <v>-79.945801900000006</v>
+        <v>-79.867609999999999</v>
       </c>
       <c r="I42" s="2">
-        <v>39.6362083</v>
+        <v>39.652670000000001</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="37">
-        <v>567</v>
+        <v>830</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N42" s="37">
-        <v>48</v>
-      </c>
-      <c r="O42" s="37">
-        <v>25</v>
-      </c>
-      <c r="P42" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
       <c r="Q42" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S42" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>26508</v>
+      </c>
+      <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H43" s="2">
-        <v>-79.953093199999998</v>
+        <v>-79.945801900000006</v>
       </c>
       <c r="I43" s="2">
-        <v>39.636423100000002</v>
+        <v>39.6362083</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="37">
-        <v>639</v>
+        <v>567</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N43" s="37">
         <v>48</v>
@@ -5020,7 +5146,7 @@
         <v>30</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>20</v>
@@ -5029,48 +5155,48 @@
         <v>26505</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H44" s="2">
-        <v>-80.000420899999995</v>
+        <v>-79.953093199999998</v>
       </c>
       <c r="I44" s="2">
-        <v>39.6535571</v>
+        <v>39.636423100000002</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="37">
-        <v>912</v>
+        <v>639</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N44" s="37">
         <v>48</v>
@@ -5082,7 +5208,7 @@
         <v>30</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>20</v>
@@ -5091,46 +5217,48 @@
         <v>26505</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H45" s="2">
-        <v>-79.972157499999994</v>
+        <v>-80.000420899999995</v>
       </c>
       <c r="I45" s="2">
-        <v>39.650096900000001</v>
+        <v>39.6535571</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="37"/>
+      <c r="L45" s="37">
+        <v>912</v>
+      </c>
       <c r="M45" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N45" s="37">
         <v>48</v>
@@ -5142,7 +5270,7 @@
         <v>30</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>20</v>
@@ -5151,46 +5279,46 @@
         <v>26505</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H46" s="2">
-        <v>-79.956234100000003</v>
+        <v>-79.972157499999994</v>
       </c>
       <c r="I46" s="2">
-        <v>39.667909799999997</v>
+        <v>39.650096900000001</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N46" s="37">
         <v>48</v>
@@ -5202,7 +5330,7 @@
         <v>30</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>20</v>
@@ -5211,46 +5339,46 @@
         <v>26505</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H47" s="2">
-        <v>-79.956204600000007</v>
+        <v>-79.956234100000003</v>
       </c>
       <c r="I47" s="2">
-        <v>39.668112200000003</v>
+        <v>39.667909799999997</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N47" s="37">
         <v>48</v>
@@ -5262,7 +5390,7 @@
         <v>30</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>20</v>
@@ -5271,219 +5399,219 @@
         <v>26505</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-79.956204600000007</v>
+      </c>
+      <c r="I48" s="2">
+        <v>39.668112200000003</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N48" s="37">
+        <v>48</v>
+      </c>
+      <c r="O48" s="37">
+        <v>25</v>
+      </c>
+      <c r="P48" s="37">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H48" s="2">
-        <v>-80.598290000000006</v>
-      </c>
-      <c r="I48" s="36">
-        <v>40.325800000000001</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L48" s="38">
-        <v>6468</v>
-      </c>
-      <c r="M48" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N48" s="38">
-        <v>24</v>
-      </c>
-      <c r="O48" s="38">
-        <v>25</v>
-      </c>
-      <c r="P48" s="38">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S48" s="4">
-        <v>26037</v>
+        <v>26505</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>242</v>
+        <v>111</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H49" s="2">
-        <v>-79.515240000000006</v>
+        <v>-80.598290000000006</v>
       </c>
       <c r="I49" s="36">
-        <v>39.66807</v>
+        <v>40.325800000000001</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="L49" s="38">
-        <v>1948</v>
+        <v>6468</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N49" s="38">
         <v>24</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="O49" s="38">
+        <v>25</v>
+      </c>
+      <c r="P49" s="38">
+        <v>20</v>
+      </c>
       <c r="Q49" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S49" s="4">
-        <v>26525</v>
+        <v>26037</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>552</v>
+        <v>235</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H50" s="2">
-        <v>-79.956762600000005</v>
-      </c>
-      <c r="I50" s="2">
-        <v>39.637875299999997</v>
+        <v>-79.515240000000006</v>
+      </c>
+      <c r="I50" s="36">
+        <v>39.66807</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="37">
-        <v>874</v>
+        <v>63</v>
+      </c>
+      <c r="L50" s="38">
+        <v>1948</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N50" s="37">
-        <v>48</v>
-      </c>
-      <c r="O50" s="37">
-        <v>25</v>
-      </c>
-      <c r="P50" s="37">
-        <v>30</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N50" s="38">
+        <v>24</v>
+      </c>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
       <c r="Q50" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S50" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>132</v>
+        <v>26525</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H51" s="2">
-        <v>-79.955122099999997</v>
+        <v>-79.956762600000005</v>
       </c>
       <c r="I51" s="2">
-        <v>39.669188599999998</v>
+        <v>39.637875299999997</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="37"/>
+      <c r="L51" s="37">
+        <v>874</v>
+      </c>
       <c r="M51" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N51" s="37">
         <v>48</v>
@@ -5495,7 +5623,7 @@
         <v>30</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>20</v>
@@ -5504,46 +5632,46 @@
         <v>26505</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H52" s="2">
-        <v>-79.955245399999995</v>
+        <v>-79.955122099999997</v>
       </c>
       <c r="I52" s="2">
-        <v>39.669279500000002</v>
+        <v>39.669188599999998</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="37"/>
       <c r="M52" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N52" s="37">
         <v>48</v>
@@ -5555,7 +5683,7 @@
         <v>30</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>20</v>
@@ -5564,103 +5692,108 @@
         <v>26505</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H53" s="2">
-        <v>-79.957359999999994</v>
+        <v>-79.955245399999995</v>
       </c>
       <c r="I53" s="2">
-        <v>39.625419999999998</v>
+        <v>39.669279500000002</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="37">
-        <v>1851</v>
-      </c>
+      <c r="L53" s="37"/>
       <c r="M53" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N53" s="37">
-        <v>8</v>
-      </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O53" s="37">
+        <v>25</v>
+      </c>
+      <c r="P53" s="37">
+        <v>30</v>
+      </c>
       <c r="Q53" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S53" s="4">
-        <v>26501</v>
+        <v>26505</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H54" s="2">
-        <v>-79.943309999999997</v>
+        <v>-79.957359999999994</v>
       </c>
       <c r="I54" s="2">
-        <v>39.61036</v>
+        <v>39.625419999999998</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="37">
-        <v>726</v>
+        <v>1851</v>
       </c>
       <c r="M54" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N54" s="37">
         <v>8</v>
@@ -5668,7 +5801,7 @@
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>20</v>
@@ -5679,111 +5812,108 @@
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H55" s="2">
-        <v>-79.965769100000003</v>
+        <v>-79.943309999999997</v>
       </c>
       <c r="I55" s="2">
-        <v>39.672765599999998</v>
+        <v>39.61036</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="37"/>
+      <c r="L55" s="37">
+        <v>726</v>
+      </c>
       <c r="M55" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N55" s="37">
-        <v>48</v>
-      </c>
-      <c r="O55" s="37">
-        <v>25</v>
-      </c>
-      <c r="P55" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
       <c r="Q55" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S55" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+        <v>26501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H56" s="2">
-        <v>-79.956739999999996</v>
+        <v>-79.965769100000003</v>
       </c>
       <c r="I56" s="2">
-        <v>39.660640000000001</v>
+        <v>39.672765599999998</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="37">
-        <v>688</v>
-      </c>
+      <c r="L56" s="37"/>
       <c r="M56" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N56" s="37">
-        <v>8</v>
-      </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O56" s="37">
+        <v>25</v>
+      </c>
+      <c r="P56" s="37">
+        <v>30</v>
+      </c>
       <c r="Q56" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>20</v>
@@ -5791,57 +5921,57 @@
       <c r="S56" s="4">
         <v>26505</v>
       </c>
-      <c r="T56" s="2"/>
+      <c r="T56" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H57" s="2">
-        <v>-79.953202899999994</v>
+        <v>-79.956739999999996</v>
       </c>
       <c r="I57" s="2">
-        <v>39.633116399999999</v>
+        <v>39.660640000000001</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="37"/>
+      <c r="L57" s="37">
+        <v>688</v>
+      </c>
       <c r="M57" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N57" s="37">
-        <v>48</v>
-      </c>
-      <c r="O57" s="37">
-        <v>25</v>
-      </c>
-      <c r="P57" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
       <c r="Q57" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>20</v>
@@ -5849,49 +5979,45 @@
       <c r="S57" s="4">
         <v>26505</v>
       </c>
-      <c r="T57" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D58" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H58" s="2">
-        <v>-79.962211800000006</v>
+        <v>-79.953202899999994</v>
       </c>
       <c r="I58" s="2">
-        <v>39.6511596</v>
+        <v>39.633116399999999</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="37">
-        <v>862</v>
-      </c>
+      <c r="L58" s="37"/>
       <c r="M58" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N58" s="37">
         <v>48</v>
@@ -5903,7 +6029,7 @@
         <v>30</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>20</v>
@@ -5912,170 +6038,176 @@
         <v>26505</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="C59" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-79.962211800000006</v>
+      </c>
+      <c r="I59" s="2">
+        <v>39.6511596</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="37">
+        <v>862</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N59" s="37">
+        <v>48</v>
+      </c>
+      <c r="O59" s="37">
+        <v>25</v>
+      </c>
+      <c r="P59" s="37">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H59" s="2">
-        <v>-79.127250000000004</v>
-      </c>
-      <c r="I59" s="36">
-        <v>38.99091</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L59" s="38">
-        <v>2700</v>
-      </c>
-      <c r="M59" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="N59" s="38">
-        <v>24</v>
-      </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S59" s="4">
-        <v>26847</v>
-      </c>
-      <c r="T59" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H60" s="2">
-        <v>-79.956140000000005</v>
-      </c>
-      <c r="I60" s="2">
-        <v>39.639200000000002</v>
+        <v>-79.127250000000004</v>
+      </c>
+      <c r="I60" s="36">
+        <v>38.99091</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="37">
-        <v>474</v>
-      </c>
-      <c r="M60" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N60" s="37">
-        <v>48</v>
-      </c>
-      <c r="O60" s="37">
-        <v>25</v>
-      </c>
-      <c r="P60" s="37">
-        <v>30</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L60" s="38">
+        <v>2700</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="N60" s="38">
+        <v>24</v>
+      </c>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
       <c r="Q60" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S60" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>26847</v>
+      </c>
+      <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>479</v>
+        <v>185</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="H61" s="2">
+        <v>-79.956140000000005</v>
+      </c>
+      <c r="I61" s="2">
+        <v>39.639200000000002</v>
+      </c>
       <c r="J61" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="37">
+        <v>474</v>
+      </c>
       <c r="M61" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N61" s="37">
-        <v>12</v>
-      </c>
-      <c r="O61" s="38">
+        <v>48</v>
+      </c>
+      <c r="O61" s="37">
         <v>25</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="37">
         <v>30</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>20</v>
@@ -6083,29 +6215,31 @@
       <c r="S61" s="4">
         <v>26505</v>
       </c>
-      <c r="T61" s="2"/>
+      <c r="T61" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="2"/>
@@ -6117,7 +6251,7 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N62" s="37">
         <v>12</v>
@@ -6129,7 +6263,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>20</v>
@@ -6141,25 +6275,25 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="2"/>
@@ -6171,7 +6305,7 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N63" s="37">
         <v>12</v>
@@ -6183,7 +6317,7 @@
         <v>30</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>20</v>
@@ -6195,25 +6329,25 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="2"/>
@@ -6225,7 +6359,7 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N64" s="37">
         <v>12</v>
@@ -6237,7 +6371,7 @@
         <v>30</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>20</v>
@@ -6249,171 +6383,165 @@
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>467</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D65" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H65" s="2">
-        <v>-81.205110000000005</v>
-      </c>
-      <c r="I65" s="36">
-        <v>39.391249999999999</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65" s="38">
-        <v>2892</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N65" s="38">
-        <v>24</v>
+        <v>337</v>
+      </c>
+      <c r="N65" s="37">
+        <v>12</v>
       </c>
       <c r="O65" s="38">
         <v>25</v>
       </c>
       <c r="P65" s="38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S65" s="4">
-        <v>26170</v>
+        <v>26505</v>
       </c>
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D66" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H66" s="2">
-        <v>-79.978250000000003</v>
-      </c>
-      <c r="I66" s="2">
-        <v>39.671370000000003</v>
+        <v>-81.205110000000005</v>
+      </c>
+      <c r="I66" s="36">
+        <v>39.391249999999999</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="37">
-        <v>515</v>
+        <v>56</v>
+      </c>
+      <c r="L66" s="38">
+        <v>2892</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N66" s="37">
-        <v>8</v>
-      </c>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+        <v>337</v>
+      </c>
+      <c r="N66" s="38">
+        <v>24</v>
+      </c>
+      <c r="O66" s="38">
+        <v>25</v>
+      </c>
+      <c r="P66" s="38">
+        <v>20</v>
+      </c>
       <c r="Q66" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S66" s="4">
-        <v>26505</v>
+        <v>26170</v>
       </c>
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D67" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H67" s="2">
-        <v>-79.966336100000007</v>
+        <v>-79.978250000000003</v>
       </c>
       <c r="I67" s="2">
-        <v>39.649548899999999</v>
+        <v>39.671370000000003</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L67" s="37">
-        <v>904</v>
+        <v>515</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N67" s="37">
-        <v>48</v>
-      </c>
-      <c r="O67" s="37">
-        <v>25</v>
-      </c>
-      <c r="P67" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
       <c r="Q67" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R67" s="2" t="s">
         <v>20</v>
@@ -6421,163 +6549,163 @@
       <c r="S67" s="4">
         <v>26505</v>
       </c>
-      <c r="T67" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D68" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H68" s="2">
-        <v>-79.926150000000007</v>
+        <v>-79.966336100000007</v>
       </c>
       <c r="I68" s="2">
-        <v>39.687820000000002</v>
+        <v>39.649548899999999</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L68" s="37">
-        <v>1310</v>
+        <v>904</v>
       </c>
       <c r="M68" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N68" s="37">
-        <v>8</v>
-      </c>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O68" s="37">
+        <v>25</v>
+      </c>
+      <c r="P68" s="37">
+        <v>30</v>
+      </c>
       <c r="Q68" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S68" s="4">
-        <v>26508</v>
-      </c>
-      <c r="T68" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H69" s="2">
-        <v>-79.956755900000005</v>
+        <v>-79.926150000000007</v>
       </c>
       <c r="I69" s="2">
-        <v>39.640189999999997</v>
+        <v>39.687820000000002</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="37"/>
+      <c r="L69" s="37">
+        <v>1310</v>
+      </c>
       <c r="M69" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N69" s="37">
-        <v>48</v>
-      </c>
-      <c r="O69" s="37">
-        <v>25</v>
-      </c>
-      <c r="P69" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
       <c r="Q69" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S69" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>26508</v>
+      </c>
+      <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D70" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H70" s="2">
-        <v>-79.925397000000004</v>
+        <v>-79.956755900000005</v>
       </c>
       <c r="I70" s="2">
-        <v>39.6565887</v>
+        <v>39.640189999999997</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N70" s="37">
         <v>48</v>
@@ -6589,7 +6717,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>20</v>
@@ -6598,100 +6726,106 @@
         <v>26505</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="C71" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>188</v>
+        <v>351</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H71" s="2">
+        <v>-79.925397000000004</v>
+      </c>
+      <c r="I71" s="2">
+        <v>39.6565887</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N71" s="37">
+        <v>48</v>
+      </c>
+      <c r="O71" s="37">
+        <v>25</v>
+      </c>
+      <c r="P71" s="37">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H71" s="2">
-        <v>-79.936940000000007</v>
-      </c>
-      <c r="I71" s="36">
-        <v>39.022010000000002</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L71" s="38">
-        <v>1974</v>
-      </c>
-      <c r="M71" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="N71" s="38">
-        <v>24</v>
-      </c>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S71" s="4">
-        <v>26250</v>
-      </c>
-      <c r="T71" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H72" s="2">
-        <v>-80.212010000000006</v>
+        <v>-79.936940000000007</v>
       </c>
       <c r="I72" s="36">
-        <v>39.72007</v>
+        <v>39.022010000000002</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L72" s="37">
-        <v>400</v>
+        <v>123</v>
+      </c>
+      <c r="L72" s="38">
+        <v>1974</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N72" s="38">
         <v>24</v>
@@ -6699,53 +6833,53 @@
       <c r="O72" s="38"/>
       <c r="P72" s="38"/>
       <c r="Q72" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S72" s="4">
-        <v>26521</v>
+        <v>26250</v>
       </c>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H73" s="2">
-        <v>-80.258989999999997</v>
+        <v>-80.212010000000006</v>
       </c>
       <c r="I73" s="36">
-        <v>39.280479999999997</v>
+        <v>39.72007</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L73" s="38">
-        <v>6984</v>
+        <v>11</v>
+      </c>
+      <c r="L73" s="37">
+        <v>400</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N73" s="38">
         <v>24</v>
@@ -6753,111 +6887,107 @@
       <c r="O73" s="38"/>
       <c r="P73" s="38"/>
       <c r="Q73" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S73" s="4">
-        <v>26330</v>
+        <v>26521</v>
       </c>
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H74" s="2">
-        <v>-80.567440000000005</v>
+        <v>-80.258989999999997</v>
       </c>
       <c r="I74" s="36">
-        <v>39.826610000000002</v>
+        <v>39.280479999999997</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="L74" s="38">
-        <v>1340</v>
-      </c>
-      <c r="M74" s="37" t="s">
-        <v>344</v>
+        <v>6984</v>
+      </c>
+      <c r="M74" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N74" s="38">
         <v>24</v>
       </c>
-      <c r="O74" s="38">
-        <v>25</v>
-      </c>
-      <c r="P74" s="38">
-        <v>30</v>
-      </c>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
       <c r="Q74" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S74" s="4">
-        <v>26033</v>
+        <v>26330</v>
       </c>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H75" s="2">
-        <v>-80.124449999999996</v>
+        <v>-80.567440000000005</v>
       </c>
       <c r="I75" s="36">
-        <v>39.493949999999998</v>
+        <v>39.826610000000002</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="L75" s="38">
-        <v>25525</v>
+        <v>1340</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N75" s="38">
         <v>24</v>
@@ -6869,58 +6999,56 @@
         <v>30</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S75" s="4">
-        <v>26554</v>
+        <v>26033</v>
       </c>
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>567</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H76" s="2">
-        <v>-78.98272</v>
+        <v>-80.124449999999996</v>
       </c>
       <c r="I76" s="36">
-        <v>39.438070000000003</v>
+        <v>39.493949999999998</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L76" s="37">
-        <v>1193</v>
+        <v>89</v>
+      </c>
+      <c r="L76" s="38">
+        <v>25525</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="N76" s="37">
-        <v>48</v>
+        <v>337</v>
+      </c>
+      <c r="N76" s="38">
+        <v>24</v>
       </c>
       <c r="O76" s="38">
         <v>25</v>
@@ -6929,103 +7057,109 @@
         <v>30</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R76" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S76" s="4">
-        <v>26726</v>
+        <v>26554</v>
       </c>
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="C77" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H77" s="2">
+        <v>-78.98272</v>
+      </c>
+      <c r="I77" s="36">
+        <v>39.438070000000003</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" s="37">
+        <v>1193</v>
+      </c>
+      <c r="M77" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N77" s="37">
+        <v>48</v>
+      </c>
+      <c r="O77" s="38">
+        <v>25</v>
+      </c>
+      <c r="P77" s="38">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L77" s="38">
-        <v>1800</v>
-      </c>
-      <c r="M77" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="N77" s="38">
-        <v>24</v>
-      </c>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="R77" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="4"/>
+      <c r="S77" s="4">
+        <v>26726</v>
+      </c>
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>571</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H78" s="2">
-        <v>-78.226619999999997</v>
-      </c>
-      <c r="I78" s="2">
-        <v>39.628019999999999</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="L78" s="38">
-        <v>3255</v>
+        <v>1800</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N78" s="38">
         <v>24</v>
@@ -7033,48 +7167,53 @@
       <c r="O78" s="38"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="4">
-        <v>25411</v>
-      </c>
+      <c r="S78" s="4"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="H79" s="2">
+        <v>-78.226619999999997</v>
+      </c>
+      <c r="I79" s="2">
+        <v>39.628019999999999</v>
+      </c>
       <c r="J79" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="L79" s="38">
-        <v>20411</v>
+        <v>3255</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N79" s="38">
         <v>24</v>
@@ -7082,77 +7221,126 @@
       <c r="O79" s="38"/>
       <c r="P79" s="38"/>
       <c r="Q79" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="R79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S79" s="4"/>
+      <c r="S79" s="4">
+        <v>25411</v>
+      </c>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>126</v>
+      </c>
       <c r="C80" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H80" s="2">
-        <v>-80.260360000000006</v>
-      </c>
-      <c r="I80" s="36">
-        <v>39.452579999999998</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="L80" s="38">
-        <v>2742</v>
-      </c>
-      <c r="M80" s="37" t="s">
-        <v>344</v>
+        <v>20411</v>
+      </c>
+      <c r="M80" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N80" s="38">
         <v>24</v>
       </c>
-      <c r="O80" s="38">
-        <v>25</v>
-      </c>
-      <c r="P80" s="38">
-        <v>30</v>
-      </c>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
       <c r="Q80" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S80" s="4">
+      <c r="S80" s="4"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H81" s="2">
+        <v>-80.260360000000006</v>
+      </c>
+      <c r="I81" s="36">
+        <v>39.452579999999998</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L81" s="38">
+        <v>2742</v>
+      </c>
+      <c r="M81" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N81" s="38">
+        <v>24</v>
+      </c>
+      <c r="O81" s="38">
+        <v>25</v>
+      </c>
+      <c r="P81" s="38">
+        <v>30</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S81" s="4">
         <v>26591</v>
       </c>
-      <c r="T80" s="2"/>
+      <c r="T81" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T80">
-    <sortCondition ref="D2:D80"/>
-    <sortCondition ref="C2:C80"/>
-    <sortCondition ref="A2:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T81">
+    <sortCondition ref="D2:D81"/>
+    <sortCondition ref="C2:C81"/>
+    <sortCondition ref="A2:A81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7160,11 +7348,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7181,51 +7369,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G2" s="31">
         <v>54003906001</v>
@@ -7240,22 +7428,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G3" s="17">
         <v>54002701001</v>
@@ -7269,18 +7457,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G4" s="31">
         <v>54000601001</v>
@@ -7294,20 +7482,20 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G5" s="31">
         <v>54000101001</v>
@@ -7321,20 +7509,20 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G6" s="31">
         <v>54003031001</v>
@@ -7348,20 +7536,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G7" s="31">
         <v>54001702001</v>
@@ -7375,18 +7563,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G8" s="31">
         <v>54002510001</v>
@@ -7400,20 +7588,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G9" s="31">
         <v>54002003001</v>
@@ -7427,20 +7615,20 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G10" s="31">
         <v>54002003001</v>
@@ -7454,20 +7642,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G11" s="31">
         <v>54001901001</v>
@@ -7481,22 +7669,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G12" s="31">
         <v>54003045001</v>
@@ -7510,20 +7698,20 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G13" s="31">
         <v>54001703001</v>
@@ -7537,20 +7725,20 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G14" s="31">
         <v>54002007001</v>
@@ -7564,20 +7752,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G15" s="31">
         <v>54004202001</v>
@@ -7591,18 +7779,18 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G16" s="31">
         <v>54002405001</v>
@@ -7616,20 +7804,20 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G17" s="31">
         <v>54002408001</v>
@@ -7643,20 +7831,20 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G18" s="17">
         <v>54000504001</v>
@@ -7670,20 +7858,20 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G19" s="31">
         <v>54004602001</v>
@@ -7697,14 +7885,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>63</v>
@@ -7720,22 +7908,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="B21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>367</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G21" s="31">
         <v>54000603001</v>
@@ -7749,20 +7937,20 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G22" s="31">
         <v>54004215001</v>
@@ -7776,20 +7964,20 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G23" s="31">
         <v>54002803001</v>
@@ -7803,20 +7991,20 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G24" s="31">
         <v>54000316001</v>
@@ -7830,20 +8018,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G25" s="31">
         <v>54002415001</v>
@@ -7857,20 +8045,20 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G26" s="31">
         <v>54002509001</v>
@@ -7884,20 +8072,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G27" s="31">
         <v>54005405001</v>
@@ -7911,20 +8099,20 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B28" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="17">
@@ -7936,11 +8124,11 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
@@ -7957,11 +8145,11 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="17" t="s">
@@ -7978,18 +8166,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G31" s="17">
         <v>54001205001</v>
@@ -8003,20 +8191,20 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G32" s="17">
         <v>54002606001</v>
@@ -8028,22 +8216,22 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G33" s="17">
         <v>54002716001</v>
@@ -8055,22 +8243,22 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G34" s="31">
         <v>54001710001</v>
@@ -8082,22 +8270,22 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="17">
@@ -8107,22 +8295,22 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
@@ -8132,20 +8320,20 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G37" s="31">
         <v>54004804001</v>
@@ -8157,24 +8345,24 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G38" s="31">
         <v>54003011001</v>
@@ -8186,22 +8374,22 @@
         <v>48328</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="G39" s="17">
         <v>54003703001</v>
@@ -8213,22 +8401,22 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G40" s="31">
         <v>54003203001</v>
@@ -8240,20 +8428,20 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G41" s="31">
         <v>54000509001</v>
@@ -8265,22 +8453,22 @@
         <v>20411</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G42" s="17">
         <v>54002102001</v>
@@ -8292,22 +8480,22 @@
         <v>10364</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G43" s="31">
         <v>54000901001</v>
@@ -8319,22 +8507,22 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G44" s="31">
         <v>54003508001</v>
@@ -8346,22 +8534,22 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G45" s="31">
         <v>54001022001</v>
@@ -8373,13 +8561,13 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -8396,12 +8584,56 @@
         <v>2742</v>
       </c>
       <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
+      <c r="K46" s="51"/>
       <c r="L46"/>
       <c r="M46" s="1"/>
       <c r="N46"/>
       <c r="O46" s="2"/>
       <c r="W46"/>
+    </row>
+    <row r="47" spans="1:26" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>644</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>645</v>
+      </c>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="I47" s="54">
+        <v>3500</v>
+      </c>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
@@ -8432,16 +8664,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>151</v>
@@ -8452,7 +8684,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C2" s="17">
         <v>54061</v>
@@ -8469,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C3" s="17">
         <v>54039</v>
@@ -8486,7 +8718,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C4" s="17">
         <v>54069</v>
@@ -8503,7 +8735,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C5" s="17">
         <v>54037</v>
@@ -8521,7 +8753,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C6" s="17">
         <v>54055</v>
@@ -8538,7 +8770,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C7" s="17">
         <v>54041</v>
@@ -8556,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C8" s="17">
         <v>54057</v>
@@ -8574,7 +8806,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C9" s="17">
         <v>54051</v>
@@ -8592,7 +8824,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C10" s="17">
         <v>54065</v>
@@ -8610,7 +8842,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C11" s="17">
         <v>54077</v>
@@ -8628,7 +8860,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C12" s="17">
         <v>54107</v>
@@ -8646,7 +8878,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C13" s="17">
         <v>54017</v>
@@ -8664,7 +8896,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C14" s="17">
         <v>54049</v>
@@ -8682,7 +8914,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C15" s="17">
         <v>54033</v>
@@ -8700,7 +8932,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C16" s="17">
         <v>54091</v>
@@ -8717,7 +8949,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C17" s="17">
         <v>54073</v>
@@ -8734,7 +8966,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C18" s="17">
         <v>54005</v>
@@ -8751,7 +8983,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C19" s="17">
         <v>54083</v>
@@ -8769,7 +9001,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C20" s="17">
         <v>54009</v>
@@ -8784,16 +9016,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C21" s="17">
         <v>54053</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E21" s="18">
         <v>26700</v>
@@ -8804,7 +9036,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C22" s="17">
         <v>54001</v>
@@ -8818,16 +9050,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C23" s="17">
         <v>54003</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E23" s="18">
         <v>126069</v>
@@ -8836,16 +9068,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C24" s="17">
         <v>54007</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E24" s="18">
         <v>12247</v>
@@ -8857,7 +9089,7 @@
         <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C25" s="17">
         <v>54011</v>
@@ -8871,16 +9103,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C26" s="17">
         <v>54013</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E26" s="18">
         <v>6176</v>
@@ -8888,16 +9120,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C27" s="17">
         <v>54015</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E27" s="18">
         <v>7892</v>
@@ -8906,16 +9138,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C28" s="17">
         <v>54019</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E28" s="18">
         <v>39927</v>
@@ -8924,16 +9156,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C29" s="17">
         <v>54021</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E29" s="18">
         <v>7377</v>
@@ -8945,7 +9177,7 @@
         <v>55</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C30" s="17">
         <v>54023</v>
@@ -8959,16 +9191,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C31" s="17">
         <v>54025</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E31" s="18">
         <v>32608</v>
@@ -8977,16 +9209,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C32" s="17">
         <v>54027</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E32" s="18">
         <v>23302</v>
@@ -8994,16 +9226,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C33" s="17">
         <v>54029</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E33" s="18">
         <v>28656</v>
@@ -9011,16 +9243,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C34" s="17">
         <v>54031</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E34" s="18">
         <v>14160</v>
@@ -9028,16 +9260,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C35" s="17">
         <v>54035</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E35" s="18">
         <v>27738</v>
@@ -9045,16 +9277,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C36" s="17">
         <v>54043</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E36" s="18">
         <v>20126</v>
@@ -9062,16 +9294,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C37" s="17">
         <v>54045</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E37" s="18">
         <v>31909</v>
@@ -9080,16 +9312,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C38" s="17">
         <v>54047</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E38" s="18">
         <v>18363</v>
@@ -9097,16 +9329,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C39" s="17">
         <v>54059</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E39" s="18">
         <v>23005</v>
@@ -9114,16 +9346,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C40" s="17">
         <v>54063</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E40" s="18">
         <v>12332</v>
@@ -9132,16 +9364,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C41" s="17">
         <v>54067</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E41" s="18">
         <v>24300</v>
@@ -9149,16 +9381,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C42" s="17">
         <v>54071</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E42" s="18">
         <v>6142</v>
@@ -9166,16 +9398,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C43" s="17">
         <v>54075</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E43" s="18">
         <v>7841</v>
@@ -9183,16 +9415,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C44" s="17">
         <v>54079</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="20">
         <v>55486</v>
@@ -9200,16 +9432,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C45" s="17">
         <v>54081</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E45" s="18">
         <v>73771</v>
@@ -9218,16 +9450,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C46" s="17">
         <v>54085</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E46" s="18">
         <v>8383</v>
@@ -9236,16 +9468,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C47" s="17">
         <v>54087</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E47" s="18">
         <v>13898</v>
@@ -9254,16 +9486,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C48" s="17">
         <v>54089</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E48" s="18">
         <v>11908</v>
@@ -9272,16 +9504,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C49" s="17">
         <v>54093</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E49" s="18">
         <v>6672</v>
@@ -9293,7 +9525,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C50" s="17">
         <v>54095</v>
@@ -9308,16 +9540,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C51" s="17">
         <v>54097</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E51" s="18">
         <v>23791</v>
@@ -9326,16 +9558,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C52" s="17">
         <v>54099</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E52" s="20">
         <v>42481</v>
@@ -9344,16 +9576,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C53" s="17">
         <v>54101</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E53" s="18">
         <v>8249</v>
@@ -9362,16 +9594,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C54" s="17">
         <v>54103</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E54" s="18">
         <v>14170</v>
@@ -9380,16 +9612,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C55" s="17">
         <v>54105</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E55" s="18">
         <v>5063</v>
@@ -9398,16 +9630,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C56" s="17">
         <v>54109</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E56" s="18">
         <v>21051</v>
@@ -9463,439 +9695,439 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>423</v>
-      </c>
       <c r="D3" s="25" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E14" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>389</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="19" x14ac:dyDescent="0.25">
@@ -9928,53 +10160,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9999,162 +10231,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E649F7B8-227C-474F-9307-BE0B5FFD092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F38D1-F561-F04F-A93F-65C1FFF0D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="647">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1977,6 +1977,9 @@
   </si>
   <si>
     <t>WV0028045</t>
+  </si>
+  <si>
+    <t>M:FLUA</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2290,15 +2293,13 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2621,7 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8584,56 +8585,56 @@
         <v>2742</v>
       </c>
       <c r="J46" s="28"/>
-      <c r="K46" s="51"/>
+      <c r="K46" s="2"/>
       <c r="L46"/>
       <c r="M46" s="1"/>
       <c r="N46"/>
       <c r="O46" s="2"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:26" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="51" t="s">
         <v>642</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="51" t="s">
         <v>645</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52">
+      <c r="G47" s="51"/>
+      <c r="H47" s="51">
         <v>0.3</v>
       </c>
-      <c r="I47" s="54">
+      <c r="I47" s="53">
         <v>3500</v>
       </c>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
@@ -10218,8 +10219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874AFBB5-8FFB-B248-A4C3-9A81309B9614}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10258,7 +10259,7 @@
         <v>383</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>329</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F38D1-F561-F04F-A93F-65C1FFF0D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F90087-76C2-F04B-9A5B-825240CD6600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -1847,139 +1847,139 @@
     <t>Ec</t>
   </si>
   <si>
+    <t>Lg</t>
+  </si>
+  <si>
+    <t>Salmonella Enteritidis</t>
+  </si>
+  <si>
+    <t>Salmonella Newport</t>
+  </si>
+  <si>
+    <t>Salmonella Typhimurium</t>
+  </si>
+  <si>
+    <t>Salmonella Javiana</t>
+  </si>
+  <si>
+    <t>Legionairre's Disease</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>23S</t>
+  </si>
+  <si>
+    <t>C3b</t>
+  </si>
+  <si>
+    <t>N1:SARS</t>
+  </si>
+  <si>
+    <t>N2:SARS</t>
+  </si>
+  <si>
+    <t>NEP/NS1</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>RNase P</t>
+  </si>
+  <si>
+    <t>S:E484K</t>
+  </si>
+  <si>
+    <t>S:E484K WT</t>
+  </si>
+  <si>
+    <t>S:HVdel69-70</t>
+  </si>
+  <si>
+    <t>S:HVdel69-70 WT</t>
+  </si>
+  <si>
+    <t>S:N501Y</t>
+  </si>
+  <si>
+    <t>S:N501Y WT</t>
+  </si>
+  <si>
+    <t>TNFR</t>
+  </si>
+  <si>
+    <t>locus_id</t>
+  </si>
+  <si>
+    <t>SaltRock WWTP: Ona and SaltRock</t>
+  </si>
+  <si>
+    <t>SaltRock WWTP: Milton and Culloden</t>
+  </si>
+  <si>
+    <t>CharlestonWVU</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Hometown-Putnam</t>
+  </si>
+  <si>
+    <t>PutnamPSD</t>
+  </si>
+  <si>
+    <t>3rdAndHalGreerMU</t>
+  </si>
+  <si>
+    <t>CommonsDormsMU</t>
+  </si>
+  <si>
+    <t>SRCM</t>
+  </si>
+  <si>
+    <t>TwinTowersEastDormMU</t>
+  </si>
+  <si>
+    <t>TwinTowersWestDormMU</t>
+  </si>
+  <si>
+    <t>MU HACH</t>
+  </si>
+  <si>
+    <t>Manhole collects from Willis, Gibson, and Wellman dormatories - Haymaker WW goes toward Harless Cafe</t>
+  </si>
+  <si>
+    <t>Manhole located on the corner of 3rd Avene and Hal Greer. Collects from parts or all of Smith Music Hall, Smith Hall, Communications Building, and Science Building, Morrow, and Old Main</t>
+  </si>
+  <si>
+    <t>Lagoon - plan to pump into PeaRidge some day when new pearidge plant comes to be</t>
+  </si>
+  <si>
+    <t>Upstream from Huntington Sanitary board</t>
+  </si>
+  <si>
+    <t>Small independent plant under PeaRidge management</t>
+  </si>
+  <si>
+    <t>HometownWWTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54079-002-01-00-00</t>
+  </si>
+  <si>
+    <t>Putnam PSD</t>
+  </si>
+  <si>
+    <t>WV0028045</t>
+  </si>
+  <si>
+    <t>M:FLUA</t>
+  </si>
+  <si>
     <t>Human</t>
-  </si>
-  <si>
-    <t>Lg</t>
-  </si>
-  <si>
-    <t>Salmonella Enteritidis</t>
-  </si>
-  <si>
-    <t>Salmonella Newport</t>
-  </si>
-  <si>
-    <t>Salmonella Typhimurium</t>
-  </si>
-  <si>
-    <t>Salmonella Javiana</t>
-  </si>
-  <si>
-    <t>Legionairre's Disease</t>
-  </si>
-  <si>
-    <t>16S</t>
-  </si>
-  <si>
-    <t>23S</t>
-  </si>
-  <si>
-    <t>C3b</t>
-  </si>
-  <si>
-    <t>N1:SARS</t>
-  </si>
-  <si>
-    <t>N2:SARS</t>
-  </si>
-  <si>
-    <t>NEP/NS1</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>RNase P</t>
-  </si>
-  <si>
-    <t>S:E484K</t>
-  </si>
-  <si>
-    <t>S:E484K WT</t>
-  </si>
-  <si>
-    <t>S:HVdel69-70</t>
-  </si>
-  <si>
-    <t>S:HVdel69-70 WT</t>
-  </si>
-  <si>
-    <t>S:N501Y</t>
-  </si>
-  <si>
-    <t>S:N501Y WT</t>
-  </si>
-  <si>
-    <t>TNFR</t>
-  </si>
-  <si>
-    <t>locus_id</t>
-  </si>
-  <si>
-    <t>SaltRock WWTP: Ona and SaltRock</t>
-  </si>
-  <si>
-    <t>SaltRock WWTP: Milton and Culloden</t>
-  </si>
-  <si>
-    <t>CharlestonWVU</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>Hometown-Putnam</t>
-  </si>
-  <si>
-    <t>PutnamPSD</t>
-  </si>
-  <si>
-    <t>3rdAndHalGreerMU</t>
-  </si>
-  <si>
-    <t>CommonsDormsMU</t>
-  </si>
-  <si>
-    <t>SRCM</t>
-  </si>
-  <si>
-    <t>TwinTowersEastDormMU</t>
-  </si>
-  <si>
-    <t>TwinTowersWestDormMU</t>
-  </si>
-  <si>
-    <t>MU HACH</t>
-  </si>
-  <si>
-    <t>Manhole collects from Willis, Gibson, and Wellman dormatories - Haymaker WW goes toward Harless Cafe</t>
-  </si>
-  <si>
-    <t>Manhole located on the corner of 3rd Avene and Hal Greer. Collects from parts or all of Smith Music Hall, Smith Hall, Communications Building, and Science Building, Morrow, and Old Main</t>
-  </si>
-  <si>
-    <t>Lagoon - plan to pump into PeaRidge some day when new pearidge plant comes to be</t>
-  </si>
-  <si>
-    <t>Upstream from Huntington Sanitary board</t>
-  </si>
-  <si>
-    <t>Small independent plant under PeaRidge management</t>
-  </si>
-  <si>
-    <t>HometownWWTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54079-002-01-00-00</t>
-  </si>
-  <si>
-    <t>Putnam PSD</t>
-  </si>
-  <si>
-    <t>WV0028045</t>
-  </si>
-  <si>
-    <t>M:FLUA</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2784,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>340</v>
@@ -4080,14 +4080,14 @@
         <v>38.424089000000002</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N25" s="33">
         <v>5</v>
@@ -4108,7 +4108,7 @@
         <v>25703</v>
       </c>
       <c r="T25" s="46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
         <v>4000</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N26" s="33">
         <v>24</v>
@@ -4168,7 +4168,7 @@
         <v>25504</v>
       </c>
       <c r="T26" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4198,14 +4198,14 @@
         <v>38.421745999999999</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K27" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N27" s="33">
         <v>5</v>
@@ -4226,7 +4226,7 @@
         <v>25703</v>
       </c>
       <c r="T27" s="46" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4514,7 +4514,7 @@
         <v>25701</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4574,7 +4574,7 @@
         <v>25537</v>
       </c>
       <c r="T33" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4613,7 +4613,7 @@
         <v>7000</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
@@ -4647,7 +4647,7 @@
         <v>103</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>340</v>
@@ -4707,7 +4707,7 @@
         <v>103</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>340</v>
@@ -4782,14 +4782,14 @@
         <v>38.422913110104098</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N37" s="33">
         <v>5</v>
@@ -4838,14 +4838,14 @@
         <v>38.423076174075902</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K38" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N38" s="33">
         <v>24</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46" t="s">
@@ -4879,7 +4879,7 @@
         <v>103</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>340</v>
@@ -4894,7 +4894,7 @@
         <v>38.537901317549398</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K39" s="46" t="s">
         <v>159</v>
@@ -8594,22 +8594,22 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="B47" s="52" t="s">
         <v>642</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="C47" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="D47" s="51" t="s">
         <v>643</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>629</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>644</v>
       </c>
       <c r="E47" s="51" t="s">
         <v>159</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G47" s="51"/>
       <c r="H47" s="51">
@@ -9679,7 +9679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
@@ -9889,7 +9889,7 @@
         <v>590</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>417</v>
@@ -9898,7 +9898,7 @@
         <v>382</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -10048,7 +10048,7 @@
         <v>594</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>417</v>
@@ -10065,7 +10065,7 @@
         <v>595</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>417</v>
@@ -10082,7 +10082,7 @@
         <v>596</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>417</v>
@@ -10099,7 +10099,7 @@
         <v>597</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>417</v>
@@ -10219,8 +10219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874AFBB5-8FFB-B248-A4C3-9A81309B9614}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10235,7 +10235,7 @@
         <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10243,15 +10243,15 @@
         <v>586</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10259,7 +10259,7 @@
         <v>383</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10267,7 +10267,7 @@
         <v>386</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10275,7 +10275,7 @@
         <v>590</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10283,7 +10283,7 @@
         <v>599</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10291,7 +10291,7 @@
         <v>600</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>389</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10323,7 +10323,7 @@
         <v>393</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10331,7 +10331,7 @@
         <v>393</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>393</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10355,7 +10355,7 @@
         <v>393</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
         <v>393</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>393</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10379,7 +10379,7 @@
         <v>393</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10387,7 +10387,7 @@
         <v>393</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F90087-76C2-F04B-9A5B-825240CD6600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B72292-9838-BA47-8870-E3972E546152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="647">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1874,112 +1874,112 @@
     <t>C3b</t>
   </si>
   <si>
-    <t>N1:SARS</t>
-  </si>
-  <si>
-    <t>N2:SARS</t>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>RNase P</t>
+  </si>
+  <si>
+    <t>S:E484K</t>
+  </si>
+  <si>
+    <t>S:E484K WT</t>
+  </si>
+  <si>
+    <t>S:HVdel69-70</t>
+  </si>
+  <si>
+    <t>S:HVdel69-70 WT</t>
+  </si>
+  <si>
+    <t>S:N501Y</t>
+  </si>
+  <si>
+    <t>S:N501Y WT</t>
+  </si>
+  <si>
+    <t>TNFR</t>
+  </si>
+  <si>
+    <t>locus_id</t>
+  </si>
+  <si>
+    <t>SaltRock WWTP: Ona and SaltRock</t>
+  </si>
+  <si>
+    <t>SaltRock WWTP: Milton and Culloden</t>
+  </si>
+  <si>
+    <t>CharlestonWVU</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Hometown-Putnam</t>
+  </si>
+  <si>
+    <t>PutnamPSD</t>
+  </si>
+  <si>
+    <t>3rdAndHalGreerMU</t>
+  </si>
+  <si>
+    <t>CommonsDormsMU</t>
+  </si>
+  <si>
+    <t>SRCM</t>
+  </si>
+  <si>
+    <t>TwinTowersEastDormMU</t>
+  </si>
+  <si>
+    <t>TwinTowersWestDormMU</t>
+  </si>
+  <si>
+    <t>MU HACH</t>
+  </si>
+  <si>
+    <t>Manhole collects from Willis, Gibson, and Wellman dormatories - Haymaker WW goes toward Harless Cafe</t>
+  </si>
+  <si>
+    <t>Manhole located on the corner of 3rd Avene and Hal Greer. Collects from parts or all of Smith Music Hall, Smith Hall, Communications Building, and Science Building, Morrow, and Old Main</t>
+  </si>
+  <si>
+    <t>Lagoon - plan to pump into PeaRidge some day when new pearidge plant comes to be</t>
+  </si>
+  <si>
+    <t>Upstream from Huntington Sanitary board</t>
+  </si>
+  <si>
+    <t>Small independent plant under PeaRidge management</t>
+  </si>
+  <si>
+    <t>HometownWWTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54079-002-01-00-00</t>
+  </si>
+  <si>
+    <t>Putnam PSD</t>
+  </si>
+  <si>
+    <t>WV0028045</t>
+  </si>
+  <si>
+    <t>Human</t>
   </si>
   <si>
     <t>NEP/NS1</t>
   </si>
   <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>RNase P</t>
-  </si>
-  <si>
-    <t>S:E484K</t>
-  </si>
-  <si>
-    <t>S:E484K WT</t>
-  </si>
-  <si>
-    <t>S:HVdel69-70</t>
-  </si>
-  <si>
-    <t>S:HVdel69-70 WT</t>
-  </si>
-  <si>
-    <t>S:N501Y</t>
-  </si>
-  <si>
-    <t>S:N501Y WT</t>
-  </si>
-  <si>
-    <t>TNFR</t>
-  </si>
-  <si>
-    <t>locus_id</t>
-  </si>
-  <si>
-    <t>SaltRock WWTP: Ona and SaltRock</t>
-  </si>
-  <si>
-    <t>SaltRock WWTP: Milton and Culloden</t>
-  </si>
-  <si>
-    <t>CharlestonWVU</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>Hometown-Putnam</t>
-  </si>
-  <si>
-    <t>PutnamPSD</t>
-  </si>
-  <si>
-    <t>3rdAndHalGreerMU</t>
-  </si>
-  <si>
-    <t>CommonsDormsMU</t>
-  </si>
-  <si>
-    <t>SRCM</t>
-  </si>
-  <si>
-    <t>TwinTowersEastDormMU</t>
-  </si>
-  <si>
-    <t>TwinTowersWestDormMU</t>
-  </si>
-  <si>
-    <t>MU HACH</t>
-  </si>
-  <si>
-    <t>Manhole collects from Willis, Gibson, and Wellman dormatories - Haymaker WW goes toward Harless Cafe</t>
-  </si>
-  <si>
-    <t>Manhole located on the corner of 3rd Avene and Hal Greer. Collects from parts or all of Smith Music Hall, Smith Hall, Communications Building, and Science Building, Morrow, and Old Main</t>
-  </si>
-  <si>
-    <t>Lagoon - plan to pump into PeaRidge some day when new pearidge plant comes to be</t>
-  </si>
-  <si>
-    <t>Upstream from Huntington Sanitary board</t>
-  </si>
-  <si>
-    <t>Small independent plant under PeaRidge management</t>
-  </si>
-  <si>
-    <t>HometownWWTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54079-002-01-00-00</t>
-  </si>
-  <si>
-    <t>Putnam PSD</t>
-  </si>
-  <si>
-    <t>WV0028045</t>
-  </si>
-  <si>
-    <t>M:FLUA</t>
-  </si>
-  <si>
-    <t>Human</t>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>SC2</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2784,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>340</v>
@@ -4080,14 +4080,14 @@
         <v>38.424089000000002</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N25" s="33">
         <v>5</v>
@@ -4108,7 +4108,7 @@
         <v>25703</v>
       </c>
       <c r="T25" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
         <v>4000</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N26" s="33">
         <v>24</v>
@@ -4168,7 +4168,7 @@
         <v>25504</v>
       </c>
       <c r="T26" s="47" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4198,14 +4198,14 @@
         <v>38.421745999999999</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K27" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N27" s="33">
         <v>5</v>
@@ -4226,7 +4226,7 @@
         <v>25703</v>
       </c>
       <c r="T27" s="46" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4514,7 +4514,7 @@
         <v>25701</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4574,7 +4574,7 @@
         <v>25537</v>
       </c>
       <c r="T33" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4613,7 +4613,7 @@
         <v>7000</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
@@ -4647,7 +4647,7 @@
         <v>103</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>340</v>
@@ -4707,7 +4707,7 @@
         <v>103</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>340</v>
@@ -4782,14 +4782,14 @@
         <v>38.422913110104098</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N37" s="33">
         <v>5</v>
@@ -4838,14 +4838,14 @@
         <v>38.423076174075902</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K38" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="34" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N38" s="33">
         <v>24</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46" t="s">
@@ -4879,7 +4879,7 @@
         <v>103</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>340</v>
@@ -4894,7 +4894,7 @@
         <v>38.537901317549398</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K39" s="46" t="s">
         <v>159</v>
@@ -8594,22 +8594,22 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="51" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E47" s="51" t="s">
         <v>159</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G47" s="51"/>
       <c r="H47" s="51">
@@ -9679,7 +9679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
@@ -10219,8 +10219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874AFBB5-8FFB-B248-A4C3-9A81309B9614}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10235,7 +10235,7 @@
         <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10248,10 +10248,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10259,7 +10259,7 @@
         <v>383</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>645</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10267,7 +10267,7 @@
         <v>386</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10291,7 +10291,7 @@
         <v>600</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>389</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10323,7 +10323,7 @@
         <v>393</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10331,7 +10331,7 @@
         <v>393</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10339,7 +10339,7 @@
         <v>393</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>335</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>393</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>616</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10355,7 +10355,7 @@
         <v>393</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
         <v>393</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>393</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10379,7 +10379,7 @@
         <v>393</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10387,11 +10387,16 @@
         <v>393</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
+      <c r="A21" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>618</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B72292-9838-BA47-8870-E3972E546152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BFF87-CD21-B341-8C03-318630D51726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="645">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1880,24 +1880,6 @@
     <t>RNase P</t>
   </si>
   <si>
-    <t>S:E484K</t>
-  </si>
-  <si>
-    <t>S:E484K WT</t>
-  </si>
-  <si>
-    <t>S:HVdel69-70</t>
-  </si>
-  <si>
-    <t>S:HVdel69-70 WT</t>
-  </si>
-  <si>
-    <t>S:N501Y</t>
-  </si>
-  <si>
-    <t>S:N501Y WT</t>
-  </si>
-  <si>
     <t>TNFR</t>
   </si>
   <si>
@@ -1980,6 +1962,18 @@
   </si>
   <si>
     <t>SC2</t>
+  </si>
+  <si>
+    <t>Human Norovirus GII (HuNoV-GII)</t>
+  </si>
+  <si>
+    <t>ORF1_2</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Human Norovirus GI (HuNoV-GI)</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1983,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2131,7 +2125,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2181,7 +2182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2281,7 +2282,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2300,6 +2300,8 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2784,7 +2786,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>340</v>
@@ -4073,21 +4075,21 @@
       <c r="G25" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="45">
         <v>-82.430654000000004</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="45">
         <v>38.424089000000002</v>
       </c>
-      <c r="J25" s="46" t="s">
-        <v>627</v>
+      <c r="J25" s="45" t="s">
+        <v>621</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N25" s="33">
         <v>5</v>
@@ -4107,8 +4109,8 @@
       <c r="S25" s="32">
         <v>25703</v>
       </c>
-      <c r="T25" s="46" t="s">
-        <v>634</v>
+      <c r="T25" s="45" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4147,7 +4149,7 @@
         <v>4000</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N26" s="33">
         <v>24</v>
@@ -4167,8 +4169,8 @@
       <c r="S26" s="42">
         <v>25504</v>
       </c>
-      <c r="T26" s="47" t="s">
-        <v>635</v>
+      <c r="T26" s="46" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4191,21 +4193,21 @@
       <c r="G27" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <v>-82.425917999999996</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="45">
         <v>38.421745999999999</v>
       </c>
-      <c r="J27" s="46" t="s">
-        <v>628</v>
+      <c r="J27" s="45" t="s">
+        <v>622</v>
       </c>
       <c r="K27" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N27" s="33">
         <v>5</v>
@@ -4225,8 +4227,8 @@
       <c r="S27" s="32">
         <v>25703</v>
       </c>
-      <c r="T27" s="46" t="s">
-        <v>633</v>
+      <c r="T27" s="45" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4514,7 +4516,7 @@
         <v>25701</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4574,7 +4576,7 @@
         <v>25537</v>
       </c>
       <c r="T33" s="29" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4613,7 +4615,7 @@
         <v>7000</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4637,7 +4639,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
@@ -4647,7 +4649,7 @@
         <v>103</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>340</v>
@@ -4707,7 +4709,7 @@
         <v>103</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>340</v>
@@ -4775,21 +4777,21 @@
       <c r="G37" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="45">
         <v>-82.425557700629597</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="45">
         <v>38.422913110104098</v>
       </c>
-      <c r="J37" s="46" t="s">
-        <v>630</v>
+      <c r="J37" s="45" t="s">
+        <v>624</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N37" s="33">
         <v>5</v>
@@ -4831,21 +4833,21 @@
       <c r="G38" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="45">
         <v>-82.424907815220195</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="45">
         <v>38.423076174075902</v>
       </c>
-      <c r="J38" s="46" t="s">
-        <v>631</v>
+      <c r="J38" s="45" t="s">
+        <v>625</v>
       </c>
       <c r="K38" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="34" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N38" s="33">
         <v>24</v>
@@ -4868,62 +4870,62 @@
       <c r="T38" s="29"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46" t="s">
+      <c r="A39" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="46" t="s">
-        <v>625</v>
-      </c>
-      <c r="F39" s="46" t="s">
+      <c r="E39" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="F39" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="45">
         <v>-81.867118796822695</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="45">
         <v>38.537901317549398</v>
       </c>
-      <c r="J39" s="46" t="s">
-        <v>626</v>
-      </c>
-      <c r="K39" s="46" t="s">
+      <c r="J39" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="K39" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="L39" s="49">
+      <c r="L39" s="48">
         <v>4900</v>
       </c>
-      <c r="M39" s="50" t="s">
+      <c r="M39" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="N39" s="50">
+      <c r="N39" s="49">
         <v>48</v>
       </c>
-      <c r="O39" s="50">
+      <c r="O39" s="49">
         <v>333</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P39" s="49">
         <v>1440</v>
       </c>
-      <c r="Q39" s="46" t="s">
+      <c r="Q39" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="48">
+      <c r="S39" s="47">
         <v>25168</v>
       </c>
-      <c r="T39" s="46"/>
+      <c r="T39" s="45"/>
     </row>
     <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -7351,9 +7353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8532,7 +8534,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="30">
-        <v>50000</v>
+        <v>33782</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -8593,48 +8595,48 @@
       <c r="W46"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
-        <v>638</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>625</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>640</v>
-      </c>
-      <c r="E47" s="51" t="s">
+      <c r="A47" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>633</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="E47" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51">
+      <c r="F47" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50">
         <v>0.3</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="52">
         <v>3500</v>
       </c>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
@@ -8649,7 +8651,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8728,7 +8730,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18">
-        <v>41411</v>
+        <v>41447</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -10219,13 +10221,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874AFBB5-8FFB-B248-A4C3-9A81309B9614}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
@@ -10235,7 +10237,7 @@
         <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10248,14 +10250,14 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>383</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -10263,11 +10265,11 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>386</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10279,7 +10281,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>599</v>
       </c>
       <c r="B7" s="44" t="s">
@@ -10287,27 +10289,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>600</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>323</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10315,88 +10317,68 @@
         <v>393</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>321</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>644</v>
+        <v>593</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>645</v>
+        <v>641</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>646</v>
+      <c r="A14" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>335</v>
+      <c r="A15" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>613</v>
+      <c r="A16" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>614</v>
+      <c r="A17" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>615</v>
-      </c>
+      <c r="B18" s="44"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>616</v>
-      </c>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>617</v>
-      </c>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>618</v>
-      </c>
+      <c r="B21" s="44"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BFF87-CD21-B341-8C03-318630D51726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A186F5C-AB50-C84B-956D-BAA8892ABE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="19780" yWindow="500" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="target" sheetId="4" r:id="rId4"/>
     <sheet name="lab" sheetId="5" r:id="rId5"/>
     <sheet name="loci" sheetId="6" r:id="rId6"/>
+    <sheet name="methods" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="651">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1974,6 +1975,24 @@
   </si>
   <si>
     <t>Human Norovirus GI (HuNoV-GI)</t>
+  </si>
+  <si>
+    <t>major_lab_method</t>
+  </si>
+  <si>
+    <t>major_lab_method_desc</t>
+  </si>
+  <si>
+    <t>Nanotrap concentration of raw influent and quantification by ddPCR</t>
+  </si>
+  <si>
+    <t>Nanotrap concentration of raw influent and quantification by ddPCR; the only modification from major_lab_method 1 is that post-RNA extraction, four equal volumes of RNA extract are combined for ddPCR analysis, rather than being combined pre-concentration.</t>
+  </si>
+  <si>
+    <t>Nanotrap concentration of raw influent and quantification by ddPCR; the only modification from major_lab_method 1 is that post-RNA extraction, two equal volumes of RNA extract are combined for ddPCR analysis, rather than being combined pre-concentration.</t>
+  </si>
+  <si>
+    <t>Nanotrap concentration of raw influent and quantification by ddPCR; the only modification from major_lab_method 1 is that post-RNA extraction, three equal volumes of RNA extract are combined for ddPCR analysis, rather than being combined pre-concentration.</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2302,6 +2321,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7353,7 +7378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
@@ -10386,4 +10411,75 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5881ED24-91ED-D44B-B541-ADE5F93B4B89}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="106.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56"/>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A186F5C-AB50-C84B-956D-BAA8892ABE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B925E-7564-E844-BB72-3B253306D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="500" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="19780" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -2649,11 +2649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="D64" sqref="D61:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2738,447 +2738,449 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="29">
+        <v>-81.679554234298493</v>
+      </c>
+      <c r="I2" s="29">
+        <v>38.373735533484897</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="33">
+        <v>49500</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="N2" s="34">
+        <v>24</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="42">
+        <v>25387</v>
+      </c>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="29">
+        <v>-81.758709180509001</v>
+      </c>
+      <c r="I3" s="29">
+        <v>38.368519014596998</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="33">
+        <v>9000</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="N3" s="34">
+        <v>24</v>
+      </c>
+      <c r="O3" s="34">
+        <v>25</v>
+      </c>
+      <c r="P3" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="32">
+        <v>25064</v>
+      </c>
+      <c r="T3" s="29"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="29">
+        <v>-82.528864034905197</v>
+      </c>
+      <c r="I4" s="29">
+        <v>38.400744931017101</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="33">
+        <v>56000</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" s="34">
+        <v>24</v>
+      </c>
+      <c r="O4" s="34">
+        <v>25</v>
+      </c>
+      <c r="P4" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="42">
+        <v>25704</v>
+      </c>
+      <c r="T4" s="29"/>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="29">
+        <v>-82.298209254857795</v>
+      </c>
+      <c r="I5" s="29">
+        <v>38.419661908139098</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="33">
+        <v>7000</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="N5" s="34">
+        <v>24</v>
+      </c>
+      <c r="O5" s="34">
+        <v>25</v>
+      </c>
+      <c r="P5" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="32">
+        <v>25705</v>
+      </c>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" s="45">
+        <v>-81.867118796822695</v>
+      </c>
+      <c r="I6" s="45">
+        <v>38.537901317549398</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="48">
+        <v>4900</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="N6" s="49">
+        <v>48</v>
+      </c>
+      <c r="O6" s="49">
+        <v>333</v>
+      </c>
+      <c r="P6" s="49">
+        <v>1440</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="47">
+        <v>25168</v>
+      </c>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7" s="29">
+        <v>-82.105144999999993</v>
+      </c>
+      <c r="I7" s="29">
+        <v>38.425437000000002</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="33">
+        <v>7200</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="N7" s="34">
+        <v>24</v>
+      </c>
+      <c r="O7" s="34">
+        <v>25</v>
+      </c>
+      <c r="P7" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="32">
+        <v>25541</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H8" s="29">
+        <v>-82.244877751268803</v>
+      </c>
+      <c r="I8" s="29">
+        <v>38.372162360135</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="33">
+        <v>4050</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="N8" s="34">
+        <v>24</v>
+      </c>
+      <c r="O8" s="34">
+        <v>25</v>
+      </c>
+      <c r="P8" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="32">
+        <v>25545</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H9" s="2">
         <v>-79.50179</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I9" s="36">
         <v>39.457090000000001</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L9" s="37">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N2" s="38">
-        <v>24</v>
-      </c>
-      <c r="O2" s="38">
-        <v>25</v>
-      </c>
-      <c r="P2" s="38">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="4">
-        <v>26764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-81.677679999999995</v>
-      </c>
-      <c r="I3" s="2">
-        <v>38.372869999999999</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="38">
-        <v>50000</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="N3" s="38">
-        <v>24</v>
-      </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="4">
-        <v>25312</v>
-      </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-77.855890000000002</v>
-      </c>
-      <c r="I4" s="2">
-        <v>39.279240000000001</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="38">
-        <v>17000</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="N4" s="38">
-        <v>24</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="4">
-        <v>25414</v>
-      </c>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-79.856999999999999</v>
-      </c>
-      <c r="I5" s="36">
-        <v>39.677120000000002</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="38">
-        <v>2000</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N5" s="38">
-        <v>24</v>
-      </c>
-      <c r="O5" s="38">
-        <v>25</v>
-      </c>
-      <c r="P5" s="38">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="4">
-        <v>26508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-80.338570000000004</v>
-      </c>
-      <c r="I6" s="36">
-        <v>39.279310000000002</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="38">
-        <v>26498</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="N6" s="38">
-        <v>24</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="4">
-        <v>26301</v>
-      </c>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-79.985057699999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>39.648165400000003</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N7" s="37">
-        <v>8</v>
-      </c>
-      <c r="O7" s="38">
-        <v>25</v>
-      </c>
-      <c r="P7" s="38">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-79.865430000000003</v>
-      </c>
-      <c r="I8" s="36">
-        <v>38.920259999999999</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="38">
-        <v>13156</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N8" s="38">
-        <v>24</v>
-      </c>
-      <c r="O8" s="38">
-        <v>25</v>
-      </c>
-      <c r="P8" s="38">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="4">
-        <v>26241</v>
-      </c>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-80.24933</v>
-      </c>
-      <c r="I9" s="36">
-        <v>39.511809999999997</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="37">
-        <v>610</v>
-      </c>
       <c r="M9" s="37" t="s">
         <v>337</v>
       </c>
@@ -3198,16 +3200,16 @@
         <v>20</v>
       </c>
       <c r="S9" s="4">
-        <v>26571</v>
+        <v>26764</v>
       </c>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>351</v>
@@ -3216,7 +3218,7 @@
         <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>340</v>
@@ -3225,19 +3227,19 @@
         <v>368</v>
       </c>
       <c r="H10" s="2">
-        <v>-80.018370000000004</v>
-      </c>
-      <c r="I10" s="36">
-        <v>39.338769999999997</v>
+        <v>-77.855890000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <v>39.279240000000001</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L10" s="38">
-        <v>6071</v>
+        <v>17000</v>
       </c>
       <c r="M10" s="38" t="s">
         <v>338</v>
@@ -3254,16 +3256,16 @@
         <v>20</v>
       </c>
       <c r="S10" s="4">
-        <v>26354</v>
+        <v>25414</v>
       </c>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>351</v>
@@ -3272,7 +3274,7 @@
         <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>340</v>
@@ -3281,19 +3283,19 @@
         <v>368</v>
       </c>
       <c r="H11" s="2">
-        <v>-79.978949999999998</v>
+        <v>-79.856999999999999</v>
       </c>
       <c r="I11" s="36">
-        <v>38.712879999999998</v>
+        <v>39.677120000000002</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="L11" s="38">
-        <v>2101</v>
+        <v>2000</v>
       </c>
       <c r="M11" s="37" t="s">
         <v>337</v>
@@ -3314,16 +3316,16 @@
         <v>20</v>
       </c>
       <c r="S11" s="4">
-        <v>26273</v>
+        <v>26508</v>
       </c>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>351</v>
@@ -3332,7 +3334,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>340</v>
@@ -3341,49 +3343,45 @@
         <v>368</v>
       </c>
       <c r="H12" s="2">
-        <v>-78.975080000000005</v>
-      </c>
-      <c r="I12" s="2">
-        <v>39.441229999999997</v>
+        <v>-80.338570000000004</v>
+      </c>
+      <c r="I12" s="36">
+        <v>39.279310000000002</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="L12" s="38">
-        <v>8168</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>337</v>
+        <v>26498</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N12" s="38">
         <v>24</v>
       </c>
-      <c r="O12" s="38">
-        <v>25</v>
-      </c>
-      <c r="P12" s="38">
-        <v>20</v>
-      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S12" s="4">
-        <v>26726</v>
+        <v>26301</v>
       </c>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>475</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>351</v>
@@ -3392,40 +3390,38 @@
         <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>154</v>
+        <v>476</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H13" s="2">
-        <v>-81.847288800000001</v>
+        <v>-79.985057699999999</v>
       </c>
       <c r="I13" s="2">
-        <v>38.102483999999997</v>
+        <v>39.648165400000003</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="38">
-        <v>4555</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L13" s="37"/>
       <c r="M13" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N13" s="38">
-        <v>24</v>
+      <c r="N13" s="37">
+        <v>8</v>
       </c>
       <c r="O13" s="38">
         <v>25</v>
       </c>
       <c r="P13" s="38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>347</v>
@@ -3434,16 +3430,16 @@
         <v>20</v>
       </c>
       <c r="S13" s="4">
-        <v>25053</v>
+        <v>26505</v>
       </c>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>351</v>
@@ -3452,7 +3448,7 @@
         <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>340</v>
@@ -3461,19 +3457,19 @@
         <v>368</v>
       </c>
       <c r="H14" s="2">
-        <v>-80.323710000000005</v>
+        <v>-79.865430000000003</v>
       </c>
       <c r="I14" s="36">
-        <v>39.518140000000002</v>
+        <v>38.920259999999999</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L14" s="38">
-        <v>1091</v>
+        <v>13156</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>337</v>
@@ -3494,16 +3490,16 @@
         <v>20</v>
       </c>
       <c r="S14" s="4">
-        <v>26582</v>
+        <v>26241</v>
       </c>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>351</v>
@@ -3512,7 +3508,7 @@
         <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>340</v>
@@ -3521,45 +3517,49 @@
         <v>368</v>
       </c>
       <c r="H15" s="2">
-        <v>-80.754930000000002</v>
-      </c>
-      <c r="I15" s="2">
-        <v>39.929859999999998</v>
+        <v>-80.24933</v>
+      </c>
+      <c r="I15" s="36">
+        <v>39.511809999999997</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="38">
-        <v>12000</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>338</v>
+        <v>89</v>
+      </c>
+      <c r="L15" s="37">
+        <v>610</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="N15" s="38">
         <v>24</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="O15" s="38">
+        <v>25</v>
+      </c>
+      <c r="P15" s="38">
+        <v>20</v>
+      </c>
       <c r="Q15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="4">
-        <v>26041</v>
+        <v>26571</v>
       </c>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>351</v>
@@ -3568,7 +3568,7 @@
         <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>340</v>
@@ -3577,19 +3577,19 @@
         <v>368</v>
       </c>
       <c r="H16" s="2">
-        <v>-81.557389999999998</v>
+        <v>-80.018370000000004</v>
       </c>
       <c r="I16" s="36">
-        <v>39.281709999999997</v>
+        <v>39.338769999999997</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L16" s="38">
-        <v>48050</v>
+        <v>6071</v>
       </c>
       <c r="M16" s="38" t="s">
         <v>338</v>
@@ -3606,16 +3606,16 @@
         <v>20</v>
       </c>
       <c r="S16" s="4">
-        <v>26101</v>
+        <v>26354</v>
       </c>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>351</v>
@@ -3624,7 +3624,7 @@
         <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>340</v>
@@ -3633,19 +3633,19 @@
         <v>368</v>
       </c>
       <c r="H17" s="2">
-        <v>-82.135114799999997</v>
-      </c>
-      <c r="I17" s="2">
-        <v>38.856708400000002</v>
+        <v>-79.978949999999998</v>
+      </c>
+      <c r="I17" s="36">
+        <v>38.712879999999998</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="L17" s="38">
-        <v>5515</v>
+        <v>2101</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>337</v>
@@ -3666,16 +3666,16 @@
         <v>20</v>
       </c>
       <c r="S17" s="4">
-        <v>25550</v>
+        <v>26273</v>
       </c>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>351</v>
@@ -3684,31 +3684,31 @@
         <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H18" s="2">
-        <v>-81.079930000000004</v>
+        <v>-78.975080000000005</v>
       </c>
       <c r="I18" s="2">
-        <v>37.380360000000003</v>
+        <v>39.441229999999997</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L18" s="38">
-        <v>36000</v>
+        <v>8168</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N18" s="38">
         <v>24</v>
@@ -3726,16 +3726,16 @@
         <v>20</v>
       </c>
       <c r="S18" s="4">
-        <v>24740</v>
+        <v>26726</v>
       </c>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>351</v>
@@ -3744,7 +3744,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>340</v>
@@ -3753,19 +3753,19 @@
         <v>368</v>
       </c>
       <c r="H19" s="2">
-        <v>-80.545150000000007</v>
-      </c>
-      <c r="I19" s="36">
-        <v>39.285969999999999</v>
+        <v>-81.847288800000001</v>
+      </c>
+      <c r="I19" s="2">
+        <v>38.102483999999997</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="L19" s="38">
-        <v>1853</v>
+        <v>4555</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>337</v>
@@ -3786,16 +3786,16 @@
         <v>20</v>
       </c>
       <c r="S19" s="4">
-        <v>26426</v>
+        <v>25053</v>
       </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>351</v>
@@ -3804,63 +3804,67 @@
         <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H20" s="2">
-        <v>-79.992055399999998</v>
-      </c>
-      <c r="I20" s="2">
-        <v>39.655174500000001</v>
+        <v>-80.323710000000005</v>
+      </c>
+      <c r="I20" s="36">
+        <v>39.518140000000002</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="L20" s="38">
-        <v>48328</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>338</v>
+        <v>1091</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="N20" s="38">
         <v>24</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
+      <c r="O20" s="38">
+        <v>25</v>
+      </c>
+      <c r="P20" s="38">
+        <v>20</v>
+      </c>
       <c r="Q20" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S20" s="4">
-        <v>26505</v>
+        <v>26582</v>
       </c>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>60</v>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>340</v>
@@ -3869,45 +3873,41 @@
         <v>368</v>
       </c>
       <c r="H21" s="2">
-        <v>-80.459909999999994</v>
+        <v>-80.754930000000002</v>
       </c>
       <c r="I21" s="2">
-        <v>39.062240000000003</v>
+        <v>39.929859999999998</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L21" s="38">
-        <v>10364</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>337</v>
+        <v>12000</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N21" s="38">
         <v>24</v>
       </c>
-      <c r="O21" s="38">
-        <v>25</v>
-      </c>
-      <c r="P21" s="38">
-        <v>20</v>
-      </c>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
       <c r="Q21" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S21" s="4">
-        <v>26452</v>
+        <v>26041</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>558</v>
@@ -3919,7 +3919,7 @@
         <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>340</v>
@@ -3928,49 +3928,45 @@
         <v>368</v>
       </c>
       <c r="H22" s="2">
-        <v>-80.778989999999993</v>
+        <v>-81.557389999999998</v>
       </c>
       <c r="I22" s="36">
-        <v>39.299059999999997</v>
+        <v>39.281709999999997</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L22" s="38">
-        <v>564</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>337</v>
+        <v>48050</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N22" s="38">
         <v>24</v>
       </c>
-      <c r="O22" s="38">
-        <v>25</v>
-      </c>
-      <c r="P22" s="38">
-        <v>20</v>
-      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
       <c r="Q22" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S22" s="4">
-        <v>26456</v>
+        <v>26101</v>
       </c>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>351</v>
@@ -3979,398 +3975,405 @@
         <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H23" s="2">
-        <v>-80.72757</v>
+        <v>-82.135114799999997</v>
       </c>
       <c r="I23" s="2">
-        <v>40.055880000000002</v>
+        <v>38.856708400000002</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="L23" s="38">
-        <v>50000</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>338</v>
+        <v>5515</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="N23" s="38">
         <v>24</v>
       </c>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="O23" s="38">
+        <v>25</v>
+      </c>
+      <c r="P23" s="38">
+        <v>20</v>
+      </c>
       <c r="Q23" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S23" s="4">
+        <v>25550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-81.079930000000004</v>
+      </c>
+      <c r="I24" s="2">
+        <v>37.380360000000003</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="38">
+        <v>36000</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="N24" s="38">
+        <v>24</v>
+      </c>
+      <c r="O24" s="38">
+        <v>25</v>
+      </c>
+      <c r="P24" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="4">
+        <v>24740</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-80.545150000000007</v>
+      </c>
+      <c r="I25" s="36">
+        <v>39.285969999999999</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="38">
+        <v>1853</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="38">
+        <v>24</v>
+      </c>
+      <c r="O25" s="38">
+        <v>25</v>
+      </c>
+      <c r="P25" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>26426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-79.992055399999998</v>
+      </c>
+      <c r="I26" s="2">
+        <v>39.655174500000001</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="38">
+        <v>48328</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="N26" s="38">
+        <v>24</v>
+      </c>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-80.778989999999993</v>
+      </c>
+      <c r="I27" s="36">
+        <v>39.299059999999997</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="38">
+        <v>564</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N27" s="38">
+        <v>24</v>
+      </c>
+      <c r="O27" s="38">
+        <v>25</v>
+      </c>
+      <c r="P27" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="4">
+        <v>26456</v>
+      </c>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-80.72757</v>
+      </c>
+      <c r="I28" s="2">
+        <v>40.055880000000002</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="38">
+        <v>50000</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="N28" s="38">
+        <v>24</v>
+      </c>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="4">
         <v>26003</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H29" s="12">
         <v>-81.165005500000007</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I29" s="12">
         <v>37.946770700000002</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L29" s="38">
         <v>2626</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M29" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N29" s="39">
         <v>24</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O29" s="39">
         <v>25</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P29" s="39">
         <v>30</v>
       </c>
-      <c r="Q24" s="30" t="s">
+      <c r="Q29" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S29" s="17">
         <v>25917</v>
       </c>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H25" s="45">
-        <v>-82.430654000000004</v>
-      </c>
-      <c r="I25" s="45">
-        <v>38.424089000000002</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="N25" s="33">
-        <v>5</v>
-      </c>
-      <c r="O25" s="33">
-        <v>35</v>
-      </c>
-      <c r="P25" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="32">
-        <v>25703</v>
-      </c>
-      <c r="T25" s="45" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H26" s="29">
-        <v>-82.285698770801503</v>
-      </c>
-      <c r="I26" s="29">
-        <v>38.414946823509098</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="33">
-        <v>4000</v>
-      </c>
-      <c r="M26" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="N26" s="33">
-        <v>24</v>
-      </c>
-      <c r="O26" s="33">
-        <v>250</v>
-      </c>
-      <c r="P26" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S26" s="42">
-        <v>25504</v>
-      </c>
-      <c r="T26" s="46" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H27" s="45">
-        <v>-82.425917999999996</v>
-      </c>
-      <c r="I27" s="45">
-        <v>38.421745999999999</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="N27" s="33">
-        <v>5</v>
-      </c>
-      <c r="O27" s="33">
-        <v>100</v>
-      </c>
-      <c r="P27" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="32">
-        <v>25703</v>
-      </c>
-      <c r="T27" s="45" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H28" s="29">
-        <v>-81.679554234298493</v>
-      </c>
-      <c r="I28" s="29">
-        <v>38.373735533484897</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="33">
-        <v>49500</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="N28" s="34">
-        <v>24</v>
-      </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S28" s="42">
-        <v>25387</v>
-      </c>
-      <c r="T28" s="29"/>
-    </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" s="29">
-        <v>-81.758709180509001</v>
-      </c>
-      <c r="I29" s="29">
-        <v>38.368519014596998</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="33">
-        <v>9000</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="N29" s="34">
-        <v>24</v>
-      </c>
-      <c r="O29" s="34">
-        <v>25</v>
-      </c>
-      <c r="P29" s="34">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="32">
-        <v>25064</v>
-      </c>
-      <c r="T29" s="29"/>
+      <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29" t="s">
@@ -4380,40 +4383,38 @@
         <v>60</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H30" s="29">
-        <v>-82.006959612418996</v>
-      </c>
-      <c r="I30" s="29">
-        <v>38.446524084559897</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>359</v>
+      <c r="H30" s="45">
+        <v>-82.430654000000004</v>
+      </c>
+      <c r="I30" s="45">
+        <v>38.424089000000002</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>621</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="33">
-        <v>28759</v>
-      </c>
-      <c r="M30" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="N30" s="34">
-        <v>72</v>
-      </c>
-      <c r="O30" s="34">
-        <v>25</v>
-      </c>
-      <c r="P30" s="34">
-        <v>20</v>
+        <v>157</v>
+      </c>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="N30" s="33">
+        <v>5</v>
+      </c>
+      <c r="O30" s="33">
+        <v>35</v>
+      </c>
+      <c r="P30" s="33">
+        <v>30</v>
       </c>
       <c r="Q30" s="29" t="s">
         <v>347</v>
@@ -4422,23 +4423,25 @@
         <v>20</v>
       </c>
       <c r="S30" s="32">
-        <v>25526</v>
-      </c>
-      <c r="T30" s="29"/>
+        <v>25703</v>
+      </c>
+      <c r="T30" s="45" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>103</v>
+      <c r="D31" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>340</v>
@@ -4447,31 +4450,31 @@
         <v>368</v>
       </c>
       <c r="H31" s="29">
-        <v>-82.528864034905197</v>
+        <v>-82.285698770801503</v>
       </c>
       <c r="I31" s="29">
-        <v>38.400744931017101</v>
+        <v>38.414946823509098</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L31" s="33">
-        <v>56000</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="N31" s="34">
+        <v>4000</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="N31" s="33">
         <v>24</v>
       </c>
-      <c r="O31" s="34">
-        <v>25</v>
-      </c>
-      <c r="P31" s="34">
-        <v>20</v>
+      <c r="O31" s="33">
+        <v>250</v>
+      </c>
+      <c r="P31" s="33">
+        <v>30</v>
       </c>
       <c r="Q31" s="29" t="s">
         <v>347</v>
@@ -4480,13 +4483,15 @@
         <v>20</v>
       </c>
       <c r="S31" s="42">
-        <v>25704</v>
-      </c>
-      <c r="T31" s="29"/>
+        <v>25504</v>
+      </c>
+      <c r="T31" s="46" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
@@ -4496,40 +4501,38 @@
         <v>60</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H32" s="29">
-        <v>-82.451303840583293</v>
-      </c>
-      <c r="I32" s="29">
-        <v>38.343336164586603</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>353</v>
+      <c r="H32" s="45">
+        <v>-82.425917999999996</v>
+      </c>
+      <c r="I32" s="45">
+        <v>38.421745999999999</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>622</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" s="33">
-        <v>1600</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="N32" s="34">
-        <v>24</v>
-      </c>
-      <c r="O32" s="34">
-        <v>25</v>
-      </c>
-      <c r="P32" s="34">
-        <v>20</v>
+        <v>157</v>
+      </c>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="N32" s="33">
+        <v>5</v>
+      </c>
+      <c r="O32" s="33">
+        <v>100</v>
+      </c>
+      <c r="P32" s="33">
+        <v>30</v>
       </c>
       <c r="Q32" s="29" t="s">
         <v>347</v>
@@ -4538,15 +4541,15 @@
         <v>20</v>
       </c>
       <c r="S32" s="32">
-        <v>25701</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>630</v>
+        <v>25703</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
@@ -4556,7 +4559,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>340</v>
@@ -4565,25 +4568,25 @@
         <v>368</v>
       </c>
       <c r="H33" s="29">
-        <v>-82.287563960345196</v>
+        <v>-82.006959612418996</v>
       </c>
       <c r="I33" s="29">
-        <v>38.572623654172197</v>
+        <v>38.446524084559897</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L33" s="33">
-        <v>1000</v>
+        <v>28759</v>
       </c>
       <c r="M33" s="34" t="s">
         <v>338</v>
       </c>
       <c r="N33" s="34">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="O33" s="34">
         <v>25</v>
@@ -4598,25 +4601,23 @@
         <v>20</v>
       </c>
       <c r="S33" s="32">
-        <v>25537</v>
-      </c>
-      <c r="T33" s="29" t="s">
-        <v>631</v>
-      </c>
+        <v>25526</v>
+      </c>
+      <c r="T33" s="29"/>
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>103</v>
+      <c r="D34" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>340</v>
@@ -4625,22 +4626,22 @@
         <v>368</v>
       </c>
       <c r="H34" s="29">
-        <v>-82.298209254857795</v>
+        <v>-82.451303840583293</v>
       </c>
       <c r="I34" s="29">
-        <v>38.419661908139098</v>
+        <v>38.343336164586603</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L34" s="33">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>626</v>
+        <v>338</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4658,23 +4659,25 @@
         <v>20</v>
       </c>
       <c r="S34" s="32">
-        <v>25705</v>
-      </c>
-      <c r="T34" s="29"/>
+        <v>25701</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>623</v>
+        <v>165</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>103</v>
+      <c r="D35" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>616</v>
+        <v>165</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>340</v>
@@ -4683,19 +4686,19 @@
         <v>368</v>
       </c>
       <c r="H35" s="29">
-        <v>-82.105144999999993</v>
+        <v>-82.287563960345196</v>
       </c>
       <c r="I35" s="29">
-        <v>38.425437000000002</v>
+        <v>38.572623654172197</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L35" s="33">
-        <v>7200</v>
+        <v>1000</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>338</v>
@@ -4716,58 +4719,56 @@
         <v>20</v>
       </c>
       <c r="S35" s="32">
-        <v>25541</v>
+        <v>25537</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>160</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>103</v>
+      <c r="D36" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>615</v>
+        <v>176</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H36" s="29">
-        <v>-82.244877751268803</v>
-      </c>
-      <c r="I36" s="29">
-        <v>38.372162360135</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>371</v>
+      <c r="H36" s="45">
+        <v>-82.425557700629597</v>
+      </c>
+      <c r="I36" s="45">
+        <v>38.422913110104098</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>624</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="33">
-        <v>4050</v>
-      </c>
+      <c r="L36" s="33"/>
       <c r="M36" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="N36" s="34">
-        <v>24</v>
-      </c>
-      <c r="O36" s="34">
-        <v>25</v>
-      </c>
-      <c r="P36" s="34">
-        <v>20</v>
+        <v>626</v>
+      </c>
+      <c r="N36" s="33">
+        <v>5</v>
+      </c>
+      <c r="O36" s="33">
+        <v>35</v>
+      </c>
+      <c r="P36" s="33">
+        <v>30</v>
       </c>
       <c r="Q36" s="29" t="s">
         <v>347</v>
@@ -4776,15 +4777,13 @@
         <v>20</v>
       </c>
       <c r="S36" s="32">
-        <v>25545</v>
-      </c>
-      <c r="T36" s="29" t="s">
-        <v>160</v>
-      </c>
+        <v>25703</v>
+      </c>
+      <c r="T36" s="29"/>
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29" t="s">
@@ -4794,7 +4793,7 @@
         <v>60</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>19</v>
@@ -4803,13 +4802,13 @@
         <v>368</v>
       </c>
       <c r="H37" s="45">
-        <v>-82.425557700629597</v>
+        <v>-82.424907815220195</v>
       </c>
       <c r="I37" s="45">
-        <v>38.422913110104098</v>
+        <v>38.423076174075902</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
@@ -4819,10 +4818,10 @@
         <v>626</v>
       </c>
       <c r="N37" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O37" s="33">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="P37" s="33">
         <v>30</v>
@@ -4839,125 +4838,127 @@
       <c r="T37" s="29"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D38" s="35" t="s">
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="29" t="s">
+      <c r="E38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H38" s="45">
-        <v>-82.424907815220195</v>
-      </c>
-      <c r="I38" s="45">
-        <v>38.423076174075902</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="K38" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34" t="s">
-        <v>626</v>
-      </c>
-      <c r="N38" s="33">
+      <c r="H38" s="2">
+        <v>-81.015979999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>37.42163</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="38">
+        <v>2391</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="N38" s="38">
         <v>24</v>
       </c>
-      <c r="O38" s="33">
-        <v>100</v>
-      </c>
-      <c r="P38" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="29" t="s">
+      <c r="O38" s="38">
+        <v>25</v>
+      </c>
+      <c r="P38" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="R38" s="29" t="s">
+      <c r="R38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="32">
-        <v>25703</v>
-      </c>
-      <c r="T38" s="29"/>
+      <c r="S38" s="4">
+        <v>24740</v>
+      </c>
+      <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" s="45" t="s">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H39" s="45">
-        <v>-81.867118796822695</v>
-      </c>
-      <c r="I39" s="45">
-        <v>38.537901317549398</v>
-      </c>
-      <c r="J39" s="45" t="s">
-        <v>620</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="L39" s="48">
-        <v>4900</v>
-      </c>
-      <c r="M39" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="N39" s="49">
-        <v>48</v>
-      </c>
-      <c r="O39" s="49">
-        <v>333</v>
-      </c>
-      <c r="P39" s="49">
-        <v>1440</v>
-      </c>
-      <c r="Q39" s="45" t="s">
+      <c r="H39" s="2">
+        <v>-79.905010000000004</v>
+      </c>
+      <c r="I39" s="2">
+        <v>39.610210000000002</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="37">
+        <v>579</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N39" s="37">
+        <v>8</v>
+      </c>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="R39" s="45" t="s">
+      <c r="R39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="47">
-        <v>25168</v>
-      </c>
-      <c r="T39" s="45"/>
+      <c r="S39" s="4">
+        <v>26508</v>
+      </c>
+      <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>351</v>
@@ -4966,7 +4967,7 @@
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>617</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>340</v>
@@ -4975,46 +4976,42 @@
         <v>368</v>
       </c>
       <c r="H40" s="2">
-        <v>-81.015979999999999</v>
+        <v>-81.677679999999995</v>
       </c>
       <c r="I40" s="2">
-        <v>37.42163</v>
+        <v>38.372869999999999</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L40" s="38">
-        <v>2391</v>
-      </c>
-      <c r="M40" s="37" t="s">
-        <v>342</v>
+        <v>50000</v>
+      </c>
+      <c r="M40" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N40" s="38">
         <v>24</v>
       </c>
-      <c r="O40" s="38">
-        <v>25</v>
-      </c>
-      <c r="P40" s="38">
-        <v>20</v>
-      </c>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
       <c r="Q40" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S40" s="4">
-        <v>24740</v>
+        <v>25312</v>
       </c>
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>546</v>
@@ -5026,7 +5023,7 @@
         <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>34</v>
@@ -5035,10 +5032,10 @@
         <v>368</v>
       </c>
       <c r="H41" s="2">
-        <v>-79.905010000000004</v>
+        <v>-79.867609999999999</v>
       </c>
       <c r="I41" s="2">
-        <v>39.610210000000002</v>
+        <v>39.652670000000001</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>231</v>
@@ -5047,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="37">
-        <v>579</v>
+        <v>830</v>
       </c>
       <c r="M41" s="37" t="s">
         <v>337</v>
@@ -5070,10 +5067,10 @@
     </row>
     <row r="42" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>351</v>
@@ -5082,19 +5079,19 @@
         <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H42" s="2">
-        <v>-79.867609999999999</v>
+        <v>-79.945801900000006</v>
       </c>
       <c r="I42" s="2">
-        <v>39.652670000000001</v>
+        <v>39.6362083</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>231</v>
@@ -5103,16 +5100,20 @@
         <v>11</v>
       </c>
       <c r="L42" s="37">
-        <v>830</v>
+        <v>567</v>
       </c>
       <c r="M42" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N42" s="37">
-        <v>8</v>
-      </c>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O42" s="37">
+        <v>25</v>
+      </c>
+      <c r="P42" s="37">
+        <v>30</v>
+      </c>
       <c r="Q42" s="2" t="s">
         <v>347</v>
       </c>
@@ -5120,13 +5121,15 @@
         <v>20</v>
       </c>
       <c r="S42" s="4">
-        <v>26508</v>
-      </c>
-      <c r="T42" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>545</v>
@@ -5138,7 +5141,7 @@
         <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>19</v>
@@ -5147,10 +5150,10 @@
         <v>368</v>
       </c>
       <c r="H43" s="2">
-        <v>-79.945801900000006</v>
+        <v>-79.953093199999998</v>
       </c>
       <c r="I43" s="2">
-        <v>39.6362083</v>
+        <v>39.636423100000002</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>231</v>
@@ -5159,7 +5162,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="37">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="M43" s="37" t="s">
         <v>337</v>
@@ -5183,12 +5186,12 @@
         <v>26505</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>545</v>
@@ -5200,7 +5203,7 @@
         <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>19</v>
@@ -5209,10 +5212,10 @@
         <v>368</v>
       </c>
       <c r="H44" s="2">
-        <v>-79.953093199999998</v>
+        <v>-80.000420899999995</v>
       </c>
       <c r="I44" s="2">
-        <v>39.636423100000002</v>
+        <v>39.6535571</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>231</v>
@@ -5221,7 +5224,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="37">
-        <v>639</v>
+        <v>912</v>
       </c>
       <c r="M44" s="37" t="s">
         <v>337</v>
@@ -5245,12 +5248,12 @@
         <v>26505</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>545</v>
@@ -5262,19 +5265,19 @@
         <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H45" s="2">
-        <v>-80.000420899999995</v>
+        <v>-79.972157499999994</v>
       </c>
       <c r="I45" s="2">
-        <v>39.6535571</v>
+        <v>39.650096900000001</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>231</v>
@@ -5282,9 +5285,7 @@
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="37">
-        <v>912</v>
-      </c>
+      <c r="L45" s="37"/>
       <c r="M45" s="37" t="s">
         <v>337</v>
       </c>
@@ -5307,12 +5308,12 @@
         <v>26505</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>545</v>
@@ -5324,19 +5325,19 @@
         <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H46" s="2">
-        <v>-79.972157499999994</v>
+        <v>-79.956234100000003</v>
       </c>
       <c r="I46" s="2">
-        <v>39.650096900000001</v>
+        <v>39.667909799999997</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>231</v>
@@ -5367,12 +5368,12 @@
         <v>26505</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>545</v>
@@ -5384,7 +5385,7 @@
         <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>19</v>
@@ -5393,10 +5394,10 @@
         <v>368</v>
       </c>
       <c r="H47" s="2">
-        <v>-79.956234100000003</v>
+        <v>-79.956204600000007</v>
       </c>
       <c r="I47" s="2">
-        <v>39.667909799999997</v>
+        <v>39.668112200000003</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>231</v>
@@ -5427,15 +5428,15 @@
         <v>26505</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>351</v>
@@ -5444,38 +5445,40 @@
         <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H48" s="2">
-        <v>-79.956204600000007</v>
-      </c>
-      <c r="I48" s="2">
-        <v>39.668112200000003</v>
+        <v>-80.598290000000006</v>
+      </c>
+      <c r="I48" s="36">
+        <v>40.325800000000001</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="37"/>
+        <v>122</v>
+      </c>
+      <c r="L48" s="38">
+        <v>6468</v>
+      </c>
       <c r="M48" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N48" s="37">
-        <v>48</v>
-      </c>
-      <c r="O48" s="37">
+      <c r="N48" s="38">
+        <v>24</v>
+      </c>
+      <c r="O48" s="38">
         <v>25</v>
       </c>
-      <c r="P48" s="37">
-        <v>30</v>
+      <c r="P48" s="38">
+        <v>20</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>347</v>
@@ -5484,18 +5487,12 @@
         <v>20</v>
       </c>
       <c r="S48" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>43</v>
+        <v>26037</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>552</v>
+        <v>235</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>351</v>
@@ -5504,28 +5501,28 @@
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H49" s="2">
-        <v>-80.598290000000006</v>
+        <v>-79.515240000000006</v>
       </c>
       <c r="I49" s="36">
-        <v>40.325800000000001</v>
+        <v>39.66807</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="L49" s="38">
-        <v>6468</v>
+        <v>1948</v>
       </c>
       <c r="M49" s="37" t="s">
         <v>337</v>
@@ -5533,12 +5530,8 @@
       <c r="N49" s="38">
         <v>24</v>
       </c>
-      <c r="O49" s="38">
-        <v>25</v>
-      </c>
-      <c r="P49" s="38">
-        <v>20</v>
-      </c>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
       <c r="Q49" s="2" t="s">
         <v>347</v>
       </c>
@@ -5546,12 +5539,15 @@
         <v>20</v>
       </c>
       <c r="S49" s="4">
-        <v>26037</v>
+        <v>26525</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>235</v>
+        <v>192</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>351</v>
@@ -5560,37 +5556,41 @@
         <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H50" s="2">
-        <v>-79.515240000000006</v>
-      </c>
-      <c r="I50" s="36">
-        <v>39.66807</v>
+        <v>-79.956762600000005</v>
+      </c>
+      <c r="I50" s="2">
+        <v>39.637875299999997</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" s="38">
-        <v>1948</v>
+        <v>11</v>
+      </c>
+      <c r="L50" s="37">
+        <v>874</v>
       </c>
       <c r="M50" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N50" s="38">
-        <v>24</v>
-      </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
+      <c r="N50" s="37">
+        <v>48</v>
+      </c>
+      <c r="O50" s="37">
+        <v>25</v>
+      </c>
+      <c r="P50" s="37">
+        <v>30</v>
+      </c>
       <c r="Q50" s="2" t="s">
         <v>347</v>
       </c>
@@ -5598,12 +5598,15 @@
         <v>20</v>
       </c>
       <c r="S50" s="4">
-        <v>26525</v>
+        <v>26505</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>545</v>
@@ -5615,19 +5618,19 @@
         <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H51" s="2">
-        <v>-79.956762600000005</v>
+        <v>-79.955122099999997</v>
       </c>
       <c r="I51" s="2">
-        <v>39.637875299999997</v>
+        <v>39.669188599999998</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>231</v>
@@ -5635,9 +5638,7 @@
       <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="37">
-        <v>874</v>
-      </c>
+      <c r="L51" s="37"/>
       <c r="M51" s="37" t="s">
         <v>337</v>
       </c>
@@ -5660,12 +5661,12 @@
         <v>26505</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>545</v>
@@ -5677,7 +5678,7 @@
         <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>19</v>
@@ -5686,10 +5687,10 @@
         <v>368</v>
       </c>
       <c r="H52" s="2">
-        <v>-79.955122099999997</v>
+        <v>-79.955245399999995</v>
       </c>
       <c r="I52" s="2">
-        <v>39.669188599999998</v>
+        <v>39.669279500000002</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>231</v>
@@ -5720,15 +5721,15 @@
         <v>26505</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>351</v>
@@ -5737,19 +5738,19 @@
         <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H53" s="2">
-        <v>-79.955245399999995</v>
+        <v>-79.957359999999994</v>
       </c>
       <c r="I53" s="2">
-        <v>39.669279500000002</v>
+        <v>39.625419999999998</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>231</v>
@@ -5757,19 +5758,17 @@
       <c r="K53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="37"/>
+      <c r="L53" s="37">
+        <v>1851</v>
+      </c>
       <c r="M53" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N53" s="37">
-        <v>48</v>
-      </c>
-      <c r="O53" s="37">
-        <v>25</v>
-      </c>
-      <c r="P53" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
       <c r="Q53" s="2" t="s">
         <v>347</v>
       </c>
@@ -5777,15 +5776,12 @@
         <v>20</v>
       </c>
       <c r="S53" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>45</v>
+        <v>26501</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>546</v>
@@ -5797,7 +5793,7 @@
         <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>34</v>
@@ -5806,10 +5802,10 @@
         <v>368</v>
       </c>
       <c r="H54" s="2">
-        <v>-79.957359999999994</v>
+        <v>-79.943309999999997</v>
       </c>
       <c r="I54" s="2">
-        <v>39.625419999999998</v>
+        <v>39.61036</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>231</v>
@@ -5818,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="37">
-        <v>1851</v>
+        <v>726</v>
       </c>
       <c r="M54" s="37" t="s">
         <v>337</v>
@@ -5840,10 +5836,10 @@
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>351</v>
@@ -5852,19 +5848,19 @@
         <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H55" s="2">
-        <v>-79.943309999999997</v>
+        <v>-79.965769100000003</v>
       </c>
       <c r="I55" s="2">
-        <v>39.61036</v>
+        <v>39.672765599999998</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>231</v>
@@ -5872,17 +5868,19 @@
       <c r="K55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="37">
-        <v>726</v>
-      </c>
+      <c r="L55" s="37"/>
       <c r="M55" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N55" s="37">
-        <v>8</v>
-      </c>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O55" s="37">
+        <v>25</v>
+      </c>
+      <c r="P55" s="37">
+        <v>30</v>
+      </c>
       <c r="Q55" s="2" t="s">
         <v>347</v>
       </c>
@@ -5890,12 +5888,15 @@
         <v>20</v>
       </c>
       <c r="S55" s="4">
-        <v>26501</v>
+        <v>26505</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>545</v>
@@ -5907,19 +5908,19 @@
         <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H56" s="2">
-        <v>-79.965769100000003</v>
+        <v>-79.956739999999996</v>
       </c>
       <c r="I56" s="2">
-        <v>39.672765599999998</v>
+        <v>39.660640000000001</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>231</v>
@@ -5927,19 +5928,17 @@
       <c r="K56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="37"/>
+      <c r="L56" s="37">
+        <v>688</v>
+      </c>
       <c r="M56" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N56" s="37">
-        <v>48</v>
-      </c>
-      <c r="O56" s="37">
-        <v>25</v>
-      </c>
-      <c r="P56" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
       <c r="Q56" s="2" t="s">
         <v>347</v>
       </c>
@@ -5949,13 +5948,10 @@
       <c r="S56" s="4">
         <v>26505</v>
       </c>
-      <c r="T56" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>36</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>545</v>
@@ -5967,19 +5963,19 @@
         <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H57" s="2">
-        <v>-79.956739999999996</v>
+        <v>-79.953202899999994</v>
       </c>
       <c r="I57" s="2">
-        <v>39.660640000000001</v>
+        <v>39.633116399999999</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>231</v>
@@ -5987,17 +5983,19 @@
       <c r="K57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="37">
-        <v>688</v>
-      </c>
+      <c r="L57" s="37"/>
       <c r="M57" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N57" s="37">
-        <v>8</v>
-      </c>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O57" s="37">
+        <v>25</v>
+      </c>
+      <c r="P57" s="37">
+        <v>30</v>
+      </c>
       <c r="Q57" s="2" t="s">
         <v>347</v>
       </c>
@@ -6007,11 +6005,13 @@
       <c r="S57" s="4">
         <v>26505</v>
       </c>
-      <c r="T57" s="2"/>
+      <c r="T57" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>339</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>545</v>
@@ -6023,7 +6023,7 @@
         <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>19</v>
@@ -6032,10 +6032,10 @@
         <v>369</v>
       </c>
       <c r="H58" s="2">
-        <v>-79.953202899999994</v>
+        <v>-79.962211800000006</v>
       </c>
       <c r="I58" s="2">
-        <v>39.633116399999999</v>
+        <v>39.6511596</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>231</v>
@@ -6043,7 +6043,9 @@
       <c r="K58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="37"/>
+      <c r="L58" s="37">
+        <v>862</v>
+      </c>
       <c r="M58" s="37" t="s">
         <v>337</v>
       </c>
@@ -6066,16 +6068,14 @@
         <v>26505</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>545</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>351</v>
       </c>
@@ -6083,59 +6083,55 @@
         <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H59" s="2">
-        <v>-79.962211800000006</v>
-      </c>
-      <c r="I59" s="2">
-        <v>39.6511596</v>
+        <v>-79.127250000000004</v>
+      </c>
+      <c r="I59" s="36">
+        <v>38.99091</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="37">
-        <v>862</v>
-      </c>
-      <c r="M59" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N59" s="37">
-        <v>48</v>
-      </c>
-      <c r="O59" s="37">
-        <v>25</v>
-      </c>
-      <c r="P59" s="37">
-        <v>30</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L59" s="38">
+        <v>2700</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="N59" s="38">
+        <v>24</v>
+      </c>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
       <c r="Q59" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S59" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>26847</v>
+      </c>
+      <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>351</v>
       </c>
@@ -6143,51 +6139,57 @@
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H60" s="2">
-        <v>-79.127250000000004</v>
-      </c>
-      <c r="I60" s="36">
-        <v>38.99091</v>
+        <v>-79.956140000000005</v>
+      </c>
+      <c r="I60" s="2">
+        <v>39.639200000000002</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L60" s="38">
-        <v>2700</v>
-      </c>
-      <c r="M60" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="N60" s="38">
-        <v>24</v>
-      </c>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
+        <v>11</v>
+      </c>
+      <c r="L60" s="37">
+        <v>474</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N60" s="37">
+        <v>48</v>
+      </c>
+      <c r="O60" s="37">
+        <v>25</v>
+      </c>
+      <c r="P60" s="37">
+        <v>30</v>
+      </c>
       <c r="Q60" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S60" s="4">
-        <v>26847</v>
-      </c>
-      <c r="T60" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>545</v>
@@ -6195,43 +6197,37 @@
       <c r="C61" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D61" s="40" t="s">
-        <v>60</v>
+      <c r="D61" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>185</v>
+        <v>472</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H61" s="2">
-        <v>-79.956140000000005</v>
-      </c>
-      <c r="I61" s="2">
-        <v>39.639200000000002</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="37">
-        <v>474</v>
-      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N61" s="37">
-        <v>48</v>
-      </c>
-      <c r="O61" s="37">
+        <v>12</v>
+      </c>
+      <c r="O61" s="38">
         <v>25</v>
       </c>
-      <c r="P61" s="37">
+      <c r="P61" s="38">
         <v>30</v>
       </c>
       <c r="Q61" s="2" t="s">
@@ -6243,13 +6239,11 @@
       <c r="S61" s="4">
         <v>26505</v>
       </c>
-      <c r="T61" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>545</v>
@@ -6257,11 +6251,11 @@
       <c r="C62" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D62" s="40" t="s">
-        <v>60</v>
+      <c r="D62" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>341</v>
@@ -6303,7 +6297,7 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>545</v>
@@ -6311,11 +6305,11 @@
       <c r="C63" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D63" s="40" t="s">
-        <v>60</v>
+      <c r="D63" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>341</v>
@@ -6357,7 +6351,7 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>545</v>
@@ -6365,11 +6359,11 @@
       <c r="C64" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>60</v>
+      <c r="D64" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>341</v>
@@ -6411,10 +6405,10 @@
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>467</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>351</v>
@@ -6423,34 +6417,40 @@
         <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="2"/>
+      <c r="H65" s="2">
+        <v>-81.205110000000005</v>
+      </c>
+      <c r="I65" s="36">
+        <v>39.391249999999999</v>
+      </c>
       <c r="J65" s="2" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="L65" s="38">
+        <v>2892</v>
+      </c>
       <c r="M65" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N65" s="37">
-        <v>12</v>
+      <c r="N65" s="38">
+        <v>24</v>
       </c>
       <c r="O65" s="38">
         <v>25</v>
       </c>
       <c r="P65" s="38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>347</v>
@@ -6459,16 +6459,16 @@
         <v>20</v>
       </c>
       <c r="S65" s="4">
-        <v>26505</v>
+        <v>26170</v>
       </c>
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>351</v>
@@ -6477,41 +6477,37 @@
         <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H66" s="2">
-        <v>-81.205110000000005</v>
-      </c>
-      <c r="I66" s="36">
-        <v>39.391249999999999</v>
+        <v>-79.978250000000003</v>
+      </c>
+      <c r="I66" s="2">
+        <v>39.671370000000003</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" s="38">
-        <v>2892</v>
+        <v>11</v>
+      </c>
+      <c r="L66" s="37">
+        <v>515</v>
       </c>
       <c r="M66" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N66" s="38">
-        <v>24</v>
-      </c>
-      <c r="O66" s="38">
-        <v>25</v>
-      </c>
-      <c r="P66" s="38">
-        <v>20</v>
-      </c>
+      <c r="N66" s="37">
+        <v>8</v>
+      </c>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
       <c r="Q66" s="2" t="s">
         <v>347</v>
       </c>
@@ -6519,16 +6515,16 @@
         <v>20</v>
       </c>
       <c r="S66" s="4">
-        <v>26170</v>
+        <v>26505</v>
       </c>
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>351</v>
@@ -6537,19 +6533,19 @@
         <v>60</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H67" s="2">
-        <v>-79.978250000000003</v>
+        <v>-79.966336100000007</v>
       </c>
       <c r="I67" s="2">
-        <v>39.671370000000003</v>
+        <v>39.649548899999999</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>231</v>
@@ -6558,16 +6554,20 @@
         <v>11</v>
       </c>
       <c r="L67" s="37">
-        <v>515</v>
+        <v>904</v>
       </c>
       <c r="M67" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N67" s="37">
-        <v>8</v>
-      </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O67" s="37">
+        <v>25</v>
+      </c>
+      <c r="P67" s="37">
+        <v>30</v>
+      </c>
       <c r="Q67" s="2" t="s">
         <v>347</v>
       </c>
@@ -6577,14 +6577,16 @@
       <c r="S67" s="4">
         <v>26505</v>
       </c>
-      <c r="T67" s="2"/>
+      <c r="T67" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>351</v>
@@ -6593,19 +6595,19 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H68" s="2">
-        <v>-79.966336100000007</v>
+        <v>-79.926150000000007</v>
       </c>
       <c r="I68" s="2">
-        <v>39.649548899999999</v>
+        <v>39.687820000000002</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>231</v>
@@ -6614,20 +6616,16 @@
         <v>11</v>
       </c>
       <c r="L68" s="37">
-        <v>904</v>
+        <v>1310</v>
       </c>
       <c r="M68" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N68" s="37">
-        <v>48</v>
-      </c>
-      <c r="O68" s="37">
-        <v>25</v>
-      </c>
-      <c r="P68" s="37">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
       <c r="Q68" s="2" t="s">
         <v>347</v>
       </c>
@@ -6635,18 +6633,16 @@
         <v>20</v>
       </c>
       <c r="S68" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>26508</v>
+      </c>
+      <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>351</v>
@@ -6655,19 +6651,19 @@
         <v>60</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H69" s="2">
-        <v>-79.926150000000007</v>
+        <v>-79.956755900000005</v>
       </c>
       <c r="I69" s="2">
-        <v>39.687820000000002</v>
+        <v>39.640189999999997</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>231</v>
@@ -6675,17 +6671,19 @@
       <c r="K69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="37">
-        <v>1310</v>
-      </c>
+      <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N69" s="37">
-        <v>8</v>
-      </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="O69" s="37">
+        <v>25</v>
+      </c>
+      <c r="P69" s="37">
+        <v>30</v>
+      </c>
       <c r="Q69" s="2" t="s">
         <v>347</v>
       </c>
@@ -6693,16 +6691,18 @@
         <v>20</v>
       </c>
       <c r="S69" s="4">
-        <v>26508</v>
-      </c>
-      <c r="T69" s="2"/>
+        <v>26505</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>351</v>
@@ -6711,38 +6711,40 @@
         <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H70" s="2">
-        <v>-79.956755900000005</v>
+        <v>-80.459909999999994</v>
       </c>
       <c r="I70" s="2">
-        <v>39.640189999999997</v>
+        <v>39.062240000000003</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="37"/>
+        <v>9</v>
+      </c>
+      <c r="L70" s="38">
+        <v>10364</v>
+      </c>
       <c r="M70" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N70" s="37">
-        <v>48</v>
-      </c>
-      <c r="O70" s="37">
+      <c r="N70" s="38">
+        <v>24</v>
+      </c>
+      <c r="O70" s="38">
         <v>25</v>
       </c>
-      <c r="P70" s="37">
-        <v>30</v>
+      <c r="P70" s="38">
+        <v>20</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>347</v>
@@ -6751,11 +6753,9 @@
         <v>20</v>
       </c>
       <c r="S70" s="4">
-        <v>26505</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>26452</v>
+      </c>
+      <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
@@ -10417,7 +10417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5881ED24-91ED-D44B-B541-ADE5F93B4B89}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B925E-7564-E844-BB72-3B253306D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA2F519-B7A0-5E42-8FA0-5878C180322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="19780" yWindow="500" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="653">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1356,9 +1356,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -1374,9 +1371,6 @@
     <t>FF</t>
   </si>
   <si>
-    <t>GG</t>
-  </si>
-  <si>
     <t>HH</t>
   </si>
   <si>
@@ -1993,6 +1987,18 @@
   </si>
   <si>
     <t>Nanotrap concentration of raw influent and quantification by ddPCR; the only modification from major_lab_method 1 is that post-RNA extraction, three equal volumes of RNA extract are combined for ddPCR analysis, rather than being combined pre-concentration.</t>
+  </si>
+  <si>
+    <t>MoorefieldWWTP-01</t>
+  </si>
+  <si>
+    <t>V01</t>
+  </si>
+  <si>
+    <t>Moorefield</t>
+  </si>
+  <si>
+    <t>Moorefield WWTP</t>
   </si>
 </sst>
 </file>
@@ -2647,13 +2653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D61:D64"/>
+      <selection pane="bottomRight" activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,7 +2686,7 @@
         <v>191</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>349</v>
@@ -2943,7 +2949,7 @@
         <v>7000</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N5" s="34">
         <v>24</v>
@@ -2967,7 +2973,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
@@ -2977,7 +2983,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>340</v>
@@ -2992,7 +2998,7 @@
         <v>38.537901317549398</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>159</v>
@@ -3025,7 +3031,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
@@ -3035,7 +3041,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>340</v>
@@ -3095,7 +3101,7 @@
         <v>103</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>340</v>
@@ -3148,7 +3154,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>351</v>
@@ -3209,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>351</v>
@@ -3265,7 +3271,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>351</v>
@@ -3325,7 +3331,7 @@
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>351</v>
@@ -3378,10 +3384,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>351</v>
@@ -3390,7 +3396,7 @@
         <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>341</v>
@@ -3439,7 +3445,7 @@
         <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>351</v>
@@ -3499,7 +3505,7 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>351</v>
@@ -3559,7 +3565,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>351</v>
@@ -3615,7 +3621,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>351</v>
@@ -3675,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>351</v>
@@ -3735,7 +3741,7 @@
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>351</v>
@@ -3795,7 +3801,7 @@
         <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>351</v>
@@ -3855,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>351</v>
@@ -3910,7 +3916,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>351</v>
@@ -3966,7 +3972,7 @@
         <v>188</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>351</v>
@@ -4025,7 +4031,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>351</v>
@@ -4085,7 +4091,7 @@
         <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>351</v>
@@ -4144,7 +4150,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>351</v>
@@ -4200,7 +4206,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>351</v>
@@ -4260,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>351</v>
@@ -4313,10 +4319,10 @@
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>351</v>
@@ -4325,7 +4331,7 @@
         <v>103</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>340</v>
@@ -4340,7 +4346,7 @@
         <v>37.946770700000002</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>197</v>
@@ -4398,14 +4404,14 @@
         <v>38.424089000000002</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N30" s="33">
         <v>5</v>
@@ -4426,7 +4432,7 @@
         <v>25703</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4465,7 +4471,7 @@
         <v>4000</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N31" s="33">
         <v>24</v>
@@ -4486,7 +4492,7 @@
         <v>25504</v>
       </c>
       <c r="T31" s="46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -4516,14 +4522,14 @@
         <v>38.421745999999999</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K32" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N32" s="33">
         <v>5</v>
@@ -4544,7 +4550,7 @@
         <v>25703</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4662,7 +4668,7 @@
         <v>25701</v>
       </c>
       <c r="T34" s="29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -4722,7 +4728,7 @@
         <v>25537</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -4752,14 +4758,14 @@
         <v>38.422913110104098</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N36" s="33">
         <v>5</v>
@@ -4808,14 +4814,14 @@
         <v>38.423076174075902</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N37" s="33">
         <v>24</v>
@@ -4842,7 +4848,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>351</v>
@@ -4902,7 +4908,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>351</v>
@@ -4958,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>351</v>
@@ -4967,7 +4973,7 @@
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>340</v>
@@ -5014,7 +5020,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>351</v>
@@ -5070,7 +5076,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>351</v>
@@ -5132,7 +5138,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>351</v>
@@ -5194,7 +5200,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>351</v>
@@ -5256,7 +5262,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>351</v>
@@ -5316,7 +5322,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>351</v>
@@ -5376,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>351</v>
@@ -5436,7 +5442,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>351</v>
@@ -5547,7 +5553,7 @@
         <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>351</v>
@@ -5609,7 +5615,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>351</v>
@@ -5669,7 +5675,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>351</v>
@@ -5729,7 +5735,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>351</v>
@@ -5784,7 +5790,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>351</v>
@@ -5839,7 +5845,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>351</v>
@@ -5899,7 +5905,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>351</v>
@@ -5954,7 +5960,7 @@
         <v>339</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>351</v>
@@ -6014,7 +6020,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>351</v>
@@ -6130,7 +6136,7 @@
         <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>351</v>
@@ -6189,10 +6195,10 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>351</v>
@@ -6201,7 +6207,7 @@
         <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>341</v>
@@ -6243,10 +6249,10 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>351</v>
@@ -6255,7 +6261,7 @@
         <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>341</v>
@@ -6297,10 +6303,10 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>351</v>
@@ -6309,7 +6315,7 @@
         <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>341</v>
@@ -6351,10 +6357,10 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>351</v>
@@ -6363,7 +6369,7 @@
         <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>341</v>
@@ -6408,7 +6414,7 @@
         <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>351</v>
@@ -6468,7 +6474,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>351</v>
@@ -6524,7 +6530,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>351</v>
@@ -6586,7 +6592,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>351</v>
@@ -6642,7 +6648,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>351</v>
@@ -6702,7 +6708,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>351</v>
@@ -6762,7 +6768,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>351</v>
@@ -7100,7 +7106,7 @@
         <v>59</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>351</v>
@@ -7208,7 +7214,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>351</v>
@@ -7363,6 +7369,38 @@
         <v>26591</v>
       </c>
       <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B82" t="s">
+        <v>650</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T81">
@@ -7376,11 +7414,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7400,7 +7438,7 @@
         <v>230</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>229</v>
@@ -7412,7 +7450,7 @@
         <v>238</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>240</v>
@@ -7429,7 +7467,7 @@
         <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>64</v>
@@ -7441,7 +7479,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G2" s="31">
         <v>54003906001</v>
@@ -7459,7 +7497,7 @@
         <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>277</v>
@@ -7471,7 +7509,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G3" s="17">
         <v>54002701001</v>
@@ -7496,7 +7534,7 @@
         <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G4" s="31">
         <v>54000601001</v>
@@ -7523,7 +7561,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G5" s="31">
         <v>54000101001</v>
@@ -7550,7 +7588,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G6" s="31">
         <v>54003031001</v>
@@ -7577,7 +7615,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G7" s="31">
         <v>54001702001</v>
@@ -7602,7 +7640,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G8" s="31">
         <v>54002510001</v>
@@ -7619,7 +7657,7 @@
         <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>362</v>
@@ -7629,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G9" s="31">
         <v>54002003001</v>
@@ -7646,7 +7684,7 @@
         <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>282</v>
@@ -7656,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G10" s="31">
         <v>54002003001</v>
@@ -7673,7 +7711,7 @@
         <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>283</v>
@@ -7683,7 +7721,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G11" s="31">
         <v>54001901001</v>
@@ -7700,7 +7738,7 @@
         <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>306</v>
@@ -7712,7 +7750,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G12" s="31">
         <v>54003045001</v>
@@ -7729,7 +7767,7 @@
         <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>284</v>
@@ -7739,7 +7777,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G13" s="31">
         <v>54001703001</v>
@@ -7756,7 +7794,7 @@
         <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>363</v>
@@ -7766,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G14" s="31">
         <v>54002007001</v>
@@ -7783,7 +7821,7 @@
         <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>285</v>
@@ -7793,7 +7831,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G15" s="31">
         <v>54004202001</v>
@@ -7818,7 +7856,7 @@
         <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G16" s="31">
         <v>54002405001</v>
@@ -7835,7 +7873,7 @@
         <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>287</v>
@@ -7845,7 +7883,7 @@
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G17" s="31">
         <v>54002408001</v>
@@ -7862,7 +7900,7 @@
         <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>288</v>
@@ -7872,7 +7910,7 @@
         <v>122</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G18" s="17">
         <v>54000504001</v>
@@ -7889,7 +7927,7 @@
         <v>257</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>289</v>
@@ -7899,7 +7937,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G19" s="31">
         <v>54004602001</v>
@@ -7939,7 +7977,7 @@
         <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>360</v>
@@ -7951,7 +7989,7 @@
         <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G21" s="31">
         <v>54000603001</v>
@@ -7968,7 +8006,7 @@
         <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>291</v>
@@ -7978,7 +8016,7 @@
         <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G22" s="31">
         <v>54004215001</v>
@@ -7995,7 +8033,7 @@
         <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>292</v>
@@ -8005,7 +8043,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G23" s="31">
         <v>54002803001</v>
@@ -8022,7 +8060,7 @@
         <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>293</v>
@@ -8032,7 +8070,7 @@
         <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G24" s="31">
         <v>54000316001</v>
@@ -8049,7 +8087,7 @@
         <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>294</v>
@@ -8059,7 +8097,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G25" s="31">
         <v>54002415001</v>
@@ -8076,7 +8114,7 @@
         <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>295</v>
@@ -8086,7 +8124,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G26" s="31">
         <v>54002509001</v>
@@ -8103,7 +8141,7 @@
         <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>296</v>
@@ -8113,7 +8151,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G27" s="31">
         <v>54005405001</v>
@@ -8130,7 +8168,7 @@
         <v>355</v>
       </c>
       <c r="B28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>365</v>
@@ -8140,7 +8178,7 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="17">
@@ -8205,7 +8243,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G31" s="17">
         <v>54001205001</v>
@@ -8222,7 +8260,7 @@
         <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>307</v>
@@ -8232,7 +8270,7 @@
         <v>190</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G32" s="17">
         <v>54002606001</v>
@@ -8249,7 +8287,7 @@
         <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>298</v>
@@ -8259,7 +8297,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G33" s="17">
         <v>54002716001</v>
@@ -8276,7 +8314,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>299</v>
@@ -8286,7 +8324,7 @@
         <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G34" s="31">
         <v>54001710001</v>
@@ -8303,7 +8341,7 @@
         <v>370</v>
       </c>
       <c r="B35" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>372</v>
@@ -8313,7 +8351,7 @@
         <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="17">
@@ -8328,7 +8366,7 @@
         <v>371</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>373</v>
@@ -8338,7 +8376,7 @@
         <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
@@ -8361,7 +8399,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G37" s="31">
         <v>54004804001</v>
@@ -8378,7 +8416,7 @@
         <v>231</v>
       </c>
       <c r="B38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>276</v>
@@ -8390,7 +8428,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G38" s="31">
         <v>54003011001</v>
@@ -8407,7 +8445,7 @@
         <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>308</v>
@@ -8417,7 +8455,7 @@
         <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G39" s="17">
         <v>54003703001</v>
@@ -8434,7 +8472,7 @@
         <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>301</v>
@@ -8444,7 +8482,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G40" s="31">
         <v>54003203001</v>
@@ -8469,7 +8507,7 @@
         <v>122</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G41" s="31">
         <v>54000509001</v>
@@ -8486,7 +8524,7 @@
         <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>303</v>
@@ -8496,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G42" s="17">
         <v>54002102001</v>
@@ -8513,7 +8551,7 @@
         <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>309</v>
@@ -8523,7 +8561,7 @@
         <v>57</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G43" s="31">
         <v>54000901001</v>
@@ -8540,7 +8578,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>304</v>
@@ -8550,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G44" s="31">
         <v>54003508001</v>
@@ -8564,20 +8602,20 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>197</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G45" s="31">
         <v>54001022001</v>
@@ -8621,22 +8659,22 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>632</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>619</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>634</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>159</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G47" s="50"/>
       <c r="H47" s="50">
@@ -8663,6 +8701,14 @@
       <c r="Y47" s="51"/>
       <c r="Z47" s="51"/>
     </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C48" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
     <sortCondition ref="A2:A46"/>
@@ -8675,8 +8721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DED6B-84CB-6D46-B3EB-C814548CEBA4}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8695,7 +8741,7 @@
         <v>431</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>239</v>
@@ -9063,9 +9109,7 @@
       <c r="A22" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>432</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="17">
         <v>54001</v>
       </c>
@@ -9080,9 +9124,7 @@
       <c r="A23" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>433</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="17">
         <v>54003</v>
       </c>
@@ -9169,7 +9211,7 @@
         <v>197</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C28" s="17">
         <v>54019</v>
@@ -9187,7 +9229,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29" s="17">
         <v>54021</v>
@@ -9205,7 +9247,7 @@
         <v>55</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C30" s="17">
         <v>54023</v>
@@ -9222,7 +9264,7 @@
         <v>199</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C31" s="17">
         <v>54025</v>
@@ -9240,7 +9282,7 @@
         <v>200</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32" s="17">
         <v>54027</v>
@@ -9257,7 +9299,7 @@
         <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" s="17">
         <v>54029</v>
@@ -9274,7 +9316,7 @@
         <v>202</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C34" s="17">
         <v>54031</v>
@@ -9291,7 +9333,7 @@
         <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C35" s="17">
         <v>54035</v>
@@ -9308,7 +9350,7 @@
         <v>204</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C36" s="17">
         <v>54043</v>
@@ -9325,7 +9367,7 @@
         <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C37" s="17">
         <v>54045</v>
@@ -9343,7 +9385,7 @@
         <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C38" s="17">
         <v>54047</v>
@@ -9360,7 +9402,7 @@
         <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C39" s="17">
         <v>54059</v>
@@ -9377,7 +9419,7 @@
         <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C40" s="17">
         <v>54063</v>
@@ -9395,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C41" s="17">
         <v>54067</v>
@@ -9412,7 +9454,7 @@
         <v>210</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C42" s="17">
         <v>54071</v>
@@ -9429,7 +9471,7 @@
         <v>211</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C43" s="17">
         <v>54075</v>
@@ -9446,7 +9488,7 @@
         <v>159</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C44" s="17">
         <v>54079</v>
@@ -9463,7 +9505,7 @@
         <v>212</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C45" s="17">
         <v>54081</v>
@@ -9481,7 +9523,7 @@
         <v>213</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C46" s="17">
         <v>54085</v>
@@ -9499,7 +9541,7 @@
         <v>214</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C47" s="17">
         <v>54087</v>
@@ -9517,7 +9559,7 @@
         <v>215</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C48" s="17">
         <v>54089</v>
@@ -9535,7 +9577,7 @@
         <v>216</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C49" s="17">
         <v>54093</v>
@@ -9553,7 +9595,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C50" s="17">
         <v>54095</v>
@@ -9571,7 +9613,7 @@
         <v>217</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C51" s="17">
         <v>54097</v>
@@ -9589,7 +9631,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C52" s="17">
         <v>54099</v>
@@ -9607,7 +9649,7 @@
         <v>218</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C53" s="17">
         <v>54101</v>
@@ -9625,7 +9667,7 @@
         <v>219</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C54" s="17">
         <v>54103</v>
@@ -9643,7 +9685,7 @@
         <v>220</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C55" s="17">
         <v>54105</v>
@@ -9661,7 +9703,7 @@
         <v>221</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C56" s="17">
         <v>54109</v>
@@ -9763,7 +9805,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>409</v>
@@ -9783,10 +9825,10 @@
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>417</v>
@@ -9815,7 +9857,7 @@
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>399</v>
@@ -9836,7 +9878,7 @@
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>400</v>
@@ -9856,10 +9898,10 @@
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>416</v>
@@ -9913,10 +9955,10 @@
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>417</v>
@@ -9925,12 +9967,12 @@
         <v>382</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>395</v>
@@ -9950,7 +9992,7 @@
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>398</v>
@@ -9991,7 +10033,7 @@
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>403</v>
@@ -10011,7 +10053,7 @@
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>407</v>
@@ -10032,7 +10074,7 @@
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>391</v>
@@ -10072,10 +10114,10 @@
     </row>
     <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>417</v>
@@ -10089,10 +10131,10 @@
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>417</v>
@@ -10106,10 +10148,10 @@
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>417</v>
@@ -10123,10 +10165,10 @@
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>417</v>
@@ -10262,23 +10304,23 @@
         <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10294,31 +10336,31 @@
         <v>386</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10326,7 +10368,7 @@
         <v>393</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10334,7 +10376,7 @@
         <v>393</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10342,12 +10384,12 @@
         <v>393</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>323</v>
@@ -10355,42 +10397,42 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10429,10 +10471,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -10440,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -10448,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10468,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -10476,7 +10518,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B925E-7564-E844-BB72-3B253306D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA468563-08FF-834B-9CC4-BAF89E358689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="652">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1993,6 +1993,9 @@
   </si>
   <si>
     <t>Nanotrap concentration of raw influent and quantification by ddPCR; the only modification from major_lab_method 1 is that post-RNA extraction, three equal volumes of RNA extract are combined for ddPCR analysis, rather than being combined pre-concentration.</t>
+  </si>
+  <si>
+    <t>huNovGI</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9704,11 +9707,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9971,10 +9974,10 @@
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>389</v>
+        <v>644</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>412</v>
+        <v>651</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>416</v>
@@ -9991,51 +9994,50 @@
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>416</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>416</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F16" s="25" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>593</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>391</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>416</v>
@@ -10044,18 +10046,19 @@
         <v>381</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F17" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>415</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>416</v>
@@ -10067,32 +10070,35 @@
         <v>382</v>
       </c>
       <c r="F18" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>594</v>
-      </c>
       <c r="B19" s="25" t="s">
-        <v>603</v>
+        <v>415</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="F19" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>417</v>
@@ -10104,12 +10110,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>417</v>
@@ -10121,12 +10127,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>417</v>
@@ -10138,32 +10144,49 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>393</v>
+        <v>597</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>393</v>
+        <v>605</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="F23" s="25" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
+    <row r="40" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA468563-08FF-834B-9CC4-BAF89E358689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A5CFF-A093-CD45-BF2F-CFF979B15785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="51960" yWindow="4820" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="625">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1344,105 +1344,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>UU</t>
-  </si>
-  <si>
-    <t>VV</t>
-  </si>
-  <si>
-    <t>WW</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>YY</t>
-  </si>
-  <si>
-    <t>ZZ</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
     <t>StadiumSW-01</t>
   </si>
   <si>
@@ -1996,6 +1897,24 @@
   </si>
   <si>
     <t>huNovGI</t>
+  </si>
+  <si>
+    <t>MoorefieldWWTP-01</t>
+  </si>
+  <si>
+    <t>Moorefield</t>
+  </si>
+  <si>
+    <t>MoorefieldWWTP</t>
+  </si>
+  <si>
+    <t>Moorefield WWTP</t>
+  </si>
+  <si>
+    <t>V01</t>
+  </si>
+  <si>
+    <t>54029-001-01-00-00</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +1924,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2158,6 +2077,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2204,7 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2329,6 +2253,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2650,13 +2586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D61:D64"/>
+      <selection pane="bottomRight" activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2619,7 @@
         <v>191</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>349</v>
@@ -2946,7 +2882,7 @@
         <v>7000</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N5" s="34">
         <v>24</v>
@@ -2970,7 +2906,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
@@ -2980,7 +2916,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>340</v>
@@ -2995,7 +2931,7 @@
         <v>38.537901317549398</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>159</v>
@@ -3028,7 +2964,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
@@ -3038,7 +2974,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>340</v>
@@ -3098,7 +3034,7 @@
         <v>103</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>340</v>
@@ -3151,7 +3087,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>351</v>
@@ -3212,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>351</v>
@@ -3268,7 +3204,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>351</v>
@@ -3328,7 +3264,7 @@
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>351</v>
@@ -3381,10 +3317,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>351</v>
@@ -3393,7 +3329,7 @@
         <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>341</v>
@@ -3442,7 +3378,7 @@
         <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>351</v>
@@ -3502,7 +3438,7 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>351</v>
@@ -3562,7 +3498,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>351</v>
@@ -3618,7 +3554,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>351</v>
@@ -3678,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>351</v>
@@ -3738,7 +3674,7 @@
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>351</v>
@@ -3798,7 +3734,7 @@
         <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>351</v>
@@ -3858,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>351</v>
@@ -3913,7 +3849,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>351</v>
@@ -3969,7 +3905,7 @@
         <v>188</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>351</v>
@@ -4028,7 +3964,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>351</v>
@@ -4088,7 +4024,7 @@
         <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>351</v>
@@ -4147,7 +4083,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>351</v>
@@ -4203,7 +4139,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>351</v>
@@ -4263,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>351</v>
@@ -4316,10 +4252,10 @@
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>351</v>
@@ -4328,7 +4264,7 @@
         <v>103</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>340</v>
@@ -4343,7 +4279,7 @@
         <v>37.946770700000002</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>197</v>
@@ -4401,14 +4337,14 @@
         <v>38.424089000000002</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="33" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N30" s="33">
         <v>5</v>
@@ -4429,7 +4365,7 @@
         <v>25703</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4468,7 +4404,7 @@
         <v>4000</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N31" s="33">
         <v>24</v>
@@ -4489,7 +4425,7 @@
         <v>25504</v>
       </c>
       <c r="T31" s="46" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -4519,14 +4455,14 @@
         <v>38.421745999999999</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="K32" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="33" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N32" s="33">
         <v>5</v>
@@ -4547,7 +4483,7 @@
         <v>25703</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4665,7 +4601,7 @@
         <v>25701</v>
       </c>
       <c r="T34" s="29" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -4725,7 +4661,7 @@
         <v>25537</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -4755,14 +4691,14 @@
         <v>38.422913110104098</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="34" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N36" s="33">
         <v>5</v>
@@ -4811,14 +4747,14 @@
         <v>38.423076174075902</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N37" s="33">
         <v>24</v>
@@ -4845,7 +4781,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>351</v>
@@ -4905,7 +4841,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>351</v>
@@ -4961,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>351</v>
@@ -4970,7 +4906,7 @@
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>340</v>
@@ -5017,7 +4953,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>351</v>
@@ -5073,7 +5009,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>351</v>
@@ -5135,7 +5071,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>351</v>
@@ -5197,7 +5133,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>351</v>
@@ -5259,7 +5195,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>351</v>
@@ -5319,7 +5255,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>351</v>
@@ -5379,7 +5315,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>351</v>
@@ -5439,7 +5375,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>351</v>
@@ -5550,7 +5486,7 @@
         <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>351</v>
@@ -5612,7 +5548,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>351</v>
@@ -5672,7 +5608,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>351</v>
@@ -5732,7 +5668,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>351</v>
@@ -5787,7 +5723,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>351</v>
@@ -5842,7 +5778,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>351</v>
@@ -5902,7 +5838,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>351</v>
@@ -5957,7 +5893,7 @@
         <v>339</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>351</v>
@@ -6017,7 +5953,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>351</v>
@@ -6133,7 +6069,7 @@
         <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>351</v>
@@ -6192,10 +6128,10 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>351</v>
@@ -6204,7 +6140,7 @@
         <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>341</v>
@@ -6246,10 +6182,10 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>351</v>
@@ -6258,7 +6194,7 @@
         <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>341</v>
@@ -6300,10 +6236,10 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>351</v>
@@ -6312,7 +6248,7 @@
         <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>341</v>
@@ -6354,10 +6290,10 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>351</v>
@@ -6366,7 +6302,7 @@
         <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>341</v>
@@ -6411,7 +6347,7 @@
         <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>351</v>
@@ -6471,7 +6407,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>351</v>
@@ -6527,7 +6463,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>351</v>
@@ -6589,7 +6525,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>351</v>
@@ -6645,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>351</v>
@@ -6705,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>351</v>
@@ -6765,7 +6701,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>351</v>
@@ -7103,7 +7039,7 @@
         <v>59</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>351</v>
@@ -7211,7 +7147,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>351</v>
@@ -7366,6 +7302,50 @@
         <v>26591</v>
       </c>
       <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" t="s">
+        <v>623</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H82" s="2">
+        <v>-78.955160000000006</v>
+      </c>
+      <c r="I82" s="2">
+        <v>39.115929999999999</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L82" s="38">
+        <v>3510</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S82" s="1">
+        <v>26836</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T81">
@@ -7379,16 +7359,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="5" width="23.83203125" customWidth="1"/>
@@ -7403,7 +7383,7 @@
         <v>230</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>229</v>
@@ -7415,7 +7395,7 @@
         <v>238</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>240</v>
@@ -7432,7 +7412,7 @@
         <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>64</v>
@@ -7444,7 +7424,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="G2" s="31">
         <v>54003906001</v>
@@ -7462,7 +7442,7 @@
         <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>277</v>
@@ -7474,7 +7454,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="G3" s="17">
         <v>54002701001</v>
@@ -7499,7 +7479,7 @@
         <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="G4" s="31">
         <v>54000601001</v>
@@ -7526,7 +7506,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="G5" s="31">
         <v>54000101001</v>
@@ -7553,7 +7533,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="G6" s="31">
         <v>54003031001</v>
@@ -7580,7 +7560,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="G7" s="31">
         <v>54001702001</v>
@@ -7605,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="G8" s="31">
         <v>54002510001</v>
@@ -7622,7 +7602,7 @@
         <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>362</v>
@@ -7632,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="G9" s="31">
         <v>54002003001</v>
@@ -7649,7 +7629,7 @@
         <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>282</v>
@@ -7659,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="G10" s="31">
         <v>54002003001</v>
@@ -7676,7 +7656,7 @@
         <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>283</v>
@@ -7686,7 +7666,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="G11" s="31">
         <v>54001901001</v>
@@ -7703,7 +7683,7 @@
         <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>306</v>
@@ -7715,7 +7695,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G12" s="31">
         <v>54003045001</v>
@@ -7732,7 +7712,7 @@
         <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>284</v>
@@ -7742,7 +7722,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="G13" s="31">
         <v>54001703001</v>
@@ -7759,7 +7739,7 @@
         <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>363</v>
@@ -7769,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="G14" s="31">
         <v>54002007001</v>
@@ -7786,7 +7766,7 @@
         <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>285</v>
@@ -7796,7 +7776,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="G15" s="31">
         <v>54004202001</v>
@@ -7821,7 +7801,7 @@
         <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="G16" s="31">
         <v>54002405001</v>
@@ -7838,7 +7818,7 @@
         <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>287</v>
@@ -7848,7 +7828,7 @@
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="G17" s="31">
         <v>54002408001</v>
@@ -7865,7 +7845,7 @@
         <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>288</v>
@@ -7875,7 +7855,7 @@
         <v>122</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="G18" s="17">
         <v>54000504001</v>
@@ -7892,7 +7872,7 @@
         <v>257</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>289</v>
@@ -7902,7 +7882,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="G19" s="31">
         <v>54004602001</v>
@@ -7938,240 +7918,246 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" t="s">
-        <v>517</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" t="s">
-        <v>538</v>
-      </c>
-      <c r="G21" s="31">
-        <v>54000603001</v>
-      </c>
-      <c r="H21" s="17">
-        <v>17</v>
-      </c>
-      <c r="I21" s="17">
-        <v>56000</v>
+      <c r="A21" s="50" t="s">
+        <v>599</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>600</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="52">
+        <v>3500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>360</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>361</v>
+      </c>
       <c r="E22" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>490</v>
+        <v>182</v>
+      </c>
+      <c r="F22" t="s">
+        <v>505</v>
       </c>
       <c r="G22" s="31">
-        <v>54004215001</v>
+        <v>54000603001</v>
       </c>
       <c r="H22" s="17">
-        <v>0.41</v>
-      </c>
-      <c r="I22" s="30">
-        <v>2101</v>
+        <v>17</v>
+      </c>
+      <c r="I22" s="17">
+        <v>56000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="G23" s="31">
-        <v>54002803001</v>
+        <v>54004215001</v>
       </c>
       <c r="H23" s="17">
-        <v>2.4</v>
+        <v>0.41</v>
       </c>
       <c r="I23" s="30">
-        <v>8168</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="G24" s="31">
-        <v>54000316001</v>
+        <v>54002803001</v>
       </c>
       <c r="H24" s="17">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="I24" s="30">
-        <v>4555</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="G25" s="31">
-        <v>54002415001</v>
+        <v>54000316001</v>
       </c>
       <c r="H25" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="30">
-        <v>1091</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="G26" s="31">
-        <v>54002509001</v>
+        <v>54002415001</v>
       </c>
       <c r="H26" s="17">
-        <v>2.34</v>
+        <v>0.25</v>
       </c>
       <c r="I26" s="30">
-        <v>12000</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="G27" s="31">
-        <v>54005405001</v>
+        <v>54002509001</v>
       </c>
       <c r="H27" s="17">
-        <v>15.5</v>
+        <v>2.34</v>
       </c>
       <c r="I27" s="30">
-        <v>48050</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" t="s">
-        <v>539</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G28" s="31">
+        <v>54005405001</v>
+      </c>
       <c r="H28" s="17">
-        <v>2.16</v>
-      </c>
-      <c r="I28" s="17">
-        <v>7000</v>
+        <v>15.5</v>
+      </c>
+      <c r="I28" s="30">
+        <v>48050</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="B29" s="17"/>
+        <v>355</v>
+      </c>
+      <c r="B29" t="s">
+        <v>491</v>
+      </c>
       <c r="C29" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" t="s">
+        <v>506</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="17">
-        <v>0.125</v>
+        <v>2.16</v>
       </c>
       <c r="I29" s="17">
-        <v>1000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -8182,437 +8168,435 @@
       <c r="C30" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17">
         <v>0.125</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="17">
         <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>366</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="G31" s="17">
-        <v>54001205001</v>
-      </c>
-      <c r="H31" s="17">
-        <v>1.35</v>
-      </c>
-      <c r="I31" s="30">
-        <v>2700</v>
+        <v>157</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" t="s">
-        <v>525</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>495</v>
+        <v>55</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="G32" s="17">
-        <v>54002606001</v>
+        <v>54001205001</v>
       </c>
       <c r="H32" s="17">
-        <v>0.7</v>
+        <v>1.35</v>
       </c>
       <c r="I32" s="30">
-        <v>5515</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="G33" s="17">
-        <v>54002716001</v>
+        <v>54002606001</v>
       </c>
       <c r="H33" s="17">
-        <v>4.9000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="I33" s="30">
-        <v>36000</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="G34" s="31">
-        <v>54001710001</v>
+        <v>463</v>
+      </c>
+      <c r="G34" s="17">
+        <v>54002716001</v>
       </c>
       <c r="H34" s="17">
-        <v>0.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I34" s="30">
-        <v>1853</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" t="s">
-        <v>540</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G35" s="31">
+        <v>54001710001</v>
+      </c>
       <c r="H35" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="I35" s="17">
-        <v>7200</v>
+        <v>0.4</v>
+      </c>
+      <c r="I35" s="30">
+        <v>1853</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>540</v>
-      </c>
-      <c r="G36" s="17"/>
+        <v>507</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="I36" s="17">
-        <v>4050</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="17"/>
+        <v>371</v>
+      </c>
+      <c r="B37" t="s">
+        <v>496</v>
+      </c>
       <c r="C37" s="17" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="G37" s="31">
-        <v>54004804001</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F37" t="s">
+        <v>507</v>
+      </c>
+      <c r="G37" s="17"/>
       <c r="H37" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="I37" s="30">
-        <v>1800</v>
+        <v>0.7</v>
+      </c>
+      <c r="I37" s="17">
+        <v>4050</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" t="s">
-        <v>530</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>311</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="G38" s="31">
-        <v>54003011001</v>
+        <v>54004804001</v>
       </c>
       <c r="H38" s="17">
-        <v>20.8</v>
+        <v>0.3</v>
       </c>
       <c r="I38" s="30">
-        <v>48328</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" s="17"/>
+        <v>276</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="E39" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="G39" s="17">
-        <v>54003703001</v>
+        <v>11</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G39" s="31">
+        <v>54003011001</v>
       </c>
       <c r="H39" s="17">
-        <v>0.52500000000000002</v>
+        <v>20.8</v>
       </c>
       <c r="I39" s="30">
-        <v>2892</v>
+        <v>48328</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="G40" s="31">
-        <v>54003203001</v>
+        <v>549</v>
+      </c>
+      <c r="G40" s="17">
+        <v>54003703001</v>
       </c>
       <c r="H40" s="17">
-        <v>1.8</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="I40" s="30">
-        <v>3255</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B41" s="17"/>
+        <v>269</v>
+      </c>
+      <c r="B41" t="s">
+        <v>499</v>
+      </c>
       <c r="C41" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="G41" s="31">
-        <v>54000509001</v>
+        <v>54003203001</v>
       </c>
       <c r="H41" s="17">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="I41" s="30">
-        <v>20411</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B42" t="s">
-        <v>533</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="G42" s="17">
-        <v>54002102001</v>
+        <v>538</v>
+      </c>
+      <c r="G42" s="31">
+        <v>54000509001</v>
       </c>
       <c r="H42" s="17">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I42" s="30">
-        <v>10364</v>
+        <v>20411</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="G43" s="31">
-        <v>54000901001</v>
+        <v>9</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="G43" s="17">
+        <v>54002102001</v>
       </c>
       <c r="H43" s="17">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="I43" s="30">
-        <v>564</v>
+        <v>10364</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G44" s="31">
+        <v>54000901001</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I44" s="30">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>502</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="G44" s="31">
+      <c r="F45" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G45" s="31">
         <v>54003508001</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>10</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I45" s="30">
         <v>33782</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
+    <row r="46" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F45" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="G45" s="31">
+      <c r="F46" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="G46" s="31">
         <v>54001022001</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>0.75</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I46" s="19">
         <v>2626</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="31">
-        <v>54002422001</v>
-      </c>
-      <c r="H46" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="I46" s="30">
-        <v>2742</v>
       </c>
       <c r="J46" s="28"/>
       <c r="K46" s="2"/>
@@ -8623,30 +8607,26 @@
       <c r="W46"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>619</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>635</v>
-      </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="I47" s="52">
-        <v>3500</v>
+      <c r="A47" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="31">
+        <v>54002422001</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="30">
+        <v>2742</v>
       </c>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
@@ -8666,9 +8646,35 @@
       <c r="Y47" s="51"/>
       <c r="Z47" s="51"/>
     </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B48" t="s">
+        <v>624</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D48" t="s">
+        <v>622</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="31">
+        <v>54001601001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I48" s="30">
+        <v>3510</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="A2:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8679,7 +8685,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8698,7 +8704,7 @@
         <v>431</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>239</v>
@@ -8711,951 +8717,887 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="17">
-        <v>54061</v>
+        <v>54001</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="E2" s="18">
-        <v>105612</v>
+        <v>16633</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="17">
-        <v>54039</v>
+        <v>54003</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20">
-        <v>183279</v>
+        <v>193</v>
+      </c>
+      <c r="E3" s="18">
+        <v>126069</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="17">
-        <v>54069</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18">
-        <v>41447</v>
+      <c r="A4" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="58">
+        <v>54005</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="59">
+        <v>21809</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="17">
-        <v>54037</v>
+        <v>54007</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="E5" s="18">
-        <v>57146</v>
+        <v>12247</v>
       </c>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="17">
-        <v>54055</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="18">
-        <v>58758</v>
+      <c r="A6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="58">
+        <v>54009</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="59">
+        <v>21939</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="17">
-        <v>54041</v>
+        <v>54011</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="18">
-        <v>16166</v>
+        <v>157</v>
+      </c>
+      <c r="E7" s="20">
+        <v>96319</v>
       </c>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>323</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="17">
-        <v>54057</v>
+        <v>54013</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="E8" s="18">
-        <v>26868</v>
+        <v>6176</v>
       </c>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="17">
-        <v>54051</v>
+        <v>54015</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="E9" s="18">
-        <v>30531</v>
+        <v>7892</v>
       </c>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" s="17">
-        <v>54065</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="18">
-        <v>17884</v>
+      <c r="A10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="58">
+        <v>54017</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="59">
+        <v>8448</v>
       </c>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="17">
-        <v>54077</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="18">
-        <v>33432</v>
+      <c r="A11" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="58">
+        <v>54019</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="59">
+        <v>39927</v>
       </c>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>327</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="17">
-        <v>54107</v>
+        <v>54021</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="E12" s="18">
-        <v>83518</v>
+        <v>7377</v>
       </c>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="17">
-        <v>54017</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="18">
-        <v>8448</v>
+      <c r="A13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58">
+        <v>54023</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="59">
+        <v>11616</v>
       </c>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>329</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="17">
-        <v>54049</v>
+        <v>54025</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E14" s="18">
-        <v>56072</v>
+        <v>32608</v>
       </c>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="17">
+        <v>54027</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="18">
+        <v>23302</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58">
+        <v>54029</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="59">
+        <v>28656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="58">
+        <v>54031</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="59">
+        <v>14160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B18" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C18" s="58">
         <v>54033</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D18" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E18" s="59">
         <v>67256</v>
-      </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="17">
-        <v>54091</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="18">
-        <v>16695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" s="17">
-        <v>54073</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="18">
-        <v>7482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="17">
-        <v>54005</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="18">
-        <v>21809</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>334</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="17">
-        <v>54083</v>
+        <v>54035</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="E19" s="18">
-        <v>28695</v>
+        <v>27738</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="17">
-        <v>54009</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="18">
-        <v>21939</v>
+      <c r="A20" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="58">
+        <v>54037</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="59">
+        <v>57146</v>
       </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="17">
-        <v>54053</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="18">
-        <v>26700</v>
+      <c r="A21" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="58">
+        <v>54039</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="60">
+        <v>183279</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C22" s="17">
-        <v>54001</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="18">
-        <v>16633</v>
+      <c r="A22" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="58">
+        <v>54041</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="59">
+        <v>16166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>433</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="17">
-        <v>54003</v>
+        <v>54043</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E23" s="18">
-        <v>126069</v>
+        <v>20126</v>
       </c>
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>434</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="17">
-        <v>54007</v>
+        <v>54045</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E24" s="18">
-        <v>12247</v>
+        <v>31909</v>
       </c>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="17">
-        <v>54011</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="20">
-        <v>96319</v>
+      <c r="A25" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="58">
+        <v>54049</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="59">
+        <v>56072</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C26" s="17">
-        <v>54013</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="18">
-        <v>6176</v>
+      <c r="A26" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="58">
+        <v>54051</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="59">
+        <v>30531</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="17">
-        <v>54015</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="18">
-        <v>7892</v>
+      <c r="A27" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="58">
+        <v>54053</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="59">
+        <v>26700</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>438</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="17">
-        <v>54019</v>
+        <v>54047</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E28" s="18">
-        <v>39927</v>
+        <v>18363</v>
       </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C29" s="17">
-        <v>54021</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="18">
-        <v>7377</v>
+      <c r="A29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="58">
+        <v>54055</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="59">
+        <v>58758</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30" s="17">
-        <v>54023</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="18">
-        <v>11616</v>
+      <c r="A30" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="58">
+        <v>54057</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="59">
+        <v>26868</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>441</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="17">
-        <v>54025</v>
+        <v>54059</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E31" s="18">
-        <v>32608</v>
+        <v>23005</v>
       </c>
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C32" s="17">
-        <v>54027</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="18">
-        <v>23302</v>
+      <c r="A32" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" s="58">
+        <v>54061</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="59">
+        <v>105612</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>443</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="17">
-        <v>54029</v>
+        <v>54063</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E33" s="18">
-        <v>28656</v>
+        <v>12332</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C34" s="17">
-        <v>54031</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="18">
-        <v>14160</v>
+      <c r="A34" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="58">
+        <v>54065</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="59">
+        <v>17884</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>445</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="17">
-        <v>54035</v>
+        <v>54067</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E35" s="18">
-        <v>27738</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C36" s="17">
-        <v>54043</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="18">
-        <v>20126</v>
+      <c r="A36" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="58">
+        <v>54069</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="59">
+        <v>41447</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="17">
-        <v>54045</v>
+        <v>54071</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E37" s="18">
-        <v>31909</v>
+        <v>6142</v>
       </c>
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C38" s="17">
-        <v>54047</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" s="18">
-        <v>18363</v>
+      <c r="A38" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="58">
+        <v>54073</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="59">
+        <v>7482</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="17">
-        <v>54059</v>
+        <v>54075</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E39" s="18">
-        <v>23005</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C40" s="17">
-        <v>54063</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="18">
-        <v>12332</v>
+      <c r="A40" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="58">
+        <v>54077</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="59">
+        <v>33432</v>
       </c>
       <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>451</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="17">
-        <v>54067</v>
+        <v>54079</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="18">
-        <v>24300</v>
+        <v>159</v>
+      </c>
+      <c r="E41" s="20">
+        <v>55486</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>452</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="17">
-        <v>54071</v>
+        <v>54081</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E42" s="18">
-        <v>6142</v>
+        <v>73771</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" s="17">
-        <v>54075</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="18">
-        <v>7841</v>
+      <c r="A43" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="58">
+        <v>54083</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="59">
+        <v>28695</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>454</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="17">
-        <v>54079</v>
+        <v>54085</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="20">
-        <v>55486</v>
+        <v>213</v>
+      </c>
+      <c r="E44" s="18">
+        <v>8383</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>455</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="17">
-        <v>54081</v>
+        <v>54087</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E45" s="18">
-        <v>73771</v>
+        <v>13898</v>
       </c>
       <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>456</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="17">
-        <v>54085</v>
+        <v>54089</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E46" s="18">
-        <v>8383</v>
+        <v>11908</v>
       </c>
       <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C47" s="17">
-        <v>54087</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="18">
-        <v>13898</v>
+      <c r="A47" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="58">
+        <v>54091</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="59">
+        <v>16695</v>
       </c>
       <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>458</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B48" s="4"/>
       <c r="C48" s="17">
-        <v>54089</v>
+        <v>54093</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E48" s="18">
-        <v>11908</v>
+        <v>6672</v>
       </c>
       <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C49" s="17">
-        <v>54093</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="18">
-        <v>6672</v>
+      <c r="A49" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58">
+        <v>54095</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="59">
+        <v>8811</v>
       </c>
       <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>460</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="17">
-        <v>54095</v>
+        <v>54097</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="E50" s="18">
-        <v>8811</v>
+        <v>23791</v>
       </c>
       <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="17">
-        <v>54097</v>
+        <v>54099</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="18">
-        <v>23791</v>
+        <v>164</v>
+      </c>
+      <c r="E51" s="20">
+        <v>42481</v>
       </c>
       <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>462</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="17">
-        <v>54099</v>
+        <v>54101</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="20">
-        <v>42481</v>
+        <v>218</v>
+      </c>
+      <c r="E52" s="18">
+        <v>8249</v>
       </c>
       <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>463</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="17">
-        <v>54101</v>
+        <v>54103</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" s="18">
-        <v>8249</v>
+        <v>14170</v>
       </c>
       <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>464</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="17">
-        <v>54103</v>
+        <v>54105</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E54" s="18">
-        <v>14170</v>
+        <v>5063</v>
       </c>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C55" s="17">
-        <v>54105</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="18">
-        <v>5063</v>
+      <c r="A55" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="58">
+        <v>54107</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="59">
+        <v>83518</v>
       </c>
       <c r="F55" s="19"/>
     </row>
@@ -9663,9 +9605,7 @@
       <c r="A56" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>466</v>
-      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="17">
         <v>54109</v>
       </c>
@@ -9698,8 +9638,8 @@
       <c r="F62" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E56">
-    <sortCondition ref="D2:D56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E56">
+    <sortCondition ref="A2:A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9709,7 +9649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -9766,7 +9706,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>409</v>
@@ -9786,10 +9726,10 @@
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>417</v>
@@ -9818,7 +9758,7 @@
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>399</v>
@@ -9839,7 +9779,7 @@
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>400</v>
@@ -9859,10 +9799,10 @@
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>416</v>
@@ -9916,10 +9856,10 @@
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>417</v>
@@ -9928,12 +9868,12 @@
         <v>382</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>395</v>
@@ -9953,7 +9893,7 @@
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>398</v>
@@ -9974,10 +9914,10 @@
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>416</v>
@@ -9994,7 +9934,7 @@
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>412</v>
@@ -10014,7 +9954,7 @@
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>403</v>
@@ -10034,7 +9974,7 @@
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>407</v>
@@ -10055,7 +9995,7 @@
     </row>
     <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>391</v>
@@ -10095,10 +10035,10 @@
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>417</v>
@@ -10112,10 +10052,10 @@
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>417</v>
@@ -10129,10 +10069,10 @@
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>417</v>
@@ -10146,10 +10086,10 @@
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>417</v>
@@ -10285,23 +10225,23 @@
         <v>374</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10317,31 +10257,31 @@
         <v>386</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10349,7 +10289,7 @@
         <v>393</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10357,7 +10297,7 @@
         <v>393</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10365,12 +10305,12 @@
         <v>393</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>323</v>
@@ -10378,42 +10318,42 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10452,10 +10392,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -10463,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -10471,7 +10411,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10491,7 +10431,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -10499,7 +10439,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A5CFF-A093-CD45-BF2F-CFF979B15785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB7F64-85C7-FA47-BF83-2DC605A74F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51960" yWindow="4820" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="51960" yWindow="4820" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="625">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -2588,11 +2588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q82" sqref="Q82"/>
+      <selection pane="bottomRight" activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7340,6 +7340,15 @@
       <c r="L82" s="38">
         <v>3510</v>
       </c>
+      <c r="M82" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="N82" s="38">
+        <v>24</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="R82" s="2" t="s">
         <v>20</v>
       </c>
@@ -7361,8 +7370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB7F64-85C7-FA47-BF83-2DC605A74F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B912F-0285-EA43-852C-A6C1BC49E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51960" yWindow="4820" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -1914,7 +1914,7 @@
     <t>V01</t>
   </si>
   <si>
-    <t>54029-001-01-00-00</t>
+    <t>54031-001-01-00-00</t>
   </si>
 </sst>
 </file>
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q83" sqref="Q83"/>
@@ -7370,9 +7370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B912F-0285-EA43-852C-A6C1BC49E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8D82C-FF40-BB4C-B0C5-3D32D8DF0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="626">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1915,6 +1915,9 @@
   </si>
   <si>
     <t>54031-001-01-00-00</t>
+  </si>
+  <si>
+    <t>WV0020150</t>
   </si>
 </sst>
 </file>
@@ -7372,7 +7375,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8670,6 +8673,9 @@
       </c>
       <c r="E48" s="17" t="s">
         <v>202</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>625</v>
       </c>
       <c r="G48" s="31">
         <v>54001601001</v>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8D82C-FF40-BB4C-B0C5-3D32D8DF0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E2E62F-3CD1-4E48-AF7D-0238DD5C037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -2591,11 +2591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q83" sqref="Q83"/>
+      <selection pane="bottomRight" activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6649,8 +6649,8 @@
       <c r="C70" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D70" s="40" t="s">
-        <v>60</v>
+      <c r="D70" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>83</v>
@@ -7373,7 +7373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E2E62F-3CD1-4E48-AF7D-0238DD5C037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DFCBA7-02FB-174B-8249-B2DDF6115594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="16500" yWindow="840" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="loci" sheetId="6" r:id="rId6"/>
     <sheet name="methods" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location!$A$1:$T$82</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2589,13 +2592,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T70" sqref="T70"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="A1:T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2683,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>167</v>
       </c>
@@ -2733,7 +2737,7 @@
       </c>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>172</v>
       </c>
@@ -2791,7 +2795,7 @@
       </c>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>166</v>
       </c>
@@ -2849,7 +2853,7 @@
       </c>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>171</v>
       </c>
@@ -2907,7 +2911,7 @@
       </c>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>585</v>
       </c>
@@ -2965,7 +2969,7 @@
       </c>
       <c r="T6" s="45"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>590</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>170</v>
       </c>
@@ -3087,10 +3091,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>351</v>
@@ -3099,7 +3103,7 @@
         <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>340</v>
@@ -3108,137 +3112,141 @@
         <v>368</v>
       </c>
       <c r="H9" s="2">
+        <v>-80.778989999999993</v>
+      </c>
+      <c r="I9" s="36">
+        <v>39.299059999999997</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="38">
+        <v>564</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N9" s="38">
+        <v>24</v>
+      </c>
+      <c r="O9" s="38">
+        <v>25</v>
+      </c>
+      <c r="P9" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="4">
+        <v>26456</v>
+      </c>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-80.24933</v>
+      </c>
+      <c r="I10" s="36">
+        <v>39.511809999999997</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="37">
+        <v>610</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="N10" s="38">
+        <v>24</v>
+      </c>
+      <c r="O10" s="38">
+        <v>25</v>
+      </c>
+      <c r="P10" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4">
+        <v>26571</v>
+      </c>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="2">
         <v>-79.50179</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I11" s="36">
         <v>39.457090000000001</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L11" s="37">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="M9" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N9" s="38">
-        <v>24</v>
-      </c>
-      <c r="O9" s="38">
-        <v>25</v>
-      </c>
-      <c r="P9" s="38">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="4">
-        <v>26764</v>
-      </c>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-77.855890000000002</v>
-      </c>
-      <c r="I10" s="2">
-        <v>39.279240000000001</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="38">
-        <v>17000</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="N10" s="38">
-        <v>24</v>
-      </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="4">
-        <v>25414</v>
-      </c>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-79.856999999999999</v>
-      </c>
-      <c r="I11" s="36">
-        <v>39.677120000000002</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="38">
-        <v>2000</v>
-      </c>
       <c r="M11" s="37" t="s">
         <v>337</v>
       </c>
@@ -3258,16 +3266,16 @@
         <v>20</v>
       </c>
       <c r="S11" s="4">
-        <v>26508</v>
+        <v>26764</v>
       </c>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>351</v>
@@ -3276,7 +3284,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>340</v>
@@ -3285,45 +3293,49 @@
         <v>368</v>
       </c>
       <c r="H12" s="2">
-        <v>-80.338570000000004</v>
+        <v>-80.323710000000005</v>
       </c>
       <c r="I12" s="36">
-        <v>39.279310000000002</v>
+        <v>39.518140000000002</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="38">
-        <v>26498</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>338</v>
+        <v>1091</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="N12" s="38">
         <v>24</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="O12" s="38">
+        <v>25</v>
+      </c>
+      <c r="P12" s="38">
+        <v>20</v>
+      </c>
       <c r="Q12" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S12" s="4">
-        <v>26301</v>
+        <v>26582</v>
       </c>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>351</v>
@@ -3332,38 +3344,40 @@
         <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>443</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H13" s="2">
-        <v>-79.985057699999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>39.648165400000003</v>
+        <v>-80.545150000000007</v>
+      </c>
+      <c r="I13" s="36">
+        <v>39.285969999999999</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="37"/>
+        <v>88</v>
+      </c>
+      <c r="L13" s="38">
+        <v>1853</v>
+      </c>
       <c r="M13" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N13" s="37">
-        <v>8</v>
+      <c r="N13" s="38">
+        <v>24</v>
       </c>
       <c r="O13" s="38">
         <v>25</v>
       </c>
       <c r="P13" s="38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>347</v>
@@ -3372,16 +3386,16 @@
         <v>20</v>
       </c>
       <c r="S13" s="4">
-        <v>26505</v>
+        <v>26426</v>
       </c>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>351</v>
@@ -3390,7 +3404,7 @@
         <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>340</v>
@@ -3399,19 +3413,19 @@
         <v>368</v>
       </c>
       <c r="H14" s="2">
-        <v>-79.865430000000003</v>
+        <v>-79.856999999999999</v>
       </c>
       <c r="I14" s="36">
-        <v>38.920259999999999</v>
+        <v>39.677120000000002</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="L14" s="38">
-        <v>13156</v>
+        <v>2000</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>337</v>
@@ -3432,76 +3446,76 @@
         <v>20</v>
       </c>
       <c r="S14" s="4">
-        <v>26241</v>
+        <v>26508</v>
       </c>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="H15" s="2">
-        <v>-80.24933</v>
-      </c>
-      <c r="I15" s="36">
-        <v>39.511809999999997</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="37">
-        <v>610</v>
+      <c r="H15" s="12">
+        <v>-81.165005500000007</v>
+      </c>
+      <c r="I15" s="12">
+        <v>37.946770700000002</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="38">
+        <v>2626</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="39">
         <v>24</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="39">
         <v>25</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="39">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="R15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="4">
-        <v>26571</v>
-      </c>
-      <c r="T15" s="2"/>
+      <c r="S15" s="17">
+        <v>25917</v>
+      </c>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>351</v>
@@ -3510,7 +3524,7 @@
         <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>340</v>
@@ -3519,40 +3533,44 @@
         <v>368</v>
       </c>
       <c r="H16" s="2">
-        <v>-80.018370000000004</v>
-      </c>
-      <c r="I16" s="36">
-        <v>39.338769999999997</v>
+        <v>-81.847288800000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>38.102483999999997</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="L16" s="38">
-        <v>6071</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>338</v>
+        <v>4555</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="N16" s="38">
         <v>24</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="O16" s="38">
+        <v>25</v>
+      </c>
+      <c r="P16" s="38">
+        <v>20</v>
+      </c>
       <c r="Q16" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S16" s="4">
-        <v>26354</v>
+        <v>25053</v>
       </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>108</v>
       </c>
@@ -3562,8 +3580,8 @@
       <c r="C17" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>103</v>
+      <c r="D17" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>115</v>
@@ -3614,10 +3632,10 @@
     </row>
     <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>351</v>
@@ -3626,7 +3644,7 @@
         <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>340</v>
@@ -3635,19 +3653,19 @@
         <v>368</v>
       </c>
       <c r="H18" s="2">
-        <v>-78.975080000000005</v>
+        <v>-82.135114799999997</v>
       </c>
       <c r="I18" s="2">
-        <v>39.441229999999997</v>
+        <v>38.856708400000002</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="L18" s="38">
-        <v>8168</v>
+        <v>5515</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>337</v>
@@ -3668,16 +3686,16 @@
         <v>20</v>
       </c>
       <c r="S18" s="4">
-        <v>26726</v>
+        <v>25550</v>
       </c>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>351</v>
@@ -3686,7 +3704,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>340</v>
@@ -3695,49 +3713,45 @@
         <v>368</v>
       </c>
       <c r="H19" s="2">
-        <v>-81.847288800000001</v>
-      </c>
-      <c r="I19" s="2">
-        <v>38.102483999999997</v>
+        <v>-80.018370000000004</v>
+      </c>
+      <c r="I19" s="36">
+        <v>39.338769999999997</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="L19" s="38">
-        <v>4555</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>337</v>
+        <v>6071</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N19" s="38">
         <v>24</v>
       </c>
-      <c r="O19" s="38">
-        <v>25</v>
-      </c>
-      <c r="P19" s="38">
-        <v>20</v>
-      </c>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
       <c r="Q19" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S19" s="4">
-        <v>25053</v>
+        <v>26354</v>
       </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>351</v>
@@ -3746,7 +3760,7 @@
         <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>340</v>
@@ -3755,19 +3769,19 @@
         <v>368</v>
       </c>
       <c r="H20" s="2">
-        <v>-80.323710000000005</v>
-      </c>
-      <c r="I20" s="36">
-        <v>39.518140000000002</v>
+        <v>-78.975080000000005</v>
+      </c>
+      <c r="I20" s="2">
+        <v>39.441229999999997</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="L20" s="38">
-        <v>1091</v>
+        <v>8168</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>337</v>
@@ -3788,16 +3802,16 @@
         <v>20</v>
       </c>
       <c r="S20" s="4">
-        <v>26582</v>
+        <v>26726</v>
       </c>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>351</v>
@@ -3806,7 +3820,7 @@
         <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>340</v>
@@ -3815,44 +3829,48 @@
         <v>368</v>
       </c>
       <c r="H21" s="2">
-        <v>-80.754930000000002</v>
+        <v>-80.459909999999994</v>
       </c>
       <c r="I21" s="2">
-        <v>39.929859999999998</v>
+        <v>39.062240000000003</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L21" s="38">
-        <v>12000</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>338</v>
+        <v>10364</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="N21" s="38">
         <v>24</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="O21" s="38">
+        <v>25</v>
+      </c>
+      <c r="P21" s="38">
+        <v>20</v>
+      </c>
       <c r="Q21" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S21" s="4">
-        <v>26041</v>
+        <v>26452</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>351</v>
@@ -3861,7 +3879,7 @@
         <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>340</v>
@@ -3870,19 +3888,19 @@
         <v>368</v>
       </c>
       <c r="H22" s="2">
-        <v>-81.557389999999998</v>
-      </c>
-      <c r="I22" s="36">
-        <v>39.281709999999997</v>
+        <v>-80.754930000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>39.929859999999998</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="L22" s="38">
-        <v>48050</v>
+        <v>12000</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>338</v>
@@ -3899,16 +3917,16 @@
         <v>20</v>
       </c>
       <c r="S22" s="4">
-        <v>26101</v>
+        <v>26041</v>
       </c>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>351</v>
@@ -3917,7 +3935,7 @@
         <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>340</v>
@@ -3926,19 +3944,19 @@
         <v>368</v>
       </c>
       <c r="H23" s="2">
-        <v>-82.135114799999997</v>
-      </c>
-      <c r="I23" s="2">
-        <v>38.856708400000002</v>
+        <v>-79.865430000000003</v>
+      </c>
+      <c r="I23" s="36">
+        <v>38.920259999999999</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="L23" s="38">
-        <v>5515</v>
+        <v>13156</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>337</v>
@@ -3959,15 +3977,15 @@
         <v>20</v>
       </c>
       <c r="S23" s="4">
-        <v>25550</v>
+        <v>26241</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>351</v>
@@ -3976,58 +3994,54 @@
         <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H24" s="2">
-        <v>-81.079930000000004</v>
+        <v>-77.855890000000002</v>
       </c>
       <c r="I24" s="2">
-        <v>37.380360000000003</v>
+        <v>39.279240000000001</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L24" s="38">
-        <v>36000</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>342</v>
+        <v>17000</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N24" s="38">
         <v>24</v>
       </c>
-      <c r="O24" s="38">
-        <v>25</v>
-      </c>
-      <c r="P24" s="38">
-        <v>20</v>
-      </c>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
       <c r="Q24" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S24" s="4">
-        <v>24740</v>
+        <v>25414</v>
       </c>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>351</v>
@@ -4036,7 +4050,7 @@
         <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>340</v>
@@ -4045,48 +4059,44 @@
         <v>368</v>
       </c>
       <c r="H25" s="2">
-        <v>-80.545150000000007</v>
+        <v>-80.338570000000004</v>
       </c>
       <c r="I25" s="36">
-        <v>39.285969999999999</v>
+        <v>39.279310000000002</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>88</v>
       </c>
       <c r="L25" s="38">
-        <v>1853</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>337</v>
+        <v>26498</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N25" s="38">
         <v>24</v>
       </c>
-      <c r="O25" s="38">
-        <v>25</v>
-      </c>
-      <c r="P25" s="38">
-        <v>20</v>
-      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
       <c r="Q25" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S25" s="4">
-        <v>26426</v>
+        <v>26301</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>351</v>
@@ -4095,7 +4105,7 @@
         <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>340</v>
@@ -4104,42 +4114,46 @@
         <v>369</v>
       </c>
       <c r="H26" s="2">
-        <v>-79.992055399999998</v>
+        <v>-81.079930000000004</v>
       </c>
       <c r="I26" s="2">
-        <v>39.655174500000001</v>
+        <v>37.380360000000003</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L26" s="38">
-        <v>48328</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>338</v>
+        <v>36000</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>342</v>
       </c>
       <c r="N26" s="38">
         <v>24</v>
       </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="O26" s="38">
+        <v>25</v>
+      </c>
+      <c r="P26" s="38">
+        <v>20</v>
+      </c>
       <c r="Q26" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S26" s="4">
-        <v>26505</v>
+        <v>24740</v>
       </c>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>525</v>
@@ -4151,7 +4165,7 @@
         <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>340</v>
@@ -4160,49 +4174,45 @@
         <v>368</v>
       </c>
       <c r="H27" s="2">
-        <v>-80.778989999999993</v>
+        <v>-81.557389999999998</v>
       </c>
       <c r="I27" s="36">
-        <v>39.299059999999997</v>
+        <v>39.281709999999997</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L27" s="38">
-        <v>564</v>
-      </c>
-      <c r="M27" s="37" t="s">
-        <v>337</v>
+        <v>48050</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="N27" s="38">
         <v>24</v>
       </c>
-      <c r="O27" s="38">
-        <v>25</v>
-      </c>
-      <c r="P27" s="38">
-        <v>20</v>
-      </c>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
       <c r="Q27" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S27" s="4">
-        <v>26456</v>
+        <v>26101</v>
       </c>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>351</v>
@@ -4211,7 +4221,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>340</v>
@@ -4220,19 +4230,19 @@
         <v>369</v>
       </c>
       <c r="H28" s="2">
-        <v>-80.72757</v>
+        <v>-79.992055399999998</v>
       </c>
       <c r="I28" s="2">
-        <v>40.055880000000002</v>
+        <v>39.655174500000001</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L28" s="38">
-        <v>50000</v>
+        <v>48328</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>338</v>
@@ -4249,71 +4259,67 @@
         <v>20</v>
       </c>
       <c r="S28" s="4">
+        <v>26505</v>
+      </c>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-80.72757</v>
+      </c>
+      <c r="I29" s="2">
+        <v>40.055880000000002</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="38">
+        <v>50000</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="N29" s="38">
+        <v>24</v>
+      </c>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="4">
         <v>26003</v>
       </c>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" s="12">
-        <v>-81.165005500000007</v>
-      </c>
-      <c r="I29" s="12">
-        <v>37.946770700000002</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="38">
-        <v>2626</v>
-      </c>
-      <c r="M29" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N29" s="39">
-        <v>24</v>
-      </c>
-      <c r="O29" s="39">
-        <v>25</v>
-      </c>
-      <c r="P29" s="39">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="17">
-        <v>25917</v>
-      </c>
-      <c r="T29" s="12"/>
-    </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>173</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>168</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>179</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>169</v>
       </c>
@@ -4547,7 +4553,7 @@
       </c>
       <c r="T33" s="29"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>163</v>
       </c>
@@ -4607,7 +4613,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>165</v>
       </c>
@@ -4667,7 +4673,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>175</v>
       </c>
@@ -4723,7 +4729,7 @@
       </c>
       <c r="T36" s="29"/>
     </row>
-    <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>177</v>
       </c>
@@ -4779,7 +4785,7 @@
       </c>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
@@ -4839,7 +4845,7 @@
       </c>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -4895,7 +4901,7 @@
       </c>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +4957,7 @@
       </c>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -5007,7 +5013,7 @@
       </c>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>26037</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>235</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>26525</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>192</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>26501</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -5776,7 +5782,7 @@
         <v>26501</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>26505</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>339</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
@@ -6067,7 +6073,7 @@
       </c>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>184</v>
       </c>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>512</v>
@@ -6143,7 +6149,7 @@
         <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>341</v>
@@ -6151,20 +6157,24 @@
       <c r="G61" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="2"/>
+      <c r="H61" s="2">
+        <v>-79.985057699999999</v>
+      </c>
+      <c r="I61" s="2">
+        <v>39.648165400000003</v>
+      </c>
       <c r="J61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="37"/>
       <c r="M61" s="37" t="s">
         <v>337</v>
       </c>
       <c r="N61" s="37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O61" s="38">
         <v>25</v>
@@ -6185,7 +6195,7 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>512</v>
@@ -6197,7 +6207,7 @@
         <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>341</v>
@@ -6239,7 +6249,7 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>512</v>
@@ -6251,7 +6261,7 @@
         <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>341</v>
@@ -6293,7 +6303,7 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>512</v>
@@ -6305,7 +6315,7 @@
         <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>341</v>
@@ -6345,7 +6355,7 @@
       </c>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
@@ -6405,7 +6415,7 @@
       </c>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>58</v>
       </c>
@@ -6461,7 +6471,7 @@
       </c>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -6523,7 +6533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
@@ -6579,7 +6589,7 @@
       </c>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -6641,10 +6651,10 @@
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>351</v>
@@ -6653,40 +6663,34 @@
         <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H70" s="2">
-        <v>-80.459909999999994</v>
-      </c>
-      <c r="I70" s="2">
-        <v>39.062240000000003</v>
-      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L70" s="38">
-        <v>10364</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L70" s="2"/>
       <c r="M70" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N70" s="38">
-        <v>24</v>
+      <c r="N70" s="37">
+        <v>12</v>
       </c>
       <c r="O70" s="38">
         <v>25</v>
       </c>
       <c r="P70" s="38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>347</v>
@@ -6695,11 +6699,11 @@
         <v>20</v>
       </c>
       <c r="S70" s="4">
-        <v>26452</v>
+        <v>26505</v>
       </c>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -6759,7 +6763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>112</v>
       </c>
@@ -6813,7 +6817,7 @@
       </c>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -6867,7 +6871,7 @@
       </c>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6921,7 +6925,7 @@
       </c>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -6979,7 +6983,7 @@
       </c>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>91</v>
       </c>
@@ -7037,7 +7041,7 @@
       </c>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>59</v>
       </c>
@@ -7097,7 +7101,7 @@
       </c>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>125</v>
       </c>
@@ -7145,7 +7149,7 @@
       <c r="S78" s="4"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
@@ -7201,7 +7205,7 @@
       </c>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>126</v>
       </c>
@@ -7248,7 +7252,7 @@
       <c r="S80" s="4"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7306,7 +7310,7 @@
       </c>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>619</v>
       </c>
@@ -7316,8 +7320,8 @@
       <c r="C82" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>103</v>
+      <c r="D82" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>620</v>
@@ -7360,6 +7364,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T82" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ZooWVU"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="active"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:T70">
+      <sortCondition ref="L2:L82"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T81">
     <sortCondition ref="D2:D81"/>
     <sortCondition ref="C2:C81"/>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DFCBA7-02FB-174B-8249-B2DDF6115594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1CE0FE-9A0A-5E48-9BB9-3B63DF604BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16500" yWindow="840" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
@@ -2134,7 +2134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2209,9 +2209,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2592,14 +2589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="A1:T82"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>167</v>
       </c>
@@ -2732,12 +2728,12 @@
       <c r="R2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="41">
         <v>25387</v>
       </c>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>172</v>
       </c>
@@ -2795,7 +2791,7 @@
       </c>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>166</v>
       </c>
@@ -2848,12 +2844,12 @@
       <c r="R4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="41">
         <v>25704</v>
       </c>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>171</v>
       </c>
@@ -2911,65 +2907,65 @@
       </c>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>-81.867118796822695</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <v>38.537901317549398</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="47">
         <v>4900</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <v>48</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="48">
         <v>333</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="48">
         <v>1440</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="46">
         <v>25168</v>
       </c>
-      <c r="T6" s="45"/>
-    </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>590</v>
       </c>
@@ -3029,7 +3025,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>170</v>
       </c>
@@ -3114,7 +3110,7 @@
       <c r="H9" s="2">
         <v>-80.778989999999993</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>39.299059999999997</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -3123,19 +3119,19 @@
       <c r="K9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="37">
         <v>564</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="37">
         <v>24</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="37">
         <v>25</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="37">
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -3174,7 +3170,7 @@
       <c r="H10" s="2">
         <v>-80.24933</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>39.511809999999997</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -3183,19 +3179,19 @@
       <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="36">
         <v>610</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="37">
         <v>24</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="37">
         <v>25</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="37">
         <v>20</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -3234,7 +3230,7 @@
       <c r="H11" s="2">
         <v>-79.50179</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>39.457090000000001</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -3243,20 +3239,20 @@
       <c r="K11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <f>175*4</f>
         <v>700</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="37">
         <v>24</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="37">
         <v>25</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="37">
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -3295,7 +3291,7 @@
       <c r="H12" s="2">
         <v>-80.323710000000005</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>39.518140000000002</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -3304,19 +3300,19 @@
       <c r="K12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <v>1091</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="37">
         <v>24</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="37">
         <v>25</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="37">
         <v>20</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -3340,8 +3336,8 @@
       <c r="C13" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>103</v>
+      <c r="D13" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>107</v>
@@ -3355,7 +3351,7 @@
       <c r="H13" s="2">
         <v>-80.545150000000007</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>39.285969999999999</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -3364,19 +3360,19 @@
       <c r="K13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <v>1853</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="37">
         <v>24</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="37">
         <v>25</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="37">
         <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -3415,7 +3411,7 @@
       <c r="H14" s="2">
         <v>-79.856999999999999</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>39.677120000000002</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -3424,19 +3420,19 @@
       <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <v>2000</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="37">
         <v>24</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="37">
         <v>25</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="37">
         <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -3484,19 +3480,19 @@
       <c r="K15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <v>2626</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="38">
         <v>24</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="38">
         <v>25</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="38">
         <v>30</v>
       </c>
       <c r="Q15" s="30" t="s">
@@ -3544,19 +3540,19 @@
       <c r="K16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="37">
         <v>4555</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="37">
         <v>24</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="37">
         <v>25</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="37">
         <v>20</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -3570,7 +3566,7 @@
       </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>108</v>
       </c>
@@ -3580,7 +3576,7 @@
       <c r="C17" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3595,7 +3591,7 @@
       <c r="H17" s="2">
         <v>-79.978949999999998</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>38.712879999999998</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -3604,19 +3600,19 @@
       <c r="K17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="37">
         <v>2101</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="37">
         <v>24</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="37">
         <v>25</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="37">
         <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -3664,19 +3660,19 @@
       <c r="K18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="37">
         <v>5515</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="37">
         <v>24</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="37">
         <v>25</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="37">
         <v>20</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -3715,7 +3711,7 @@
       <c r="H19" s="2">
         <v>-80.018370000000004</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>39.338769999999997</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -3724,17 +3720,17 @@
       <c r="K19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="37">
         <v>6071</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="37">
         <v>24</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="2" t="s">
         <v>348</v>
       </c>
@@ -3780,19 +3776,19 @@
       <c r="K20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <v>8168</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="37">
         <v>24</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="37">
         <v>25</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="37">
         <v>20</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -3840,19 +3836,19 @@
       <c r="K21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="37">
         <v>10364</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="37">
         <v>24</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="37">
         <v>25</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="37">
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -3899,17 +3895,17 @@
       <c r="K22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>12000</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="37">
         <v>24</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
       <c r="Q22" s="2" t="s">
         <v>348</v>
       </c>
@@ -3946,7 +3942,7 @@
       <c r="H23" s="2">
         <v>-79.865430000000003</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>38.920259999999999</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -3955,19 +3951,19 @@
       <c r="K23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="37">
         <v>13156</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="37">
         <v>24</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="37">
         <v>25</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="37">
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -4014,17 +4010,17 @@
       <c r="K24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="37">
         <v>17000</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="37">
         <v>24</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
       <c r="Q24" s="2" t="s">
         <v>348</v>
       </c>
@@ -4061,7 +4057,7 @@
       <c r="H25" s="2">
         <v>-80.338570000000004</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>39.279310000000002</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -4070,17 +4066,17 @@
       <c r="K25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="37">
         <v>26498</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="37">
         <v>24</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
       <c r="Q25" s="2" t="s">
         <v>348</v>
       </c>
@@ -4101,8 +4097,8 @@
       <c r="C26" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>103</v>
+      <c r="D26" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>78</v>
@@ -4125,19 +4121,19 @@
       <c r="K26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="37">
         <v>36000</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="37">
         <v>24</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="37">
         <v>25</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="37">
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -4176,7 +4172,7 @@
       <c r="H27" s="2">
         <v>-81.557389999999998</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>39.281709999999997</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -4185,17 +4181,17 @@
       <c r="K27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="37">
         <v>48050</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="37">
         <v>24</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
       <c r="Q27" s="2" t="s">
         <v>348</v>
       </c>
@@ -4241,17 +4237,17 @@
       <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="37">
         <v>48328</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="37">
         <v>24</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
       <c r="Q28" s="2" t="s">
         <v>348</v>
       </c>
@@ -4297,17 +4293,17 @@
       <c r="K29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="37">
         <v>50000</v>
       </c>
-      <c r="M29" s="38" t="s">
+      <c r="M29" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="37">
         <v>24</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
       <c r="Q29" s="2" t="s">
         <v>348</v>
       </c>
@@ -4319,7 +4315,7 @@
       </c>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>173</v>
       </c>
@@ -4327,8 +4323,8 @@
       <c r="C30" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>60</v>
+      <c r="D30" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>174</v>
@@ -4339,13 +4335,13 @@
       <c r="G30" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="44">
         <v>-82.430654000000004</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="44">
         <v>38.424089000000002</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="44" t="s">
         <v>588</v>
       </c>
       <c r="K30" s="29" t="s">
@@ -4373,11 +4369,11 @@
       <c r="S30" s="32">
         <v>25703</v>
       </c>
-      <c r="T30" s="45" t="s">
+      <c r="T30" s="44" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>168</v>
       </c>
@@ -4385,8 +4381,8 @@
       <c r="C31" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>60</v>
+      <c r="D31" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>156</v>
@@ -4430,14 +4426,14 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="41">
         <v>25504</v>
       </c>
-      <c r="T31" s="46" t="s">
+      <c r="T31" s="45" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>179</v>
       </c>
@@ -4445,8 +4441,8 @@
       <c r="C32" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>60</v>
+      <c r="D32" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>180</v>
@@ -4457,13 +4453,13 @@
       <c r="G32" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="44">
         <v>-82.425917999999996</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="44">
         <v>38.421745999999999</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="44" t="s">
         <v>589</v>
       </c>
       <c r="K32" s="29" t="s">
@@ -4491,11 +4487,11 @@
       <c r="S32" s="32">
         <v>25703</v>
       </c>
-      <c r="T32" s="45" t="s">
+      <c r="T32" s="44" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>169</v>
       </c>
@@ -4503,8 +4499,8 @@
       <c r="C33" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>60</v>
+      <c r="D33" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>158</v>
@@ -4553,7 +4549,7 @@
       </c>
       <c r="T33" s="29"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>163</v>
       </c>
@@ -4561,8 +4557,8 @@
       <c r="C34" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>60</v>
+      <c r="D34" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>163</v>
@@ -4613,7 +4609,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>165</v>
       </c>
@@ -4621,8 +4617,8 @@
       <c r="C35" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>60</v>
+      <c r="D35" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>165</v>
@@ -4673,7 +4669,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>175</v>
       </c>
@@ -4681,8 +4677,8 @@
       <c r="C36" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>60</v>
+      <c r="D36" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>176</v>
@@ -4693,13 +4689,13 @@
       <c r="G36" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="44">
         <v>-82.425557700629597</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="44">
         <v>38.422913110104098</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="44" t="s">
         <v>591</v>
       </c>
       <c r="K36" s="29" t="s">
@@ -4729,7 +4725,7 @@
       </c>
       <c r="T36" s="29"/>
     </row>
-    <row r="37" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>177</v>
       </c>
@@ -4737,8 +4733,8 @@
       <c r="C37" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>60</v>
+      <c r="D37" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>178</v>
@@ -4749,13 +4745,13 @@
       <c r="G37" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="44">
         <v>-82.424907815220195</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="44">
         <v>38.423076174075902</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="44" t="s">
         <v>592</v>
       </c>
       <c r="K37" s="29" t="s">
@@ -4785,7 +4781,7 @@
       </c>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
@@ -4796,7 +4792,7 @@
         <v>351</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>65</v>
@@ -4819,19 +4815,19 @@
       <c r="K38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="37">
         <v>2391</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="37">
         <v>24</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="37">
         <v>25</v>
       </c>
-      <c r="P38" s="38">
+      <c r="P38" s="37">
         <v>20</v>
       </c>
       <c r="Q38" s="2" t="s">
@@ -4845,7 +4841,7 @@
       </c>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -4855,7 +4851,7 @@
       <c r="C39" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -4879,17 +4875,17 @@
       <c r="K39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="36">
         <v>579</v>
       </c>
-      <c r="M39" s="37" t="s">
+      <c r="M39" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N39" s="37">
+      <c r="N39" s="36">
         <v>8</v>
       </c>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="2" t="s">
         <v>347</v>
       </c>
@@ -4901,7 +4897,7 @@
       </c>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +4907,7 @@
       <c r="C40" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4935,17 +4931,17 @@
       <c r="K40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="37">
         <v>50000</v>
       </c>
-      <c r="M40" s="38" t="s">
+      <c r="M40" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="37">
         <v>24</v>
       </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
       <c r="Q40" s="2" t="s">
         <v>348</v>
       </c>
@@ -4957,7 +4953,7 @@
       </c>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -4967,7 +4963,7 @@
       <c r="C41" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4991,17 +4987,17 @@
       <c r="K41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="36">
         <v>830</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N41" s="37">
+      <c r="N41" s="36">
         <v>8</v>
       </c>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="2" t="s">
         <v>347</v>
       </c>
@@ -5013,7 +5009,7 @@
       </c>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -5023,7 +5019,7 @@
       <c r="C42" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -5047,19 +5043,19 @@
       <c r="K42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="36">
         <v>567</v>
       </c>
-      <c r="M42" s="37" t="s">
+      <c r="M42" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N42" s="37">
+      <c r="N42" s="36">
         <v>48</v>
       </c>
-      <c r="O42" s="37">
+      <c r="O42" s="36">
         <v>25</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="36">
         <v>30</v>
       </c>
       <c r="Q42" s="2" t="s">
@@ -5075,7 +5071,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -5085,7 +5081,7 @@
       <c r="C43" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -5109,19 +5105,19 @@
       <c r="K43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="36">
         <v>639</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N43" s="37">
+      <c r="N43" s="36">
         <v>48</v>
       </c>
-      <c r="O43" s="37">
+      <c r="O43" s="36">
         <v>25</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="36">
         <v>30</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -5137,7 +5133,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
@@ -5147,7 +5143,7 @@
       <c r="C44" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -5171,19 +5167,19 @@
       <c r="K44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="36">
         <v>912</v>
       </c>
-      <c r="M44" s="37" t="s">
+      <c r="M44" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N44" s="37">
+      <c r="N44" s="36">
         <v>48</v>
       </c>
-      <c r="O44" s="37">
+      <c r="O44" s="36">
         <v>25</v>
       </c>
-      <c r="P44" s="37">
+      <c r="P44" s="36">
         <v>30</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -5199,7 +5195,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
@@ -5209,7 +5205,7 @@
       <c r="C45" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -5233,17 +5229,17 @@
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37" t="s">
+      <c r="L45" s="36"/>
+      <c r="M45" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N45" s="37">
+      <c r="N45" s="36">
         <v>48</v>
       </c>
-      <c r="O45" s="37">
+      <c r="O45" s="36">
         <v>25</v>
       </c>
-      <c r="P45" s="37">
+      <c r="P45" s="36">
         <v>30</v>
       </c>
       <c r="Q45" s="2" t="s">
@@ -5259,7 +5255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
@@ -5269,7 +5265,7 @@
       <c r="C46" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -5293,17 +5289,17 @@
       <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37" t="s">
+      <c r="L46" s="36"/>
+      <c r="M46" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N46" s="37">
+      <c r="N46" s="36">
         <v>48</v>
       </c>
-      <c r="O46" s="37">
+      <c r="O46" s="36">
         <v>25</v>
       </c>
-      <c r="P46" s="37">
+      <c r="P46" s="36">
         <v>30</v>
       </c>
       <c r="Q46" s="2" t="s">
@@ -5319,7 +5315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -5329,7 +5325,7 @@
       <c r="C47" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -5353,17 +5349,17 @@
       <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37" t="s">
+      <c r="L47" s="36"/>
+      <c r="M47" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N47" s="37">
+      <c r="N47" s="36">
         <v>48</v>
       </c>
-      <c r="O47" s="37">
+      <c r="O47" s="36">
         <v>25</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="36">
         <v>30</v>
       </c>
       <c r="Q47" s="2" t="s">
@@ -5379,7 +5375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -5390,7 +5386,7 @@
         <v>351</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>118</v>
@@ -5404,7 +5400,7 @@
       <c r="H48" s="2">
         <v>-80.598290000000006</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>40.325800000000001</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -5413,19 +5409,19 @@
       <c r="K48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="37">
         <v>6468</v>
       </c>
-      <c r="M48" s="37" t="s">
+      <c r="M48" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="37">
         <v>24</v>
       </c>
-      <c r="O48" s="38">
+      <c r="O48" s="37">
         <v>25</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48" s="37">
         <v>20</v>
       </c>
       <c r="Q48" s="2" t="s">
@@ -5438,7 +5434,7 @@
         <v>26037</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>235</v>
       </c>
@@ -5446,7 +5442,7 @@
         <v>351</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>114</v>
@@ -5460,7 +5456,7 @@
       <c r="H49" s="2">
         <v>-79.515240000000006</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="35">
         <v>39.66807</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -5469,17 +5465,17 @@
       <c r="K49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="37">
         <v>1948</v>
       </c>
-      <c r="M49" s="37" t="s">
+      <c r="M49" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="37">
         <v>24</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
       <c r="Q49" s="2" t="s">
         <v>347</v>
       </c>
@@ -5490,7 +5486,7 @@
         <v>26525</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>192</v>
       </c>
@@ -5500,7 +5496,7 @@
       <c r="C50" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -5524,19 +5520,19 @@
       <c r="K50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="36">
         <v>874</v>
       </c>
-      <c r="M50" s="37" t="s">
+      <c r="M50" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="36">
         <v>48</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O50" s="36">
         <v>25</v>
       </c>
-      <c r="P50" s="37">
+      <c r="P50" s="36">
         <v>30</v>
       </c>
       <c r="Q50" s="2" t="s">
@@ -5552,7 +5548,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -5562,7 +5558,7 @@
       <c r="C51" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -5586,17 +5582,17 @@
       <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37" t="s">
+      <c r="L51" s="36"/>
+      <c r="M51" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N51" s="37">
+      <c r="N51" s="36">
         <v>48</v>
       </c>
-      <c r="O51" s="37">
+      <c r="O51" s="36">
         <v>25</v>
       </c>
-      <c r="P51" s="37">
+      <c r="P51" s="36">
         <v>30</v>
       </c>
       <c r="Q51" s="2" t="s">
@@ -5612,7 +5608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5622,7 +5618,7 @@
       <c r="C52" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -5646,17 +5642,17 @@
       <c r="K52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37" t="s">
+      <c r="L52" s="36"/>
+      <c r="M52" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N52" s="37">
+      <c r="N52" s="36">
         <v>48</v>
       </c>
-      <c r="O52" s="37">
+      <c r="O52" s="36">
         <v>25</v>
       </c>
-      <c r="P52" s="37">
+      <c r="P52" s="36">
         <v>30</v>
       </c>
       <c r="Q52" s="2" t="s">
@@ -5672,7 +5668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
@@ -5682,7 +5678,7 @@
       <c r="C53" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -5706,17 +5702,17 @@
       <c r="K53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="36">
         <v>1851</v>
       </c>
-      <c r="M53" s="37" t="s">
+      <c r="M53" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N53" s="36">
         <v>8</v>
       </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="2" t="s">
         <v>347</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>26501</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -5737,7 +5733,7 @@
       <c r="C54" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -5761,17 +5757,17 @@
       <c r="K54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="36">
         <v>726</v>
       </c>
-      <c r="M54" s="37" t="s">
+      <c r="M54" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N54" s="37">
+      <c r="N54" s="36">
         <v>8</v>
       </c>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="2" t="s">
         <v>347</v>
       </c>
@@ -5782,7 +5778,7 @@
         <v>26501</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -5792,7 +5788,7 @@
       <c r="C55" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -5816,17 +5812,17 @@
       <c r="K55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37" t="s">
+      <c r="L55" s="36"/>
+      <c r="M55" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N55" s="36">
         <v>48</v>
       </c>
-      <c r="O55" s="37">
+      <c r="O55" s="36">
         <v>25</v>
       </c>
-      <c r="P55" s="37">
+      <c r="P55" s="36">
         <v>30</v>
       </c>
       <c r="Q55" s="2" t="s">
@@ -5842,7 +5838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -5852,7 +5848,7 @@
       <c r="C56" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -5876,17 +5872,17 @@
       <c r="K56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="37">
+      <c r="L56" s="36">
         <v>688</v>
       </c>
-      <c r="M56" s="37" t="s">
+      <c r="M56" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N56" s="37">
+      <c r="N56" s="36">
         <v>8</v>
       </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
       <c r="Q56" s="2" t="s">
         <v>347</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>26505</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>339</v>
       </c>
@@ -5907,7 +5903,7 @@
       <c r="C57" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -5931,17 +5927,17 @@
       <c r="K57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37" t="s">
+      <c r="L57" s="36"/>
+      <c r="M57" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N57" s="37">
+      <c r="N57" s="36">
         <v>48</v>
       </c>
-      <c r="O57" s="37">
+      <c r="O57" s="36">
         <v>25</v>
       </c>
-      <c r="P57" s="37">
+      <c r="P57" s="36">
         <v>30</v>
       </c>
       <c r="Q57" s="2" t="s">
@@ -5957,7 +5953,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -5967,7 +5963,7 @@
       <c r="C58" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -5991,19 +5987,19 @@
       <c r="K58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="36">
         <v>862</v>
       </c>
-      <c r="M58" s="37" t="s">
+      <c r="M58" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N58" s="37">
+      <c r="N58" s="36">
         <v>48</v>
       </c>
-      <c r="O58" s="37">
+      <c r="O58" s="36">
         <v>25</v>
       </c>
-      <c r="P58" s="37">
+      <c r="P58" s="36">
         <v>30</v>
       </c>
       <c r="Q58" s="2" t="s">
@@ -6019,7 +6015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
@@ -6028,7 +6024,7 @@
         <v>351</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>77</v>
@@ -6042,7 +6038,7 @@
       <c r="H59" s="2">
         <v>-79.127250000000004</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="35">
         <v>38.99091</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -6051,17 +6047,17 @@
       <c r="K59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L59" s="37">
         <v>2700</v>
       </c>
-      <c r="M59" s="38" t="s">
+      <c r="M59" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N59" s="38">
+      <c r="N59" s="37">
         <v>24</v>
       </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
       <c r="Q59" s="2" t="s">
         <v>348</v>
       </c>
@@ -6073,7 +6069,7 @@
       </c>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>184</v>
       </c>
@@ -6083,7 +6079,7 @@
       <c r="C60" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -6107,19 +6103,19 @@
       <c r="K60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="37">
+      <c r="L60" s="36">
         <v>474</v>
       </c>
-      <c r="M60" s="37" t="s">
+      <c r="M60" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N60" s="37">
+      <c r="N60" s="36">
         <v>48</v>
       </c>
-      <c r="O60" s="37">
+      <c r="O60" s="36">
         <v>25</v>
       </c>
-      <c r="P60" s="37">
+      <c r="P60" s="36">
         <v>30</v>
       </c>
       <c r="Q60" s="2" t="s">
@@ -6146,7 +6142,7 @@
         <v>351</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>443</v>
@@ -6169,17 +6165,17 @@
       <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37" t="s">
+      <c r="L61" s="36"/>
+      <c r="M61" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N61" s="37">
+      <c r="N61" s="36">
         <v>8</v>
       </c>
-      <c r="O61" s="38">
+      <c r="O61" s="37">
         <v>25</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="37">
         <v>30</v>
       </c>
       <c r="Q61" s="2" t="s">
@@ -6224,16 +6220,16 @@
         <v>11</v>
       </c>
       <c r="L62" s="2"/>
-      <c r="M62" s="37" t="s">
+      <c r="M62" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N62" s="37">
+      <c r="N62" s="36">
         <v>12</v>
       </c>
-      <c r="O62" s="38">
+      <c r="O62" s="37">
         <v>25</v>
       </c>
-      <c r="P62" s="38">
+      <c r="P62" s="37">
         <v>30</v>
       </c>
       <c r="Q62" s="2" t="s">
@@ -6278,16 +6274,16 @@
         <v>11</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="M63" s="37" t="s">
+      <c r="M63" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N63" s="37">
+      <c r="N63" s="36">
         <v>12</v>
       </c>
-      <c r="O63" s="38">
+      <c r="O63" s="37">
         <v>25</v>
       </c>
-      <c r="P63" s="38">
+      <c r="P63" s="37">
         <v>30</v>
       </c>
       <c r="Q63" s="2" t="s">
@@ -6332,16 +6328,16 @@
         <v>11</v>
       </c>
       <c r="L64" s="2"/>
-      <c r="M64" s="37" t="s">
+      <c r="M64" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N64" s="37">
+      <c r="N64" s="36">
         <v>12</v>
       </c>
-      <c r="O64" s="38">
+      <c r="O64" s="37">
         <v>25</v>
       </c>
-      <c r="P64" s="38">
+      <c r="P64" s="37">
         <v>30</v>
       </c>
       <c r="Q64" s="2" t="s">
@@ -6355,7 +6351,7 @@
       </c>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
@@ -6366,7 +6362,7 @@
         <v>351</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>79</v>
@@ -6380,7 +6376,7 @@
       <c r="H65" s="2">
         <v>-81.205110000000005</v>
       </c>
-      <c r="I65" s="36">
+      <c r="I65" s="35">
         <v>39.391249999999999</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -6389,19 +6385,19 @@
       <c r="K65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L65" s="38">
+      <c r="L65" s="37">
         <v>2892</v>
       </c>
-      <c r="M65" s="37" t="s">
+      <c r="M65" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N65" s="38">
+      <c r="N65" s="37">
         <v>24</v>
       </c>
-      <c r="O65" s="38">
+      <c r="O65" s="37">
         <v>25</v>
       </c>
-      <c r="P65" s="38">
+      <c r="P65" s="37">
         <v>20</v>
       </c>
       <c r="Q65" s="2" t="s">
@@ -6415,7 +6411,7 @@
       </c>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>58</v>
       </c>
@@ -6425,7 +6421,7 @@
       <c r="C66" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -6449,17 +6445,17 @@
       <c r="K66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L66" s="37">
+      <c r="L66" s="36">
         <v>515</v>
       </c>
-      <c r="M66" s="37" t="s">
+      <c r="M66" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N66" s="37">
+      <c r="N66" s="36">
         <v>8</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
       <c r="Q66" s="2" t="s">
         <v>347</v>
       </c>
@@ -6471,7 +6467,7 @@
       </c>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -6481,7 +6477,7 @@
       <c r="C67" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -6505,19 +6501,19 @@
       <c r="K67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="37">
+      <c r="L67" s="36">
         <v>904</v>
       </c>
-      <c r="M67" s="37" t="s">
+      <c r="M67" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N67" s="37">
+      <c r="N67" s="36">
         <v>48</v>
       </c>
-      <c r="O67" s="37">
+      <c r="O67" s="36">
         <v>25</v>
       </c>
-      <c r="P67" s="37">
+      <c r="P67" s="36">
         <v>30</v>
       </c>
       <c r="Q67" s="2" t="s">
@@ -6533,7 +6529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
@@ -6543,7 +6539,7 @@
       <c r="C68" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -6567,17 +6563,17 @@
       <c r="K68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="37">
+      <c r="L68" s="36">
         <v>1310</v>
       </c>
-      <c r="M68" s="37" t="s">
+      <c r="M68" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N68" s="37">
+      <c r="N68" s="36">
         <v>8</v>
       </c>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
       <c r="Q68" s="2" t="s">
         <v>347</v>
       </c>
@@ -6589,7 +6585,7 @@
       </c>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -6599,7 +6595,7 @@
       <c r="C69" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -6623,17 +6619,17 @@
       <c r="K69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37" t="s">
+      <c r="L69" s="36"/>
+      <c r="M69" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N69" s="37">
+      <c r="N69" s="36">
         <v>48</v>
       </c>
-      <c r="O69" s="37">
+      <c r="O69" s="36">
         <v>25</v>
       </c>
-      <c r="P69" s="37">
+      <c r="P69" s="36">
         <v>30</v>
       </c>
       <c r="Q69" s="2" t="s">
@@ -6680,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="37" t="s">
+      <c r="M70" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N70" s="37">
+      <c r="N70" s="36">
         <v>12</v>
       </c>
-      <c r="O70" s="38">
+      <c r="O70" s="37">
         <v>25</v>
       </c>
-      <c r="P70" s="38">
+      <c r="P70" s="37">
         <v>30</v>
       </c>
       <c r="Q70" s="2" t="s">
@@ -6703,7 +6699,7 @@
       </c>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -6713,7 +6709,7 @@
       <c r="C71" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -6737,17 +6733,17 @@
       <c r="K71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37" t="s">
+      <c r="L71" s="36"/>
+      <c r="M71" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N71" s="37">
+      <c r="N71" s="36">
         <v>48</v>
       </c>
-      <c r="O71" s="37">
+      <c r="O71" s="36">
         <v>25</v>
       </c>
-      <c r="P71" s="37">
+      <c r="P71" s="36">
         <v>30</v>
       </c>
       <c r="Q71" s="2" t="s">
@@ -6763,7 +6759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>112</v>
       </c>
@@ -6771,7 +6767,7 @@
       <c r="C72" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -6786,7 +6782,7 @@
       <c r="H72" s="2">
         <v>-79.936940000000007</v>
       </c>
-      <c r="I72" s="36">
+      <c r="I72" s="35">
         <v>39.022010000000002</v>
       </c>
       <c r="J72" s="2" t="s">
@@ -6795,17 +6791,17 @@
       <c r="K72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L72" s="38">
+      <c r="L72" s="37">
         <v>1974</v>
       </c>
-      <c r="M72" s="38" t="s">
+      <c r="M72" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N72" s="38">
+      <c r="N72" s="37">
         <v>24</v>
       </c>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
       <c r="Q72" s="2" t="s">
         <v>348</v>
       </c>
@@ -6817,7 +6813,7 @@
       </c>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -6825,7 +6821,7 @@
       <c r="C73" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -6840,7 +6836,7 @@
       <c r="H73" s="2">
         <v>-80.212010000000006</v>
       </c>
-      <c r="I73" s="36">
+      <c r="I73" s="35">
         <v>39.72007</v>
       </c>
       <c r="J73" s="2" t="s">
@@ -6849,17 +6845,17 @@
       <c r="K73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L73" s="37">
+      <c r="L73" s="36">
         <v>400</v>
       </c>
-      <c r="M73" s="38" t="s">
+      <c r="M73" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N73" s="38">
+      <c r="N73" s="37">
         <v>24</v>
       </c>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
       <c r="Q73" s="2" t="s">
         <v>348</v>
       </c>
@@ -6871,7 +6867,7 @@
       </c>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6879,7 +6875,7 @@
       <c r="C74" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -6894,7 +6890,7 @@
       <c r="H74" s="2">
         <v>-80.258989999999997</v>
       </c>
-      <c r="I74" s="36">
+      <c r="I74" s="35">
         <v>39.280479999999997</v>
       </c>
       <c r="J74" s="2" t="s">
@@ -6903,17 +6899,17 @@
       <c r="K74" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L74" s="38">
+      <c r="L74" s="37">
         <v>6984</v>
       </c>
-      <c r="M74" s="38" t="s">
+      <c r="M74" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N74" s="38">
+      <c r="N74" s="37">
         <v>24</v>
       </c>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
       <c r="Q74" s="2" t="s">
         <v>348</v>
       </c>
@@ -6925,7 +6921,7 @@
       </c>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -6933,7 +6929,7 @@
       <c r="C75" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -6948,7 +6944,7 @@
       <c r="H75" s="2">
         <v>-80.567440000000005</v>
       </c>
-      <c r="I75" s="36">
+      <c r="I75" s="35">
         <v>39.826610000000002</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -6957,19 +6953,19 @@
       <c r="K75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L75" s="38">
+      <c r="L75" s="37">
         <v>1340</v>
       </c>
-      <c r="M75" s="37" t="s">
+      <c r="M75" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N75" s="38">
+      <c r="N75" s="37">
         <v>24</v>
       </c>
-      <c r="O75" s="38">
+      <c r="O75" s="37">
         <v>25</v>
       </c>
-      <c r="P75" s="38">
+      <c r="P75" s="37">
         <v>30</v>
       </c>
       <c r="Q75" s="2" t="s">
@@ -6983,7 +6979,7 @@
       </c>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>91</v>
       </c>
@@ -6991,7 +6987,7 @@
       <c r="C76" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -7006,7 +7002,7 @@
       <c r="H76" s="2">
         <v>-80.124449999999996</v>
       </c>
-      <c r="I76" s="36">
+      <c r="I76" s="35">
         <v>39.493949999999998</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -7015,19 +7011,19 @@
       <c r="K76" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L76" s="38">
+      <c r="L76" s="37">
         <v>25525</v>
       </c>
-      <c r="M76" s="37" t="s">
+      <c r="M76" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N76" s="38">
+      <c r="N76" s="37">
         <v>24</v>
       </c>
-      <c r="O76" s="38">
+      <c r="O76" s="37">
         <v>25</v>
       </c>
-      <c r="P76" s="38">
+      <c r="P76" s="37">
         <v>30</v>
       </c>
       <c r="Q76" s="2" t="s">
@@ -7041,7 +7037,7 @@
       </c>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>59</v>
       </c>
@@ -7051,7 +7047,7 @@
       <c r="C77" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -7066,7 +7062,7 @@
       <c r="H77" s="2">
         <v>-78.98272</v>
       </c>
-      <c r="I77" s="36">
+      <c r="I77" s="35">
         <v>39.438070000000003</v>
       </c>
       <c r="J77" s="2" t="s">
@@ -7075,19 +7071,19 @@
       <c r="K77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L77" s="37">
+      <c r="L77" s="36">
         <v>1193</v>
       </c>
-      <c r="M77" s="37" t="s">
+      <c r="M77" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N77" s="37">
+      <c r="N77" s="36">
         <v>48</v>
       </c>
-      <c r="O77" s="38">
+      <c r="O77" s="37">
         <v>25</v>
       </c>
-      <c r="P77" s="38">
+      <c r="P77" s="37">
         <v>30</v>
       </c>
       <c r="Q77" s="2" t="s">
@@ -7101,7 +7097,7 @@
       </c>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>125</v>
       </c>
@@ -7109,7 +7105,7 @@
       <c r="C78" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -7129,17 +7125,17 @@
       <c r="K78" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L78" s="38">
+      <c r="L78" s="37">
         <v>1800</v>
       </c>
-      <c r="M78" s="38" t="s">
+      <c r="M78" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N78" s="38">
+      <c r="N78" s="37">
         <v>24</v>
       </c>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
       <c r="Q78" s="2" t="s">
         <v>348</v>
       </c>
@@ -7149,7 +7145,7 @@
       <c r="S78" s="4"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
@@ -7159,7 +7155,7 @@
       <c r="C79" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -7183,17 +7179,17 @@
       <c r="K79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L79" s="38">
+      <c r="L79" s="37">
         <v>3255</v>
       </c>
-      <c r="M79" s="38" t="s">
+      <c r="M79" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N79" s="38">
+      <c r="N79" s="37">
         <v>24</v>
       </c>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
       <c r="Q79" s="2" t="s">
         <v>348</v>
       </c>
@@ -7205,14 +7201,14 @@
       </c>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -7232,17 +7228,17 @@
       <c r="K80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L80" s="38">
+      <c r="L80" s="37">
         <v>20411</v>
       </c>
-      <c r="M80" s="38" t="s">
+      <c r="M80" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N80" s="38">
+      <c r="N80" s="37">
         <v>24</v>
       </c>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
       <c r="Q80" s="2" t="s">
         <v>348</v>
       </c>
@@ -7252,7 +7248,7 @@
       <c r="S80" s="4"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7260,7 +7256,7 @@
       <c r="C81" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -7275,7 +7271,7 @@
       <c r="H81" s="2">
         <v>-80.260360000000006</v>
       </c>
-      <c r="I81" s="36">
+      <c r="I81" s="35">
         <v>39.452579999999998</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -7284,19 +7280,19 @@
       <c r="K81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L81" s="38">
+      <c r="L81" s="37">
         <v>2742</v>
       </c>
-      <c r="M81" s="37" t="s">
+      <c r="M81" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="N81" s="38">
+      <c r="N81" s="37">
         <v>24</v>
       </c>
-      <c r="O81" s="38">
+      <c r="O81" s="37">
         <v>25</v>
       </c>
-      <c r="P81" s="38">
+      <c r="P81" s="37">
         <v>30</v>
       </c>
       <c r="Q81" s="2" t="s">
@@ -7310,7 +7306,7 @@
       </c>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>619</v>
       </c>
@@ -7320,7 +7316,7 @@
       <c r="C82" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -7344,13 +7340,13 @@
       <c r="K82" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L82" s="38">
+      <c r="L82" s="37">
         <v>3510</v>
       </c>
-      <c r="M82" s="38" t="s">
+      <c r="M82" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N82" s="38">
+      <c r="N82" s="37">
         <v>24</v>
       </c>
       <c r="Q82" s="2" t="s">
@@ -7364,21 +7360,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T82" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ZooWVU"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="active"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:T70">
-      <sortCondition ref="L2:L82"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:T82" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T81">
     <sortCondition ref="D2:D81"/>
     <sortCondition ref="C2:C81"/>
@@ -7949,29 +7931,29 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>600</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>601</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>602</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50">
+      <c r="G21" s="49"/>
+      <c r="H21" s="49">
         <v>0.3</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="51">
         <v>3500</v>
       </c>
     </row>
@@ -8659,23 +8641,23 @@
       <c r="I47" s="30">
         <v>2742</v>
       </c>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
@@ -8781,19 +8763,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <v>54005</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <v>21809</v>
       </c>
     </row>
@@ -8814,19 +8796,19 @@
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>54009</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="58">
         <v>21939</v>
       </c>
     </row>
@@ -8879,37 +8861,37 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>54017</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>8448</v>
       </c>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>54019</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <v>39927</v>
       </c>
       <c r="F11" s="21"/>
@@ -8931,17 +8913,17 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57">
         <v>54023</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <v>11616</v>
       </c>
       <c r="F13" s="21"/>
@@ -8979,51 +8961,51 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57">
         <v>54029</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="58">
         <v>28656</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="57">
         <v>54031</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <v>14160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <v>54033</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="58">
         <v>67256</v>
       </c>
     </row>
@@ -9044,54 +9026,54 @@
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="57">
         <v>54037</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="58">
         <v>57146</v>
       </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="57">
         <v>54039</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="59">
         <v>183279</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="57">
         <v>54041</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="58">
         <v>16166</v>
       </c>
     </row>
@@ -9128,53 +9110,53 @@
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="57">
         <v>54049</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="58">
         <v>56072</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="57">
         <v>54051</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="58">
         <v>30531</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="57">
         <v>54053</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="58">
         <v>26700</v>
       </c>
       <c r="F27" s="19"/>
@@ -9196,37 +9178,37 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="57">
         <v>54055</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="58">
         <v>58758</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="57">
         <v>54057</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="58">
         <v>26868</v>
       </c>
     </row>
@@ -9247,19 +9229,19 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="57">
         <v>54061</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="58">
         <v>105612</v>
       </c>
     </row>
@@ -9279,19 +9261,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="57">
         <v>54065</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="58">
         <v>17884</v>
       </c>
     </row>
@@ -9311,19 +9293,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="57">
         <v>54069</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="58">
         <v>41447</v>
       </c>
     </row>
@@ -9344,19 +9326,19 @@
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="57">
         <v>54073</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="58">
         <v>7482</v>
       </c>
     </row>
@@ -9376,19 +9358,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="57">
         <v>54077</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="58">
         <v>33432</v>
       </c>
       <c r="F40" s="19"/>
@@ -9424,19 +9406,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="C43" s="58">
+      <c r="C43" s="57">
         <v>54083</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="58">
         <v>28695</v>
       </c>
     </row>
@@ -9488,19 +9470,19 @@
       <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="57">
         <v>54091</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="58">
         <v>16695</v>
       </c>
       <c r="F47" s="19"/>
@@ -9522,17 +9504,17 @@
       <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58">
+      <c r="B49" s="56"/>
+      <c r="C49" s="57">
         <v>54095</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="59">
+      <c r="E49" s="58">
         <v>8811</v>
       </c>
       <c r="F49" s="19"/>
@@ -9618,19 +9600,19 @@
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="57">
         <v>54107</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="58">
         <v>83518</v>
       </c>
       <c r="F55" s="19"/>
@@ -9719,7 +9701,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>380</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -9739,7 +9721,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>552</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -9759,7 +9741,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>553</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -9774,7 +9756,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>413</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -9791,7 +9773,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>554</v>
       </c>
       <c r="B6" s="25" t="s">
@@ -9812,7 +9794,7 @@
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>555</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -9832,7 +9814,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -9852,7 +9834,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>383</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -9869,7 +9851,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>386</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -9889,7 +9871,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>557</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -9906,7 +9888,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>566</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -9926,7 +9908,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>567</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -9947,7 +9929,7 @@
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>611</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -9967,7 +9949,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>608</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -9987,7 +9969,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>558</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -10007,7 +9989,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>559</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -10028,7 +10010,7 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>560</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -10048,7 +10030,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>392</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -10068,7 +10050,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>561</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -10085,7 +10067,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>562</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -10102,7 +10084,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -10119,7 +10101,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>564</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -10136,7 +10118,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>393</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -10266,7 +10248,7 @@
       <c r="A2" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>576</v>
       </c>
     </row>
@@ -10274,23 +10256,23 @@
       <c r="A3" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>604</v>
       </c>
     </row>
@@ -10298,23 +10280,23 @@
       <c r="A6" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>567</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>580</v>
       </c>
     </row>
@@ -10322,7 +10304,7 @@
       <c r="A9" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>605</v>
       </c>
     </row>
@@ -10330,7 +10312,7 @@
       <c r="A10" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10338,7 +10320,7 @@
       <c r="A11" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10359,7 +10341,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>559</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -10367,7 +10349,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>555</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -10375,7 +10357,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>556</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -10383,7 +10365,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>611</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -10391,16 +10373,16 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
+      <c r="B18" s="43"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
+      <c r="B20" s="43"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
+      <c r="B21" s="43"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
@@ -10425,54 +10407,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="56">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="55"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="55"/>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>617</v>
       </c>
     </row>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1CE0FE-9A0A-5E48-9BB9-3B63DF604BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D7818-8CB1-0B49-BB60-62C23B6BA3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="840" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="627">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1921,6 +1921,9 @@
   </si>
   <si>
     <t>WV0020150</t>
+  </si>
+  <si>
+    <t>L01</t>
   </si>
 </sst>
 </file>
@@ -2592,10 +2595,10 @@
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3093,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>525</v>
+        <v>626</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>351</v>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D7818-8CB1-0B49-BB60-62C23B6BA3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8099E5-1D11-C34D-811F-5AEA3BF7A012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="55020" yWindow="4560" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="628">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -1924,6 +1924,9 @@
   </si>
   <si>
     <t>L01</t>
+  </si>
+  <si>
+    <t>Host</t>
   </si>
 </sst>
 </file>
@@ -2594,11 +2597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7378,7 +7381,7 @@
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -9668,9 +9671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10138,6 +10141,23 @@
       </c>
       <c r="F24" s="25" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="19" x14ac:dyDescent="0.25">

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8099E5-1D11-C34D-811F-5AEA3BF7A012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31BBB0-D03C-634A-AB88-78C828B3F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55020" yWindow="4560" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -2597,11 +2597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0856F7A-D0C0-3942-9027-9FB2F3C2C3E0}">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="37">
-        <v>50000</v>
+        <v>33782</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>338</v>
@@ -7380,9 +7380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D3C3-8C4A-6E4A-999A-41BCCB2FAC67}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8707,7 +8707,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9671,7 +9671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C28A9-51BA-1349-BC2C-74CFA9B6CA14}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>

--- a/patchr/resources/watchdb.all_tables.xlsx
+++ b/patchr/resources/watchdb.all_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31BBB0-D03C-634A-AB88-78C828B3F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2553BB6D-EFEA-5C48-B063-B80A901172DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
+    <workbookView xWindow="53020" yWindow="3740" windowWidth="33260" windowHeight="21460" xr2:uid="{ABEE2980-A2EF-284E-9534-8BF6C1D1D8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="627">
   <si>
     <t>CharlestonWWTP-01</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>withdrawn</t>
-  </si>
-  <si>
-    <t>Cabell,Wayne</t>
   </si>
   <si>
     <t>Mountain Valley Apartments</t>
@@ -2095,7 +2092,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2126,6 +2123,12 @@
         <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2140,7 +2143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2275,6 +2278,7 @@
     <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2598,10 +2602,10 @@
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,64 +2629,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>61</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2691,7 +2695,7 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>103</v>
@@ -2700,10 +2704,10 @@
         <v>68</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H2" s="29">
         <v>-81.679554234298493</v>
@@ -2712,7 +2716,7 @@
         <v>38.373735533484897</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>1</v>
@@ -2721,7 +2725,7 @@
         <v>49500</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N2" s="34">
         <v>24</v>
@@ -2729,7 +2733,7 @@
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>20</v>
@@ -2745,7 +2749,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>103</v>
@@ -2754,10 +2758,10 @@
         <v>162</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H3" s="29">
         <v>-81.758709180509001</v>
@@ -2766,7 +2770,7 @@
         <v>38.368519014596998</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>1</v>
@@ -2775,7 +2779,7 @@
         <v>9000</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N3" s="34">
         <v>24</v>
@@ -2787,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>20</v>
@@ -2803,7 +2807,7 @@
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>103</v>
@@ -2812,10 +2816,10 @@
         <v>155</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" s="29">
         <v>-82.528864034905197</v>
@@ -2824,7 +2828,7 @@
         <v>38.400744931017101</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>164</v>
@@ -2833,7 +2837,7 @@
         <v>56000</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N4" s="34">
         <v>24</v>
@@ -2845,7 +2849,7 @@
         <v>20</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>20</v>
@@ -2861,7 +2865,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>103</v>
@@ -2870,10 +2874,10 @@
         <v>161</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H5" s="29">
         <v>-82.298209254857795</v>
@@ -2882,7 +2886,7 @@
         <v>38.419661908139098</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>157</v>
@@ -2891,7 +2895,7 @@
         <v>7000</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N5" s="34">
         <v>24</v>
@@ -2903,7 +2907,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>20</v>
@@ -2915,23 +2919,23 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H6" s="44">
         <v>-81.867118796822695</v>
@@ -2940,7 +2944,7 @@
         <v>38.537901317549398</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K6" s="44" t="s">
         <v>159</v>
@@ -2949,7 +2953,7 @@
         <v>4900</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N6" s="48">
         <v>48</v>
@@ -2961,7 +2965,7 @@
         <v>1440</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R6" s="44" t="s">
         <v>20</v>
@@ -2973,23 +2977,23 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H7" s="29">
         <v>-82.105144999999993</v>
@@ -2998,7 +3002,7 @@
         <v>38.425437000000002</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>157</v>
@@ -3007,7 +3011,7 @@
         <v>7200</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N7" s="34">
         <v>24</v>
@@ -3019,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>20</v>
@@ -3037,19 +3041,19 @@
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" s="29">
         <v>-82.244877751268803</v>
@@ -3058,7 +3062,7 @@
         <v>38.372162360135</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>157</v>
@@ -3067,7 +3071,7 @@
         <v>4050</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N8" s="34">
         <v>24</v>
@@ -3079,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>20</v>
@@ -3096,10 +3100,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>103</v>
@@ -3108,10 +3112,10 @@
         <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" s="2">
         <v>-80.778989999999993</v>
@@ -3120,7 +3124,7 @@
         <v>39.299059999999997</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>57</v>
@@ -3129,7 +3133,7 @@
         <v>564</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N9" s="37">
         <v>24</v>
@@ -3141,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>20</v>
@@ -3156,10 +3160,10 @@
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>103</v>
@@ -3168,10 +3172,10 @@
         <v>116</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H10" s="2">
         <v>-80.24933</v>
@@ -3180,7 +3184,7 @@
         <v>39.511809999999997</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>89</v>
@@ -3189,7 +3193,7 @@
         <v>610</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N10" s="37">
         <v>24</v>
@@ -3201,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>20</v>
@@ -3216,10 +3220,10 @@
         <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>103</v>
@@ -3228,10 +3232,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H11" s="2">
         <v>-79.50179</v>
@@ -3240,7 +3244,7 @@
         <v>39.457090000000001</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>63</v>
@@ -3250,7 +3254,7 @@
         <v>700</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N11" s="37">
         <v>24</v>
@@ -3262,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>20</v>
@@ -3277,10 +3281,10 @@
         <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>103</v>
@@ -3289,10 +3293,10 @@
         <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H12" s="2">
         <v>-80.323710000000005</v>
@@ -3301,7 +3305,7 @@
         <v>39.518140000000002</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>89</v>
@@ -3310,7 +3314,7 @@
         <v>1091</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N12" s="37">
         <v>24</v>
@@ -3322,7 +3326,7 @@
         <v>20</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
@@ -3337,10 +3341,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>60</v>
@@ -3349,10 +3353,10 @@
         <v>107</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H13" s="2">
         <v>-80.545150000000007</v>
@@ -3361,7 +3365,7 @@
         <v>39.285969999999999</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>88</v>
@@ -3370,7 +3374,7 @@
         <v>1853</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N13" s="37">
         <v>24</v>
@@ -3382,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>20</v>
@@ -3397,10 +3401,10 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>103</v>
@@ -3409,10 +3413,10 @@
         <v>102</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H14" s="2">
         <v>-79.856999999999999</v>
@@ -3421,7 +3425,7 @@
         <v>39.677120000000002</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>11</v>
@@ -3430,7 +3434,7 @@
         <v>2000</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N14" s="37">
         <v>24</v>
@@ -3442,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>20</v>
@@ -3454,25 +3458,25 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H15" s="12">
         <v>-81.165005500000007</v>
@@ -3481,16 +3485,16 @@
         <v>37.946770700000002</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L15" s="37">
         <v>2626</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N15" s="38">
         <v>24</v>
@@ -3502,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>20</v>
@@ -3517,10 +3521,10 @@
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>103</v>
@@ -3529,10 +3533,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H16" s="2">
         <v>-81.847288800000001</v>
@@ -3541,7 +3545,7 @@
         <v>38.102483999999997</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>153</v>
@@ -3550,7 +3554,7 @@
         <v>4555</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N16" s="37">
         <v>24</v>
@@ -3562,7 +3566,7 @@
         <v>20</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>20</v>
@@ -3577,10 +3581,10 @@
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>181</v>
@@ -3589,10 +3593,10 @@
         <v>115</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="2">
         <v>-79.978949999999998</v>
@@ -3601,7 +3605,7 @@
         <v>38.712879999999998</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>121</v>
@@ -3610,7 +3614,7 @@
         <v>2101</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N17" s="37">
         <v>24</v>
@@ -3622,7 +3626,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>20</v>
@@ -3634,25 +3638,25 @@
     </row>
     <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H18" s="2">
         <v>-82.135114799999997</v>
@@ -3661,16 +3665,16 @@
         <v>38.856708400000002</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L18" s="37">
         <v>5515</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N18" s="37">
         <v>24</v>
@@ -3682,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>20</v>
@@ -3697,10 +3701,10 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>103</v>
@@ -3709,10 +3713,10 @@
         <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H19" s="2">
         <v>-80.018370000000004</v>
@@ -3721,7 +3725,7 @@
         <v>39.338769999999997</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>100</v>
@@ -3730,7 +3734,7 @@
         <v>6071</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N19" s="37">
         <v>24</v>
@@ -3738,7 +3742,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>20</v>
@@ -3753,10 +3757,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>103</v>
@@ -3765,10 +3769,10 @@
         <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H20" s="2">
         <v>-78.975080000000005</v>
@@ -3777,7 +3781,7 @@
         <v>39.441229999999997</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -3786,7 +3790,7 @@
         <v>8168</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N20" s="37">
         <v>24</v>
@@ -3798,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>20</v>
@@ -3813,10 +3817,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>103</v>
@@ -3825,10 +3829,10 @@
         <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H21" s="2">
         <v>-80.459909999999994</v>
@@ -3837,7 +3841,7 @@
         <v>39.062240000000003</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>9</v>
@@ -3846,7 +3850,7 @@
         <v>10364</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N21" s="37">
         <v>24</v>
@@ -3858,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>20</v>
@@ -3872,10 +3876,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>103</v>
@@ -3884,10 +3888,10 @@
         <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H22" s="2">
         <v>-80.754930000000002</v>
@@ -3896,7 +3900,7 @@
         <v>39.929859999999998</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>5</v>
@@ -3905,7 +3909,7 @@
         <v>12000</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N22" s="37">
         <v>24</v>
@@ -3913,7 +3917,7 @@
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>20</v>
@@ -3928,10 +3932,10 @@
         <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>103</v>
@@ -3940,10 +3944,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H23" s="2">
         <v>-79.865430000000003</v>
@@ -3952,7 +3956,7 @@
         <v>38.920259999999999</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>121</v>
@@ -3961,7 +3965,7 @@
         <v>13156</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N23" s="37">
         <v>24</v>
@@ -3973,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>20</v>
@@ -3987,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>103</v>
@@ -3999,10 +4003,10 @@
         <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H24" s="2">
         <v>-77.855890000000002</v>
@@ -4011,7 +4015,7 @@
         <v>39.279240000000001</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>7</v>
@@ -4020,7 +4024,7 @@
         <v>17000</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N24" s="37">
         <v>24</v>
@@ -4028,7 +4032,7 @@
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>20</v>
@@ -4043,10 +4047,10 @@
         <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>103</v>
@@ -4055,10 +4059,10 @@
         <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H25" s="2">
         <v>-80.338570000000004</v>
@@ -4067,7 +4071,7 @@
         <v>39.279310000000002</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>88</v>
@@ -4076,7 +4080,7 @@
         <v>26498</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N25" s="37">
         <v>24</v>
@@ -4084,7 +4088,7 @@
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>20</v>
@@ -4098,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>60</v>
@@ -4110,10 +4114,10 @@
         <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H26" s="2">
         <v>-81.079930000000004</v>
@@ -4122,7 +4126,7 @@
         <v>37.380360000000003</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -4131,7 +4135,7 @@
         <v>36000</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N26" s="37">
         <v>24</v>
@@ -4143,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>20</v>
@@ -4158,10 +4162,10 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>103</v>
@@ -4170,10 +4174,10 @@
         <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H27" s="2">
         <v>-81.557389999999998</v>
@@ -4182,7 +4186,7 @@
         <v>39.281709999999997</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>54</v>
@@ -4191,7 +4195,7 @@
         <v>48050</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N27" s="37">
         <v>24</v>
@@ -4199,7 +4203,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>20</v>
@@ -4214,10 +4218,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>103</v>
@@ -4226,10 +4230,10 @@
         <v>137</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H28" s="2">
         <v>-79.992055399999998</v>
@@ -4238,7 +4242,7 @@
         <v>39.655174500000001</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>11</v>
@@ -4247,7 +4251,7 @@
         <v>48328</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N28" s="37">
         <v>24</v>
@@ -4255,7 +4259,7 @@
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>20</v>
@@ -4270,10 +4274,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>103</v>
@@ -4282,10 +4286,10 @@
         <v>85</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H29" s="2">
         <v>-80.72757</v>
@@ -4294,7 +4298,7 @@
         <v>40.055880000000002</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>3</v>
@@ -4303,7 +4307,7 @@
         <v>33782</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N29" s="37">
         <v>24</v>
@@ -4311,7 +4315,7 @@
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>20</v>
@@ -4327,7 +4331,7 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>181</v>
@@ -4336,10 +4340,10 @@
         <v>174</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H30" s="44">
         <v>-82.430654000000004</v>
@@ -4348,14 +4352,14 @@
         <v>38.424089000000002</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N30" s="33">
         <v>5</v>
@@ -4367,7 +4371,7 @@
         <v>30</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>20</v>
@@ -4376,7 +4380,7 @@
         <v>25703</v>
       </c>
       <c r="T30" s="44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4385,7 +4389,7 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>181</v>
@@ -4394,10 +4398,10 @@
         <v>156</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H31" s="29">
         <v>-82.285698770801503</v>
@@ -4406,7 +4410,7 @@
         <v>38.414946823509098</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K31" s="29" t="s">
         <v>157</v>
@@ -4415,7 +4419,7 @@
         <v>4000</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N31" s="33">
         <v>24</v>
@@ -4427,7 +4431,7 @@
         <v>30</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>20</v>
@@ -4436,7 +4440,7 @@
         <v>25504</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -4445,7 +4449,7 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>181</v>
@@ -4457,7 +4461,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H32" s="44">
         <v>-82.425917999999996</v>
@@ -4466,14 +4470,14 @@
         <v>38.421745999999999</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K32" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N32" s="33">
         <v>5</v>
@@ -4485,7 +4489,7 @@
         <v>30</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R32" s="29" t="s">
         <v>20</v>
@@ -4494,7 +4498,7 @@
         <v>25703</v>
       </c>
       <c r="T32" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4503,7 +4507,7 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>181</v>
@@ -4512,10 +4516,10 @@
         <v>158</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H33" s="29">
         <v>-82.006959612418996</v>
@@ -4524,7 +4528,7 @@
         <v>38.446524084559897</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K33" s="29" t="s">
         <v>159</v>
@@ -4533,7 +4537,7 @@
         <v>28759</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N33" s="34">
         <v>72</v>
@@ -4545,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R33" s="29" t="s">
         <v>20</v>
@@ -4561,7 +4565,7 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>181</v>
@@ -4570,10 +4574,10 @@
         <v>163</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H34" s="29">
         <v>-82.451303840583293</v>
@@ -4582,7 +4586,7 @@
         <v>38.343336164586603</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K34" s="29" t="s">
         <v>164</v>
@@ -4591,7 +4595,7 @@
         <v>1600</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N34" s="34">
         <v>24</v>
@@ -4603,7 +4607,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>20</v>
@@ -4612,7 +4616,7 @@
         <v>25701</v>
       </c>
       <c r="T34" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -4621,7 +4625,7 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>181</v>
@@ -4630,10 +4634,10 @@
         <v>165</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H35" s="29">
         <v>-82.287563960345196</v>
@@ -4642,7 +4646,7 @@
         <v>38.572623654172197</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>157</v>
@@ -4651,7 +4655,7 @@
         <v>1000</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N35" s="34">
         <v>24</v>
@@ -4663,7 +4667,7 @@
         <v>20</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R35" s="29" t="s">
         <v>20</v>
@@ -4672,7 +4676,7 @@
         <v>25537</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -4681,7 +4685,7 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>181</v>
@@ -4693,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H36" s="44">
         <v>-82.425557700629597</v>
@@ -4702,14 +4706,14 @@
         <v>38.422913110104098</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N36" s="33">
         <v>5</v>
@@ -4721,7 +4725,7 @@
         <v>30</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R36" s="29" t="s">
         <v>20</v>
@@ -4737,7 +4741,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>181</v>
@@ -4749,7 +4753,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H37" s="44">
         <v>-82.424907815220195</v>
@@ -4758,14 +4762,14 @@
         <v>38.423076174075902</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N37" s="33">
         <v>24</v>
@@ -4777,7 +4781,7 @@
         <v>30</v>
       </c>
       <c r="Q37" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R37" s="29" t="s">
         <v>20</v>
@@ -4792,10 +4796,10 @@
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>181</v>
@@ -4804,10 +4808,10 @@
         <v>65</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H38" s="2">
         <v>-81.015979999999999</v>
@@ -4816,7 +4820,7 @@
         <v>37.42163</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>17</v>
@@ -4825,7 +4829,7 @@
         <v>2391</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N38" s="37">
         <v>24</v>
@@ -4837,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>20</v>
@@ -4852,10 +4856,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>60</v>
@@ -4867,7 +4871,7 @@
         <v>34</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H39" s="2">
         <v>-79.905010000000004</v>
@@ -4876,7 +4880,7 @@
         <v>39.610210000000002</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>11</v>
@@ -4885,7 +4889,7 @@
         <v>579</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N39" s="36">
         <v>8</v>
@@ -4893,7 +4897,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>20</v>
@@ -4908,22 +4912,22 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H40" s="2">
         <v>-81.677679999999995</v>
@@ -4932,7 +4936,7 @@
         <v>38.372869999999999</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>1</v>
@@ -4941,7 +4945,7 @@
         <v>50000</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N40" s="37">
         <v>24</v>
@@ -4949,7 +4953,7 @@
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
       <c r="Q40" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>20</v>
@@ -4964,10 +4968,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>60</v>
@@ -4979,7 +4983,7 @@
         <v>34</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H41" s="2">
         <v>-79.867609999999999</v>
@@ -4988,7 +4992,7 @@
         <v>39.652670000000001</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>11</v>
@@ -4997,7 +5001,7 @@
         <v>830</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N41" s="36">
         <v>8</v>
@@ -5005,7 +5009,7 @@
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
       <c r="Q41" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>20</v>
@@ -5020,22 +5024,22 @@
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H42" s="2">
         <v>-79.945801900000006</v>
@@ -5044,7 +5048,7 @@
         <v>39.6362083</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
@@ -5053,7 +5057,7 @@
         <v>567</v>
       </c>
       <c r="M42" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N42" s="36">
         <v>48</v>
@@ -5065,7 +5069,7 @@
         <v>30</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>20</v>
@@ -5082,10 +5086,10 @@
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>60</v>
@@ -5097,7 +5101,7 @@
         <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H43" s="2">
         <v>-79.953093199999998</v>
@@ -5106,7 +5110,7 @@
         <v>39.636423100000002</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
@@ -5115,7 +5119,7 @@
         <v>639</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N43" s="36">
         <v>48</v>
@@ -5127,7 +5131,7 @@
         <v>30</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>20</v>
@@ -5144,10 +5148,10 @@
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>60</v>
@@ -5159,7 +5163,7 @@
         <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H44" s="2">
         <v>-80.000420899999995</v>
@@ -5168,7 +5172,7 @@
         <v>39.6535571</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
@@ -5177,7 +5181,7 @@
         <v>912</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N44" s="36">
         <v>48</v>
@@ -5189,7 +5193,7 @@
         <v>30</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>20</v>
@@ -5206,10 +5210,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>60</v>
@@ -5218,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H45" s="2">
         <v>-79.972157499999994</v>
@@ -5230,14 +5234,14 @@
         <v>39.650096900000001</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="36"/>
       <c r="M45" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N45" s="36">
         <v>48</v>
@@ -5249,7 +5253,7 @@
         <v>30</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>20</v>
@@ -5266,10 +5270,10 @@
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>60</v>
@@ -5281,7 +5285,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H46" s="2">
         <v>-79.956234100000003</v>
@@ -5290,14 +5294,14 @@
         <v>39.667909799999997</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="36"/>
       <c r="M46" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N46" s="36">
         <v>48</v>
@@ -5309,7 +5313,7 @@
         <v>30</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>20</v>
@@ -5326,10 +5330,10 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>60</v>
@@ -5341,7 +5345,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H47" s="2">
         <v>-79.956204600000007</v>
@@ -5350,14 +5354,14 @@
         <v>39.668112200000003</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="36"/>
       <c r="M47" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N47" s="36">
         <v>48</v>
@@ -5369,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>20</v>
@@ -5386,10 +5390,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>181</v>
@@ -5398,10 +5402,10 @@
         <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H48" s="2">
         <v>-80.598290000000006</v>
@@ -5410,7 +5414,7 @@
         <v>40.325800000000001</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>122</v>
@@ -5419,7 +5423,7 @@
         <v>6468</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N48" s="37">
         <v>24</v>
@@ -5431,7 +5435,7 @@
         <v>20</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>20</v>
@@ -5442,10 +5446,10 @@
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>181</v>
@@ -5457,7 +5461,7 @@
         <v>124</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H49" s="2">
         <v>-79.515240000000006</v>
@@ -5466,7 +5470,7 @@
         <v>39.66807</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>63</v>
@@ -5475,7 +5479,7 @@
         <v>1948</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N49" s="37">
         <v>24</v>
@@ -5483,7 +5487,7 @@
       <c r="O49" s="37"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>20</v>
@@ -5494,13 +5498,13 @@
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>60</v>
@@ -5512,7 +5516,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H50" s="2">
         <v>-79.956762600000005</v>
@@ -5521,7 +5525,7 @@
         <v>39.637875299999997</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
@@ -5530,7 +5534,7 @@
         <v>874</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N50" s="36">
         <v>48</v>
@@ -5542,7 +5546,7 @@
         <v>30</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>20</v>
@@ -5559,10 +5563,10 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>60</v>
@@ -5574,7 +5578,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H51" s="2">
         <v>-79.955122099999997</v>
@@ -5583,14 +5587,14 @@
         <v>39.669188599999998</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="36"/>
       <c r="M51" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N51" s="36">
         <v>48</v>
@@ -5602,7 +5606,7 @@
         <v>30</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>20</v>
@@ -5619,10 +5623,10 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>60</v>
@@ -5634,7 +5638,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H52" s="2">
         <v>-79.955245399999995</v>
@@ -5643,14 +5647,14 @@
         <v>39.669279500000002</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="36"/>
       <c r="M52" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N52" s="36">
         <v>48</v>
@@ -5662,7 +5666,7 @@
         <v>30</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>20</v>
@@ -5679,10 +5683,10 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>60</v>
@@ -5694,7 +5698,7 @@
         <v>34</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H53" s="2">
         <v>-79.957359999999994</v>
@@ -5703,7 +5707,7 @@
         <v>39.625419999999998</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>11</v>
@@ -5712,7 +5716,7 @@
         <v>1851</v>
       </c>
       <c r="M53" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N53" s="36">
         <v>8</v>
@@ -5720,7 +5724,7 @@
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>20</v>
@@ -5734,10 +5738,10 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>60</v>
@@ -5749,7 +5753,7 @@
         <v>34</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H54" s="2">
         <v>-79.943309999999997</v>
@@ -5758,7 +5762,7 @@
         <v>39.61036</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>11</v>
@@ -5767,7 +5771,7 @@
         <v>726</v>
       </c>
       <c r="M54" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N54" s="36">
         <v>8</v>
@@ -5775,7 +5779,7 @@
       <c r="O54" s="36"/>
       <c r="P54" s="36"/>
       <c r="Q54" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>20</v>
@@ -5789,22 +5793,22 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H55" s="2">
         <v>-79.965769100000003</v>
@@ -5813,14 +5817,14 @@
         <v>39.672765599999998</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="36"/>
       <c r="M55" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N55" s="36">
         <v>48</v>
@@ -5832,7 +5836,7 @@
         <v>30</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>20</v>
@@ -5849,10 +5853,10 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>60</v>
@@ -5864,7 +5868,7 @@
         <v>34</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H56" s="2">
         <v>-79.956739999999996</v>
@@ -5873,7 +5877,7 @@
         <v>39.660640000000001</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>11</v>
@@ -5882,7 +5886,7 @@
         <v>688</v>
       </c>
       <c r="M56" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N56" s="36">
         <v>8</v>
@@ -5890,7 +5894,7 @@
       <c r="O56" s="36"/>
       <c r="P56" s="36"/>
       <c r="Q56" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>20</v>
@@ -5901,13 +5905,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>60</v>
@@ -5919,7 +5923,7 @@
         <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H57" s="2">
         <v>-79.953202899999994</v>
@@ -5928,14 +5932,14 @@
         <v>39.633116399999999</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="36"/>
       <c r="M57" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N57" s="36">
         <v>48</v>
@@ -5947,7 +5951,7 @@
         <v>30</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>20</v>
@@ -5964,10 +5968,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>60</v>
@@ -5979,7 +5983,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H58" s="2">
         <v>-79.962211800000006</v>
@@ -5988,7 +5992,7 @@
         <v>39.6511596</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>11</v>
@@ -5997,7 +6001,7 @@
         <v>862</v>
       </c>
       <c r="M58" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N58" s="36">
         <v>48</v>
@@ -6009,7 +6013,7 @@
         <v>30</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>20</v>
@@ -6027,7 +6031,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>181</v>
@@ -6036,10 +6040,10 @@
         <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H59" s="2">
         <v>-79.127250000000004</v>
@@ -6048,7 +6052,7 @@
         <v>38.99091</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>55</v>
@@ -6057,7 +6061,7 @@
         <v>2700</v>
       </c>
       <c r="M59" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N59" s="37">
         <v>24</v>
@@ -6065,7 +6069,7 @@
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
       <c r="Q59" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>20</v>
@@ -6077,25 +6081,25 @@
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H60" s="2">
         <v>-79.956140000000005</v>
@@ -6104,7 +6108,7 @@
         <v>39.639200000000002</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>11</v>
@@ -6113,7 +6117,7 @@
         <v>474</v>
       </c>
       <c r="M60" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N60" s="36">
         <v>48</v>
@@ -6125,7 +6129,7 @@
         <v>30</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>20</v>
@@ -6134,30 +6138,30 @@
         <v>26505</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H61" s="2">
         <v>-79.985057699999999</v>
@@ -6166,14 +6170,14 @@
         <v>39.648165400000003</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="36"/>
       <c r="M61" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N61" s="36">
         <v>8</v>
@@ -6185,7 +6189,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>20</v>
@@ -6197,37 +6201,37 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N62" s="36">
         <v>12</v>
@@ -6239,7 +6243,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>20</v>
@@ -6251,37 +6255,37 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N63" s="36">
         <v>12</v>
@@ -6293,7 +6297,7 @@
         <v>30</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>20</v>
@@ -6305,37 +6309,37 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N64" s="36">
         <v>12</v>
@@ -6347,7 +6351,7 @@
         <v>30</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>20</v>
@@ -6362,10 +6366,10 @@
         <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D65" s="40" t="s">
         <v>181</v>
@@ -6374,10 +6378,10 @@
         <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H65" s="2">
         <v>-81.205110000000005</v>
@@ -6386,7 +6390,7 @@
         <v>39.391249999999999</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>56</v>
@@ -6395,7 +6399,7 @@
         <v>2892</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N65" s="37">
         <v>24</v>
@@ -6407,7 +6411,7 @@
         <v>20</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>20</v>
@@ -6422,10 +6426,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>60</v>
@@ -6437,7 +6441,7 @@
         <v>34</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H66" s="2">
         <v>-79.978250000000003</v>
@@ -6446,7 +6450,7 @@
         <v>39.671370000000003</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>11</v>
@@ -6455,7 +6459,7 @@
         <v>515</v>
       </c>
       <c r="M66" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N66" s="36">
         <v>8</v>
@@ -6463,7 +6467,7 @@
       <c r="O66" s="36"/>
       <c r="P66" s="36"/>
       <c r="Q66" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>20</v>
@@ -6478,10 +6482,10 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>60</v>
@@ -6493,7 +6497,7 @@
         <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H67" s="2">
         <v>-79.966336100000007</v>
@@ -6502,7 +6506,7 @@
         <v>39.649548899999999</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>11</v>
@@ -6511,7 +6515,7 @@
         <v>904</v>
       </c>
       <c r="M67" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N67" s="36">
         <v>48</v>
@@ -6523,7 +6527,7 @@
         <v>30</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R67" s="2" t="s">
         <v>20</v>
@@ -6540,10 +6544,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>60</v>
@@ -6555,7 +6559,7 @@
         <v>34</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H68" s="2">
         <v>-79.926150000000007</v>
@@ -6564,7 +6568,7 @@
         <v>39.687820000000002</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>11</v>
@@ -6573,7 +6577,7 @@
         <v>1310</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N68" s="36">
         <v>8</v>
@@ -6581,7 +6585,7 @@
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
       <c r="Q68" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>20</v>
@@ -6596,10 +6600,10 @@
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>60</v>
@@ -6611,7 +6615,7 @@
         <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H69" s="2">
         <v>-79.956755900000005</v>
@@ -6620,14 +6624,14 @@
         <v>39.640189999999997</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="36"/>
       <c r="M69" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N69" s="36">
         <v>48</v>
@@ -6639,7 +6643,7 @@
         <v>30</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>20</v>
@@ -6653,37 +6657,37 @@
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N70" s="36">
         <v>12</v>
@@ -6695,7 +6699,7 @@
         <v>30</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>20</v>
@@ -6710,10 +6714,10 @@
         <v>33</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>60</v>
@@ -6725,7 +6729,7 @@
         <v>19</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H71" s="2">
         <v>-79.925397000000004</v>
@@ -6734,14 +6738,14 @@
         <v>39.6565887</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L71" s="36"/>
       <c r="M71" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N71" s="36">
         <v>48</v>
@@ -6753,7 +6757,7 @@
         <v>30</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>20</v>
@@ -6771,7 +6775,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>181</v>
@@ -6780,10 +6784,10 @@
         <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H72" s="2">
         <v>-79.936940000000007</v>
@@ -6792,7 +6796,7 @@
         <v>39.022010000000002</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>123</v>
@@ -6801,7 +6805,7 @@
         <v>1974</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N72" s="37">
         <v>24</v>
@@ -6809,7 +6813,7 @@
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
       <c r="Q72" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R72" s="2" t="s">
         <v>20</v>
@@ -6825,7 +6829,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>181</v>
@@ -6834,10 +6838,10 @@
         <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H73" s="2">
         <v>-80.212010000000006</v>
@@ -6846,7 +6850,7 @@
         <v>39.72007</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>11</v>
@@ -6855,7 +6859,7 @@
         <v>400</v>
       </c>
       <c r="M73" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N73" s="37">
         <v>24</v>
@@ -6863,7 +6867,7 @@
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
       <c r="Q73" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>20</v>
@@ -6879,7 +6883,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>181</v>
@@ -6888,10 +6892,10 @@
         <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H74" s="2">
         <v>-80.258989999999997</v>
@@ -6900,7 +6904,7 @@
         <v>39.280479999999997</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>88</v>
@@ -6909,7 +6913,7 @@
         <v>6984</v>
       </c>
       <c r="M74" s="37" t="s">
-      